--- a/doc/LS_Overview.xlsx
+++ b/doc/LS_Overview.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="347">
   <si>
     <t>Vocab</t>
   </si>
@@ -2271,6 +2271,48 @@
   </si>
   <si>
     <t>url=AnyURL</t>
+  </si>
+  <si>
+    <t>/autocomplete/agent</t>
+  </si>
+  <si>
+    <t>/autocomplete/vocabulary</t>
+  </si>
+  <si>
+    <t>/autocomplete/label</t>
+  </si>
+  <si>
+    <r>
+      <t>/autocomplete/label/creator/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:creatorID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>/autocomplete/label/vocabulary/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:vocabID</t>
+    </r>
+  </si>
+  <si>
+    <t>suggestion json</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2766,58 +2808,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2829,6 +2853,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2838,32 +2895,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6411,13 +6462,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T182"/>
+  <dimension ref="A1:T188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D180" sqref="D180"/>
+      <selection pane="bottomRight" activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6521,35 +6572,35 @@
       <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="121" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="131" t="s">
         <v>93</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="105" t="s">
+      <c r="F5" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="117" t="s">
         <v>112</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="J5" s="111" t="s">
+      <c r="J5" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="111" t="s">
+      <c r="K5" s="136" t="s">
         <v>115</v>
       </c>
       <c r="L5" s="59" t="s">
@@ -6558,16 +6609,16 @@
       <c r="M5" s="65"/>
       <c r="N5" s="65"/>
       <c r="O5" s="65"/>
-      <c r="P5" s="130" t="s">
+      <c r="P5" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R5" s="105" t="s">
+      <c r="R5" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="S5" s="124" t="s">
+      <c r="S5" s="118" t="s">
         <v>114</v>
       </c>
       <c r="T5" s="20" t="s">
@@ -6575,257 +6626,257 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="110"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
       <c r="H6" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
       <c r="L6" s="59" t="s">
         <v>240</v>
       </c>
       <c r="M6" s="65"/>
       <c r="N6" s="65"/>
       <c r="O6" s="65"/>
-      <c r="P6" s="130"/>
+      <c r="P6" s="116"/>
       <c r="Q6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R6" s="105"/>
-      <c r="S6" s="125"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="119"/>
       <c r="T6" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="110"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="127" t="s">
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="132" t="s">
         <v>112</v>
       </c>
       <c r="M7" s="67"/>
       <c r="N7" s="67"/>
       <c r="O7" s="67"/>
-      <c r="P7" s="130"/>
+      <c r="P7" s="116"/>
       <c r="Q7" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="105"/>
-      <c r="S7" s="125"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="119"/>
       <c r="T7" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="110"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="128"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="133"/>
       <c r="M8" s="68"/>
       <c r="N8" s="68"/>
       <c r="O8" s="68"/>
-      <c r="P8" s="130"/>
+      <c r="P8" s="116"/>
       <c r="Q8" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="105"/>
-      <c r="S8" s="125"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="119"/>
       <c r="T8" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="110"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="128"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="133"/>
       <c r="M9" s="68"/>
       <c r="N9" s="68"/>
       <c r="O9" s="68"/>
-      <c r="P9" s="130"/>
+      <c r="P9" s="116"/>
       <c r="Q9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R9" s="105"/>
-      <c r="S9" s="125"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="119"/>
       <c r="T9" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="110"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="128"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="133"/>
       <c r="M10" s="68"/>
       <c r="N10" s="68"/>
       <c r="O10" s="68"/>
-      <c r="P10" s="130"/>
+      <c r="P10" s="116"/>
       <c r="Q10" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R10" s="105"/>
-      <c r="S10" s="125"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="119"/>
       <c r="T10" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="110"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="128"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="133"/>
       <c r="M11" s="68"/>
       <c r="N11" s="68"/>
       <c r="O11" s="68"/>
-      <c r="P11" s="130"/>
+      <c r="P11" s="116"/>
       <c r="Q11" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R11" s="105"/>
-      <c r="S11" s="125"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="119"/>
       <c r="T11" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="125"/>
       <c r="E12" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="129"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="134"/>
       <c r="M12" s="69"/>
       <c r="N12" s="69"/>
       <c r="O12" s="69"/>
-      <c r="P12" s="130"/>
+      <c r="P12" s="116"/>
       <c r="Q12" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R12" s="105"/>
-      <c r="S12" s="126"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="120"/>
       <c r="T12" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="110" t="s">
+      <c r="C13" s="117"/>
+      <c r="D13" s="125" t="s">
         <v>141</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="105" t="s">
+      <c r="F13" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="117" t="s">
         <v>112</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="J13" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="105" t="s">
+      <c r="I13" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="117" t="s">
         <v>112</v>
       </c>
       <c r="M13" s="64"/>
       <c r="N13" s="64"/>
       <c r="O13" s="64"/>
-      <c r="P13" s="130" t="s">
+      <c r="P13" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q13" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R13" s="105" t="s">
+      <c r="R13" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="S13" s="124" t="s">
+      <c r="S13" s="118" t="s">
         <v>114</v>
       </c>
       <c r="T13" s="20" t="s">
@@ -6833,201 +6884,201 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="110"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
       <c r="H14" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
       <c r="M14" s="64"/>
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
-      <c r="P14" s="130"/>
+      <c r="P14" s="116"/>
       <c r="Q14" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R14" s="105"/>
-      <c r="S14" s="125"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="119"/>
       <c r="T14" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="110"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
       <c r="M15" s="64"/>
       <c r="N15" s="64"/>
       <c r="O15" s="64"/>
-      <c r="P15" s="130"/>
+      <c r="P15" s="116"/>
       <c r="Q15" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="105"/>
-      <c r="S15" s="125"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="119"/>
       <c r="T15" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="110"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
       <c r="O16" s="64"/>
-      <c r="P16" s="130"/>
+      <c r="P16" s="116"/>
       <c r="Q16" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R16" s="105"/>
-      <c r="S16" s="125"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="119"/>
       <c r="T16" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="110"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
       <c r="M17" s="64"/>
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
-      <c r="P17" s="130"/>
+      <c r="P17" s="116"/>
       <c r="Q17" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R17" s="105"/>
-      <c r="S17" s="125"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="119"/>
       <c r="T17" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="110"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
       <c r="M18" s="64"/>
       <c r="N18" s="64"/>
       <c r="O18" s="64"/>
-      <c r="P18" s="130"/>
+      <c r="P18" s="116"/>
       <c r="Q18" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R18" s="105"/>
-      <c r="S18" s="125"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="119"/>
       <c r="T18" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="110"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
       <c r="M19" s="64"/>
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
-      <c r="P19" s="130"/>
+      <c r="P19" s="116"/>
       <c r="Q19" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R19" s="105"/>
-      <c r="S19" s="125"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="119"/>
       <c r="T19" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="110"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="125"/>
       <c r="E20" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
       <c r="M20" s="64"/>
       <c r="N20" s="64"/>
       <c r="O20" s="64"/>
-      <c r="P20" s="130"/>
+      <c r="P20" s="116"/>
       <c r="Q20" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R20" s="105"/>
-      <c r="S20" s="126"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="120"/>
       <c r="T20" s="20" t="s">
         <v>94</v>
       </c>
@@ -7577,16 +7628,16 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="114" t="s">
+      <c r="A31" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="130" t="s">
         <v>303</v>
       </c>
       <c r="E31" s="19" t="s">
@@ -7633,10 +7684,10 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="115"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="121"/>
+      <c r="A32" s="129"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="131"/>
       <c r="E32" s="48" t="s">
         <v>112</v>
       </c>
@@ -7742,53 +7793,53 @@
       <c r="O34" s="47"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="131" t="s">
+      <c r="B35" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="110" t="s">
+      <c r="C35" s="117"/>
+      <c r="D35" s="125" t="s">
         <v>146</v>
       </c>
       <c r="E35" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="105" t="s">
+      <c r="F35" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="117" t="s">
         <v>112</v>
       </c>
       <c r="H35" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I35" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="J35" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="K35" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="L35" s="105" t="s">
+      <c r="I35" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="K35" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="L35" s="117" t="s">
         <v>112</v>
       </c>
       <c r="M35" s="64"/>
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
-      <c r="P35" s="130" t="s">
+      <c r="P35" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q35" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R35" s="105" t="s">
+      <c r="R35" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="S35" s="124" t="s">
+      <c r="S35" s="118" t="s">
         <v>114</v>
       </c>
       <c r="T35" s="20" t="s">
@@ -7796,253 +7847,253 @@
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="110"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="125"/>
       <c r="E36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
       <c r="H36" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
       <c r="M36" s="64"/>
       <c r="N36" s="64"/>
       <c r="O36" s="64"/>
-      <c r="P36" s="130"/>
+      <c r="P36" s="116"/>
       <c r="Q36" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R36" s="105"/>
-      <c r="S36" s="125"/>
+      <c r="R36" s="117"/>
+      <c r="S36" s="119"/>
       <c r="T36" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
-      <c r="B37" s="131"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="110"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="139"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="125"/>
       <c r="E37" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
       <c r="M37" s="64"/>
       <c r="N37" s="64"/>
       <c r="O37" s="64"/>
-      <c r="P37" s="130"/>
+      <c r="P37" s="116"/>
       <c r="Q37" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R37" s="105"/>
-      <c r="S37" s="125"/>
+      <c r="R37" s="117"/>
+      <c r="S37" s="119"/>
       <c r="T37" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="110"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="139"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="125"/>
       <c r="E38" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
       <c r="M38" s="64"/>
       <c r="N38" s="64"/>
       <c r="O38" s="64"/>
-      <c r="P38" s="130"/>
+      <c r="P38" s="116"/>
       <c r="Q38" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R38" s="105"/>
-      <c r="S38" s="125"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="119"/>
       <c r="T38" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="110"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="125"/>
       <c r="E39" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
       <c r="M39" s="64"/>
       <c r="N39" s="64"/>
       <c r="O39" s="64"/>
-      <c r="P39" s="130"/>
+      <c r="P39" s="116"/>
       <c r="Q39" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R39" s="105"/>
-      <c r="S39" s="125"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="119"/>
       <c r="T39" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="110"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="125"/>
       <c r="E40" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
       <c r="M40" s="64"/>
       <c r="N40" s="64"/>
       <c r="O40" s="64"/>
-      <c r="P40" s="130"/>
+      <c r="P40" s="116"/>
       <c r="Q40" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R40" s="105"/>
-      <c r="S40" s="125"/>
+      <c r="R40" s="117"/>
+      <c r="S40" s="119"/>
       <c r="T40" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="110"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="125"/>
       <c r="E41" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
       <c r="M41" s="64"/>
       <c r="N41" s="64"/>
       <c r="O41" s="64"/>
-      <c r="P41" s="130"/>
+      <c r="P41" s="116"/>
       <c r="Q41" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R41" s="105"/>
-      <c r="S41" s="125"/>
+      <c r="R41" s="117"/>
+      <c r="S41" s="119"/>
       <c r="T41" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="110"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="125"/>
       <c r="E42" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
       <c r="M42" s="64"/>
       <c r="N42" s="64"/>
       <c r="O42" s="64"/>
-      <c r="P42" s="130"/>
+      <c r="P42" s="116"/>
       <c r="Q42" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R42" s="105"/>
-      <c r="S42" s="126"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="120"/>
       <c r="T42" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="110" t="s">
+      <c r="C43" s="117"/>
+      <c r="D43" s="125" t="s">
         <v>147</v>
       </c>
       <c r="E43" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="105" t="s">
+      <c r="F43" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="117" t="s">
         <v>112</v>
       </c>
       <c r="H43" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I43" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="J43" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="K43" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="L43" s="105" t="s">
+      <c r="I43" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="J43" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="K43" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="L43" s="117" t="s">
         <v>112</v>
       </c>
       <c r="M43" s="64"/>
       <c r="N43" s="64"/>
       <c r="O43" s="64"/>
-      <c r="P43" s="130" t="s">
+      <c r="P43" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q43" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R43" s="105" t="s">
+      <c r="R43" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="S43" s="124" t="s">
+      <c r="S43" s="118" t="s">
         <v>114</v>
       </c>
       <c r="T43" s="20" t="s">
@@ -8050,201 +8101,201 @@
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
-      <c r="B44" s="131"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="110"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="125"/>
       <c r="E44" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
       <c r="H44" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="117"/>
       <c r="M44" s="64"/>
       <c r="N44" s="64"/>
       <c r="O44" s="64"/>
-      <c r="P44" s="130"/>
+      <c r="P44" s="116"/>
       <c r="Q44" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R44" s="105"/>
-      <c r="S44" s="125"/>
+      <c r="R44" s="117"/>
+      <c r="S44" s="119"/>
       <c r="T44" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="106"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="110"/>
+      <c r="A45" s="121"/>
+      <c r="B45" s="139"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="125"/>
       <c r="E45" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
       <c r="M45" s="64"/>
       <c r="N45" s="64"/>
       <c r="O45" s="64"/>
-      <c r="P45" s="130"/>
+      <c r="P45" s="116"/>
       <c r="Q45" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R45" s="105"/>
-      <c r="S45" s="125"/>
+      <c r="R45" s="117"/>
+      <c r="S45" s="119"/>
       <c r="T45" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="110"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="139"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="125"/>
       <c r="E46" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
       <c r="M46" s="64"/>
       <c r="N46" s="64"/>
       <c r="O46" s="64"/>
-      <c r="P46" s="130"/>
+      <c r="P46" s="116"/>
       <c r="Q46" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R46" s="105"/>
-      <c r="S46" s="125"/>
+      <c r="R46" s="117"/>
+      <c r="S46" s="119"/>
       <c r="T46" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="106"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="110"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="125"/>
       <c r="E47" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="117"/>
       <c r="M47" s="64"/>
       <c r="N47" s="64"/>
       <c r="O47" s="64"/>
-      <c r="P47" s="130"/>
+      <c r="P47" s="116"/>
       <c r="Q47" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R47" s="105"/>
-      <c r="S47" s="125"/>
+      <c r="R47" s="117"/>
+      <c r="S47" s="119"/>
       <c r="T47" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="106"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="110"/>
+      <c r="A48" s="121"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="125"/>
       <c r="E48" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
       <c r="M48" s="64"/>
       <c r="N48" s="64"/>
       <c r="O48" s="64"/>
-      <c r="P48" s="130"/>
+      <c r="P48" s="116"/>
       <c r="Q48" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R48" s="105"/>
-      <c r="S48" s="125"/>
+      <c r="R48" s="117"/>
+      <c r="S48" s="119"/>
       <c r="T48" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="110"/>
+      <c r="A49" s="121"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="125"/>
       <c r="E49" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="117"/>
       <c r="M49" s="64"/>
       <c r="N49" s="64"/>
       <c r="O49" s="64"/>
-      <c r="P49" s="130"/>
+      <c r="P49" s="116"/>
       <c r="Q49" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R49" s="105"/>
-      <c r="S49" s="125"/>
+      <c r="R49" s="117"/>
+      <c r="S49" s="119"/>
       <c r="T49" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="106"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="110"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="125"/>
       <c r="E50" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="117"/>
+      <c r="K50" s="117"/>
+      <c r="L50" s="117"/>
       <c r="M50" s="64"/>
       <c r="N50" s="64"/>
       <c r="O50" s="64"/>
-      <c r="P50" s="130"/>
+      <c r="P50" s="116"/>
       <c r="Q50" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R50" s="105"/>
-      <c r="S50" s="126"/>
+      <c r="R50" s="117"/>
+      <c r="S50" s="120"/>
       <c r="T50" s="20" t="s">
         <v>94</v>
       </c>
@@ -8689,53 +8740,53 @@
       <c r="O59" s="47"/>
     </row>
     <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="107" t="s">
+      <c r="B60" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C60" s="105"/>
-      <c r="D60" s="110" t="s">
+      <c r="C60" s="117"/>
+      <c r="D60" s="125" t="s">
         <v>164</v>
       </c>
       <c r="E60" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F60" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="105" t="s">
+      <c r="F60" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" s="117" t="s">
         <v>112</v>
       </c>
       <c r="H60" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I60" s="111" t="s">
+      <c r="I60" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="J60" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="K60" s="113" t="s">
-        <v>112</v>
-      </c>
-      <c r="L60" s="105" t="s">
+      <c r="J60" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="K60" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="L60" s="117" t="s">
         <v>112</v>
       </c>
       <c r="M60" s="64"/>
       <c r="N60" s="64"/>
       <c r="O60" s="64"/>
-      <c r="P60" s="130" t="s">
+      <c r="P60" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q60" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R60" s="105" t="s">
+      <c r="R60" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="S60" s="124" t="s">
+      <c r="S60" s="118" t="s">
         <v>114</v>
       </c>
       <c r="T60" s="20" t="s">
@@ -8743,253 +8794,253 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="106"/>
-      <c r="B61" s="108"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="110"/>
+      <c r="A61" s="121"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="125"/>
       <c r="E61" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
       <c r="H61" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I61" s="112"/>
-      <c r="J61" s="105"/>
-      <c r="K61" s="105"/>
-      <c r="L61" s="105"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="117"/>
       <c r="M61" s="64"/>
       <c r="N61" s="64"/>
       <c r="O61" s="64"/>
-      <c r="P61" s="130"/>
+      <c r="P61" s="116"/>
       <c r="Q61" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R61" s="105"/>
-      <c r="S61" s="125"/>
+      <c r="R61" s="117"/>
+      <c r="S61" s="119"/>
       <c r="T61" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="106"/>
-      <c r="B62" s="108"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="110"/>
+      <c r="A62" s="121"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="125"/>
       <c r="E62" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="105"/>
-      <c r="G62" s="105"/>
-      <c r="H62" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="I62" s="112"/>
-      <c r="J62" s="105"/>
-      <c r="K62" s="105"/>
-      <c r="L62" s="105"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="I62" s="137"/>
+      <c r="J62" s="117"/>
+      <c r="K62" s="117"/>
+      <c r="L62" s="117"/>
       <c r="M62" s="64"/>
       <c r="N62" s="64"/>
       <c r="O62" s="64"/>
-      <c r="P62" s="130"/>
+      <c r="P62" s="116"/>
       <c r="Q62" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R62" s="105"/>
-      <c r="S62" s="125"/>
+      <c r="R62" s="117"/>
+      <c r="S62" s="119"/>
       <c r="T62" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="106"/>
-      <c r="B63" s="108"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="110"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="125"/>
       <c r="E63" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="128"/>
-      <c r="I63" s="112"/>
-      <c r="J63" s="105"/>
-      <c r="K63" s="105"/>
-      <c r="L63" s="105"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="133"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="117"/>
+      <c r="L63" s="117"/>
       <c r="M63" s="64"/>
       <c r="N63" s="64"/>
       <c r="O63" s="64"/>
-      <c r="P63" s="130"/>
+      <c r="P63" s="116"/>
       <c r="Q63" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R63" s="105"/>
-      <c r="S63" s="125"/>
+      <c r="R63" s="117"/>
+      <c r="S63" s="119"/>
       <c r="T63" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="106"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="110"/>
+      <c r="A64" s="121"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="125"/>
       <c r="E64" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="128"/>
-      <c r="I64" s="112"/>
-      <c r="J64" s="105"/>
-      <c r="K64" s="105"/>
-      <c r="L64" s="105"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="117"/>
+      <c r="K64" s="117"/>
+      <c r="L64" s="117"/>
       <c r="M64" s="64"/>
       <c r="N64" s="64"/>
       <c r="O64" s="64"/>
-      <c r="P64" s="130"/>
+      <c r="P64" s="116"/>
       <c r="Q64" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R64" s="105"/>
-      <c r="S64" s="125"/>
+      <c r="R64" s="117"/>
+      <c r="S64" s="119"/>
       <c r="T64" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="110"/>
+      <c r="A65" s="121"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="125"/>
       <c r="E65" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="128"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="105"/>
-      <c r="K65" s="105"/>
-      <c r="L65" s="105"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="137"/>
+      <c r="J65" s="117"/>
+      <c r="K65" s="117"/>
+      <c r="L65" s="117"/>
       <c r="M65" s="64"/>
       <c r="N65" s="64"/>
       <c r="O65" s="64"/>
-      <c r="P65" s="130"/>
+      <c r="P65" s="116"/>
       <c r="Q65" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R65" s="105"/>
-      <c r="S65" s="125"/>
+      <c r="R65" s="117"/>
+      <c r="S65" s="119"/>
       <c r="T65" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
-      <c r="B66" s="108"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="110"/>
+      <c r="A66" s="121"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="125"/>
       <c r="E66" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F66" s="105"/>
-      <c r="G66" s="105"/>
-      <c r="H66" s="128"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="105"/>
-      <c r="K66" s="105"/>
-      <c r="L66" s="105"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="117"/>
       <c r="M66" s="64"/>
       <c r="N66" s="64"/>
       <c r="O66" s="64"/>
-      <c r="P66" s="130"/>
+      <c r="P66" s="116"/>
       <c r="Q66" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R66" s="105"/>
-      <c r="S66" s="125"/>
+      <c r="R66" s="117"/>
+      <c r="S66" s="119"/>
       <c r="T66" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="106"/>
-      <c r="B67" s="109"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="110"/>
+      <c r="A67" s="121"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="125"/>
       <c r="E67" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="129"/>
-      <c r="I67" s="112"/>
-      <c r="J67" s="105"/>
-      <c r="K67" s="105"/>
-      <c r="L67" s="105"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="134"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="117"/>
+      <c r="K67" s="117"/>
+      <c r="L67" s="117"/>
       <c r="M67" s="64"/>
       <c r="N67" s="64"/>
       <c r="O67" s="64"/>
-      <c r="P67" s="130"/>
+      <c r="P67" s="116"/>
       <c r="Q67" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R67" s="105"/>
-      <c r="S67" s="126"/>
+      <c r="R67" s="117"/>
+      <c r="S67" s="120"/>
       <c r="T67" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="106" t="s">
+      <c r="A68" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="107" t="s">
+      <c r="B68" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="105"/>
-      <c r="D68" s="110" t="s">
+      <c r="C68" s="117"/>
+      <c r="D68" s="125" t="s">
         <v>165</v>
       </c>
       <c r="E68" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F68" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G68" s="105" t="s">
+      <c r="F68" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="117" t="s">
         <v>112</v>
       </c>
       <c r="H68" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I68" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="J68" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="K68" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="L68" s="105" t="s">
+      <c r="I68" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="J68" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="K68" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="L68" s="117" t="s">
         <v>112</v>
       </c>
       <c r="M68" s="64"/>
       <c r="N68" s="64"/>
       <c r="O68" s="64"/>
-      <c r="P68" s="130" t="s">
+      <c r="P68" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q68" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R68" s="105" t="s">
+      <c r="R68" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="S68" s="124" t="s">
+      <c r="S68" s="118" t="s">
         <v>114</v>
       </c>
       <c r="T68" s="20" t="s">
@@ -8997,201 +9048,201 @@
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
-      <c r="B69" s="108"/>
-      <c r="C69" s="105"/>
-      <c r="D69" s="110"/>
+      <c r="A69" s="121"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="125"/>
       <c r="E69" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
       <c r="H69" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I69" s="105"/>
-      <c r="J69" s="105"/>
-      <c r="K69" s="105"/>
-      <c r="L69" s="105"/>
+      <c r="I69" s="117"/>
+      <c r="J69" s="117"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="117"/>
       <c r="M69" s="64"/>
       <c r="N69" s="64"/>
       <c r="O69" s="64"/>
-      <c r="P69" s="130"/>
+      <c r="P69" s="116"/>
       <c r="Q69" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R69" s="105"/>
-      <c r="S69" s="125"/>
+      <c r="R69" s="117"/>
+      <c r="S69" s="119"/>
       <c r="T69" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
-      <c r="B70" s="108"/>
-      <c r="C70" s="105"/>
-      <c r="D70" s="110"/>
+      <c r="A70" s="121"/>
+      <c r="B70" s="127"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="125"/>
       <c r="E70" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="I70" s="105"/>
-      <c r="J70" s="105"/>
-      <c r="K70" s="105"/>
-      <c r="L70" s="105"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="I70" s="117"/>
+      <c r="J70" s="117"/>
+      <c r="K70" s="117"/>
+      <c r="L70" s="117"/>
       <c r="M70" s="64"/>
       <c r="N70" s="64"/>
       <c r="O70" s="64"/>
-      <c r="P70" s="130"/>
+      <c r="P70" s="116"/>
       <c r="Q70" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R70" s="105"/>
-      <c r="S70" s="125"/>
+      <c r="R70" s="117"/>
+      <c r="S70" s="119"/>
       <c r="T70" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="106"/>
-      <c r="B71" s="108"/>
-      <c r="C71" s="105"/>
-      <c r="D71" s="110"/>
+      <c r="A71" s="121"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="125"/>
       <c r="E71" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="128"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="105"/>
-      <c r="K71" s="105"/>
-      <c r="L71" s="105"/>
+      <c r="F71" s="117"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="117"/>
+      <c r="J71" s="117"/>
+      <c r="K71" s="117"/>
+      <c r="L71" s="117"/>
       <c r="M71" s="64"/>
       <c r="N71" s="64"/>
       <c r="O71" s="64"/>
-      <c r="P71" s="130"/>
+      <c r="P71" s="116"/>
       <c r="Q71" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R71" s="105"/>
-      <c r="S71" s="125"/>
+      <c r="R71" s="117"/>
+      <c r="S71" s="119"/>
       <c r="T71" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="106"/>
-      <c r="B72" s="108"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="110"/>
+      <c r="A72" s="121"/>
+      <c r="B72" s="127"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="125"/>
       <c r="E72" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F72" s="105"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="128"/>
-      <c r="I72" s="105"/>
-      <c r="J72" s="105"/>
-      <c r="K72" s="105"/>
-      <c r="L72" s="105"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="117"/>
+      <c r="J72" s="117"/>
+      <c r="K72" s="117"/>
+      <c r="L72" s="117"/>
       <c r="M72" s="64"/>
       <c r="N72" s="64"/>
       <c r="O72" s="64"/>
-      <c r="P72" s="130"/>
+      <c r="P72" s="116"/>
       <c r="Q72" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R72" s="105"/>
-      <c r="S72" s="125"/>
+      <c r="R72" s="117"/>
+      <c r="S72" s="119"/>
       <c r="T72" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
-      <c r="B73" s="108"/>
-      <c r="C73" s="105"/>
-      <c r="D73" s="110"/>
+      <c r="A73" s="121"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="125"/>
       <c r="E73" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F73" s="105"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="128"/>
-      <c r="I73" s="105"/>
-      <c r="J73" s="105"/>
-      <c r="K73" s="105"/>
-      <c r="L73" s="105"/>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="133"/>
+      <c r="I73" s="117"/>
+      <c r="J73" s="117"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="117"/>
       <c r="M73" s="64"/>
       <c r="N73" s="64"/>
       <c r="O73" s="64"/>
-      <c r="P73" s="130"/>
+      <c r="P73" s="116"/>
       <c r="Q73" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R73" s="105"/>
-      <c r="S73" s="125"/>
+      <c r="R73" s="117"/>
+      <c r="S73" s="119"/>
       <c r="T73" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
-      <c r="B74" s="108"/>
-      <c r="C74" s="105"/>
-      <c r="D74" s="110"/>
+      <c r="A74" s="121"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="117"/>
+      <c r="D74" s="125"/>
       <c r="E74" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F74" s="105"/>
-      <c r="G74" s="105"/>
-      <c r="H74" s="128"/>
-      <c r="I74" s="105"/>
-      <c r="J74" s="105"/>
-      <c r="K74" s="105"/>
-      <c r="L74" s="105"/>
+      <c r="F74" s="117"/>
+      <c r="G74" s="117"/>
+      <c r="H74" s="133"/>
+      <c r="I74" s="117"/>
+      <c r="J74" s="117"/>
+      <c r="K74" s="117"/>
+      <c r="L74" s="117"/>
       <c r="M74" s="64"/>
       <c r="N74" s="64"/>
       <c r="O74" s="64"/>
-      <c r="P74" s="130"/>
+      <c r="P74" s="116"/>
       <c r="Q74" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R74" s="105"/>
-      <c r="S74" s="125"/>
+      <c r="R74" s="117"/>
+      <c r="S74" s="119"/>
       <c r="T74" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="106"/>
-      <c r="B75" s="109"/>
-      <c r="C75" s="105"/>
-      <c r="D75" s="110"/>
+      <c r="A75" s="121"/>
+      <c r="B75" s="135"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="125"/>
       <c r="E75" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="129"/>
-      <c r="I75" s="105"/>
-      <c r="J75" s="105"/>
-      <c r="K75" s="105"/>
-      <c r="L75" s="105"/>
+      <c r="F75" s="117"/>
+      <c r="G75" s="117"/>
+      <c r="H75" s="134"/>
+      <c r="I75" s="117"/>
+      <c r="J75" s="117"/>
+      <c r="K75" s="117"/>
+      <c r="L75" s="117"/>
       <c r="M75" s="64"/>
       <c r="N75" s="64"/>
       <c r="O75" s="64"/>
-      <c r="P75" s="130"/>
+      <c r="P75" s="116"/>
       <c r="Q75" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R75" s="105"/>
-      <c r="S75" s="126"/>
+      <c r="R75" s="117"/>
+      <c r="S75" s="120"/>
       <c r="T75" s="20" t="s">
         <v>94</v>
       </c>
@@ -9683,14 +9734,14 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="114" t="s">
+      <c r="A85" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="B85" s="116" t="s">
+      <c r="B85" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="C85" s="122"/>
-      <c r="D85" s="120" t="s">
+      <c r="C85" s="110"/>
+      <c r="D85" s="130" t="s">
         <v>165</v>
       </c>
       <c r="E85" s="19" t="s">
@@ -9737,10 +9788,10 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="115"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="123"/>
-      <c r="D86" s="121"/>
+      <c r="A86" s="129"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="131"/>
       <c r="E86" s="48" t="s">
         <v>112</v>
       </c>
@@ -9844,35 +9895,35 @@
       <c r="O88" s="47"/>
     </row>
     <row r="89" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="106" t="s">
+      <c r="A89" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="107" t="s">
+      <c r="B89" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C89" s="105"/>
-      <c r="D89" s="110" t="s">
+      <c r="C89" s="117"/>
+      <c r="D89" s="125" t="s">
         <v>221</v>
       </c>
       <c r="E89" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F89" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G89" s="105" t="s">
+      <c r="F89" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="G89" s="117" t="s">
         <v>112</v>
       </c>
       <c r="H89" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I89" s="111" t="s">
+      <c r="I89" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="J89" s="111" t="s">
+      <c r="J89" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="K89" s="111" t="s">
+      <c r="K89" s="136" t="s">
         <v>115</v>
       </c>
       <c r="L89" s="59" t="s">
@@ -9881,16 +9932,16 @@
       <c r="M89" s="65"/>
       <c r="N89" s="65"/>
       <c r="O89" s="65"/>
-      <c r="P89" s="130" t="s">
+      <c r="P89" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q89" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R89" s="105" t="s">
+      <c r="R89" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="S89" s="124" t="s">
+      <c r="S89" s="118" t="s">
         <v>114</v>
       </c>
       <c r="T89" s="20" t="s">
@@ -9898,255 +9949,255 @@
       </c>
     </row>
     <row r="90" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="106"/>
-      <c r="B90" s="108"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="110"/>
+      <c r="A90" s="121"/>
+      <c r="B90" s="127"/>
+      <c r="C90" s="117"/>
+      <c r="D90" s="125"/>
       <c r="E90" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="117"/>
       <c r="H90" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I90" s="112"/>
-      <c r="J90" s="112"/>
-      <c r="K90" s="112"/>
+      <c r="I90" s="137"/>
+      <c r="J90" s="137"/>
+      <c r="K90" s="137"/>
       <c r="L90" s="59" t="s">
         <v>239</v>
       </c>
       <c r="M90" s="65"/>
       <c r="N90" s="65"/>
       <c r="O90" s="65"/>
-      <c r="P90" s="130"/>
+      <c r="P90" s="116"/>
       <c r="Q90" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R90" s="105"/>
-      <c r="S90" s="125"/>
+      <c r="R90" s="117"/>
+      <c r="S90" s="119"/>
       <c r="T90" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
-      <c r="B91" s="108"/>
-      <c r="C91" s="105"/>
-      <c r="D91" s="110"/>
+      <c r="A91" s="121"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="125"/>
       <c r="E91" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F91" s="105"/>
-      <c r="G91" s="105"/>
-      <c r="H91" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="I91" s="112"/>
-      <c r="J91" s="112"/>
-      <c r="K91" s="112"/>
+      <c r="F91" s="117"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="I91" s="137"/>
+      <c r="J91" s="137"/>
+      <c r="K91" s="137"/>
       <c r="L91" s="60"/>
       <c r="M91" s="66"/>
       <c r="N91" s="66"/>
       <c r="O91" s="66"/>
-      <c r="P91" s="130"/>
+      <c r="P91" s="116"/>
       <c r="Q91" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R91" s="105"/>
-      <c r="S91" s="125"/>
+      <c r="R91" s="117"/>
+      <c r="S91" s="119"/>
       <c r="T91" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="106"/>
-      <c r="B92" s="108"/>
-      <c r="C92" s="105"/>
-      <c r="D92" s="110"/>
+      <c r="A92" s="121"/>
+      <c r="B92" s="127"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="125"/>
       <c r="E92" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F92" s="105"/>
-      <c r="G92" s="105"/>
-      <c r="H92" s="128"/>
-      <c r="I92" s="112"/>
-      <c r="J92" s="112"/>
-      <c r="K92" s="112"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="117"/>
+      <c r="H92" s="133"/>
+      <c r="I92" s="137"/>
+      <c r="J92" s="137"/>
+      <c r="K92" s="137"/>
       <c r="L92" s="60"/>
       <c r="M92" s="66"/>
       <c r="N92" s="66"/>
       <c r="O92" s="66"/>
-      <c r="P92" s="130"/>
+      <c r="P92" s="116"/>
       <c r="Q92" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R92" s="105"/>
-      <c r="S92" s="125"/>
+      <c r="R92" s="117"/>
+      <c r="S92" s="119"/>
       <c r="T92" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="106"/>
-      <c r="B93" s="108"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="110"/>
+      <c r="A93" s="121"/>
+      <c r="B93" s="127"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="125"/>
       <c r="E93" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="128"/>
-      <c r="I93" s="112"/>
-      <c r="J93" s="112"/>
-      <c r="K93" s="112"/>
+      <c r="F93" s="117"/>
+      <c r="G93" s="117"/>
+      <c r="H93" s="133"/>
+      <c r="I93" s="137"/>
+      <c r="J93" s="137"/>
+      <c r="K93" s="137"/>
       <c r="L93" s="59"/>
       <c r="M93" s="65"/>
       <c r="N93" s="65"/>
       <c r="O93" s="65"/>
-      <c r="P93" s="130"/>
+      <c r="P93" s="116"/>
       <c r="Q93" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R93" s="105"/>
-      <c r="S93" s="125"/>
+      <c r="R93" s="117"/>
+      <c r="S93" s="119"/>
       <c r="T93" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="106"/>
-      <c r="B94" s="108"/>
-      <c r="C94" s="105"/>
-      <c r="D94" s="110"/>
+      <c r="A94" s="121"/>
+      <c r="B94" s="127"/>
+      <c r="C94" s="117"/>
+      <c r="D94" s="125"/>
       <c r="E94" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="105"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="128"/>
-      <c r="I94" s="112"/>
-      <c r="J94" s="112"/>
-      <c r="K94" s="112"/>
+      <c r="F94" s="117"/>
+      <c r="G94" s="117"/>
+      <c r="H94" s="133"/>
+      <c r="I94" s="137"/>
+      <c r="J94" s="137"/>
+      <c r="K94" s="137"/>
       <c r="L94" s="60"/>
       <c r="M94" s="66"/>
       <c r="N94" s="66"/>
       <c r="O94" s="66"/>
-      <c r="P94" s="130"/>
+      <c r="P94" s="116"/>
       <c r="Q94" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R94" s="105"/>
-      <c r="S94" s="125"/>
+      <c r="R94" s="117"/>
+      <c r="S94" s="119"/>
       <c r="T94" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="106"/>
-      <c r="B95" s="108"/>
-      <c r="C95" s="105"/>
-      <c r="D95" s="110"/>
+      <c r="A95" s="121"/>
+      <c r="B95" s="127"/>
+      <c r="C95" s="117"/>
+      <c r="D95" s="125"/>
       <c r="E95" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F95" s="105"/>
-      <c r="G95" s="105"/>
-      <c r="H95" s="128"/>
-      <c r="I95" s="112"/>
-      <c r="J95" s="112"/>
-      <c r="K95" s="112"/>
+      <c r="F95" s="117"/>
+      <c r="G95" s="117"/>
+      <c r="H95" s="133"/>
+      <c r="I95" s="137"/>
+      <c r="J95" s="137"/>
+      <c r="K95" s="137"/>
       <c r="L95" s="60"/>
       <c r="M95" s="66"/>
       <c r="N95" s="66"/>
       <c r="O95" s="66"/>
-      <c r="P95" s="130"/>
+      <c r="P95" s="116"/>
       <c r="Q95" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R95" s="105"/>
-      <c r="S95" s="125"/>
+      <c r="R95" s="117"/>
+      <c r="S95" s="119"/>
       <c r="T95" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="106"/>
-      <c r="B96" s="109"/>
-      <c r="C96" s="105"/>
-      <c r="D96" s="110"/>
+      <c r="A96" s="121"/>
+      <c r="B96" s="135"/>
+      <c r="C96" s="117"/>
+      <c r="D96" s="125"/>
       <c r="E96" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F96" s="105"/>
-      <c r="G96" s="105"/>
-      <c r="H96" s="129"/>
-      <c r="I96" s="112"/>
-      <c r="J96" s="112"/>
-      <c r="K96" s="112"/>
+      <c r="F96" s="117"/>
+      <c r="G96" s="117"/>
+      <c r="H96" s="134"/>
+      <c r="I96" s="137"/>
+      <c r="J96" s="137"/>
+      <c r="K96" s="137"/>
       <c r="L96" s="60"/>
       <c r="M96" s="66"/>
       <c r="N96" s="66"/>
       <c r="O96" s="66"/>
-      <c r="P96" s="130"/>
+      <c r="P96" s="116"/>
       <c r="Q96" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R96" s="105"/>
-      <c r="S96" s="126"/>
+      <c r="R96" s="117"/>
+      <c r="S96" s="120"/>
       <c r="T96" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" s="106" t="s">
+      <c r="A97" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B97" s="107" t="s">
+      <c r="B97" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C97" s="105"/>
-      <c r="D97" s="110" t="s">
+      <c r="C97" s="117"/>
+      <c r="D97" s="125" t="s">
         <v>227</v>
       </c>
       <c r="E97" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F97" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" s="105" t="s">
+      <c r="F97" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="G97" s="117" t="s">
         <v>112</v>
       </c>
       <c r="H97" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I97" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="J97" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="K97" s="105" t="s">
-        <v>112</v>
-      </c>
-      <c r="L97" s="105" t="s">
+      <c r="I97" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="J97" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="K97" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="L97" s="117" t="s">
         <v>112</v>
       </c>
       <c r="M97" s="64"/>
       <c r="N97" s="64"/>
       <c r="O97" s="64"/>
-      <c r="P97" s="130" t="s">
+      <c r="P97" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q97" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R97" s="105" t="s">
+      <c r="R97" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="S97" s="124" t="s">
+      <c r="S97" s="118" t="s">
         <v>114</v>
       </c>
       <c r="T97" s="20" t="s">
@@ -10154,201 +10205,201 @@
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A98" s="106"/>
-      <c r="B98" s="108"/>
-      <c r="C98" s="105"/>
-      <c r="D98" s="110"/>
+      <c r="A98" s="121"/>
+      <c r="B98" s="127"/>
+      <c r="C98" s="117"/>
+      <c r="D98" s="125"/>
       <c r="E98" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F98" s="105"/>
-      <c r="G98" s="105"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="117"/>
       <c r="H98" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="I98" s="105"/>
-      <c r="J98" s="105"/>
-      <c r="K98" s="105"/>
-      <c r="L98" s="105"/>
+      <c r="I98" s="117"/>
+      <c r="J98" s="117"/>
+      <c r="K98" s="117"/>
+      <c r="L98" s="117"/>
       <c r="M98" s="64"/>
       <c r="N98" s="64"/>
       <c r="O98" s="64"/>
-      <c r="P98" s="130"/>
+      <c r="P98" s="116"/>
       <c r="Q98" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R98" s="105"/>
-      <c r="S98" s="125"/>
+      <c r="R98" s="117"/>
+      <c r="S98" s="119"/>
       <c r="T98" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A99" s="106"/>
-      <c r="B99" s="108"/>
-      <c r="C99" s="105"/>
-      <c r="D99" s="110"/>
+      <c r="A99" s="121"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="117"/>
+      <c r="D99" s="125"/>
       <c r="E99" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F99" s="105"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="127" t="s">
-        <v>112</v>
-      </c>
-      <c r="I99" s="105"/>
-      <c r="J99" s="105"/>
-      <c r="K99" s="105"/>
-      <c r="L99" s="105"/>
+      <c r="F99" s="117"/>
+      <c r="G99" s="117"/>
+      <c r="H99" s="132" t="s">
+        <v>112</v>
+      </c>
+      <c r="I99" s="117"/>
+      <c r="J99" s="117"/>
+      <c r="K99" s="117"/>
+      <c r="L99" s="117"/>
       <c r="M99" s="64"/>
       <c r="N99" s="64"/>
       <c r="O99" s="64"/>
-      <c r="P99" s="130"/>
+      <c r="P99" s="116"/>
       <c r="Q99" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R99" s="105"/>
-      <c r="S99" s="125"/>
+      <c r="R99" s="117"/>
+      <c r="S99" s="119"/>
       <c r="T99" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="106"/>
-      <c r="B100" s="108"/>
-      <c r="C100" s="105"/>
-      <c r="D100" s="110"/>
+      <c r="A100" s="121"/>
+      <c r="B100" s="127"/>
+      <c r="C100" s="117"/>
+      <c r="D100" s="125"/>
       <c r="E100" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F100" s="105"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="128"/>
-      <c r="I100" s="105"/>
-      <c r="J100" s="105"/>
-      <c r="K100" s="105"/>
-      <c r="L100" s="105"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="133"/>
+      <c r="I100" s="117"/>
+      <c r="J100" s="117"/>
+      <c r="K100" s="117"/>
+      <c r="L100" s="117"/>
       <c r="M100" s="64"/>
       <c r="N100" s="64"/>
       <c r="O100" s="64"/>
-      <c r="P100" s="130"/>
+      <c r="P100" s="116"/>
       <c r="Q100" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R100" s="105"/>
-      <c r="S100" s="125"/>
+      <c r="R100" s="117"/>
+      <c r="S100" s="119"/>
       <c r="T100" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="106"/>
-      <c r="B101" s="108"/>
-      <c r="C101" s="105"/>
-      <c r="D101" s="110"/>
+      <c r="A101" s="121"/>
+      <c r="B101" s="127"/>
+      <c r="C101" s="117"/>
+      <c r="D101" s="125"/>
       <c r="E101" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F101" s="105"/>
-      <c r="G101" s="105"/>
-      <c r="H101" s="128"/>
-      <c r="I101" s="105"/>
-      <c r="J101" s="105"/>
-      <c r="K101" s="105"/>
-      <c r="L101" s="105"/>
+      <c r="F101" s="117"/>
+      <c r="G101" s="117"/>
+      <c r="H101" s="133"/>
+      <c r="I101" s="117"/>
+      <c r="J101" s="117"/>
+      <c r="K101" s="117"/>
+      <c r="L101" s="117"/>
       <c r="M101" s="64"/>
       <c r="N101" s="64"/>
       <c r="O101" s="64"/>
-      <c r="P101" s="130"/>
+      <c r="P101" s="116"/>
       <c r="Q101" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R101" s="105"/>
-      <c r="S101" s="125"/>
+      <c r="R101" s="117"/>
+      <c r="S101" s="119"/>
       <c r="T101" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A102" s="106"/>
-      <c r="B102" s="108"/>
-      <c r="C102" s="105"/>
-      <c r="D102" s="110"/>
+      <c r="A102" s="121"/>
+      <c r="B102" s="127"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="125"/>
       <c r="E102" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F102" s="105"/>
-      <c r="G102" s="105"/>
-      <c r="H102" s="128"/>
-      <c r="I102" s="105"/>
-      <c r="J102" s="105"/>
-      <c r="K102" s="105"/>
-      <c r="L102" s="105"/>
+      <c r="F102" s="117"/>
+      <c r="G102" s="117"/>
+      <c r="H102" s="133"/>
+      <c r="I102" s="117"/>
+      <c r="J102" s="117"/>
+      <c r="K102" s="117"/>
+      <c r="L102" s="117"/>
       <c r="M102" s="64"/>
       <c r="N102" s="64"/>
       <c r="O102" s="64"/>
-      <c r="P102" s="130"/>
+      <c r="P102" s="116"/>
       <c r="Q102" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R102" s="105"/>
-      <c r="S102" s="125"/>
+      <c r="R102" s="117"/>
+      <c r="S102" s="119"/>
       <c r="T102" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A103" s="106"/>
-      <c r="B103" s="108"/>
-      <c r="C103" s="105"/>
-      <c r="D103" s="110"/>
+      <c r="A103" s="121"/>
+      <c r="B103" s="127"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="125"/>
       <c r="E103" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="128"/>
-      <c r="I103" s="105"/>
-      <c r="J103" s="105"/>
-      <c r="K103" s="105"/>
-      <c r="L103" s="105"/>
+      <c r="F103" s="117"/>
+      <c r="G103" s="117"/>
+      <c r="H103" s="133"/>
+      <c r="I103" s="117"/>
+      <c r="J103" s="117"/>
+      <c r="K103" s="117"/>
+      <c r="L103" s="117"/>
       <c r="M103" s="64"/>
       <c r="N103" s="64"/>
       <c r="O103" s="64"/>
-      <c r="P103" s="130"/>
+      <c r="P103" s="116"/>
       <c r="Q103" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R103" s="105"/>
-      <c r="S103" s="125"/>
+      <c r="R103" s="117"/>
+      <c r="S103" s="119"/>
       <c r="T103" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A104" s="106"/>
-      <c r="B104" s="109"/>
-      <c r="C104" s="105"/>
-      <c r="D104" s="110"/>
+      <c r="A104" s="121"/>
+      <c r="B104" s="135"/>
+      <c r="C104" s="117"/>
+      <c r="D104" s="125"/>
       <c r="E104" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F104" s="105"/>
-      <c r="G104" s="105"/>
-      <c r="H104" s="129"/>
-      <c r="I104" s="105"/>
-      <c r="J104" s="105"/>
-      <c r="K104" s="105"/>
-      <c r="L104" s="105"/>
+      <c r="F104" s="117"/>
+      <c r="G104" s="117"/>
+      <c r="H104" s="134"/>
+      <c r="I104" s="117"/>
+      <c r="J104" s="117"/>
+      <c r="K104" s="117"/>
+      <c r="L104" s="117"/>
       <c r="M104" s="64"/>
       <c r="N104" s="64"/>
       <c r="O104" s="64"/>
-      <c r="P104" s="130"/>
+      <c r="P104" s="116"/>
       <c r="Q104" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R104" s="105"/>
-      <c r="S104" s="126"/>
+      <c r="R104" s="117"/>
+      <c r="S104" s="120"/>
       <c r="T104" s="20" t="s">
         <v>94</v>
       </c>
@@ -10844,16 +10895,16 @@
       </c>
     </row>
     <row r="114" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="114" t="s">
+      <c r="A114" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="116" t="s">
+      <c r="B114" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="C114" s="118" t="s">
+      <c r="C114" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="D114" s="120" t="s">
+      <c r="D114" s="130" t="s">
         <v>331</v>
       </c>
       <c r="E114" s="48" t="s">
@@ -10900,10 +10951,10 @@
       </c>
     </row>
     <row r="115" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="115"/>
-      <c r="B115" s="117"/>
-      <c r="C115" s="119"/>
-      <c r="D115" s="121"/>
+      <c r="A115" s="129"/>
+      <c r="B115" s="124"/>
+      <c r="C115" s="141"/>
+      <c r="D115" s="131"/>
       <c r="E115" s="48" t="s">
         <v>112</v>
       </c>
@@ -11009,43 +11060,43 @@
       <c r="O117" s="47"/>
     </row>
     <row r="118" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="106" t="s">
+      <c r="A118" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B118" s="107" t="s">
+      <c r="B118" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C118" s="105"/>
-      <c r="D118" s="110" t="s">
+      <c r="C118" s="117"/>
+      <c r="D118" s="125" t="s">
         <v>259</v>
       </c>
       <c r="E118" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F118" s="105"/>
-      <c r="G118" s="105"/>
+      <c r="F118" s="117"/>
+      <c r="G118" s="117"/>
       <c r="H118" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="I118" s="111" t="s">
+      <c r="I118" s="136" t="s">
         <v>268</v>
       </c>
-      <c r="J118" s="113"/>
-      <c r="K118" s="113"/>
-      <c r="L118" s="105"/>
-      <c r="M118" s="105"/>
-      <c r="N118" s="105"/>
-      <c r="O118" s="105"/>
-      <c r="P118" s="130" t="s">
+      <c r="J118" s="138"/>
+      <c r="K118" s="138"/>
+      <c r="L118" s="117"/>
+      <c r="M118" s="117"/>
+      <c r="N118" s="117"/>
+      <c r="O118" s="117"/>
+      <c r="P118" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q118" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R118" s="105" t="s">
+      <c r="R118" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="S118" s="124" t="s">
+      <c r="S118" s="118" t="s">
         <v>114</v>
       </c>
       <c r="T118" s="20" t="s">
@@ -11053,239 +11104,239 @@
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="106"/>
-      <c r="B119" s="108"/>
-      <c r="C119" s="105"/>
-      <c r="D119" s="110"/>
+      <c r="A119" s="121"/>
+      <c r="B119" s="127"/>
+      <c r="C119" s="117"/>
+      <c r="D119" s="125"/>
       <c r="E119" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F119" s="105"/>
-      <c r="G119" s="105"/>
+      <c r="F119" s="117"/>
+      <c r="G119" s="117"/>
       <c r="H119" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="I119" s="112"/>
-      <c r="J119" s="105"/>
-      <c r="K119" s="105"/>
-      <c r="L119" s="105"/>
-      <c r="M119" s="105"/>
-      <c r="N119" s="105"/>
-      <c r="O119" s="105"/>
-      <c r="P119" s="130"/>
+      <c r="I119" s="137"/>
+      <c r="J119" s="117"/>
+      <c r="K119" s="117"/>
+      <c r="L119" s="117"/>
+      <c r="M119" s="117"/>
+      <c r="N119" s="117"/>
+      <c r="O119" s="117"/>
+      <c r="P119" s="116"/>
       <c r="Q119" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R119" s="105"/>
-      <c r="S119" s="125"/>
+      <c r="R119" s="117"/>
+      <c r="S119" s="119"/>
       <c r="T119" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="106"/>
-      <c r="B120" s="108"/>
-      <c r="C120" s="105"/>
-      <c r="D120" s="110"/>
+      <c r="A120" s="121"/>
+      <c r="B120" s="127"/>
+      <c r="C120" s="117"/>
+      <c r="D120" s="125"/>
       <c r="E120" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F120" s="105"/>
-      <c r="G120" s="105"/>
-      <c r="H120" s="127"/>
-      <c r="I120" s="112"/>
-      <c r="J120" s="105"/>
-      <c r="K120" s="105"/>
-      <c r="L120" s="105"/>
-      <c r="M120" s="105"/>
-      <c r="N120" s="105"/>
-      <c r="O120" s="105"/>
-      <c r="P120" s="130"/>
+      <c r="F120" s="117"/>
+      <c r="G120" s="117"/>
+      <c r="H120" s="132"/>
+      <c r="I120" s="137"/>
+      <c r="J120" s="117"/>
+      <c r="K120" s="117"/>
+      <c r="L120" s="117"/>
+      <c r="M120" s="117"/>
+      <c r="N120" s="117"/>
+      <c r="O120" s="117"/>
+      <c r="P120" s="116"/>
       <c r="Q120" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R120" s="105"/>
-      <c r="S120" s="125"/>
+      <c r="R120" s="117"/>
+      <c r="S120" s="119"/>
       <c r="T120" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="106"/>
-      <c r="B121" s="108"/>
-      <c r="C121" s="105"/>
-      <c r="D121" s="110"/>
+      <c r="A121" s="121"/>
+      <c r="B121" s="127"/>
+      <c r="C121" s="117"/>
+      <c r="D121" s="125"/>
       <c r="E121" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F121" s="105"/>
-      <c r="G121" s="105"/>
-      <c r="H121" s="128"/>
-      <c r="I121" s="112"/>
-      <c r="J121" s="105"/>
-      <c r="K121" s="105"/>
-      <c r="L121" s="105"/>
-      <c r="M121" s="105"/>
-      <c r="N121" s="105"/>
-      <c r="O121" s="105"/>
-      <c r="P121" s="130"/>
+      <c r="F121" s="117"/>
+      <c r="G121" s="117"/>
+      <c r="H121" s="133"/>
+      <c r="I121" s="137"/>
+      <c r="J121" s="117"/>
+      <c r="K121" s="117"/>
+      <c r="L121" s="117"/>
+      <c r="M121" s="117"/>
+      <c r="N121" s="117"/>
+      <c r="O121" s="117"/>
+      <c r="P121" s="116"/>
       <c r="Q121" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R121" s="105"/>
-      <c r="S121" s="125"/>
+      <c r="R121" s="117"/>
+      <c r="S121" s="119"/>
       <c r="T121" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="106"/>
-      <c r="B122" s="108"/>
-      <c r="C122" s="105"/>
-      <c r="D122" s="110"/>
+      <c r="A122" s="121"/>
+      <c r="B122" s="127"/>
+      <c r="C122" s="117"/>
+      <c r="D122" s="125"/>
       <c r="E122" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F122" s="105"/>
-      <c r="G122" s="105"/>
-      <c r="H122" s="128"/>
-      <c r="I122" s="112"/>
-      <c r="J122" s="105"/>
-      <c r="K122" s="105"/>
-      <c r="L122" s="105"/>
-      <c r="M122" s="105"/>
-      <c r="N122" s="105"/>
-      <c r="O122" s="105"/>
-      <c r="P122" s="130"/>
+      <c r="F122" s="117"/>
+      <c r="G122" s="117"/>
+      <c r="H122" s="133"/>
+      <c r="I122" s="137"/>
+      <c r="J122" s="117"/>
+      <c r="K122" s="117"/>
+      <c r="L122" s="117"/>
+      <c r="M122" s="117"/>
+      <c r="N122" s="117"/>
+      <c r="O122" s="117"/>
+      <c r="P122" s="116"/>
       <c r="Q122" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R122" s="105"/>
-      <c r="S122" s="125"/>
+      <c r="R122" s="117"/>
+      <c r="S122" s="119"/>
       <c r="T122" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="106"/>
-      <c r="B123" s="108"/>
-      <c r="C123" s="105"/>
-      <c r="D123" s="110"/>
+      <c r="A123" s="121"/>
+      <c r="B123" s="127"/>
+      <c r="C123" s="117"/>
+      <c r="D123" s="125"/>
       <c r="E123" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F123" s="105"/>
-      <c r="G123" s="105"/>
-      <c r="H123" s="128"/>
-      <c r="I123" s="112"/>
-      <c r="J123" s="105"/>
-      <c r="K123" s="105"/>
-      <c r="L123" s="105"/>
-      <c r="M123" s="105"/>
-      <c r="N123" s="105"/>
-      <c r="O123" s="105"/>
-      <c r="P123" s="130"/>
+      <c r="F123" s="117"/>
+      <c r="G123" s="117"/>
+      <c r="H123" s="133"/>
+      <c r="I123" s="137"/>
+      <c r="J123" s="117"/>
+      <c r="K123" s="117"/>
+      <c r="L123" s="117"/>
+      <c r="M123" s="117"/>
+      <c r="N123" s="117"/>
+      <c r="O123" s="117"/>
+      <c r="P123" s="116"/>
       <c r="Q123" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R123" s="105"/>
-      <c r="S123" s="125"/>
+      <c r="R123" s="117"/>
+      <c r="S123" s="119"/>
       <c r="T123" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="106"/>
-      <c r="B124" s="108"/>
-      <c r="C124" s="105"/>
-      <c r="D124" s="110"/>
+      <c r="A124" s="121"/>
+      <c r="B124" s="127"/>
+      <c r="C124" s="117"/>
+      <c r="D124" s="125"/>
       <c r="E124" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F124" s="105"/>
-      <c r="G124" s="105"/>
-      <c r="H124" s="128"/>
-      <c r="I124" s="112"/>
-      <c r="J124" s="105"/>
-      <c r="K124" s="105"/>
-      <c r="L124" s="105"/>
-      <c r="M124" s="105"/>
-      <c r="N124" s="105"/>
-      <c r="O124" s="105"/>
-      <c r="P124" s="130"/>
+      <c r="F124" s="117"/>
+      <c r="G124" s="117"/>
+      <c r="H124" s="133"/>
+      <c r="I124" s="137"/>
+      <c r="J124" s="117"/>
+      <c r="K124" s="117"/>
+      <c r="L124" s="117"/>
+      <c r="M124" s="117"/>
+      <c r="N124" s="117"/>
+      <c r="O124" s="117"/>
+      <c r="P124" s="116"/>
       <c r="Q124" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R124" s="105"/>
-      <c r="S124" s="125"/>
+      <c r="R124" s="117"/>
+      <c r="S124" s="119"/>
       <c r="T124" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="106"/>
-      <c r="B125" s="109"/>
-      <c r="C125" s="105"/>
-      <c r="D125" s="110"/>
+      <c r="A125" s="121"/>
+      <c r="B125" s="135"/>
+      <c r="C125" s="117"/>
+      <c r="D125" s="125"/>
       <c r="E125" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F125" s="105"/>
-      <c r="G125" s="105"/>
-      <c r="H125" s="129"/>
-      <c r="I125" s="112"/>
-      <c r="J125" s="105"/>
-      <c r="K125" s="105"/>
-      <c r="L125" s="105"/>
-      <c r="M125" s="105"/>
-      <c r="N125" s="105"/>
-      <c r="O125" s="105"/>
-      <c r="P125" s="130"/>
+      <c r="F125" s="117"/>
+      <c r="G125" s="117"/>
+      <c r="H125" s="134"/>
+      <c r="I125" s="137"/>
+      <c r="J125" s="117"/>
+      <c r="K125" s="117"/>
+      <c r="L125" s="117"/>
+      <c r="M125" s="117"/>
+      <c r="N125" s="117"/>
+      <c r="O125" s="117"/>
+      <c r="P125" s="116"/>
       <c r="Q125" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R125" s="105"/>
-      <c r="S125" s="126"/>
+      <c r="R125" s="117"/>
+      <c r="S125" s="120"/>
       <c r="T125" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="106" t="s">
+      <c r="A126" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B126" s="107" t="s">
+      <c r="B126" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C126" s="105"/>
-      <c r="D126" s="110" t="s">
+      <c r="C126" s="117"/>
+      <c r="D126" s="125" t="s">
         <v>260</v>
       </c>
       <c r="E126" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
+      <c r="F126" s="117"/>
+      <c r="G126" s="117"/>
       <c r="H126" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="I126" s="105"/>
-      <c r="J126" s="105"/>
-      <c r="K126" s="105"/>
-      <c r="L126" s="105"/>
-      <c r="M126" s="105"/>
-      <c r="N126" s="105"/>
-      <c r="O126" s="105"/>
-      <c r="P126" s="130" t="s">
+      <c r="I126" s="117"/>
+      <c r="J126" s="117"/>
+      <c r="K126" s="117"/>
+      <c r="L126" s="117"/>
+      <c r="M126" s="117"/>
+      <c r="N126" s="117"/>
+      <c r="O126" s="117"/>
+      <c r="P126" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q126" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R126" s="105" t="s">
+      <c r="R126" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="S126" s="124" t="s">
+      <c r="S126" s="118" t="s">
         <v>114</v>
       </c>
       <c r="T126" s="20" t="s">
@@ -11293,199 +11344,199 @@
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="106"/>
-      <c r="B127" s="108"/>
-      <c r="C127" s="105"/>
-      <c r="D127" s="110"/>
+      <c r="A127" s="121"/>
+      <c r="B127" s="127"/>
+      <c r="C127" s="117"/>
+      <c r="D127" s="125"/>
       <c r="E127" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="F127" s="105"/>
-      <c r="G127" s="105"/>
+      <c r="F127" s="117"/>
+      <c r="G127" s="117"/>
       <c r="H127" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="I127" s="105"/>
-      <c r="J127" s="105"/>
-      <c r="K127" s="105"/>
-      <c r="L127" s="105"/>
-      <c r="M127" s="105"/>
-      <c r="N127" s="105"/>
-      <c r="O127" s="105"/>
-      <c r="P127" s="130"/>
+      <c r="I127" s="117"/>
+      <c r="J127" s="117"/>
+      <c r="K127" s="117"/>
+      <c r="L127" s="117"/>
+      <c r="M127" s="117"/>
+      <c r="N127" s="117"/>
+      <c r="O127" s="117"/>
+      <c r="P127" s="116"/>
       <c r="Q127" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R127" s="105"/>
-      <c r="S127" s="125"/>
+      <c r="R127" s="117"/>
+      <c r="S127" s="119"/>
       <c r="T127" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="106"/>
-      <c r="B128" s="108"/>
-      <c r="C128" s="105"/>
-      <c r="D128" s="110"/>
+      <c r="A128" s="121"/>
+      <c r="B128" s="127"/>
+      <c r="C128" s="117"/>
+      <c r="D128" s="125"/>
       <c r="E128" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F128" s="105"/>
-      <c r="G128" s="105"/>
-      <c r="H128" s="127"/>
-      <c r="I128" s="105"/>
-      <c r="J128" s="105"/>
-      <c r="K128" s="105"/>
-      <c r="L128" s="105"/>
-      <c r="M128" s="105"/>
-      <c r="N128" s="105"/>
-      <c r="O128" s="105"/>
-      <c r="P128" s="130"/>
+      <c r="F128" s="117"/>
+      <c r="G128" s="117"/>
+      <c r="H128" s="132"/>
+      <c r="I128" s="117"/>
+      <c r="J128" s="117"/>
+      <c r="K128" s="117"/>
+      <c r="L128" s="117"/>
+      <c r="M128" s="117"/>
+      <c r="N128" s="117"/>
+      <c r="O128" s="117"/>
+      <c r="P128" s="116"/>
       <c r="Q128" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="R128" s="105"/>
-      <c r="S128" s="125"/>
+      <c r="R128" s="117"/>
+      <c r="S128" s="119"/>
       <c r="T128" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" s="106"/>
-      <c r="B129" s="108"/>
-      <c r="C129" s="105"/>
-      <c r="D129" s="110"/>
+      <c r="A129" s="121"/>
+      <c r="B129" s="127"/>
+      <c r="C129" s="117"/>
+      <c r="D129" s="125"/>
       <c r="E129" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F129" s="105"/>
-      <c r="G129" s="105"/>
-      <c r="H129" s="128"/>
-      <c r="I129" s="105"/>
-      <c r="J129" s="105"/>
-      <c r="K129" s="105"/>
-      <c r="L129" s="105"/>
-      <c r="M129" s="105"/>
-      <c r="N129" s="105"/>
-      <c r="O129" s="105"/>
-      <c r="P129" s="130"/>
+      <c r="F129" s="117"/>
+      <c r="G129" s="117"/>
+      <c r="H129" s="133"/>
+      <c r="I129" s="117"/>
+      <c r="J129" s="117"/>
+      <c r="K129" s="117"/>
+      <c r="L129" s="117"/>
+      <c r="M129" s="117"/>
+      <c r="N129" s="117"/>
+      <c r="O129" s="117"/>
+      <c r="P129" s="116"/>
       <c r="Q129" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="R129" s="105"/>
-      <c r="S129" s="125"/>
+      <c r="R129" s="117"/>
+      <c r="S129" s="119"/>
       <c r="T129" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A130" s="106"/>
-      <c r="B130" s="108"/>
-      <c r="C130" s="105"/>
-      <c r="D130" s="110"/>
+      <c r="A130" s="121"/>
+      <c r="B130" s="127"/>
+      <c r="C130" s="117"/>
+      <c r="D130" s="125"/>
       <c r="E130" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F130" s="105"/>
-      <c r="G130" s="105"/>
-      <c r="H130" s="128"/>
-      <c r="I130" s="105"/>
-      <c r="J130" s="105"/>
-      <c r="K130" s="105"/>
-      <c r="L130" s="105"/>
-      <c r="M130" s="105"/>
-      <c r="N130" s="105"/>
-      <c r="O130" s="105"/>
-      <c r="P130" s="130"/>
+      <c r="F130" s="117"/>
+      <c r="G130" s="117"/>
+      <c r="H130" s="133"/>
+      <c r="I130" s="117"/>
+      <c r="J130" s="117"/>
+      <c r="K130" s="117"/>
+      <c r="L130" s="117"/>
+      <c r="M130" s="117"/>
+      <c r="N130" s="117"/>
+      <c r="O130" s="117"/>
+      <c r="P130" s="116"/>
       <c r="Q130" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R130" s="105"/>
-      <c r="S130" s="125"/>
+      <c r="R130" s="117"/>
+      <c r="S130" s="119"/>
       <c r="T130" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A131" s="106"/>
-      <c r="B131" s="108"/>
-      <c r="C131" s="105"/>
-      <c r="D131" s="110"/>
+      <c r="A131" s="121"/>
+      <c r="B131" s="127"/>
+      <c r="C131" s="117"/>
+      <c r="D131" s="125"/>
       <c r="E131" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F131" s="105"/>
-      <c r="G131" s="105"/>
-      <c r="H131" s="128"/>
-      <c r="I131" s="105"/>
-      <c r="J131" s="105"/>
-      <c r="K131" s="105"/>
-      <c r="L131" s="105"/>
-      <c r="M131" s="105"/>
-      <c r="N131" s="105"/>
-      <c r="O131" s="105"/>
-      <c r="P131" s="130"/>
+      <c r="F131" s="117"/>
+      <c r="G131" s="117"/>
+      <c r="H131" s="133"/>
+      <c r="I131" s="117"/>
+      <c r="J131" s="117"/>
+      <c r="K131" s="117"/>
+      <c r="L131" s="117"/>
+      <c r="M131" s="117"/>
+      <c r="N131" s="117"/>
+      <c r="O131" s="117"/>
+      <c r="P131" s="116"/>
       <c r="Q131" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="R131" s="105"/>
-      <c r="S131" s="125"/>
+      <c r="R131" s="117"/>
+      <c r="S131" s="119"/>
       <c r="T131" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A132" s="106"/>
-      <c r="B132" s="108"/>
-      <c r="C132" s="105"/>
-      <c r="D132" s="110"/>
+      <c r="A132" s="121"/>
+      <c r="B132" s="127"/>
+      <c r="C132" s="117"/>
+      <c r="D132" s="125"/>
       <c r="E132" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F132" s="105"/>
-      <c r="G132" s="105"/>
-      <c r="H132" s="128"/>
-      <c r="I132" s="105"/>
-      <c r="J132" s="105"/>
-      <c r="K132" s="105"/>
-      <c r="L132" s="105"/>
-      <c r="M132" s="105"/>
-      <c r="N132" s="105"/>
-      <c r="O132" s="105"/>
-      <c r="P132" s="130"/>
+      <c r="F132" s="117"/>
+      <c r="G132" s="117"/>
+      <c r="H132" s="133"/>
+      <c r="I132" s="117"/>
+      <c r="J132" s="117"/>
+      <c r="K132" s="117"/>
+      <c r="L132" s="117"/>
+      <c r="M132" s="117"/>
+      <c r="N132" s="117"/>
+      <c r="O132" s="117"/>
+      <c r="P132" s="116"/>
       <c r="Q132" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R132" s="105"/>
-      <c r="S132" s="125"/>
+      <c r="R132" s="117"/>
+      <c r="S132" s="119"/>
       <c r="T132" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A133" s="106"/>
-      <c r="B133" s="109"/>
-      <c r="C133" s="105"/>
-      <c r="D133" s="110"/>
+      <c r="A133" s="121"/>
+      <c r="B133" s="135"/>
+      <c r="C133" s="117"/>
+      <c r="D133" s="125"/>
       <c r="E133" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F133" s="105"/>
-      <c r="G133" s="105"/>
-      <c r="H133" s="129"/>
-      <c r="I133" s="105"/>
-      <c r="J133" s="105"/>
-      <c r="K133" s="105"/>
-      <c r="L133" s="105"/>
-      <c r="M133" s="105"/>
-      <c r="N133" s="105"/>
-      <c r="O133" s="105"/>
-      <c r="P133" s="130"/>
+      <c r="F133" s="117"/>
+      <c r="G133" s="117"/>
+      <c r="H133" s="134"/>
+      <c r="I133" s="117"/>
+      <c r="J133" s="117"/>
+      <c r="K133" s="117"/>
+      <c r="L133" s="117"/>
+      <c r="M133" s="117"/>
+      <c r="N133" s="117"/>
+      <c r="O133" s="117"/>
+      <c r="P133" s="116"/>
       <c r="Q133" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R133" s="105"/>
-      <c r="S133" s="126"/>
+      <c r="R133" s="117"/>
+      <c r="S133" s="120"/>
       <c r="T133" s="20" t="s">
         <v>94</v>
       </c>
@@ -11843,14 +11894,14 @@
       </c>
     </row>
     <row r="143" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="114" t="s">
+      <c r="A143" s="128" t="s">
         <v>135</v>
       </c>
-      <c r="B143" s="116" t="s">
+      <c r="B143" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="C143" s="122"/>
-      <c r="D143" s="120" t="s">
+      <c r="C143" s="110"/>
+      <c r="D143" s="130" t="s">
         <v>260</v>
       </c>
       <c r="E143" s="50"/>
@@ -11885,10 +11936,10 @@
       </c>
     </row>
     <row r="144" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="115"/>
-      <c r="B144" s="117"/>
-      <c r="C144" s="123"/>
-      <c r="D144" s="121"/>
+      <c r="A144" s="129"/>
+      <c r="B144" s="124"/>
+      <c r="C144" s="112"/>
+      <c r="D144" s="131"/>
       <c r="E144" s="50"/>
       <c r="F144" s="54" t="s">
         <v>113</v>
@@ -12388,41 +12439,41 @@
       <c r="O159" s="47"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A160" s="106" t="s">
+      <c r="A160" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B160" s="107" t="s">
+      <c r="B160" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C160" s="105"/>
-      <c r="D160" s="110" t="s">
+      <c r="C160" s="117"/>
+      <c r="D160" s="125" t="s">
         <v>282</v>
       </c>
       <c r="E160" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="F160" s="105"/>
-      <c r="G160" s="105"/>
-      <c r="H160" s="122"/>
-      <c r="I160" s="122"/>
-      <c r="J160" s="122"/>
-      <c r="K160" s="122"/>
-      <c r="L160" s="122"/>
-      <c r="M160" s="133" t="s">
+      <c r="F160" s="117"/>
+      <c r="G160" s="117"/>
+      <c r="H160" s="110"/>
+      <c r="I160" s="110"/>
+      <c r="J160" s="110"/>
+      <c r="K160" s="110"/>
+      <c r="L160" s="110"/>
+      <c r="M160" s="113" t="s">
         <v>292</v>
       </c>
-      <c r="N160" s="122"/>
-      <c r="O160" s="122"/>
-      <c r="P160" s="130" t="s">
+      <c r="N160" s="110"/>
+      <c r="O160" s="110"/>
+      <c r="P160" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q160" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="R160" s="105" t="s">
+      <c r="R160" s="117" t="s">
         <v>291</v>
       </c>
-      <c r="S160" s="124" t="s">
+      <c r="S160" s="118" t="s">
         <v>126</v>
       </c>
       <c r="T160" s="20" t="s">
@@ -12430,85 +12481,85 @@
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A161" s="106"/>
-      <c r="B161" s="108"/>
-      <c r="C161" s="105"/>
-      <c r="D161" s="110"/>
+      <c r="A161" s="121"/>
+      <c r="B161" s="127"/>
+      <c r="C161" s="117"/>
+      <c r="D161" s="125"/>
       <c r="E161" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F161" s="105"/>
-      <c r="G161" s="105"/>
-      <c r="H161" s="132"/>
-      <c r="I161" s="132"/>
-      <c r="J161" s="132"/>
-      <c r="K161" s="132"/>
-      <c r="L161" s="132"/>
-      <c r="M161" s="134"/>
-      <c r="N161" s="132"/>
-      <c r="O161" s="132"/>
-      <c r="P161" s="130"/>
+      <c r="F161" s="117"/>
+      <c r="G161" s="117"/>
+      <c r="H161" s="111"/>
+      <c r="I161" s="111"/>
+      <c r="J161" s="111"/>
+      <c r="K161" s="111"/>
+      <c r="L161" s="111"/>
+      <c r="M161" s="114"/>
+      <c r="N161" s="111"/>
+      <c r="O161" s="111"/>
+      <c r="P161" s="116"/>
       <c r="Q161" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="R161" s="105"/>
-      <c r="S161" s="125"/>
+      <c r="R161" s="117"/>
+      <c r="S161" s="119"/>
       <c r="T161" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A162" s="106"/>
-      <c r="B162" s="108"/>
-      <c r="C162" s="105"/>
-      <c r="D162" s="110"/>
+      <c r="A162" s="121"/>
+      <c r="B162" s="127"/>
+      <c r="C162" s="117"/>
+      <c r="D162" s="125"/>
       <c r="E162" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="F162" s="105"/>
-      <c r="G162" s="105"/>
-      <c r="H162" s="132"/>
-      <c r="I162" s="132"/>
-      <c r="J162" s="132"/>
-      <c r="K162" s="132"/>
-      <c r="L162" s="132"/>
-      <c r="M162" s="134"/>
-      <c r="N162" s="132"/>
-      <c r="O162" s="132"/>
-      <c r="P162" s="130"/>
+      <c r="F162" s="117"/>
+      <c r="G162" s="117"/>
+      <c r="H162" s="111"/>
+      <c r="I162" s="111"/>
+      <c r="J162" s="111"/>
+      <c r="K162" s="111"/>
+      <c r="L162" s="111"/>
+      <c r="M162" s="114"/>
+      <c r="N162" s="111"/>
+      <c r="O162" s="111"/>
+      <c r="P162" s="116"/>
       <c r="Q162" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="R162" s="105"/>
-      <c r="S162" s="125"/>
+      <c r="R162" s="117"/>
+      <c r="S162" s="119"/>
       <c r="T162" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="163" spans="1:20" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="106"/>
-      <c r="B163" s="108"/>
-      <c r="C163" s="105"/>
-      <c r="D163" s="110"/>
+      <c r="A163" s="121"/>
+      <c r="B163" s="127"/>
+      <c r="C163" s="117"/>
+      <c r="D163" s="125"/>
       <c r="E163" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F163" s="105"/>
-      <c r="G163" s="105"/>
-      <c r="H163" s="123"/>
-      <c r="I163" s="123"/>
-      <c r="J163" s="123"/>
-      <c r="K163" s="123"/>
-      <c r="L163" s="123"/>
-      <c r="M163" s="135"/>
-      <c r="N163" s="123"/>
-      <c r="O163" s="123"/>
-      <c r="P163" s="130"/>
+      <c r="F163" s="117"/>
+      <c r="G163" s="117"/>
+      <c r="H163" s="112"/>
+      <c r="I163" s="112"/>
+      <c r="J163" s="112"/>
+      <c r="K163" s="112"/>
+      <c r="L163" s="112"/>
+      <c r="M163" s="115"/>
+      <c r="N163" s="112"/>
+      <c r="O163" s="112"/>
+      <c r="P163" s="116"/>
       <c r="Q163" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="R163" s="105"/>
-      <c r="S163" s="126"/>
+      <c r="R163" s="117"/>
+      <c r="S163" s="120"/>
       <c r="T163" s="20" t="s">
         <v>94</v>
       </c>
@@ -12554,41 +12605,41 @@
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A165" s="106" t="s">
+      <c r="A165" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="B165" s="116" t="s">
+      <c r="B165" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="C165" s="105"/>
-      <c r="D165" s="110" t="s">
+      <c r="C165" s="117"/>
+      <c r="D165" s="125" t="s">
         <v>282</v>
       </c>
       <c r="E165" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="F165" s="105"/>
-      <c r="G165" s="105"/>
-      <c r="H165" s="122"/>
-      <c r="I165" s="122"/>
-      <c r="J165" s="122"/>
-      <c r="K165" s="122"/>
-      <c r="L165" s="122"/>
-      <c r="M165" s="133" t="s">
+      <c r="F165" s="117"/>
+      <c r="G165" s="117"/>
+      <c r="H165" s="110"/>
+      <c r="I165" s="110"/>
+      <c r="J165" s="110"/>
+      <c r="K165" s="110"/>
+      <c r="L165" s="110"/>
+      <c r="M165" s="113" t="s">
         <v>292</v>
       </c>
-      <c r="N165" s="122"/>
-      <c r="O165" s="122"/>
-      <c r="P165" s="130" t="s">
+      <c r="N165" s="110"/>
+      <c r="O165" s="110"/>
+      <c r="P165" s="116" t="s">
         <v>102</v>
       </c>
       <c r="Q165" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="R165" s="105" t="s">
+      <c r="R165" s="117" t="s">
         <v>291</v>
       </c>
-      <c r="S165" s="124" t="s">
+      <c r="S165" s="118" t="s">
         <v>126</v>
       </c>
       <c r="T165" s="20" t="s">
@@ -12596,85 +12647,85 @@
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A166" s="106"/>
-      <c r="B166" s="138"/>
-      <c r="C166" s="105"/>
-      <c r="D166" s="110"/>
+      <c r="A166" s="121"/>
+      <c r="B166" s="123"/>
+      <c r="C166" s="117"/>
+      <c r="D166" s="125"/>
       <c r="E166" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F166" s="105"/>
-      <c r="G166" s="105"/>
-      <c r="H166" s="132"/>
-      <c r="I166" s="132"/>
-      <c r="J166" s="132"/>
-      <c r="K166" s="132"/>
-      <c r="L166" s="132"/>
-      <c r="M166" s="134"/>
-      <c r="N166" s="132"/>
-      <c r="O166" s="132"/>
-      <c r="P166" s="130"/>
+      <c r="F166" s="117"/>
+      <c r="G166" s="117"/>
+      <c r="H166" s="111"/>
+      <c r="I166" s="111"/>
+      <c r="J166" s="111"/>
+      <c r="K166" s="111"/>
+      <c r="L166" s="111"/>
+      <c r="M166" s="114"/>
+      <c r="N166" s="111"/>
+      <c r="O166" s="111"/>
+      <c r="P166" s="116"/>
       <c r="Q166" s="84" t="s">
         <v>288</v>
       </c>
-      <c r="R166" s="105"/>
-      <c r="S166" s="125"/>
+      <c r="R166" s="117"/>
+      <c r="S166" s="119"/>
       <c r="T166" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A167" s="106"/>
-      <c r="B167" s="138"/>
-      <c r="C167" s="105"/>
-      <c r="D167" s="110"/>
+      <c r="A167" s="121"/>
+      <c r="B167" s="123"/>
+      <c r="C167" s="117"/>
+      <c r="D167" s="125"/>
       <c r="E167" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="F167" s="105"/>
-      <c r="G167" s="105"/>
-      <c r="H167" s="132"/>
-      <c r="I167" s="132"/>
-      <c r="J167" s="132"/>
-      <c r="K167" s="132"/>
-      <c r="L167" s="132"/>
-      <c r="M167" s="134"/>
-      <c r="N167" s="132"/>
-      <c r="O167" s="132"/>
-      <c r="P167" s="130"/>
+      <c r="F167" s="117"/>
+      <c r="G167" s="117"/>
+      <c r="H167" s="111"/>
+      <c r="I167" s="111"/>
+      <c r="J167" s="111"/>
+      <c r="K167" s="111"/>
+      <c r="L167" s="111"/>
+      <c r="M167" s="114"/>
+      <c r="N167" s="111"/>
+      <c r="O167" s="111"/>
+      <c r="P167" s="116"/>
       <c r="Q167" s="84" t="s">
         <v>289</v>
       </c>
-      <c r="R167" s="105"/>
-      <c r="S167" s="125"/>
+      <c r="R167" s="117"/>
+      <c r="S167" s="119"/>
       <c r="T167" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="168" spans="1:20" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="106"/>
-      <c r="B168" s="117"/>
-      <c r="C168" s="105"/>
-      <c r="D168" s="110"/>
+      <c r="A168" s="121"/>
+      <c r="B168" s="124"/>
+      <c r="C168" s="117"/>
+      <c r="D168" s="125"/>
       <c r="E168" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F168" s="105"/>
-      <c r="G168" s="105"/>
-      <c r="H168" s="123"/>
-      <c r="I168" s="123"/>
-      <c r="J168" s="123"/>
-      <c r="K168" s="123"/>
-      <c r="L168" s="123"/>
-      <c r="M168" s="135"/>
-      <c r="N168" s="123"/>
-      <c r="O168" s="123"/>
-      <c r="P168" s="130"/>
+      <c r="F168" s="117"/>
+      <c r="G168" s="117"/>
+      <c r="H168" s="112"/>
+      <c r="I168" s="112"/>
+      <c r="J168" s="112"/>
+      <c r="K168" s="112"/>
+      <c r="L168" s="112"/>
+      <c r="M168" s="115"/>
+      <c r="N168" s="112"/>
+      <c r="O168" s="112"/>
+      <c r="P168" s="116"/>
       <c r="Q168" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="R168" s="105"/>
-      <c r="S168" s="126"/>
+      <c r="R168" s="117"/>
+      <c r="S168" s="120"/>
       <c r="T168" s="20" t="s">
         <v>94</v>
       </c>
@@ -12723,7 +12774,7 @@
       <c r="A170" s="87"/>
       <c r="B170" s="87"/>
       <c r="C170" s="85"/>
-      <c r="D170" s="136"/>
+      <c r="D170" s="108"/>
       <c r="E170" s="64"/>
       <c r="F170" s="64"/>
       <c r="G170" s="64"/>
@@ -12737,7 +12788,7 @@
       <c r="O170" s="64"/>
       <c r="P170" s="64"/>
       <c r="Q170" s="84"/>
-      <c r="R170" s="137"/>
+      <c r="R170" s="109"/>
       <c r="S170" s="92"/>
       <c r="T170" s="64"/>
     </row>
@@ -13137,45 +13188,342 @@
         <v>94</v>
       </c>
     </row>
+    <row r="184" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B184" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C184" s="105"/>
+      <c r="D184" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E184" s="105"/>
+      <c r="F184" s="105"/>
+      <c r="G184" s="105"/>
+      <c r="H184" s="105"/>
+      <c r="I184" s="105"/>
+      <c r="J184" s="105"/>
+      <c r="K184" s="105"/>
+      <c r="L184" s="105"/>
+      <c r="M184" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="N184" s="105"/>
+      <c r="O184" s="105"/>
+      <c r="P184" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q184" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="R184" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="S184" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="T184" s="105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B185" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C185" s="105"/>
+      <c r="D185" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="E185" s="105"/>
+      <c r="F185" s="105"/>
+      <c r="G185" s="105"/>
+      <c r="H185" s="105"/>
+      <c r="I185" s="105"/>
+      <c r="J185" s="105"/>
+      <c r="K185" s="105"/>
+      <c r="L185" s="105"/>
+      <c r="M185" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="N185" s="105"/>
+      <c r="O185" s="105"/>
+      <c r="P185" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q185" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="R185" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="S185" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="T185" s="105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B186" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C186" s="105"/>
+      <c r="D186" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="E186" s="105"/>
+      <c r="F186" s="105"/>
+      <c r="G186" s="105"/>
+      <c r="H186" s="105"/>
+      <c r="I186" s="105"/>
+      <c r="J186" s="105"/>
+      <c r="K186" s="105"/>
+      <c r="L186" s="105"/>
+      <c r="M186" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="N186" s="105"/>
+      <c r="O186" s="105"/>
+      <c r="P186" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q186" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="R186" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="S186" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="T186" s="105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B187" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C187" s="105"/>
+      <c r="D187" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E187" s="105"/>
+      <c r="F187" s="105"/>
+      <c r="G187" s="105"/>
+      <c r="H187" s="105"/>
+      <c r="I187" s="105"/>
+      <c r="J187" s="105"/>
+      <c r="K187" s="105"/>
+      <c r="L187" s="105"/>
+      <c r="M187" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="N187" s="105"/>
+      <c r="O187" s="105"/>
+      <c r="P187" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q187" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="R187" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="S187" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="T187" s="105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B188" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="C188" s="105"/>
+      <c r="D188" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="E188" s="105"/>
+      <c r="F188" s="105"/>
+      <c r="G188" s="105"/>
+      <c r="H188" s="105"/>
+      <c r="I188" s="105"/>
+      <c r="J188" s="105"/>
+      <c r="K188" s="105"/>
+      <c r="L188" s="105"/>
+      <c r="M188" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="N188" s="105"/>
+      <c r="O188" s="105"/>
+      <c r="P188" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q188" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="R188" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="S188" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="T188" s="105" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="195">
-    <mergeCell ref="K165:K168"/>
-    <mergeCell ref="L165:L168"/>
-    <mergeCell ref="M165:M168"/>
-    <mergeCell ref="N165:N168"/>
-    <mergeCell ref="O165:O168"/>
-    <mergeCell ref="P165:P168"/>
-    <mergeCell ref="R165:R168"/>
-    <mergeCell ref="S165:S168"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="D165:D168"/>
-    <mergeCell ref="F165:F168"/>
-    <mergeCell ref="G165:G168"/>
-    <mergeCell ref="H165:H168"/>
-    <mergeCell ref="I165:I168"/>
-    <mergeCell ref="J165:J168"/>
-    <mergeCell ref="M126:M133"/>
-    <mergeCell ref="N126:N133"/>
-    <mergeCell ref="O126:O133"/>
-    <mergeCell ref="P160:P163"/>
-    <mergeCell ref="R160:R163"/>
-    <mergeCell ref="S160:S163"/>
-    <mergeCell ref="H160:H163"/>
-    <mergeCell ref="L160:L163"/>
-    <mergeCell ref="M160:M163"/>
-    <mergeCell ref="N160:N163"/>
-    <mergeCell ref="O160:O163"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B160:B163"/>
-    <mergeCell ref="C160:C163"/>
-    <mergeCell ref="D160:D163"/>
-    <mergeCell ref="F160:F163"/>
-    <mergeCell ref="G160:G163"/>
-    <mergeCell ref="I160:I163"/>
-    <mergeCell ref="J160:J163"/>
-    <mergeCell ref="K160:K163"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="L43:L50"/>
+    <mergeCell ref="L60:L67"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="F60:F67"/>
+    <mergeCell ref="G60:G67"/>
+    <mergeCell ref="I60:I67"/>
+    <mergeCell ref="J60:J67"/>
+    <mergeCell ref="K60:K67"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="F35:F42"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="I35:I42"/>
+    <mergeCell ref="K35:K42"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="S60:S67"/>
+    <mergeCell ref="H62:H67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="I68:I75"/>
+    <mergeCell ref="J68:J75"/>
+    <mergeCell ref="K68:K75"/>
+    <mergeCell ref="P68:P75"/>
+    <mergeCell ref="R68:R75"/>
+    <mergeCell ref="S68:S75"/>
+    <mergeCell ref="H70:H75"/>
+    <mergeCell ref="L68:L75"/>
+    <mergeCell ref="F5:F12"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="P35:P42"/>
+    <mergeCell ref="R35:R42"/>
+    <mergeCell ref="S35:S42"/>
+    <mergeCell ref="R43:R50"/>
+    <mergeCell ref="S43:S50"/>
+    <mergeCell ref="P60:P67"/>
+    <mergeCell ref="R60:R67"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="F13:F20"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="K43:K50"/>
+    <mergeCell ref="P43:P50"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="F43:F50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="I43:I50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="J43:J50"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="S13:S20"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="R5:R12"/>
+    <mergeCell ref="R13:R20"/>
+    <mergeCell ref="I13:I20"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="I5:I12"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="L7:L12"/>
+    <mergeCell ref="S89:S96"/>
+    <mergeCell ref="H91:H96"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="D97:D104"/>
+    <mergeCell ref="F97:F104"/>
+    <mergeCell ref="G97:G104"/>
+    <mergeCell ref="I97:I104"/>
+    <mergeCell ref="J97:J104"/>
+    <mergeCell ref="K97:K104"/>
+    <mergeCell ref="P97:P104"/>
+    <mergeCell ref="R97:R104"/>
+    <mergeCell ref="S97:S104"/>
+    <mergeCell ref="H99:H104"/>
+    <mergeCell ref="G89:G96"/>
+    <mergeCell ref="I89:I96"/>
+    <mergeCell ref="J89:J96"/>
+    <mergeCell ref="K89:K96"/>
+    <mergeCell ref="P89:P96"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="D89:D96"/>
+    <mergeCell ref="B118:B125"/>
+    <mergeCell ref="C118:C125"/>
+    <mergeCell ref="D118:D125"/>
+    <mergeCell ref="F118:F125"/>
+    <mergeCell ref="G118:G125"/>
+    <mergeCell ref="I118:I125"/>
+    <mergeCell ref="J118:J125"/>
+    <mergeCell ref="K118:K125"/>
+    <mergeCell ref="R89:R96"/>
+    <mergeCell ref="F89:F96"/>
+    <mergeCell ref="L97:L104"/>
+    <mergeCell ref="M118:M125"/>
+    <mergeCell ref="N118:N125"/>
+    <mergeCell ref="O118:O125"/>
     <mergeCell ref="A143:A144"/>
     <mergeCell ref="B143:B144"/>
     <mergeCell ref="C143:C144"/>
@@ -13200,140 +13548,43 @@
     <mergeCell ref="S126:S133"/>
     <mergeCell ref="H128:H133"/>
     <mergeCell ref="A118:A125"/>
-    <mergeCell ref="B118:B125"/>
-    <mergeCell ref="C118:C125"/>
-    <mergeCell ref="D118:D125"/>
-    <mergeCell ref="F118:F125"/>
-    <mergeCell ref="G118:G125"/>
-    <mergeCell ref="I118:I125"/>
-    <mergeCell ref="J118:J125"/>
-    <mergeCell ref="K118:K125"/>
-    <mergeCell ref="R89:R96"/>
-    <mergeCell ref="F89:F96"/>
-    <mergeCell ref="L97:L104"/>
-    <mergeCell ref="M118:M125"/>
-    <mergeCell ref="N118:N125"/>
-    <mergeCell ref="O118:O125"/>
-    <mergeCell ref="S89:S96"/>
-    <mergeCell ref="H91:H96"/>
-    <mergeCell ref="A97:A104"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="C97:C104"/>
-    <mergeCell ref="D97:D104"/>
-    <mergeCell ref="F97:F104"/>
-    <mergeCell ref="G97:G104"/>
-    <mergeCell ref="I97:I104"/>
-    <mergeCell ref="J97:J104"/>
-    <mergeCell ref="K97:K104"/>
-    <mergeCell ref="P97:P104"/>
-    <mergeCell ref="R97:R104"/>
-    <mergeCell ref="S97:S104"/>
-    <mergeCell ref="H99:H104"/>
-    <mergeCell ref="G89:G96"/>
-    <mergeCell ref="I89:I96"/>
-    <mergeCell ref="J89:J96"/>
-    <mergeCell ref="K89:K96"/>
-    <mergeCell ref="P89:P96"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="D89:D96"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="S13:S20"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="R5:R12"/>
-    <mergeCell ref="R13:R20"/>
-    <mergeCell ref="I13:I20"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="S5:S12"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="I5:I12"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="L7:L12"/>
-    <mergeCell ref="P35:P42"/>
-    <mergeCell ref="R35:R42"/>
-    <mergeCell ref="S35:S42"/>
-    <mergeCell ref="R43:R50"/>
-    <mergeCell ref="S43:S50"/>
-    <mergeCell ref="P60:P67"/>
-    <mergeCell ref="R60:R67"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="F13:F20"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="K43:K50"/>
-    <mergeCell ref="P43:P50"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="F43:F50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="I43:I50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="J43:J50"/>
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="F5:F12"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="S60:S67"/>
-    <mergeCell ref="H62:H67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="F68:F75"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="I68:I75"/>
-    <mergeCell ref="J68:J75"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="P68:P75"/>
-    <mergeCell ref="R68:R75"/>
-    <mergeCell ref="S68:S75"/>
-    <mergeCell ref="H70:H75"/>
-    <mergeCell ref="L68:L75"/>
-    <mergeCell ref="L35:L42"/>
-    <mergeCell ref="L43:L50"/>
-    <mergeCell ref="L60:L67"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="D60:D67"/>
-    <mergeCell ref="F60:F67"/>
-    <mergeCell ref="G60:G67"/>
-    <mergeCell ref="I60:I67"/>
-    <mergeCell ref="J60:J67"/>
-    <mergeCell ref="K60:K67"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="I35:I42"/>
-    <mergeCell ref="K35:K42"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B160:B163"/>
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="D160:D163"/>
+    <mergeCell ref="F160:F163"/>
+    <mergeCell ref="G160:G163"/>
+    <mergeCell ref="I160:I163"/>
+    <mergeCell ref="J160:J163"/>
+    <mergeCell ref="K160:K163"/>
+    <mergeCell ref="M126:M133"/>
+    <mergeCell ref="N126:N133"/>
+    <mergeCell ref="O126:O133"/>
+    <mergeCell ref="P160:P163"/>
+    <mergeCell ref="R160:R163"/>
+    <mergeCell ref="S160:S163"/>
+    <mergeCell ref="H160:H163"/>
+    <mergeCell ref="L160:L163"/>
+    <mergeCell ref="M160:M163"/>
+    <mergeCell ref="N160:N163"/>
+    <mergeCell ref="O160:O163"/>
+    <mergeCell ref="K165:K168"/>
+    <mergeCell ref="L165:L168"/>
+    <mergeCell ref="M165:M168"/>
+    <mergeCell ref="N165:N168"/>
+    <mergeCell ref="O165:O168"/>
+    <mergeCell ref="P165:P168"/>
+    <mergeCell ref="R165:R168"/>
+    <mergeCell ref="S165:S168"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="D165:D168"/>
+    <mergeCell ref="F165:F168"/>
+    <mergeCell ref="G165:G168"/>
+    <mergeCell ref="H165:H168"/>
+    <mergeCell ref="I165:I168"/>
+    <mergeCell ref="J165:J168"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -13436,29 +13687,29 @@
       <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="110" t="s">
+      <c r="C6" s="117"/>
+      <c r="D6" s="125" t="s">
         <v>313</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="116" t="s">
         <v>315</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="105" t="s">
+      <c r="H6" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="118" t="s">
         <v>126</v>
       </c>
       <c r="J6" s="20" t="s">
@@ -13466,155 +13717,155 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="110"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="F7" s="130"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="125"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="110"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="130"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="125"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="119"/>
       <c r="J8" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="110"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="130"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="125"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="110"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="130"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="125"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="110"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="130"/>
+      <c r="F11" s="116"/>
       <c r="G11" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="125"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="119"/>
       <c r="J11" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="110"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="125"/>
       <c r="E12" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="130"/>
+      <c r="F12" s="116"/>
       <c r="G12" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="125"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="119"/>
       <c r="J12" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="110"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="130"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="126"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="120"/>
       <c r="J13" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="110" t="s">
+      <c r="C14" s="117"/>
+      <c r="D14" s="125" t="s">
         <v>319</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="F14" s="116" t="s">
         <v>315</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="105" t="s">
+      <c r="H14" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="118" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="20" t="s">
@@ -13622,155 +13873,155 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="110"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="F15" s="130"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="125"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="110"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="125"/>
       <c r="E16" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="130"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="125"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="119"/>
       <c r="J16" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="110"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="125"/>
       <c r="E17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="130"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="105"/>
-      <c r="I17" s="125"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="119"/>
       <c r="J17" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="110"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="130"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="105"/>
-      <c r="I18" s="125"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="110"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="130"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="105"/>
-      <c r="I19" s="125"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="110"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="125"/>
       <c r="E20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="130"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="105"/>
-      <c r="I20" s="125"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="110"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="130"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="105"/>
-      <c r="I21" s="126"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="120"/>
       <c r="J21" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="110" t="s">
+      <c r="C22" s="117"/>
+      <c r="D22" s="125" t="s">
         <v>320</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="130" t="s">
+      <c r="F22" s="116" t="s">
         <v>315</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="105" t="s">
+      <c r="H22" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="124" t="s">
+      <c r="I22" s="118" t="s">
         <v>126</v>
       </c>
       <c r="J22" s="20" t="s">
@@ -13778,155 +14029,155 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="110"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="125"/>
       <c r="E23" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="F23" s="130"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="H23" s="105"/>
-      <c r="I23" s="125"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="110"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="125"/>
       <c r="E24" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F24" s="130"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="105"/>
-      <c r="I24" s="125"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="119"/>
       <c r="J24" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="110"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="125"/>
       <c r="E25" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="130"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="105"/>
-      <c r="I25" s="125"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="110"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="125"/>
       <c r="E26" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="130"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="105"/>
-      <c r="I26" s="125"/>
+      <c r="H26" s="117"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="110"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="125"/>
       <c r="E27" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="130"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="105"/>
-      <c r="I27" s="125"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="110"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="125"/>
       <c r="E28" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="130"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="125"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="119"/>
       <c r="J28" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="106"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="110"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="125"/>
       <c r="E29" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="130"/>
+      <c r="F29" s="116"/>
       <c r="G29" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H29" s="105"/>
-      <c r="I29" s="126"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="120"/>
       <c r="J29" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="106" t="s">
+      <c r="A30" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="110" t="s">
+      <c r="C30" s="117"/>
+      <c r="D30" s="125" t="s">
         <v>321</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="130" t="s">
+      <c r="F30" s="116" t="s">
         <v>315</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="105" t="s">
+      <c r="H30" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="I30" s="124" t="s">
+      <c r="I30" s="118" t="s">
         <v>126</v>
       </c>
       <c r="J30" s="20" t="s">
@@ -13934,137 +14185,137 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="110"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="125"/>
       <c r="E31" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="130"/>
+      <c r="F31" s="116"/>
       <c r="G31" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="105"/>
-      <c r="I31" s="125"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="119"/>
       <c r="J31" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="110"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="125"/>
       <c r="E32" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="130"/>
+      <c r="F32" s="116"/>
       <c r="G32" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="105"/>
-      <c r="I32" s="125"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="119"/>
       <c r="J32" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="110"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="125"/>
       <c r="E33" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="130"/>
+      <c r="F33" s="116"/>
       <c r="G33" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="105"/>
-      <c r="I33" s="125"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="119"/>
       <c r="J33" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="110"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="125"/>
       <c r="E34" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="130"/>
+      <c r="F34" s="116"/>
       <c r="G34" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="105"/>
-      <c r="I34" s="125"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="119"/>
       <c r="J34" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="110"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="125"/>
       <c r="E35" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="130"/>
+      <c r="F35" s="116"/>
       <c r="G35" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="105"/>
-      <c r="I35" s="125"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="119"/>
       <c r="J35" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
-      <c r="B36" s="109"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="110"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="125"/>
       <c r="E36" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F36" s="130"/>
+      <c r="F36" s="116"/>
       <c r="G36" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="105"/>
-      <c r="I36" s="126"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="120"/>
       <c r="J36" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="110" t="s">
+      <c r="C37" s="117"/>
+      <c r="D37" s="125" t="s">
         <v>260</v>
       </c>
       <c r="E37" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F37" s="130" t="s">
+      <c r="F37" s="116" t="s">
         <v>315</v>
       </c>
       <c r="G37" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H37" s="105" t="s">
+      <c r="H37" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="I37" s="124" t="s">
+      <c r="I37" s="118" t="s">
         <v>126</v>
       </c>
       <c r="J37" s="20" t="s">
@@ -14072,127 +14323,122 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="110"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="125"/>
       <c r="E38" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F38" s="130"/>
+      <c r="F38" s="116"/>
       <c r="G38" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H38" s="105"/>
-      <c r="I38" s="125"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="119"/>
       <c r="J38" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
-      <c r="B39" s="108"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="110"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="125"/>
       <c r="E39" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="130"/>
+      <c r="F39" s="116"/>
       <c r="G39" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H39" s="105"/>
-      <c r="I39" s="125"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="119"/>
       <c r="J39" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="110"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="125"/>
       <c r="E40" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="130"/>
+      <c r="F40" s="116"/>
       <c r="G40" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H40" s="105"/>
-      <c r="I40" s="125"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="119"/>
       <c r="J40" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="110"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="127"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="125"/>
       <c r="E41" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="130"/>
+      <c r="F41" s="116"/>
       <c r="G41" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H41" s="105"/>
-      <c r="I41" s="125"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="119"/>
       <c r="J41" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="110"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="125"/>
       <c r="E42" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="130"/>
+      <c r="F42" s="116"/>
       <c r="G42" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="105"/>
-      <c r="I42" s="125"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="119"/>
       <c r="J42" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="110"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="125"/>
       <c r="E43" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="130"/>
+      <c r="F43" s="116"/>
       <c r="G43" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="H43" s="105"/>
-      <c r="I43" s="126"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="120"/>
       <c r="J43" s="20" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="C37:C43"/>
-    <mergeCell ref="D37:D43"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="H37:H43"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D6:D13"/>
     <mergeCell ref="H14:H21"/>
     <mergeCell ref="I14:I21"/>
     <mergeCell ref="A22:A29"/>
@@ -14209,13 +14455,18 @@
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="C30:C36"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="H37:H43"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="B37:B43"/>
+    <mergeCell ref="C37:C43"/>
+    <mergeCell ref="D37:D43"/>
+    <mergeCell ref="F37:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/doc/LS_Overview.xlsx
+++ b/doc/LS_Overview.xlsx
@@ -2611,40 +2611,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2653,16 +2623,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2674,6 +2647,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2683,26 +2677,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5859,10 +5859,10 @@
   <dimension ref="A1:R175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5958,15 +5958,15 @@
       <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="119" t="s">
         <v>157</v>
       </c>
       <c r="C5" s="101"/>
       <c r="D5" s="101"/>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="118" t="s">
         <v>93</v>
       </c>
       <c r="F5" s="38" t="s">
@@ -5977,19 +5977,19 @@
       <c r="I5" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="125" t="s">
         <v>175</v>
       </c>
-      <c r="K5" s="107" t="s">
+      <c r="K5" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="125" t="s">
         <v>114</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="N5" s="126" t="s">
+      <c r="N5" s="110" t="s">
         <v>102</v>
       </c>
       <c r="O5" s="20" t="s">
@@ -5998,7 +5998,7 @@
       <c r="P5" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="Q5" s="120" t="s">
+      <c r="Q5" s="111" t="s">
         <v>113</v>
       </c>
       <c r="R5" s="20" t="s">
@@ -6006,11 +6006,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="104"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="101"/>
       <c r="D6" s="101"/>
-      <c r="E6" s="106"/>
+      <c r="E6" s="118"/>
       <c r="F6" s="38" t="s">
         <v>122</v>
       </c>
@@ -6019,188 +6019,188 @@
       <c r="I6" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
       <c r="M6" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="N6" s="126"/>
+      <c r="N6" s="110"/>
       <c r="O6" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P6" s="101"/>
-      <c r="Q6" s="121"/>
+      <c r="Q6" s="112"/>
       <c r="R6" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="104"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="101"/>
       <c r="D7" s="101"/>
-      <c r="E7" s="106"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="38" t="s">
         <v>104</v>
       </c>
       <c r="G7" s="101"/>
       <c r="H7" s="101"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="126"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="110"/>
       <c r="O7" s="20" t="s">
         <v>95</v>
       </c>
       <c r="P7" s="101"/>
-      <c r="Q7" s="121"/>
+      <c r="Q7" s="112"/>
       <c r="R7" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="101"/>
       <c r="D8" s="101"/>
-      <c r="E8" s="106"/>
+      <c r="E8" s="118"/>
       <c r="F8" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G8" s="101"/>
       <c r="H8" s="101"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="126"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="110"/>
       <c r="O8" s="20" t="s">
         <v>96</v>
       </c>
       <c r="P8" s="101"/>
-      <c r="Q8" s="121"/>
+      <c r="Q8" s="112"/>
       <c r="R8" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="101"/>
       <c r="D9" s="101"/>
-      <c r="E9" s="106"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="38" t="s">
         <v>106</v>
       </c>
       <c r="G9" s="101"/>
       <c r="H9" s="101"/>
-      <c r="I9" s="124"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="126"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="110"/>
       <c r="O9" s="20" t="s">
         <v>97</v>
       </c>
       <c r="P9" s="101"/>
-      <c r="Q9" s="121"/>
+      <c r="Q9" s="112"/>
       <c r="R9" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="101"/>
       <c r="D10" s="101"/>
-      <c r="E10" s="106"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="38" t="s">
         <v>107</v>
       </c>
       <c r="G10" s="101"/>
       <c r="H10" s="101"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="126"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="110"/>
       <c r="O10" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P10" s="101"/>
-      <c r="Q10" s="121"/>
+      <c r="Q10" s="112"/>
       <c r="R10" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="101"/>
       <c r="D11" s="101"/>
-      <c r="E11" s="106"/>
+      <c r="E11" s="118"/>
       <c r="F11" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G11" s="101"/>
       <c r="H11" s="101"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="126"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="110"/>
       <c r="O11" s="20" t="s">
         <v>99</v>
       </c>
       <c r="P11" s="101"/>
-      <c r="Q11" s="121"/>
+      <c r="Q11" s="112"/>
       <c r="R11" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="105"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="101"/>
       <c r="D12" s="101"/>
-      <c r="E12" s="106"/>
+      <c r="E12" s="118"/>
       <c r="F12" s="38" t="s">
         <v>109</v>
       </c>
       <c r="G12" s="101"/>
       <c r="H12" s="101"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="126"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="110"/>
       <c r="O12" s="20" t="s">
         <v>100</v>
       </c>
       <c r="P12" s="101"/>
-      <c r="Q12" s="122"/>
+      <c r="Q12" s="113"/>
       <c r="R12" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="119" t="s">
         <v>157</v>
       </c>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="118" t="s">
         <v>140</v>
       </c>
       <c r="F13" s="38" t="s">
@@ -6215,7 +6215,7 @@
       <c r="K13" s="101"/>
       <c r="L13" s="101"/>
       <c r="M13" s="101"/>
-      <c r="N13" s="126" t="s">
+      <c r="N13" s="110" t="s">
         <v>102</v>
       </c>
       <c r="O13" s="20" t="s">
@@ -6224,7 +6224,7 @@
       <c r="P13" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="Q13" s="120" t="s">
+      <c r="Q13" s="111" t="s">
         <v>113</v>
       </c>
       <c r="R13" s="20" t="s">
@@ -6232,11 +6232,11 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="104"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="101"/>
       <c r="D14" s="101"/>
-      <c r="E14" s="106"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="38" t="s">
         <v>122</v>
       </c>
@@ -6249,168 +6249,168 @@
       <c r="K14" s="101"/>
       <c r="L14" s="101"/>
       <c r="M14" s="101"/>
-      <c r="N14" s="126"/>
+      <c r="N14" s="110"/>
       <c r="O14" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P14" s="101"/>
-      <c r="Q14" s="121"/>
+      <c r="Q14" s="112"/>
       <c r="R14" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="104"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
-      <c r="E15" s="106"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="38" t="s">
         <v>104</v>
       </c>
       <c r="G15" s="101"/>
       <c r="H15" s="101"/>
-      <c r="I15" s="123"/>
+      <c r="I15" s="121"/>
       <c r="J15" s="101"/>
       <c r="K15" s="101"/>
       <c r="L15" s="101"/>
       <c r="M15" s="101"/>
-      <c r="N15" s="126"/>
+      <c r="N15" s="110"/>
       <c r="O15" s="20" t="s">
         <v>95</v>
       </c>
       <c r="P15" s="101"/>
-      <c r="Q15" s="121"/>
+      <c r="Q15" s="112"/>
       <c r="R15" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="104"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="101"/>
       <c r="D16" s="101"/>
-      <c r="E16" s="106"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G16" s="101"/>
       <c r="H16" s="101"/>
-      <c r="I16" s="124"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="101"/>
       <c r="K16" s="101"/>
       <c r="L16" s="101"/>
       <c r="M16" s="101"/>
-      <c r="N16" s="126"/>
+      <c r="N16" s="110"/>
       <c r="O16" s="20" t="s">
         <v>96</v>
       </c>
       <c r="P16" s="101"/>
-      <c r="Q16" s="121"/>
+      <c r="Q16" s="112"/>
       <c r="R16" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="104"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="101"/>
       <c r="D17" s="101"/>
-      <c r="E17" s="106"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="38" t="s">
         <v>106</v>
       </c>
       <c r="G17" s="101"/>
       <c r="H17" s="101"/>
-      <c r="I17" s="124"/>
+      <c r="I17" s="122"/>
       <c r="J17" s="101"/>
       <c r="K17" s="101"/>
       <c r="L17" s="101"/>
       <c r="M17" s="101"/>
-      <c r="N17" s="126"/>
+      <c r="N17" s="110"/>
       <c r="O17" s="20" t="s">
         <v>97</v>
       </c>
       <c r="P17" s="101"/>
-      <c r="Q17" s="121"/>
+      <c r="Q17" s="112"/>
       <c r="R17" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
-      <c r="B18" s="104"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="101"/>
       <c r="D18" s="101"/>
-      <c r="E18" s="106"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="38" t="s">
         <v>107</v>
       </c>
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
-      <c r="I18" s="124"/>
+      <c r="I18" s="122"/>
       <c r="J18" s="101"/>
       <c r="K18" s="101"/>
       <c r="L18" s="101"/>
       <c r="M18" s="101"/>
-      <c r="N18" s="126"/>
+      <c r="N18" s="110"/>
       <c r="O18" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P18" s="101"/>
-      <c r="Q18" s="121"/>
+      <c r="Q18" s="112"/>
       <c r="R18" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="101"/>
       <c r="D19" s="101"/>
-      <c r="E19" s="106"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G19" s="101"/>
       <c r="H19" s="101"/>
-      <c r="I19" s="124"/>
+      <c r="I19" s="122"/>
       <c r="J19" s="101"/>
       <c r="K19" s="101"/>
       <c r="L19" s="101"/>
       <c r="M19" s="101"/>
-      <c r="N19" s="126"/>
+      <c r="N19" s="110"/>
       <c r="O19" s="20" t="s">
         <v>99</v>
       </c>
       <c r="P19" s="101"/>
-      <c r="Q19" s="121"/>
+      <c r="Q19" s="112"/>
       <c r="R19" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
-      <c r="B20" s="105"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="124"/>
       <c r="C20" s="101"/>
       <c r="D20" s="101"/>
-      <c r="E20" s="106"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="38" t="s">
         <v>109</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="101"/>
-      <c r="I20" s="125"/>
+      <c r="I20" s="123"/>
       <c r="J20" s="101"/>
       <c r="K20" s="101"/>
       <c r="L20" s="101"/>
       <c r="M20" s="101"/>
-      <c r="N20" s="126"/>
+      <c r="N20" s="110"/>
       <c r="O20" s="20" t="s">
         <v>100</v>
       </c>
       <c r="P20" s="101"/>
-      <c r="Q20" s="122"/>
+      <c r="Q20" s="113"/>
       <c r="R20" s="20" t="s">
         <v>94</v>
       </c>
@@ -6794,19 +6794,19 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="112" t="s">
+      <c r="B31" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="114" t="s">
+      <c r="D31" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="E31" s="116" t="s">
+      <c r="E31" s="132" t="s">
         <v>259</v>
       </c>
       <c r="F31" s="19"/>
@@ -6838,11 +6838,11 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="111"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="117"/>
+      <c r="A32" s="131"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="129"/>
       <c r="F32" s="48"/>
       <c r="G32" s="49" t="s">
         <v>112</v>
@@ -6912,7 +6912,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="114" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="127" t="s">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="C35" s="101"/>
       <c r="D35" s="101"/>
-      <c r="E35" s="106" t="s">
+      <c r="E35" s="118" t="s">
         <v>145</v>
       </c>
       <c r="F35" s="38" t="s">
@@ -6931,11 +6931,11 @@
       <c r="I35" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
       <c r="M35" s="101"/>
-      <c r="N35" s="126" t="s">
+      <c r="N35" s="110" t="s">
         <v>102</v>
       </c>
       <c r="O35" s="20" t="s">
@@ -6944,7 +6944,7 @@
       <c r="P35" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="Q35" s="120" t="s">
+      <c r="Q35" s="111" t="s">
         <v>113</v>
       </c>
       <c r="R35" s="20" t="s">
@@ -6952,11 +6952,11 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="102"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="127"/>
       <c r="C36" s="101"/>
       <c r="D36" s="101"/>
-      <c r="E36" s="106"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="38" t="s">
         <v>122</v>
       </c>
@@ -6969,174 +6969,174 @@
       <c r="K36" s="101"/>
       <c r="L36" s="101"/>
       <c r="M36" s="101"/>
-      <c r="N36" s="126"/>
+      <c r="N36" s="110"/>
       <c r="O36" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P36" s="101"/>
-      <c r="Q36" s="121"/>
+      <c r="Q36" s="112"/>
       <c r="R36" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="102"/>
+      <c r="A37" s="114"/>
       <c r="B37" s="127"/>
       <c r="C37" s="101"/>
       <c r="D37" s="101"/>
-      <c r="E37" s="106"/>
+      <c r="E37" s="118"/>
       <c r="F37" s="38" t="s">
         <v>104</v>
       </c>
       <c r="G37" s="101"/>
       <c r="H37" s="101"/>
-      <c r="I37" s="123"/>
+      <c r="I37" s="121"/>
       <c r="J37" s="101"/>
       <c r="K37" s="101"/>
       <c r="L37" s="101"/>
       <c r="M37" s="101"/>
-      <c r="N37" s="126"/>
+      <c r="N37" s="110"/>
       <c r="O37" s="20" t="s">
         <v>95</v>
       </c>
       <c r="P37" s="101"/>
-      <c r="Q37" s="121"/>
+      <c r="Q37" s="112"/>
       <c r="R37" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="102"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="127"/>
       <c r="C38" s="101"/>
       <c r="D38" s="101"/>
-      <c r="E38" s="106"/>
+      <c r="E38" s="118"/>
       <c r="F38" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G38" s="101"/>
       <c r="H38" s="101"/>
-      <c r="I38" s="124"/>
+      <c r="I38" s="122"/>
       <c r="J38" s="101"/>
       <c r="K38" s="101"/>
       <c r="L38" s="101"/>
       <c r="M38" s="101"/>
-      <c r="N38" s="126"/>
+      <c r="N38" s="110"/>
       <c r="O38" s="20" t="s">
         <v>96</v>
       </c>
       <c r="P38" s="101"/>
-      <c r="Q38" s="121"/>
+      <c r="Q38" s="112"/>
       <c r="R38" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="102"/>
+      <c r="A39" s="114"/>
       <c r="B39" s="127"/>
       <c r="C39" s="101"/>
       <c r="D39" s="101"/>
-      <c r="E39" s="106"/>
+      <c r="E39" s="118"/>
       <c r="F39" s="38" t="s">
         <v>106</v>
       </c>
       <c r="G39" s="101"/>
       <c r="H39" s="101"/>
-      <c r="I39" s="124"/>
+      <c r="I39" s="122"/>
       <c r="J39" s="101"/>
       <c r="K39" s="101"/>
       <c r="L39" s="101"/>
       <c r="M39" s="101"/>
-      <c r="N39" s="126"/>
+      <c r="N39" s="110"/>
       <c r="O39" s="20" t="s">
         <v>97</v>
       </c>
       <c r="P39" s="101"/>
-      <c r="Q39" s="121"/>
+      <c r="Q39" s="112"/>
       <c r="R39" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="102"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="127"/>
       <c r="C40" s="101"/>
       <c r="D40" s="101"/>
-      <c r="E40" s="106"/>
+      <c r="E40" s="118"/>
       <c r="F40" s="38" t="s">
         <v>107</v>
       </c>
       <c r="G40" s="101"/>
       <c r="H40" s="101"/>
-      <c r="I40" s="124"/>
+      <c r="I40" s="122"/>
       <c r="J40" s="101"/>
       <c r="K40" s="101"/>
       <c r="L40" s="101"/>
       <c r="M40" s="101"/>
-      <c r="N40" s="126"/>
+      <c r="N40" s="110"/>
       <c r="O40" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P40" s="101"/>
-      <c r="Q40" s="121"/>
+      <c r="Q40" s="112"/>
       <c r="R40" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="102"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="127"/>
       <c r="C41" s="101"/>
       <c r="D41" s="101"/>
-      <c r="E41" s="106"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G41" s="101"/>
       <c r="H41" s="101"/>
-      <c r="I41" s="124"/>
+      <c r="I41" s="122"/>
       <c r="J41" s="101"/>
       <c r="K41" s="101"/>
       <c r="L41" s="101"/>
       <c r="M41" s="101"/>
-      <c r="N41" s="126"/>
+      <c r="N41" s="110"/>
       <c r="O41" s="20" t="s">
         <v>99</v>
       </c>
       <c r="P41" s="101"/>
-      <c r="Q41" s="121"/>
+      <c r="Q41" s="112"/>
       <c r="R41" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="102"/>
+      <c r="A42" s="114"/>
       <c r="B42" s="127"/>
       <c r="C42" s="101"/>
       <c r="D42" s="101"/>
-      <c r="E42" s="106"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="38" t="s">
         <v>109</v>
       </c>
       <c r="G42" s="101"/>
       <c r="H42" s="101"/>
-      <c r="I42" s="125"/>
+      <c r="I42" s="123"/>
       <c r="J42" s="101"/>
       <c r="K42" s="101"/>
       <c r="L42" s="101"/>
       <c r="M42" s="101"/>
-      <c r="N42" s="126"/>
+      <c r="N42" s="110"/>
       <c r="O42" s="20" t="s">
         <v>100</v>
       </c>
       <c r="P42" s="101"/>
-      <c r="Q42" s="122"/>
+      <c r="Q42" s="113"/>
       <c r="R42" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="102" t="s">
+      <c r="A43" s="114" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="127" t="s">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="C43" s="101"/>
       <c r="D43" s="101"/>
-      <c r="E43" s="106" t="s">
+      <c r="E43" s="118" t="s">
         <v>146</v>
       </c>
       <c r="F43" s="38" t="s">
@@ -7159,7 +7159,7 @@
       <c r="K43" s="101"/>
       <c r="L43" s="101"/>
       <c r="M43" s="101"/>
-      <c r="N43" s="126" t="s">
+      <c r="N43" s="110" t="s">
         <v>102</v>
       </c>
       <c r="O43" s="20" t="s">
@@ -7168,7 +7168,7 @@
       <c r="P43" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="Q43" s="120" t="s">
+      <c r="Q43" s="111" t="s">
         <v>113</v>
       </c>
       <c r="R43" s="20" t="s">
@@ -7176,11 +7176,11 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="102"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="127"/>
       <c r="C44" s="101"/>
       <c r="D44" s="101"/>
-      <c r="E44" s="106"/>
+      <c r="E44" s="118"/>
       <c r="F44" s="38" t="s">
         <v>122</v>
       </c>
@@ -7193,168 +7193,168 @@
       <c r="K44" s="101"/>
       <c r="L44" s="101"/>
       <c r="M44" s="101"/>
-      <c r="N44" s="126"/>
+      <c r="N44" s="110"/>
       <c r="O44" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P44" s="101"/>
-      <c r="Q44" s="121"/>
+      <c r="Q44" s="112"/>
       <c r="R44" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="102"/>
+      <c r="A45" s="114"/>
       <c r="B45" s="127"/>
       <c r="C45" s="101"/>
       <c r="D45" s="101"/>
-      <c r="E45" s="106"/>
+      <c r="E45" s="118"/>
       <c r="F45" s="38" t="s">
         <v>104</v>
       </c>
       <c r="G45" s="101"/>
       <c r="H45" s="101"/>
-      <c r="I45" s="123"/>
+      <c r="I45" s="121"/>
       <c r="J45" s="101"/>
       <c r="K45" s="101"/>
       <c r="L45" s="101"/>
       <c r="M45" s="101"/>
-      <c r="N45" s="126"/>
+      <c r="N45" s="110"/>
       <c r="O45" s="20" t="s">
         <v>95</v>
       </c>
       <c r="P45" s="101"/>
-      <c r="Q45" s="121"/>
+      <c r="Q45" s="112"/>
       <c r="R45" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="102"/>
+      <c r="A46" s="114"/>
       <c r="B46" s="127"/>
       <c r="C46" s="101"/>
       <c r="D46" s="101"/>
-      <c r="E46" s="106"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G46" s="101"/>
       <c r="H46" s="101"/>
-      <c r="I46" s="124"/>
+      <c r="I46" s="122"/>
       <c r="J46" s="101"/>
       <c r="K46" s="101"/>
       <c r="L46" s="101"/>
       <c r="M46" s="101"/>
-      <c r="N46" s="126"/>
+      <c r="N46" s="110"/>
       <c r="O46" s="20" t="s">
         <v>96</v>
       </c>
       <c r="P46" s="101"/>
-      <c r="Q46" s="121"/>
+      <c r="Q46" s="112"/>
       <c r="R46" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="102"/>
+      <c r="A47" s="114"/>
       <c r="B47" s="127"/>
       <c r="C47" s="101"/>
       <c r="D47" s="101"/>
-      <c r="E47" s="106"/>
+      <c r="E47" s="118"/>
       <c r="F47" s="38" t="s">
         <v>106</v>
       </c>
       <c r="G47" s="101"/>
       <c r="H47" s="101"/>
-      <c r="I47" s="124"/>
+      <c r="I47" s="122"/>
       <c r="J47" s="101"/>
       <c r="K47" s="101"/>
       <c r="L47" s="101"/>
       <c r="M47" s="101"/>
-      <c r="N47" s="126"/>
+      <c r="N47" s="110"/>
       <c r="O47" s="20" t="s">
         <v>97</v>
       </c>
       <c r="P47" s="101"/>
-      <c r="Q47" s="121"/>
+      <c r="Q47" s="112"/>
       <c r="R47" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="102"/>
+      <c r="A48" s="114"/>
       <c r="B48" s="127"/>
       <c r="C48" s="101"/>
       <c r="D48" s="101"/>
-      <c r="E48" s="106"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="38" t="s">
         <v>107</v>
       </c>
       <c r="G48" s="101"/>
       <c r="H48" s="101"/>
-      <c r="I48" s="124"/>
+      <c r="I48" s="122"/>
       <c r="J48" s="101"/>
       <c r="K48" s="101"/>
       <c r="L48" s="101"/>
       <c r="M48" s="101"/>
-      <c r="N48" s="126"/>
+      <c r="N48" s="110"/>
       <c r="O48" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P48" s="101"/>
-      <c r="Q48" s="121"/>
+      <c r="Q48" s="112"/>
       <c r="R48" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="102"/>
+      <c r="A49" s="114"/>
       <c r="B49" s="127"/>
       <c r="C49" s="101"/>
       <c r="D49" s="101"/>
-      <c r="E49" s="106"/>
+      <c r="E49" s="118"/>
       <c r="F49" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G49" s="101"/>
       <c r="H49" s="101"/>
-      <c r="I49" s="124"/>
+      <c r="I49" s="122"/>
       <c r="J49" s="101"/>
       <c r="K49" s="101"/>
       <c r="L49" s="101"/>
       <c r="M49" s="101"/>
-      <c r="N49" s="126"/>
+      <c r="N49" s="110"/>
       <c r="O49" s="20" t="s">
         <v>99</v>
       </c>
       <c r="P49" s="101"/>
-      <c r="Q49" s="121"/>
+      <c r="Q49" s="112"/>
       <c r="R49" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="102"/>
+      <c r="A50" s="114"/>
       <c r="B50" s="127"/>
       <c r="C50" s="101"/>
       <c r="D50" s="101"/>
-      <c r="E50" s="106"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="38" t="s">
         <v>109</v>
       </c>
       <c r="G50" s="101"/>
       <c r="H50" s="101"/>
-      <c r="I50" s="125"/>
+      <c r="I50" s="123"/>
       <c r="J50" s="101"/>
       <c r="K50" s="101"/>
       <c r="L50" s="101"/>
       <c r="M50" s="101"/>
-      <c r="N50" s="126"/>
+      <c r="N50" s="110"/>
       <c r="O50" s="20" t="s">
         <v>100</v>
       </c>
       <c r="P50" s="101"/>
-      <c r="Q50" s="122"/>
+      <c r="Q50" s="113"/>
       <c r="R50" s="20" t="s">
         <v>94</v>
       </c>
@@ -7654,15 +7654,15 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="103" t="s">
+      <c r="B60" s="119" t="s">
         <v>157</v>
       </c>
       <c r="C60" s="101"/>
       <c r="D60" s="101"/>
-      <c r="E60" s="106" t="s">
+      <c r="E60" s="118" t="s">
         <v>162</v>
       </c>
       <c r="F60" s="38" t="s">
@@ -7673,13 +7673,13 @@
       <c r="I60" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="J60" s="107" t="s">
+      <c r="J60" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="K60" s="109"/>
-      <c r="L60" s="109"/>
+      <c r="K60" s="128"/>
+      <c r="L60" s="128"/>
       <c r="M60" s="101"/>
-      <c r="N60" s="126" t="s">
+      <c r="N60" s="110" t="s">
         <v>102</v>
       </c>
       <c r="O60" s="20" t="s">
@@ -7688,7 +7688,7 @@
       <c r="P60" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="Q60" s="120" t="s">
+      <c r="Q60" s="111" t="s">
         <v>113</v>
       </c>
       <c r="R60" s="20" t="s">
@@ -7696,11 +7696,11 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="102"/>
-      <c r="B61" s="104"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="120"/>
       <c r="C61" s="101"/>
       <c r="D61" s="101"/>
-      <c r="E61" s="106"/>
+      <c r="E61" s="118"/>
       <c r="F61" s="38" t="s">
         <v>122</v>
       </c>
@@ -7709,186 +7709,186 @@
       <c r="I61" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="J61" s="108"/>
+      <c r="J61" s="126"/>
       <c r="K61" s="101"/>
       <c r="L61" s="101"/>
       <c r="M61" s="101"/>
-      <c r="N61" s="126"/>
+      <c r="N61" s="110"/>
       <c r="O61" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P61" s="101"/>
-      <c r="Q61" s="121"/>
+      <c r="Q61" s="112"/>
       <c r="R61" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="102"/>
-      <c r="B62" s="104"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="120"/>
       <c r="C62" s="101"/>
       <c r="D62" s="101"/>
-      <c r="E62" s="106"/>
+      <c r="E62" s="118"/>
       <c r="F62" s="38" t="s">
         <v>104</v>
       </c>
       <c r="G62" s="101"/>
       <c r="H62" s="101"/>
-      <c r="I62" s="123"/>
-      <c r="J62" s="108"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="126"/>
       <c r="K62" s="101"/>
       <c r="L62" s="101"/>
       <c r="M62" s="101"/>
-      <c r="N62" s="126"/>
+      <c r="N62" s="110"/>
       <c r="O62" s="20" t="s">
         <v>95</v>
       </c>
       <c r="P62" s="101"/>
-      <c r="Q62" s="121"/>
+      <c r="Q62" s="112"/>
       <c r="R62" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="102"/>
-      <c r="B63" s="104"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="120"/>
       <c r="C63" s="101"/>
       <c r="D63" s="101"/>
-      <c r="E63" s="106"/>
+      <c r="E63" s="118"/>
       <c r="F63" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G63" s="101"/>
       <c r="H63" s="101"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="108"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="126"/>
       <c r="K63" s="101"/>
       <c r="L63" s="101"/>
       <c r="M63" s="101"/>
-      <c r="N63" s="126"/>
+      <c r="N63" s="110"/>
       <c r="O63" s="20" t="s">
         <v>96</v>
       </c>
       <c r="P63" s="101"/>
-      <c r="Q63" s="121"/>
+      <c r="Q63" s="112"/>
       <c r="R63" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="102"/>
-      <c r="B64" s="104"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="120"/>
       <c r="C64" s="101"/>
       <c r="D64" s="101"/>
-      <c r="E64" s="106"/>
+      <c r="E64" s="118"/>
       <c r="F64" s="38" t="s">
         <v>106</v>
       </c>
       <c r="G64" s="101"/>
       <c r="H64" s="101"/>
-      <c r="I64" s="124"/>
-      <c r="J64" s="108"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="126"/>
       <c r="K64" s="101"/>
       <c r="L64" s="101"/>
       <c r="M64" s="101"/>
-      <c r="N64" s="126"/>
+      <c r="N64" s="110"/>
       <c r="O64" s="20" t="s">
         <v>97</v>
       </c>
       <c r="P64" s="101"/>
-      <c r="Q64" s="121"/>
+      <c r="Q64" s="112"/>
       <c r="R64" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="102"/>
-      <c r="B65" s="104"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="120"/>
       <c r="C65" s="101"/>
       <c r="D65" s="101"/>
-      <c r="E65" s="106"/>
+      <c r="E65" s="118"/>
       <c r="F65" s="38" t="s">
         <v>107</v>
       </c>
       <c r="G65" s="101"/>
       <c r="H65" s="101"/>
-      <c r="I65" s="124"/>
-      <c r="J65" s="108"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="126"/>
       <c r="K65" s="101"/>
       <c r="L65" s="101"/>
       <c r="M65" s="101"/>
-      <c r="N65" s="126"/>
+      <c r="N65" s="110"/>
       <c r="O65" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P65" s="101"/>
-      <c r="Q65" s="121"/>
+      <c r="Q65" s="112"/>
       <c r="R65" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="102"/>
-      <c r="B66" s="104"/>
+      <c r="A66" s="114"/>
+      <c r="B66" s="120"/>
       <c r="C66" s="101"/>
       <c r="D66" s="101"/>
-      <c r="E66" s="106"/>
+      <c r="E66" s="118"/>
       <c r="F66" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G66" s="101"/>
       <c r="H66" s="101"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="108"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="126"/>
       <c r="K66" s="101"/>
       <c r="L66" s="101"/>
       <c r="M66" s="101"/>
-      <c r="N66" s="126"/>
+      <c r="N66" s="110"/>
       <c r="O66" s="20" t="s">
         <v>99</v>
       </c>
       <c r="P66" s="101"/>
-      <c r="Q66" s="121"/>
+      <c r="Q66" s="112"/>
       <c r="R66" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="102"/>
-      <c r="B67" s="105"/>
+      <c r="A67" s="114"/>
+      <c r="B67" s="124"/>
       <c r="C67" s="101"/>
       <c r="D67" s="101"/>
-      <c r="E67" s="106"/>
+      <c r="E67" s="118"/>
       <c r="F67" s="38" t="s">
         <v>109</v>
       </c>
       <c r="G67" s="101"/>
       <c r="H67" s="101"/>
-      <c r="I67" s="125"/>
-      <c r="J67" s="108"/>
+      <c r="I67" s="123"/>
+      <c r="J67" s="126"/>
       <c r="K67" s="101"/>
       <c r="L67" s="101"/>
       <c r="M67" s="101"/>
-      <c r="N67" s="126"/>
+      <c r="N67" s="110"/>
       <c r="O67" s="20" t="s">
         <v>100</v>
       </c>
       <c r="P67" s="101"/>
-      <c r="Q67" s="122"/>
+      <c r="Q67" s="113"/>
       <c r="R67" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B68" s="103" t="s">
+      <c r="B68" s="119" t="s">
         <v>157</v>
       </c>
       <c r="C68" s="101"/>
       <c r="D68" s="101"/>
-      <c r="E68" s="106" t="s">
+      <c r="E68" s="118" t="s">
         <v>163</v>
       </c>
       <c r="F68" s="38" t="s">
@@ -7903,7 +7903,7 @@
       <c r="K68" s="101"/>
       <c r="L68" s="101"/>
       <c r="M68" s="101"/>
-      <c r="N68" s="126" t="s">
+      <c r="N68" s="110" t="s">
         <v>102</v>
       </c>
       <c r="O68" s="20" t="s">
@@ -7912,7 +7912,7 @@
       <c r="P68" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="Q68" s="120" t="s">
+      <c r="Q68" s="111" t="s">
         <v>113</v>
       </c>
       <c r="R68" s="20" t="s">
@@ -7920,11 +7920,11 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="102"/>
-      <c r="B69" s="104"/>
+      <c r="A69" s="114"/>
+      <c r="B69" s="120"/>
       <c r="C69" s="101"/>
       <c r="D69" s="101"/>
-      <c r="E69" s="106"/>
+      <c r="E69" s="118"/>
       <c r="F69" s="38" t="s">
         <v>122</v>
       </c>
@@ -7937,168 +7937,168 @@
       <c r="K69" s="101"/>
       <c r="L69" s="101"/>
       <c r="M69" s="101"/>
-      <c r="N69" s="126"/>
+      <c r="N69" s="110"/>
       <c r="O69" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P69" s="101"/>
-      <c r="Q69" s="121"/>
+      <c r="Q69" s="112"/>
       <c r="R69" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="102"/>
-      <c r="B70" s="104"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="120"/>
       <c r="C70" s="101"/>
       <c r="D70" s="101"/>
-      <c r="E70" s="106"/>
+      <c r="E70" s="118"/>
       <c r="F70" s="38" t="s">
         <v>104</v>
       </c>
       <c r="G70" s="101"/>
       <c r="H70" s="101"/>
-      <c r="I70" s="123"/>
+      <c r="I70" s="121"/>
       <c r="J70" s="101"/>
       <c r="K70" s="101"/>
       <c r="L70" s="101"/>
       <c r="M70" s="101"/>
-      <c r="N70" s="126"/>
+      <c r="N70" s="110"/>
       <c r="O70" s="20" t="s">
         <v>95</v>
       </c>
       <c r="P70" s="101"/>
-      <c r="Q70" s="121"/>
+      <c r="Q70" s="112"/>
       <c r="R70" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="102"/>
-      <c r="B71" s="104"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="120"/>
       <c r="C71" s="101"/>
       <c r="D71" s="101"/>
-      <c r="E71" s="106"/>
+      <c r="E71" s="118"/>
       <c r="F71" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G71" s="101"/>
       <c r="H71" s="101"/>
-      <c r="I71" s="124"/>
+      <c r="I71" s="122"/>
       <c r="J71" s="101"/>
       <c r="K71" s="101"/>
       <c r="L71" s="101"/>
       <c r="M71" s="101"/>
-      <c r="N71" s="126"/>
+      <c r="N71" s="110"/>
       <c r="O71" s="20" t="s">
         <v>96</v>
       </c>
       <c r="P71" s="101"/>
-      <c r="Q71" s="121"/>
+      <c r="Q71" s="112"/>
       <c r="R71" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="102"/>
-      <c r="B72" s="104"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="120"/>
       <c r="C72" s="101"/>
       <c r="D72" s="101"/>
-      <c r="E72" s="106"/>
+      <c r="E72" s="118"/>
       <c r="F72" s="38" t="s">
         <v>106</v>
       </c>
       <c r="G72" s="101"/>
       <c r="H72" s="101"/>
-      <c r="I72" s="124"/>
+      <c r="I72" s="122"/>
       <c r="J72" s="101"/>
       <c r="K72" s="101"/>
       <c r="L72" s="101"/>
       <c r="M72" s="101"/>
-      <c r="N72" s="126"/>
+      <c r="N72" s="110"/>
       <c r="O72" s="20" t="s">
         <v>97</v>
       </c>
       <c r="P72" s="101"/>
-      <c r="Q72" s="121"/>
+      <c r="Q72" s="112"/>
       <c r="R72" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="102"/>
-      <c r="B73" s="104"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="120"/>
       <c r="C73" s="101"/>
       <c r="D73" s="101"/>
-      <c r="E73" s="106"/>
+      <c r="E73" s="118"/>
       <c r="F73" s="38" t="s">
         <v>107</v>
       </c>
       <c r="G73" s="101"/>
       <c r="H73" s="101"/>
-      <c r="I73" s="124"/>
+      <c r="I73" s="122"/>
       <c r="J73" s="101"/>
       <c r="K73" s="101"/>
       <c r="L73" s="101"/>
       <c r="M73" s="101"/>
-      <c r="N73" s="126"/>
+      <c r="N73" s="110"/>
       <c r="O73" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P73" s="101"/>
-      <c r="Q73" s="121"/>
+      <c r="Q73" s="112"/>
       <c r="R73" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="102"/>
-      <c r="B74" s="104"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="120"/>
       <c r="C74" s="101"/>
       <c r="D74" s="101"/>
-      <c r="E74" s="106"/>
+      <c r="E74" s="118"/>
       <c r="F74" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G74" s="101"/>
       <c r="H74" s="101"/>
-      <c r="I74" s="124"/>
+      <c r="I74" s="122"/>
       <c r="J74" s="101"/>
       <c r="K74" s="101"/>
       <c r="L74" s="101"/>
       <c r="M74" s="101"/>
-      <c r="N74" s="126"/>
+      <c r="N74" s="110"/>
       <c r="O74" s="20" t="s">
         <v>99</v>
       </c>
       <c r="P74" s="101"/>
-      <c r="Q74" s="121"/>
+      <c r="Q74" s="112"/>
       <c r="R74" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="102"/>
-      <c r="B75" s="105"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="124"/>
       <c r="C75" s="101"/>
       <c r="D75" s="101"/>
-      <c r="E75" s="106"/>
+      <c r="E75" s="118"/>
       <c r="F75" s="38" t="s">
         <v>109</v>
       </c>
       <c r="G75" s="101"/>
       <c r="H75" s="101"/>
-      <c r="I75" s="125"/>
+      <c r="I75" s="123"/>
       <c r="J75" s="101"/>
       <c r="K75" s="101"/>
       <c r="L75" s="101"/>
       <c r="M75" s="101"/>
-      <c r="N75" s="126"/>
+      <c r="N75" s="110"/>
       <c r="O75" s="20" t="s">
         <v>100</v>
       </c>
       <c r="P75" s="101"/>
-      <c r="Q75" s="122"/>
+      <c r="Q75" s="113"/>
       <c r="R75" s="20" t="s">
         <v>94</v>
       </c>
@@ -8438,15 +8438,15 @@
       </c>
     </row>
     <row r="85" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="110" t="s">
+      <c r="A85" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="112" t="s">
+      <c r="B85" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="118"/>
-      <c r="D85" s="118"/>
-      <c r="E85" s="116" t="s">
+      <c r="C85" s="102"/>
+      <c r="D85" s="102"/>
+      <c r="E85" s="132" t="s">
         <v>163</v>
       </c>
       <c r="F85" s="19"/>
@@ -8478,11 +8478,11 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="111"/>
-      <c r="B86" s="113"/>
-      <c r="C86" s="119"/>
-      <c r="D86" s="119"/>
-      <c r="E86" s="117"/>
+      <c r="A86" s="131"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="103"/>
+      <c r="D86" s="103"/>
+      <c r="E86" s="129"/>
       <c r="F86" s="48"/>
       <c r="G86" s="49" t="s">
         <v>112</v>
@@ -8548,15 +8548,15 @@
       </c>
     </row>
     <row r="89" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="102" t="s">
+      <c r="A89" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B89" s="103" t="s">
+      <c r="B89" s="119" t="s">
         <v>157</v>
       </c>
       <c r="C89" s="101"/>
       <c r="D89" s="101"/>
-      <c r="E89" s="106" t="s">
+      <c r="E89" s="118" t="s">
         <v>219</v>
       </c>
       <c r="F89" s="38" t="s">
@@ -8567,19 +8567,19 @@
       <c r="I89" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="J89" s="107" t="s">
+      <c r="J89" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="K89" s="107" t="s">
+      <c r="K89" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="L89" s="107" t="s">
+      <c r="L89" s="125" t="s">
         <v>114</v>
       </c>
       <c r="M89" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="N89" s="126" t="s">
+      <c r="N89" s="110" t="s">
         <v>102</v>
       </c>
       <c r="O89" s="20" t="s">
@@ -8588,7 +8588,7 @@
       <c r="P89" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="Q89" s="120" t="s">
+      <c r="Q89" s="111" t="s">
         <v>113</v>
       </c>
       <c r="R89" s="20" t="s">
@@ -8596,11 +8596,11 @@
       </c>
     </row>
     <row r="90" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="102"/>
-      <c r="B90" s="104"/>
+      <c r="A90" s="114"/>
+      <c r="B90" s="120"/>
       <c r="C90" s="101"/>
       <c r="D90" s="101"/>
-      <c r="E90" s="106"/>
+      <c r="E90" s="118"/>
       <c r="F90" s="38" t="s">
         <v>122</v>
       </c>
@@ -8609,188 +8609,188 @@
       <c r="I90" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="J90" s="108"/>
-      <c r="K90" s="108"/>
-      <c r="L90" s="108"/>
+      <c r="J90" s="126"/>
+      <c r="K90" s="126"/>
+      <c r="L90" s="126"/>
       <c r="M90" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="N90" s="126"/>
+      <c r="N90" s="110"/>
       <c r="O90" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P90" s="101"/>
-      <c r="Q90" s="121"/>
+      <c r="Q90" s="112"/>
       <c r="R90" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="102"/>
-      <c r="B91" s="104"/>
+      <c r="A91" s="114"/>
+      <c r="B91" s="120"/>
       <c r="C91" s="101"/>
       <c r="D91" s="101"/>
-      <c r="E91" s="106"/>
+      <c r="E91" s="118"/>
       <c r="F91" s="38" t="s">
         <v>104</v>
       </c>
       <c r="G91" s="101"/>
       <c r="H91" s="101"/>
-      <c r="I91" s="123"/>
-      <c r="J91" s="108"/>
-      <c r="K91" s="108"/>
-      <c r="L91" s="108"/>
+      <c r="I91" s="121"/>
+      <c r="J91" s="126"/>
+      <c r="K91" s="126"/>
+      <c r="L91" s="126"/>
       <c r="M91" s="54"/>
-      <c r="N91" s="126"/>
+      <c r="N91" s="110"/>
       <c r="O91" s="20" t="s">
         <v>95</v>
       </c>
       <c r="P91" s="101"/>
-      <c r="Q91" s="121"/>
+      <c r="Q91" s="112"/>
       <c r="R91" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="102"/>
-      <c r="B92" s="104"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="120"/>
       <c r="C92" s="101"/>
       <c r="D92" s="101"/>
-      <c r="E92" s="106"/>
+      <c r="E92" s="118"/>
       <c r="F92" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G92" s="101"/>
       <c r="H92" s="101"/>
-      <c r="I92" s="124"/>
-      <c r="J92" s="108"/>
-      <c r="K92" s="108"/>
-      <c r="L92" s="108"/>
+      <c r="I92" s="122"/>
+      <c r="J92" s="126"/>
+      <c r="K92" s="126"/>
+      <c r="L92" s="126"/>
       <c r="M92" s="54"/>
-      <c r="N92" s="126"/>
+      <c r="N92" s="110"/>
       <c r="O92" s="20" t="s">
         <v>96</v>
       </c>
       <c r="P92" s="101"/>
-      <c r="Q92" s="121"/>
+      <c r="Q92" s="112"/>
       <c r="R92" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="102"/>
-      <c r="B93" s="104"/>
+      <c r="A93" s="114"/>
+      <c r="B93" s="120"/>
       <c r="C93" s="101"/>
       <c r="D93" s="101"/>
-      <c r="E93" s="106"/>
+      <c r="E93" s="118"/>
       <c r="F93" s="38" t="s">
         <v>106</v>
       </c>
       <c r="G93" s="101"/>
       <c r="H93" s="101"/>
-      <c r="I93" s="124"/>
-      <c r="J93" s="108"/>
-      <c r="K93" s="108"/>
-      <c r="L93" s="108"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="126"/>
+      <c r="K93" s="126"/>
+      <c r="L93" s="126"/>
       <c r="M93" s="53"/>
-      <c r="N93" s="126"/>
+      <c r="N93" s="110"/>
       <c r="O93" s="20" t="s">
         <v>97</v>
       </c>
       <c r="P93" s="101"/>
-      <c r="Q93" s="121"/>
+      <c r="Q93" s="112"/>
       <c r="R93" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="102"/>
-      <c r="B94" s="104"/>
+      <c r="A94" s="114"/>
+      <c r="B94" s="120"/>
       <c r="C94" s="101"/>
       <c r="D94" s="101"/>
-      <c r="E94" s="106"/>
+      <c r="E94" s="118"/>
       <c r="F94" s="38" t="s">
         <v>107</v>
       </c>
       <c r="G94" s="101"/>
       <c r="H94" s="101"/>
-      <c r="I94" s="124"/>
-      <c r="J94" s="108"/>
-      <c r="K94" s="108"/>
-      <c r="L94" s="108"/>
+      <c r="I94" s="122"/>
+      <c r="J94" s="126"/>
+      <c r="K94" s="126"/>
+      <c r="L94" s="126"/>
       <c r="M94" s="54"/>
-      <c r="N94" s="126"/>
+      <c r="N94" s="110"/>
       <c r="O94" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P94" s="101"/>
-      <c r="Q94" s="121"/>
+      <c r="Q94" s="112"/>
       <c r="R94" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="102"/>
-      <c r="B95" s="104"/>
+      <c r="A95" s="114"/>
+      <c r="B95" s="120"/>
       <c r="C95" s="101"/>
       <c r="D95" s="101"/>
-      <c r="E95" s="106"/>
+      <c r="E95" s="118"/>
       <c r="F95" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G95" s="101"/>
       <c r="H95" s="101"/>
-      <c r="I95" s="124"/>
-      <c r="J95" s="108"/>
-      <c r="K95" s="108"/>
-      <c r="L95" s="108"/>
+      <c r="I95" s="122"/>
+      <c r="J95" s="126"/>
+      <c r="K95" s="126"/>
+      <c r="L95" s="126"/>
       <c r="M95" s="54"/>
-      <c r="N95" s="126"/>
+      <c r="N95" s="110"/>
       <c r="O95" s="20" t="s">
         <v>99</v>
       </c>
       <c r="P95" s="101"/>
-      <c r="Q95" s="121"/>
+      <c r="Q95" s="112"/>
       <c r="R95" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="102"/>
-      <c r="B96" s="105"/>
+      <c r="A96" s="114"/>
+      <c r="B96" s="124"/>
       <c r="C96" s="101"/>
       <c r="D96" s="101"/>
-      <c r="E96" s="106"/>
+      <c r="E96" s="118"/>
       <c r="F96" s="38" t="s">
         <v>109</v>
       </c>
       <c r="G96" s="101"/>
       <c r="H96" s="101"/>
-      <c r="I96" s="125"/>
-      <c r="J96" s="108"/>
-      <c r="K96" s="108"/>
-      <c r="L96" s="108"/>
+      <c r="I96" s="123"/>
+      <c r="J96" s="126"/>
+      <c r="K96" s="126"/>
+      <c r="L96" s="126"/>
       <c r="M96" s="54"/>
-      <c r="N96" s="126"/>
+      <c r="N96" s="110"/>
       <c r="O96" s="20" t="s">
         <v>100</v>
       </c>
       <c r="P96" s="101"/>
-      <c r="Q96" s="122"/>
+      <c r="Q96" s="113"/>
       <c r="R96" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="102" t="s">
+      <c r="A97" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B97" s="103" t="s">
+      <c r="B97" s="119" t="s">
         <v>157</v>
       </c>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
-      <c r="E97" s="106" t="s">
+      <c r="E97" s="118" t="s">
         <v>225</v>
       </c>
       <c r="F97" s="38" t="s">
@@ -8805,7 +8805,7 @@
       <c r="K97" s="101"/>
       <c r="L97" s="101"/>
       <c r="M97" s="101"/>
-      <c r="N97" s="126" t="s">
+      <c r="N97" s="110" t="s">
         <v>102</v>
       </c>
       <c r="O97" s="20" t="s">
@@ -8814,7 +8814,7 @@
       <c r="P97" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="Q97" s="120" t="s">
+      <c r="Q97" s="111" t="s">
         <v>113</v>
       </c>
       <c r="R97" s="20" t="s">
@@ -8822,11 +8822,11 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="102"/>
-      <c r="B98" s="104"/>
+      <c r="A98" s="114"/>
+      <c r="B98" s="120"/>
       <c r="C98" s="101"/>
       <c r="D98" s="101"/>
-      <c r="E98" s="106"/>
+      <c r="E98" s="118"/>
       <c r="F98" s="38" t="s">
         <v>122</v>
       </c>
@@ -8839,168 +8839,168 @@
       <c r="K98" s="101"/>
       <c r="L98" s="101"/>
       <c r="M98" s="101"/>
-      <c r="N98" s="126"/>
+      <c r="N98" s="110"/>
       <c r="O98" s="20" t="s">
         <v>94</v>
       </c>
       <c r="P98" s="101"/>
-      <c r="Q98" s="121"/>
+      <c r="Q98" s="112"/>
       <c r="R98" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="102"/>
-      <c r="B99" s="104"/>
+      <c r="A99" s="114"/>
+      <c r="B99" s="120"/>
       <c r="C99" s="101"/>
       <c r="D99" s="101"/>
-      <c r="E99" s="106"/>
+      <c r="E99" s="118"/>
       <c r="F99" s="38" t="s">
         <v>104</v>
       </c>
       <c r="G99" s="101"/>
       <c r="H99" s="101"/>
-      <c r="I99" s="123"/>
+      <c r="I99" s="121"/>
       <c r="J99" s="101"/>
       <c r="K99" s="101"/>
       <c r="L99" s="101"/>
       <c r="M99" s="101"/>
-      <c r="N99" s="126"/>
+      <c r="N99" s="110"/>
       <c r="O99" s="20" t="s">
         <v>95</v>
       </c>
       <c r="P99" s="101"/>
-      <c r="Q99" s="121"/>
+      <c r="Q99" s="112"/>
       <c r="R99" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="102"/>
-      <c r="B100" s="104"/>
+      <c r="A100" s="114"/>
+      <c r="B100" s="120"/>
       <c r="C100" s="101"/>
       <c r="D100" s="101"/>
-      <c r="E100" s="106"/>
+      <c r="E100" s="118"/>
       <c r="F100" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G100" s="101"/>
       <c r="H100" s="101"/>
-      <c r="I100" s="124"/>
+      <c r="I100" s="122"/>
       <c r="J100" s="101"/>
       <c r="K100" s="101"/>
       <c r="L100" s="101"/>
       <c r="M100" s="101"/>
-      <c r="N100" s="126"/>
+      <c r="N100" s="110"/>
       <c r="O100" s="20" t="s">
         <v>96</v>
       </c>
       <c r="P100" s="101"/>
-      <c r="Q100" s="121"/>
+      <c r="Q100" s="112"/>
       <c r="R100" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="102"/>
-      <c r="B101" s="104"/>
+      <c r="A101" s="114"/>
+      <c r="B101" s="120"/>
       <c r="C101" s="101"/>
       <c r="D101" s="101"/>
-      <c r="E101" s="106"/>
+      <c r="E101" s="118"/>
       <c r="F101" s="38" t="s">
         <v>106</v>
       </c>
       <c r="G101" s="101"/>
       <c r="H101" s="101"/>
-      <c r="I101" s="124"/>
+      <c r="I101" s="122"/>
       <c r="J101" s="101"/>
       <c r="K101" s="101"/>
       <c r="L101" s="101"/>
       <c r="M101" s="101"/>
-      <c r="N101" s="126"/>
+      <c r="N101" s="110"/>
       <c r="O101" s="20" t="s">
         <v>97</v>
       </c>
       <c r="P101" s="101"/>
-      <c r="Q101" s="121"/>
+      <c r="Q101" s="112"/>
       <c r="R101" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="102"/>
-      <c r="B102" s="104"/>
+      <c r="A102" s="114"/>
+      <c r="B102" s="120"/>
       <c r="C102" s="101"/>
       <c r="D102" s="101"/>
-      <c r="E102" s="106"/>
+      <c r="E102" s="118"/>
       <c r="F102" s="38" t="s">
         <v>107</v>
       </c>
       <c r="G102" s="101"/>
       <c r="H102" s="101"/>
-      <c r="I102" s="124"/>
+      <c r="I102" s="122"/>
       <c r="J102" s="101"/>
       <c r="K102" s="101"/>
       <c r="L102" s="101"/>
       <c r="M102" s="101"/>
-      <c r="N102" s="126"/>
+      <c r="N102" s="110"/>
       <c r="O102" s="20" t="s">
         <v>98</v>
       </c>
       <c r="P102" s="101"/>
-      <c r="Q102" s="121"/>
+      <c r="Q102" s="112"/>
       <c r="R102" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="102"/>
-      <c r="B103" s="104"/>
+      <c r="A103" s="114"/>
+      <c r="B103" s="120"/>
       <c r="C103" s="101"/>
       <c r="D103" s="101"/>
-      <c r="E103" s="106"/>
+      <c r="E103" s="118"/>
       <c r="F103" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G103" s="101"/>
       <c r="H103" s="101"/>
-      <c r="I103" s="124"/>
+      <c r="I103" s="122"/>
       <c r="J103" s="101"/>
       <c r="K103" s="101"/>
       <c r="L103" s="101"/>
       <c r="M103" s="101"/>
-      <c r="N103" s="126"/>
+      <c r="N103" s="110"/>
       <c r="O103" s="20" t="s">
         <v>99</v>
       </c>
       <c r="P103" s="101"/>
-      <c r="Q103" s="121"/>
+      <c r="Q103" s="112"/>
       <c r="R103" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="102"/>
-      <c r="B104" s="105"/>
+      <c r="A104" s="114"/>
+      <c r="B104" s="124"/>
       <c r="C104" s="101"/>
       <c r="D104" s="101"/>
-      <c r="E104" s="106"/>
+      <c r="E104" s="118"/>
       <c r="F104" s="38" t="s">
         <v>109</v>
       </c>
       <c r="G104" s="101"/>
       <c r="H104" s="101"/>
-      <c r="I104" s="125"/>
+      <c r="I104" s="123"/>
       <c r="J104" s="101"/>
       <c r="K104" s="101"/>
       <c r="L104" s="101"/>
       <c r="M104" s="101"/>
-      <c r="N104" s="126"/>
+      <c r="N104" s="110"/>
       <c r="O104" s="20" t="s">
         <v>100</v>
       </c>
       <c r="P104" s="101"/>
-      <c r="Q104" s="122"/>
+      <c r="Q104" s="113"/>
       <c r="R104" s="20" t="s">
         <v>94</v>
       </c>
@@ -9420,19 +9420,19 @@
       </c>
     </row>
     <row r="116" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="110" t="s">
+      <c r="A116" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B116" s="112" t="s">
+      <c r="B116" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="C116" s="114" t="s">
+      <c r="C116" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="D116" s="114" t="s">
+      <c r="D116" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="E116" s="116" t="s">
+      <c r="E116" s="132" t="s">
         <v>285</v>
       </c>
       <c r="F116" s="48"/>
@@ -9464,11 +9464,11 @@
       </c>
     </row>
     <row r="117" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="111"/>
-      <c r="B117" s="113"/>
-      <c r="C117" s="115"/>
-      <c r="D117" s="115"/>
-      <c r="E117" s="117"/>
+      <c r="A117" s="131"/>
+      <c r="B117" s="117"/>
+      <c r="C117" s="105"/>
+      <c r="D117" s="105"/>
+      <c r="E117" s="129"/>
       <c r="F117" s="48"/>
       <c r="G117" s="49" t="s">
         <v>112</v>
@@ -9538,19 +9538,19 @@
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="102" t="s">
+      <c r="A121" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B121" s="103" t="s">
+      <c r="B121" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="C121" s="130" t="s">
+      <c r="C121" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="D121" s="130" t="s">
+      <c r="D121" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="E121" s="106" t="s">
+      <c r="E121" s="118" t="s">
         <v>239</v>
       </c>
       <c r="F121" s="38" t="s">
@@ -9558,12 +9558,12 @@
       </c>
       <c r="G121" s="101"/>
       <c r="H121" s="101"/>
-      <c r="I121" s="118"/>
-      <c r="J121" s="118"/>
-      <c r="K121" s="118"/>
-      <c r="L121" s="118"/>
-      <c r="M121" s="118"/>
-      <c r="N121" s="126" t="s">
+      <c r="I121" s="102"/>
+      <c r="J121" s="102"/>
+      <c r="K121" s="102"/>
+      <c r="L121" s="102"/>
+      <c r="M121" s="102"/>
+      <c r="N121" s="110" t="s">
         <v>102</v>
       </c>
       <c r="O121" s="68" t="s">
@@ -9572,7 +9572,7 @@
       <c r="P121" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="Q121" s="120" t="s">
+      <c r="Q121" s="111" t="s">
         <v>125</v>
       </c>
       <c r="R121" s="20" t="s">
@@ -9580,79 +9580,79 @@
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="102"/>
-      <c r="B122" s="104"/>
-      <c r="C122" s="131"/>
-      <c r="D122" s="131"/>
-      <c r="E122" s="106"/>
+      <c r="A122" s="114"/>
+      <c r="B122" s="120"/>
+      <c r="C122" s="107"/>
+      <c r="D122" s="107"/>
+      <c r="E122" s="118"/>
       <c r="F122" s="38" t="s">
         <v>241</v>
       </c>
       <c r="G122" s="101"/>
       <c r="H122" s="101"/>
-      <c r="I122" s="128"/>
-      <c r="J122" s="128"/>
-      <c r="K122" s="128"/>
-      <c r="L122" s="128"/>
-      <c r="M122" s="128"/>
-      <c r="N122" s="126"/>
+      <c r="I122" s="109"/>
+      <c r="J122" s="109"/>
+      <c r="K122" s="109"/>
+      <c r="L122" s="109"/>
+      <c r="M122" s="109"/>
+      <c r="N122" s="110"/>
       <c r="O122" s="68" t="s">
         <v>245</v>
       </c>
       <c r="P122" s="101"/>
-      <c r="Q122" s="121"/>
+      <c r="Q122" s="112"/>
       <c r="R122" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="102"/>
-      <c r="B123" s="104"/>
-      <c r="C123" s="131"/>
-      <c r="D123" s="131"/>
-      <c r="E123" s="106"/>
+      <c r="A123" s="114"/>
+      <c r="B123" s="120"/>
+      <c r="C123" s="107"/>
+      <c r="D123" s="107"/>
+      <c r="E123" s="118"/>
       <c r="F123" s="38" t="s">
         <v>242</v>
       </c>
       <c r="G123" s="101"/>
       <c r="H123" s="101"/>
-      <c r="I123" s="128"/>
-      <c r="J123" s="128"/>
-      <c r="K123" s="128"/>
-      <c r="L123" s="128"/>
-      <c r="M123" s="128"/>
-      <c r="N123" s="126"/>
+      <c r="I123" s="109"/>
+      <c r="J123" s="109"/>
+      <c r="K123" s="109"/>
+      <c r="L123" s="109"/>
+      <c r="M123" s="109"/>
+      <c r="N123" s="110"/>
       <c r="O123" s="68" t="s">
         <v>246</v>
       </c>
       <c r="P123" s="101"/>
-      <c r="Q123" s="121"/>
+      <c r="Q123" s="112"/>
       <c r="R123" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="102"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="132"/>
-      <c r="D124" s="132"/>
-      <c r="E124" s="106"/>
+      <c r="A124" s="114"/>
+      <c r="B124" s="120"/>
+      <c r="C124" s="108"/>
+      <c r="D124" s="108"/>
+      <c r="E124" s="118"/>
       <c r="F124" s="38" t="s">
         <v>243</v>
       </c>
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
-      <c r="I124" s="119"/>
-      <c r="J124" s="119"/>
-      <c r="K124" s="119"/>
-      <c r="L124" s="119"/>
-      <c r="M124" s="119"/>
-      <c r="N124" s="126"/>
+      <c r="I124" s="103"/>
+      <c r="J124" s="103"/>
+      <c r="K124" s="103"/>
+      <c r="L124" s="103"/>
+      <c r="M124" s="103"/>
+      <c r="N124" s="110"/>
       <c r="O124" s="68" t="s">
         <v>247</v>
       </c>
       <c r="P124" s="101"/>
-      <c r="Q124" s="122"/>
+      <c r="Q124" s="113"/>
       <c r="R124" s="20" t="s">
         <v>94</v>
       </c>
@@ -9698,19 +9698,19 @@
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="102" t="s">
+      <c r="A126" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B126" s="112" t="s">
+      <c r="B126" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="C126" s="130" t="s">
+      <c r="C126" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="D126" s="130" t="s">
+      <c r="D126" s="106" t="s">
         <v>249</v>
       </c>
-      <c r="E126" s="106" t="s">
+      <c r="E126" s="118" t="s">
         <v>239</v>
       </c>
       <c r="F126" s="38" t="s">
@@ -9718,12 +9718,12 @@
       </c>
       <c r="G126" s="101"/>
       <c r="H126" s="101"/>
-      <c r="I126" s="118"/>
-      <c r="J126" s="118"/>
-      <c r="K126" s="118"/>
-      <c r="L126" s="118"/>
-      <c r="M126" s="118"/>
-      <c r="N126" s="126" t="s">
+      <c r="I126" s="102"/>
+      <c r="J126" s="102"/>
+      <c r="K126" s="102"/>
+      <c r="L126" s="102"/>
+      <c r="M126" s="102"/>
+      <c r="N126" s="110" t="s">
         <v>102</v>
       </c>
       <c r="O126" s="68" t="s">
@@ -9732,7 +9732,7 @@
       <c r="P126" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="Q126" s="120" t="s">
+      <c r="Q126" s="111" t="s">
         <v>125</v>
       </c>
       <c r="R126" s="20" t="s">
@@ -9740,79 +9740,79 @@
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="102"/>
-      <c r="B127" s="129"/>
-      <c r="C127" s="131"/>
-      <c r="D127" s="131"/>
-      <c r="E127" s="106"/>
+      <c r="A127" s="114"/>
+      <c r="B127" s="116"/>
+      <c r="C127" s="107"/>
+      <c r="D127" s="107"/>
+      <c r="E127" s="118"/>
       <c r="F127" s="38" t="s">
         <v>241</v>
       </c>
       <c r="G127" s="101"/>
       <c r="H127" s="101"/>
-      <c r="I127" s="128"/>
-      <c r="J127" s="128"/>
-      <c r="K127" s="128"/>
-      <c r="L127" s="128"/>
-      <c r="M127" s="128"/>
-      <c r="N127" s="126"/>
+      <c r="I127" s="109"/>
+      <c r="J127" s="109"/>
+      <c r="K127" s="109"/>
+      <c r="L127" s="109"/>
+      <c r="M127" s="109"/>
+      <c r="N127" s="110"/>
       <c r="O127" s="68" t="s">
         <v>245</v>
       </c>
       <c r="P127" s="101"/>
-      <c r="Q127" s="121"/>
+      <c r="Q127" s="112"/>
       <c r="R127" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="102"/>
-      <c r="B128" s="129"/>
-      <c r="C128" s="131"/>
-      <c r="D128" s="131"/>
-      <c r="E128" s="106"/>
+      <c r="A128" s="114"/>
+      <c r="B128" s="116"/>
+      <c r="C128" s="107"/>
+      <c r="D128" s="107"/>
+      <c r="E128" s="118"/>
       <c r="F128" s="38" t="s">
         <v>242</v>
       </c>
       <c r="G128" s="101"/>
       <c r="H128" s="101"/>
-      <c r="I128" s="128"/>
-      <c r="J128" s="128"/>
-      <c r="K128" s="128"/>
-      <c r="L128" s="128"/>
-      <c r="M128" s="128"/>
-      <c r="N128" s="126"/>
+      <c r="I128" s="109"/>
+      <c r="J128" s="109"/>
+      <c r="K128" s="109"/>
+      <c r="L128" s="109"/>
+      <c r="M128" s="109"/>
+      <c r="N128" s="110"/>
       <c r="O128" s="68" t="s">
         <v>246</v>
       </c>
       <c r="P128" s="101"/>
-      <c r="Q128" s="121"/>
+      <c r="Q128" s="112"/>
       <c r="R128" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="102"/>
-      <c r="B129" s="113"/>
-      <c r="C129" s="132"/>
-      <c r="D129" s="132"/>
-      <c r="E129" s="106"/>
+      <c r="A129" s="114"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="108"/>
+      <c r="D129" s="108"/>
+      <c r="E129" s="118"/>
       <c r="F129" s="38" t="s">
         <v>243</v>
       </c>
       <c r="G129" s="101"/>
       <c r="H129" s="101"/>
-      <c r="I129" s="119"/>
-      <c r="J129" s="119"/>
-      <c r="K129" s="119"/>
-      <c r="L129" s="119"/>
-      <c r="M129" s="119"/>
-      <c r="N129" s="126"/>
+      <c r="I129" s="103"/>
+      <c r="J129" s="103"/>
+      <c r="K129" s="103"/>
+      <c r="L129" s="103"/>
+      <c r="M129" s="103"/>
+      <c r="N129" s="110"/>
       <c r="O129" s="68" t="s">
         <v>247</v>
       </c>
       <c r="P129" s="101"/>
-      <c r="Q129" s="122"/>
+      <c r="Q129" s="113"/>
       <c r="R129" s="20" t="s">
         <v>94</v>
       </c>
@@ -11419,41 +11419,111 @@
     </row>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D89:D96"/>
-    <mergeCell ref="D97:D104"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="Q126:Q129"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="N121:N124"/>
-    <mergeCell ref="P121:P124"/>
-    <mergeCell ref="Q121:Q124"/>
-    <mergeCell ref="I121:I124"/>
-    <mergeCell ref="M121:M124"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="J121:J124"/>
-    <mergeCell ref="K121:K124"/>
-    <mergeCell ref="L121:L124"/>
+    <mergeCell ref="E60:E67"/>
+    <mergeCell ref="G60:G67"/>
+    <mergeCell ref="H60:H67"/>
+    <mergeCell ref="J60:J67"/>
+    <mergeCell ref="K60:K67"/>
+    <mergeCell ref="L60:L67"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="H35:H42"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="Q60:Q67"/>
+    <mergeCell ref="I62:I67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="H68:H75"/>
+    <mergeCell ref="J68:J75"/>
+    <mergeCell ref="K68:K75"/>
+    <mergeCell ref="L68:L75"/>
+    <mergeCell ref="N68:N75"/>
+    <mergeCell ref="P68:P75"/>
+    <mergeCell ref="Q68:Q75"/>
+    <mergeCell ref="I70:I75"/>
+    <mergeCell ref="M68:M75"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="P60:P67"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="L43:L50"/>
+    <mergeCell ref="N43:N50"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="H43:H50"/>
+    <mergeCell ref="J43:J50"/>
+    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="K43:K50"/>
+    <mergeCell ref="K35:K42"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M35:M42"/>
+    <mergeCell ref="M43:M50"/>
+    <mergeCell ref="M60:M67"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="Q13:Q20"/>
+    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="H13:H20"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="Q5:Q12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="M7:M12"/>
+    <mergeCell ref="N35:N42"/>
+    <mergeCell ref="P35:P42"/>
+    <mergeCell ref="Q35:Q42"/>
+    <mergeCell ref="P43:P50"/>
+    <mergeCell ref="Q43:Q50"/>
+    <mergeCell ref="N60:N67"/>
     <mergeCell ref="P89:P96"/>
     <mergeCell ref="G89:G96"/>
     <mergeCell ref="M97:M104"/>
@@ -11478,111 +11548,41 @@
     <mergeCell ref="L89:L96"/>
     <mergeCell ref="N89:N96"/>
     <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="Q13:Q20"/>
-    <mergeCell ref="H5:H12"/>
-    <mergeCell ref="H13:H20"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="Q5:Q12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="N35:N42"/>
-    <mergeCell ref="P35:P42"/>
-    <mergeCell ref="Q35:Q42"/>
-    <mergeCell ref="P43:P50"/>
-    <mergeCell ref="Q43:Q50"/>
-    <mergeCell ref="N60:N67"/>
-    <mergeCell ref="P60:P67"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="L43:L50"/>
-    <mergeCell ref="N43:N50"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="H43:H50"/>
-    <mergeCell ref="J43:J50"/>
-    <mergeCell ref="I45:I50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="K43:K50"/>
-    <mergeCell ref="K35:K42"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="Q60:Q67"/>
-    <mergeCell ref="I62:I67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="H68:H75"/>
-    <mergeCell ref="J68:J75"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="L68:L75"/>
-    <mergeCell ref="N68:N75"/>
-    <mergeCell ref="P68:P75"/>
-    <mergeCell ref="Q68:Q75"/>
-    <mergeCell ref="I70:I75"/>
-    <mergeCell ref="M68:M75"/>
-    <mergeCell ref="M35:M42"/>
-    <mergeCell ref="M43:M50"/>
-    <mergeCell ref="M60:M67"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="E60:E67"/>
-    <mergeCell ref="G60:G67"/>
-    <mergeCell ref="H60:H67"/>
-    <mergeCell ref="J60:J67"/>
-    <mergeCell ref="K60:K67"/>
-    <mergeCell ref="L60:L67"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="H35:H42"/>
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="L35:L42"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="N121:N124"/>
+    <mergeCell ref="P121:P124"/>
+    <mergeCell ref="Q121:Q124"/>
+    <mergeCell ref="I121:I124"/>
+    <mergeCell ref="M121:M124"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="J121:J124"/>
+    <mergeCell ref="K121:K124"/>
+    <mergeCell ref="L121:L124"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="Q126:Q129"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D89:D96"/>
+    <mergeCell ref="D97:D104"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="M126:M129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -11685,20 +11685,20 @@
       <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="119" t="s">
         <v>157</v>
       </c>
       <c r="C6" s="101"/>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="118" t="s">
         <v>268</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="126" t="s">
+      <c r="F6" s="110" t="s">
         <v>270</v>
       </c>
       <c r="G6" s="20" t="s">
@@ -11707,7 +11707,7 @@
       <c r="H6" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="120" t="s">
+      <c r="I6" s="111" t="s">
         <v>125</v>
       </c>
       <c r="J6" s="20" t="s">
@@ -11715,146 +11715,146 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="104"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="101"/>
-      <c r="D7" s="106"/>
+      <c r="D7" s="118"/>
       <c r="E7" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="126"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="82" t="s">
         <v>273</v>
       </c>
       <c r="H7" s="101"/>
-      <c r="I7" s="121"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
-      <c r="B8" s="104"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="101"/>
-      <c r="D8" s="106"/>
+      <c r="D8" s="118"/>
       <c r="E8" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="126"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="20" t="s">
         <v>95</v>
       </c>
       <c r="H8" s="101"/>
-      <c r="I8" s="121"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="102"/>
-      <c r="B9" s="104"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="101"/>
-      <c r="D9" s="106"/>
+      <c r="D9" s="118"/>
       <c r="E9" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="126"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H9" s="101"/>
-      <c r="I9" s="121"/>
+      <c r="I9" s="112"/>
       <c r="J9" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="104"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="101"/>
-      <c r="D10" s="106"/>
+      <c r="D10" s="118"/>
       <c r="E10" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="126"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H10" s="101"/>
-      <c r="I10" s="121"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="104"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="101"/>
-      <c r="D11" s="106"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="126"/>
+      <c r="F11" s="110"/>
       <c r="G11" s="20" t="s">
         <v>98</v>
       </c>
       <c r="H11" s="101"/>
-      <c r="I11" s="121"/>
+      <c r="I11" s="112"/>
       <c r="J11" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="104"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="101"/>
-      <c r="D12" s="106"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="126"/>
+      <c r="F12" s="110"/>
       <c r="G12" s="20" t="s">
         <v>99</v>
       </c>
       <c r="H12" s="101"/>
-      <c r="I12" s="121"/>
+      <c r="I12" s="112"/>
       <c r="J12" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="105"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="124"/>
       <c r="C13" s="101"/>
-      <c r="D13" s="106"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="126"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="20" t="s">
         <v>100</v>
       </c>
       <c r="H13" s="101"/>
-      <c r="I13" s="122"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="119" t="s">
         <v>157</v>
       </c>
       <c r="C14" s="101"/>
-      <c r="D14" s="106" t="s">
+      <c r="D14" s="118" t="s">
         <v>274</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="126" t="s">
+      <c r="F14" s="110" t="s">
         <v>270</v>
       </c>
       <c r="G14" s="20" t="s">
@@ -11863,7 +11863,7 @@
       <c r="H14" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="120" t="s">
+      <c r="I14" s="111" t="s">
         <v>125</v>
       </c>
       <c r="J14" s="20" t="s">
@@ -11871,146 +11871,146 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="104"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="101"/>
-      <c r="D15" s="106"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="F15" s="126"/>
+      <c r="F15" s="110"/>
       <c r="G15" s="82" t="s">
         <v>273</v>
       </c>
       <c r="H15" s="101"/>
-      <c r="I15" s="121"/>
+      <c r="I15" s="112"/>
       <c r="J15" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="104"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="101"/>
-      <c r="D16" s="106"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="126"/>
+      <c r="F16" s="110"/>
       <c r="G16" s="20" t="s">
         <v>95</v>
       </c>
       <c r="H16" s="101"/>
-      <c r="I16" s="121"/>
+      <c r="I16" s="112"/>
       <c r="J16" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="104"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="101"/>
-      <c r="D17" s="106"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="126"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H17" s="101"/>
-      <c r="I17" s="121"/>
+      <c r="I17" s="112"/>
       <c r="J17" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
-      <c r="B18" s="104"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="120"/>
       <c r="C18" s="101"/>
-      <c r="D18" s="106"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="126"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H18" s="101"/>
-      <c r="I18" s="121"/>
+      <c r="I18" s="112"/>
       <c r="J18" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
-      <c r="B19" s="104"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="120"/>
       <c r="C19" s="101"/>
-      <c r="D19" s="106"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="126"/>
+      <c r="F19" s="110"/>
       <c r="G19" s="20" t="s">
         <v>98</v>
       </c>
       <c r="H19" s="101"/>
-      <c r="I19" s="121"/>
+      <c r="I19" s="112"/>
       <c r="J19" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="101"/>
-      <c r="D20" s="106"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="126"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="20" t="s">
         <v>99</v>
       </c>
       <c r="H20" s="101"/>
-      <c r="I20" s="121"/>
+      <c r="I20" s="112"/>
       <c r="J20" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="124"/>
       <c r="C21" s="101"/>
-      <c r="D21" s="106"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="126"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="20" t="s">
         <v>100</v>
       </c>
       <c r="H21" s="101"/>
-      <c r="I21" s="122"/>
+      <c r="I21" s="113"/>
       <c r="J21" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="119" t="s">
         <v>157</v>
       </c>
       <c r="C22" s="101"/>
-      <c r="D22" s="106" t="s">
+      <c r="D22" s="118" t="s">
         <v>275</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="126" t="s">
+      <c r="F22" s="110" t="s">
         <v>270</v>
       </c>
       <c r="G22" s="20" t="s">
@@ -12019,7 +12019,7 @@
       <c r="H22" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="I22" s="120" t="s">
+      <c r="I22" s="111" t="s">
         <v>125</v>
       </c>
       <c r="J22" s="20" t="s">
@@ -12027,128 +12027,128 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="102"/>
-      <c r="B23" s="104"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="101"/>
-      <c r="D23" s="106"/>
+      <c r="D23" s="118"/>
       <c r="E23" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="126"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="20" t="s">
         <v>95</v>
       </c>
       <c r="H23" s="101"/>
-      <c r="I23" s="121"/>
+      <c r="I23" s="112"/>
       <c r="J23" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
-      <c r="B24" s="104"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="120"/>
       <c r="C24" s="101"/>
-      <c r="D24" s="106"/>
+      <c r="D24" s="118"/>
       <c r="E24" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="126"/>
+      <c r="F24" s="110"/>
       <c r="G24" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H24" s="101"/>
-      <c r="I24" s="121"/>
+      <c r="I24" s="112"/>
       <c r="J24" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
-      <c r="B25" s="104"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="120"/>
       <c r="C25" s="101"/>
-      <c r="D25" s="106"/>
+      <c r="D25" s="118"/>
       <c r="E25" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="126"/>
+      <c r="F25" s="110"/>
       <c r="G25" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H25" s="101"/>
-      <c r="I25" s="121"/>
+      <c r="I25" s="112"/>
       <c r="J25" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
-      <c r="B26" s="104"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="120"/>
       <c r="C26" s="101"/>
-      <c r="D26" s="106"/>
+      <c r="D26" s="118"/>
       <c r="E26" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="126"/>
+      <c r="F26" s="110"/>
       <c r="G26" s="20" t="s">
         <v>98</v>
       </c>
       <c r="H26" s="101"/>
-      <c r="I26" s="121"/>
+      <c r="I26" s="112"/>
       <c r="J26" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="102"/>
-      <c r="B27" s="104"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="101"/>
-      <c r="D27" s="106"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="126"/>
+      <c r="F27" s="110"/>
       <c r="G27" s="20" t="s">
         <v>99</v>
       </c>
       <c r="H27" s="101"/>
-      <c r="I27" s="121"/>
+      <c r="I27" s="112"/>
       <c r="J27" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="102"/>
-      <c r="B28" s="105"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="101"/>
-      <c r="D28" s="106"/>
+      <c r="D28" s="118"/>
       <c r="E28" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="126"/>
+      <c r="F28" s="110"/>
       <c r="G28" s="82" t="s">
         <v>100</v>
       </c>
       <c r="H28" s="101"/>
-      <c r="I28" s="122"/>
+      <c r="I28" s="113"/>
       <c r="J28" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="103" t="s">
+      <c r="B29" s="119" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="101"/>
-      <c r="D29" s="106" t="s">
+      <c r="D29" s="118" t="s">
         <v>276</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="126" t="s">
+      <c r="F29" s="110" t="s">
         <v>270</v>
       </c>
       <c r="G29" s="20" t="s">
@@ -12157,7 +12157,7 @@
       <c r="H29" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="120" t="s">
+      <c r="I29" s="111" t="s">
         <v>125</v>
       </c>
       <c r="J29" s="20" t="s">
@@ -12165,125 +12165,122 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
-      <c r="B30" s="104"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="101"/>
-      <c r="D30" s="106"/>
+      <c r="D30" s="118"/>
       <c r="E30" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="126"/>
+      <c r="F30" s="110"/>
       <c r="G30" s="20" t="s">
         <v>95</v>
       </c>
       <c r="H30" s="101"/>
-      <c r="I30" s="121"/>
+      <c r="I30" s="112"/>
       <c r="J30" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
-      <c r="B31" s="104"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="101"/>
-      <c r="D31" s="106"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="126"/>
+      <c r="F31" s="110"/>
       <c r="G31" s="20" t="s">
         <v>96</v>
       </c>
       <c r="H31" s="101"/>
-      <c r="I31" s="121"/>
+      <c r="I31" s="112"/>
       <c r="J31" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
-      <c r="B32" s="104"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="120"/>
       <c r="C32" s="101"/>
-      <c r="D32" s="106"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="126"/>
+      <c r="F32" s="110"/>
       <c r="G32" s="20" t="s">
         <v>97</v>
       </c>
       <c r="H32" s="101"/>
-      <c r="I32" s="121"/>
+      <c r="I32" s="112"/>
       <c r="J32" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
-      <c r="B33" s="104"/>
+      <c r="A33" s="114"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="101"/>
-      <c r="D33" s="106"/>
+      <c r="D33" s="118"/>
       <c r="E33" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="126"/>
+      <c r="F33" s="110"/>
       <c r="G33" s="20" t="s">
         <v>98</v>
       </c>
       <c r="H33" s="101"/>
-      <c r="I33" s="121"/>
+      <c r="I33" s="112"/>
       <c r="J33" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="102"/>
-      <c r="B34" s="104"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="101"/>
-      <c r="D34" s="106"/>
+      <c r="D34" s="118"/>
       <c r="E34" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="126"/>
+      <c r="F34" s="110"/>
       <c r="G34" s="20" t="s">
         <v>99</v>
       </c>
       <c r="H34" s="101"/>
-      <c r="I34" s="121"/>
+      <c r="I34" s="112"/>
       <c r="J34" s="20" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="102"/>
-      <c r="B35" s="105"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="124"/>
       <c r="C35" s="101"/>
-      <c r="D35" s="106"/>
+      <c r="D35" s="118"/>
       <c r="E35" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F35" s="126"/>
+      <c r="F35" s="110"/>
       <c r="G35" s="82" t="s">
         <v>100</v>
       </c>
       <c r="H35" s="101"/>
-      <c r="I35" s="122"/>
+      <c r="I35" s="113"/>
       <c r="J35" s="20" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H28"/>
-    <mergeCell ref="H14:H21"/>
-    <mergeCell ref="I14:I21"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D6:D13"/>
     <mergeCell ref="H29:H35"/>
     <mergeCell ref="I29:I35"/>
     <mergeCell ref="A14:A21"/>
@@ -12295,13 +12292,16 @@
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="B29:B35"/>
     <mergeCell ref="C29:C35"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="H14:H21"/>
+    <mergeCell ref="I14:I21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="F22:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/doc/LS_Overview.xlsx
+++ b/doc/LS_Overview.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="363">
   <si>
     <t>Vocab</t>
   </si>
@@ -1171,9 +1171,6 @@
     <t>prefLabel</t>
   </si>
   <si>
-    <t>altLabel</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -2181,12 +2178,27 @@
   <si>
     <t>skos:Concept</t>
   </si>
+  <si>
+    <t>skos:scopeNote</t>
+  </si>
+  <si>
+    <t>scopeNote</t>
+  </si>
+  <si>
+    <t>contributors</t>
+  </si>
+  <si>
+    <t>prefLabels</t>
+  </si>
+  <si>
+    <t>altLabels</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2254,6 +2266,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2402,7 +2434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2654,6 +2686,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2750,7 +2783,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3093,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>82</v>
@@ -3111,7 +3152,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
@@ -3150,13 +3191,13 @@
         <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>35</v>
@@ -3235,10 +3276,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>24</v>
@@ -3330,7 +3371,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="13"/>
@@ -3366,7 +3407,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>61</v>
@@ -3469,7 +3510,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>66</v>
@@ -3508,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>65</v>
@@ -3557,7 +3598,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>68</v>
@@ -3627,7 +3668,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>69</v>
@@ -3750,11 +3791,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C32" sqref="C32"/>
+      <selection pane="topRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3790,13 +3831,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>82</v>
@@ -3808,26 +3849,26 @@
         <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>85</v>
@@ -3848,13 +3889,13 @@
         <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>35</v>
@@ -3908,7 +3949,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -3939,8 +3980,8 @@
       <c r="B9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>207</v>
+      <c r="D9" s="55" t="s">
+        <v>206</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>24</v>
@@ -4033,7 +4074,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="13"/>
@@ -4071,10 +4112,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14" s="55" t="s">
-        <v>61</v>
+        <v>360</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>24</v>
@@ -4180,10 +4221,10 @@
         <v>173</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>190</v>
+        <v>361</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>24</v>
@@ -4219,55 +4260,37 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>358</v>
       </c>
       <c r="C19" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>24</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="13"/>
-      <c r="L19" s="45" t="s">
-        <v>24</v>
-      </c>
+      <c r="L19" s="45"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
-      <c r="P19" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>24</v>
-      </c>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="45"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>192</v>
+        <v>362</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>24</v>
@@ -4301,102 +4324,109 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="21" spans="2:18" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="134" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="D21" s="136" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="138"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="L21" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R21" s="45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="45" t="s">
-        <v>24</v>
-      </c>
+      <c r="C22" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="136" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="138"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" s="77" t="s">
-        <v>14</v>
+        <v>177</v>
+      </c>
+      <c r="C24" s="77" t="s">
+        <v>257</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>24</v>
@@ -4404,120 +4434,115 @@
       <c r="F24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="10"/>
+      <c r="G24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="13"/>
       <c r="L24" s="8"/>
-      <c r="M24" s="45" t="s">
-        <v>24</v>
-      </c>
+      <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="P24" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="45" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="77" t="s">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="10"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="M25" s="45" t="s">
+        <v>24</v>
+      </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" s="45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="L27" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="45" t="s">
-        <v>24</v>
-      </c>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>24</v>
@@ -4553,13 +4578,13 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>24</v>
@@ -4595,13 +4620,13 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>24</v>
@@ -4637,13 +4662,13 @@
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>24</v>
@@ -4679,13 +4704,13 @@
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>24</v>
@@ -4721,13 +4746,13 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C33" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>24</v>
@@ -4763,13 +4788,13 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D34" s="55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>24</v>
@@ -4805,13 +4830,13 @@
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>24</v>
@@ -4847,13 +4872,13 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C36" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D36" s="55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>24</v>
@@ -4887,94 +4912,107 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
+    <row r="37" spans="2:18" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="134" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="135" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="136" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="138"/>
+      <c r="K37" s="139"/>
+      <c r="L37" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="141"/>
+      <c r="N37" s="141"/>
+      <c r="O37" s="141"/>
+      <c r="P37" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" s="140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" s="134" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="77" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="L37" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R37" s="45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
+      <c r="C38" s="135" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="136" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="137" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="138"/>
+      <c r="K38" s="139"/>
+      <c r="L38" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="141"/>
+      <c r="N38" s="141"/>
+      <c r="O38" s="141"/>
+      <c r="P38" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" s="140" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -4983,20 +5021,22 @@
       <c r="M40" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="N40" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="45" t="s">
+        <v>24</v>
+      </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="45" t="s">
-        <v>24</v>
-      </c>
+      <c r="R40" s="8"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>24</v>
@@ -5004,21 +5044,50 @@
       <c r="F41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="O41" s="45" t="s">
-        <v>24</v>
-      </c>
+      <c r="M41" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="45" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5067,7 +5136,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>82</v>
@@ -5079,7 +5148,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>31</v>
@@ -5106,13 +5175,13 @@
         <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>35</v>
@@ -5571,7 +5640,7 @@
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -5796,7 +5865,7 @@
         <v>151</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>131</v>
@@ -5811,7 +5880,7 @@
         <v>105</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>112</v>
@@ -5826,7 +5895,7 @@
         <v>115</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N3" s="16" t="s">
         <v>106</v>
@@ -5848,47 +5917,47 @@
       <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="101" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="102" t="s">
         <v>88</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
       <c r="I5" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="103" t="s">
+      <c r="J5" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="103" t="s">
+      <c r="K5" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="103" t="s">
+      <c r="L5" s="104" t="s">
         <v>109</v>
       </c>
       <c r="M5" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="N5" s="126" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="127" t="s">
         <v>97</v>
       </c>
       <c r="O5" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="102" t="s">
+      <c r="P5" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" s="117" t="s">
+      <c r="Q5" s="118" t="s">
         <v>108</v>
       </c>
       <c r="R5" s="20" t="s">
@@ -5896,225 +5965,225 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="101"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="102"/>
       <c r="F6" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
       <c r="I6" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
       <c r="M6" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="N6" s="126"/>
+        <v>230</v>
+      </c>
+      <c r="N6" s="127"/>
       <c r="O6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="118"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="119"/>
       <c r="R6" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="101"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="126"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="127"/>
       <c r="O7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="118"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="119"/>
       <c r="R7" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="101"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="126"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="127"/>
       <c r="O8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="118"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="119"/>
       <c r="R8" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="101"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="102"/>
       <c r="F9" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="126"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="127"/>
       <c r="O9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="118"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="119"/>
       <c r="R9" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="101"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="126"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="127"/>
       <c r="O10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="118"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="119"/>
       <c r="R10" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="101"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="102"/>
       <c r="F11" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="126"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="127"/>
       <c r="O11" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="118"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="119"/>
       <c r="R11" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="101"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="102"/>
       <c r="F12" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="126"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="127"/>
       <c r="O12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="119"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="120"/>
       <c r="R12" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="101" t="s">
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="102" t="s">
         <v>135</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
       <c r="I13" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="126" t="s">
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="127" t="s">
         <v>97</v>
       </c>
       <c r="O13" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="102" t="s">
+      <c r="P13" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="Q13" s="117" t="s">
+      <c r="Q13" s="118" t="s">
         <v>108</v>
       </c>
       <c r="R13" s="20" t="s">
@@ -6122,185 +6191,185 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="101"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="102"/>
       <c r="F14" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
       <c r="I14" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="126"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="127"/>
       <c r="O14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="118"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="119"/>
       <c r="R14" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="101"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="102"/>
       <c r="F15" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="126"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="127"/>
       <c r="O15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="118"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="119"/>
       <c r="R15" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="101"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="126"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="127"/>
       <c r="O16" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="118"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="119"/>
       <c r="R16" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="101"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="102"/>
       <c r="F17" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="126"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="127"/>
       <c r="O17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="118"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="119"/>
       <c r="R17" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="101"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="126"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="127"/>
       <c r="O18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="118"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="119"/>
       <c r="R18" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="101"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="126"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="127"/>
       <c r="O19" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="118"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="119"/>
       <c r="R19" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="101"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="102"/>
       <c r="F20" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="126"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="127"/>
       <c r="O20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="119"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="120"/>
       <c r="R20" s="20" t="s">
         <v>89</v>
       </c>
@@ -6569,7 +6638,7 @@
       <c r="C28" s="83"/>
       <c r="D28" s="97"/>
       <c r="E28" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F28" s="83"/>
       <c r="G28" s="83"/>
@@ -6653,7 +6722,7 @@
         <v>155</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="36" t="s">
@@ -6684,20 +6753,20 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="107" t="s">
+      <c r="A31" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="111" t="s">
+      <c r="C31" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="111" t="s">
+      <c r="D31" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="E31" s="113" t="s">
-        <v>252</v>
+      <c r="E31" s="114" t="s">
+        <v>251</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="36" t="s">
@@ -6728,17 +6797,17 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="114"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="115"/>
       <c r="F32" s="48"/>
       <c r="G32" s="49" t="s">
         <v>107</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
@@ -6802,39 +6871,39 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="127" t="s">
+      <c r="B35" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="101" t="s">
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="102" t="s">
         <v>140</v>
       </c>
       <c r="F35" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
       <c r="I35" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="126" t="s">
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="127" t="s">
         <v>97</v>
       </c>
       <c r="O35" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P35" s="102" t="s">
+      <c r="P35" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="Q35" s="117" t="s">
+      <c r="Q35" s="118" t="s">
         <v>108</v>
       </c>
       <c r="R35" s="20" t="s">
@@ -6842,223 +6911,223 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="106"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="101"/>
+      <c r="A36" s="107"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="102"/>
       <c r="F36" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
       <c r="I36" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="126"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="127"/>
       <c r="O36" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="118"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="119"/>
       <c r="R36" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="106"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="101"/>
+      <c r="A37" s="107"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="102"/>
       <c r="F37" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="126"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="127"/>
       <c r="O37" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="118"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="119"/>
       <c r="R37" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="106"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="101"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="102"/>
       <c r="F38" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="126"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="103"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="127"/>
       <c r="O38" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="118"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="119"/>
       <c r="R38" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="106"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="101"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="102"/>
       <c r="F39" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="126"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="127"/>
       <c r="O39" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="118"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="119"/>
       <c r="R39" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="106"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="101"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="102"/>
       <c r="F40" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="126"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="127"/>
       <c r="O40" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="118"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="119"/>
       <c r="R40" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
-      <c r="B41" s="127"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="101"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="102"/>
       <c r="F41" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="102"/>
-      <c r="K41" s="102"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="102"/>
-      <c r="N41" s="126"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="103"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="127"/>
       <c r="O41" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="118"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="119"/>
       <c r="R41" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="106"/>
-      <c r="B42" s="127"/>
-      <c r="C42" s="102"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="101"/>
+      <c r="A42" s="107"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="102"/>
       <c r="F42" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="102"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="102"/>
-      <c r="N42" s="126"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="103"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="127"/>
       <c r="O42" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="119"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="120"/>
       <c r="R42" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="127" t="s">
+      <c r="B43" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="101" t="s">
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="102" t="s">
         <v>141</v>
       </c>
       <c r="F43" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="102"/>
-      <c r="H43" s="102"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
       <c r="I43" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="102"/>
-      <c r="K43" s="102"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="126" t="s">
+      <c r="J43" s="103"/>
+      <c r="K43" s="103"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="127" t="s">
         <v>97</v>
       </c>
       <c r="O43" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P43" s="102" t="s">
+      <c r="P43" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="Q43" s="117" t="s">
+      <c r="Q43" s="118" t="s">
         <v>108</v>
       </c>
       <c r="R43" s="20" t="s">
@@ -7066,185 +7135,185 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="106"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="101"/>
+      <c r="A44" s="107"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="102"/>
       <c r="F44" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
       <c r="I44" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="126"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="127"/>
       <c r="O44" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="118"/>
+      <c r="P44" s="103"/>
+      <c r="Q44" s="119"/>
       <c r="R44" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="106"/>
-      <c r="B45" s="127"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="101"/>
+      <c r="A45" s="107"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="102"/>
       <c r="F45" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="102"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="102"/>
-      <c r="N45" s="126"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="103"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="127"/>
       <c r="O45" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="118"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="119"/>
       <c r="R45" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="101"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="102"/>
       <c r="F46" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="102"/>
-      <c r="L46" s="102"/>
-      <c r="M46" s="102"/>
-      <c r="N46" s="126"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="127"/>
       <c r="O46" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P46" s="102"/>
-      <c r="Q46" s="118"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="119"/>
       <c r="R46" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="106"/>
-      <c r="B47" s="127"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="101"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="102"/>
       <c r="F47" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="102"/>
-      <c r="L47" s="102"/>
-      <c r="M47" s="102"/>
-      <c r="N47" s="126"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="103"/>
+      <c r="M47" s="103"/>
+      <c r="N47" s="127"/>
       <c r="O47" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P47" s="102"/>
-      <c r="Q47" s="118"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="119"/>
       <c r="R47" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="106"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="101"/>
+      <c r="A48" s="107"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="102"/>
       <c r="F48" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="102"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="126"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="103"/>
+      <c r="N48" s="127"/>
       <c r="O48" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P48" s="102"/>
-      <c r="Q48" s="118"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="119"/>
       <c r="R48" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="106"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="102"/>
-      <c r="E49" s="101"/>
+      <c r="A49" s="107"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="102"/>
       <c r="F49" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="102"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="102"/>
-      <c r="N49" s="126"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
+      <c r="L49" s="103"/>
+      <c r="M49" s="103"/>
+      <c r="N49" s="127"/>
       <c r="O49" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P49" s="102"/>
-      <c r="Q49" s="118"/>
+      <c r="P49" s="103"/>
+      <c r="Q49" s="119"/>
       <c r="R49" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="106"/>
-      <c r="B50" s="127"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="101"/>
+      <c r="A50" s="107"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="102"/>
       <c r="F50" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="126"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="127"/>
       <c r="O50" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P50" s="102"/>
-      <c r="Q50" s="119"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="120"/>
       <c r="R50" s="20" t="s">
         <v>89</v>
       </c>
@@ -7544,41 +7613,41 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="123" t="s">
+      <c r="B60" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="101" t="s">
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="102" t="s">
         <v>157</v>
       </c>
       <c r="F60" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G60" s="102"/>
-      <c r="H60" s="102"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="103"/>
       <c r="I60" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J60" s="103" t="s">
+      <c r="J60" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="K60" s="105"/>
-      <c r="L60" s="105"/>
-      <c r="M60" s="102"/>
-      <c r="N60" s="126" t="s">
+      <c r="K60" s="106"/>
+      <c r="L60" s="106"/>
+      <c r="M60" s="103"/>
+      <c r="N60" s="127" t="s">
         <v>97</v>
       </c>
       <c r="O60" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P60" s="102" t="s">
+      <c r="P60" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="Q60" s="117" t="s">
+      <c r="Q60" s="118" t="s">
         <v>108</v>
       </c>
       <c r="R60" s="20" t="s">
@@ -7586,223 +7655,223 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="106"/>
-      <c r="B61" s="124"/>
-      <c r="C61" s="102"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="101"/>
+      <c r="A61" s="107"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="102"/>
       <c r="F61" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="103"/>
       <c r="I61" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J61" s="104"/>
-      <c r="K61" s="102"/>
-      <c r="L61" s="102"/>
-      <c r="M61" s="102"/>
-      <c r="N61" s="126"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="103"/>
+      <c r="L61" s="103"/>
+      <c r="M61" s="103"/>
+      <c r="N61" s="127"/>
       <c r="O61" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P61" s="102"/>
-      <c r="Q61" s="118"/>
+      <c r="P61" s="103"/>
+      <c r="Q61" s="119"/>
       <c r="R61" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="106"/>
-      <c r="B62" s="124"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="101"/>
+      <c r="A62" s="107"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="102"/>
       <c r="F62" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="102"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="120"/>
-      <c r="J62" s="104"/>
-      <c r="K62" s="102"/>
-      <c r="L62" s="102"/>
-      <c r="M62" s="102"/>
-      <c r="N62" s="126"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="105"/>
+      <c r="K62" s="103"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="103"/>
+      <c r="N62" s="127"/>
       <c r="O62" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P62" s="102"/>
-      <c r="Q62" s="118"/>
+      <c r="P62" s="103"/>
+      <c r="Q62" s="119"/>
       <c r="R62" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="106"/>
-      <c r="B63" s="124"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="101"/>
+      <c r="A63" s="107"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="102"/>
       <c r="F63" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="102"/>
-      <c r="H63" s="102"/>
-      <c r="I63" s="121"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="102"/>
-      <c r="L63" s="102"/>
-      <c r="M63" s="102"/>
-      <c r="N63" s="126"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="103"/>
+      <c r="L63" s="103"/>
+      <c r="M63" s="103"/>
+      <c r="N63" s="127"/>
       <c r="O63" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P63" s="102"/>
-      <c r="Q63" s="118"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="119"/>
       <c r="R63" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="106"/>
-      <c r="B64" s="124"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="101"/>
+      <c r="A64" s="107"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="102"/>
       <c r="F64" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="121"/>
-      <c r="J64" s="104"/>
-      <c r="K64" s="102"/>
-      <c r="L64" s="102"/>
-      <c r="M64" s="102"/>
-      <c r="N64" s="126"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="105"/>
+      <c r="K64" s="103"/>
+      <c r="L64" s="103"/>
+      <c r="M64" s="103"/>
+      <c r="N64" s="127"/>
       <c r="O64" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P64" s="102"/>
-      <c r="Q64" s="118"/>
+      <c r="P64" s="103"/>
+      <c r="Q64" s="119"/>
       <c r="R64" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
-      <c r="B65" s="124"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="101"/>
+      <c r="A65" s="107"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="102"/>
       <c r="F65" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
-      <c r="I65" s="121"/>
-      <c r="J65" s="104"/>
-      <c r="K65" s="102"/>
-      <c r="L65" s="102"/>
-      <c r="M65" s="102"/>
-      <c r="N65" s="126"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="103"/>
+      <c r="L65" s="103"/>
+      <c r="M65" s="103"/>
+      <c r="N65" s="127"/>
       <c r="O65" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P65" s="102"/>
-      <c r="Q65" s="118"/>
+      <c r="P65" s="103"/>
+      <c r="Q65" s="119"/>
       <c r="R65" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
-      <c r="B66" s="124"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="101"/>
+      <c r="A66" s="107"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="102"/>
       <c r="F66" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
-      <c r="I66" s="121"/>
-      <c r="J66" s="104"/>
-      <c r="K66" s="102"/>
-      <c r="L66" s="102"/>
-      <c r="M66" s="102"/>
-      <c r="N66" s="126"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="105"/>
+      <c r="K66" s="103"/>
+      <c r="L66" s="103"/>
+      <c r="M66" s="103"/>
+      <c r="N66" s="127"/>
       <c r="O66" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P66" s="102"/>
-      <c r="Q66" s="118"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="119"/>
       <c r="R66" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="106"/>
-      <c r="B67" s="125"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="101"/>
+      <c r="A67" s="107"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="102"/>
       <c r="F67" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G67" s="102"/>
-      <c r="H67" s="102"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="104"/>
-      <c r="K67" s="102"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="102"/>
-      <c r="N67" s="126"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="123"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="103"/>
+      <c r="L67" s="103"/>
+      <c r="M67" s="103"/>
+      <c r="N67" s="127"/>
       <c r="O67" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="119"/>
+      <c r="P67" s="103"/>
+      <c r="Q67" s="120"/>
       <c r="R67" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="106" t="s">
+      <c r="A68" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="123" t="s">
+      <c r="B68" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="101" t="s">
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="102" t="s">
         <v>158</v>
       </c>
       <c r="F68" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="102"/>
-      <c r="H68" s="102"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="103"/>
       <c r="I68" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J68" s="102"/>
-      <c r="K68" s="102"/>
-      <c r="L68" s="102"/>
-      <c r="M68" s="102"/>
-      <c r="N68" s="126" t="s">
+      <c r="J68" s="103"/>
+      <c r="K68" s="103"/>
+      <c r="L68" s="103"/>
+      <c r="M68" s="103"/>
+      <c r="N68" s="127" t="s">
         <v>97</v>
       </c>
       <c r="O68" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P68" s="102" t="s">
+      <c r="P68" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="Q68" s="117" t="s">
+      <c r="Q68" s="118" t="s">
         <v>108</v>
       </c>
       <c r="R68" s="20" t="s">
@@ -7810,185 +7879,185 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
-      <c r="B69" s="124"/>
-      <c r="C69" s="102"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="101"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="103"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="102"/>
       <c r="F69" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="102"/>
-      <c r="H69" s="102"/>
+      <c r="G69" s="103"/>
+      <c r="H69" s="103"/>
       <c r="I69" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J69" s="102"/>
-      <c r="K69" s="102"/>
-      <c r="L69" s="102"/>
-      <c r="M69" s="102"/>
-      <c r="N69" s="126"/>
+      <c r="J69" s="103"/>
+      <c r="K69" s="103"/>
+      <c r="L69" s="103"/>
+      <c r="M69" s="103"/>
+      <c r="N69" s="127"/>
       <c r="O69" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P69" s="102"/>
-      <c r="Q69" s="118"/>
+      <c r="P69" s="103"/>
+      <c r="Q69" s="119"/>
       <c r="R69" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="106"/>
-      <c r="B70" s="124"/>
-      <c r="C70" s="102"/>
-      <c r="D70" s="102"/>
-      <c r="E70" s="101"/>
+      <c r="A70" s="107"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="103"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="102"/>
       <c r="F70" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G70" s="102"/>
-      <c r="H70" s="102"/>
-      <c r="I70" s="120"/>
-      <c r="J70" s="102"/>
-      <c r="K70" s="102"/>
-      <c r="L70" s="102"/>
-      <c r="M70" s="102"/>
-      <c r="N70" s="126"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="103"/>
+      <c r="I70" s="121"/>
+      <c r="J70" s="103"/>
+      <c r="K70" s="103"/>
+      <c r="L70" s="103"/>
+      <c r="M70" s="103"/>
+      <c r="N70" s="127"/>
       <c r="O70" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P70" s="102"/>
-      <c r="Q70" s="118"/>
+      <c r="P70" s="103"/>
+      <c r="Q70" s="119"/>
       <c r="R70" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="106"/>
-      <c r="B71" s="124"/>
-      <c r="C71" s="102"/>
-      <c r="D71" s="102"/>
-      <c r="E71" s="101"/>
+      <c r="A71" s="107"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="102"/>
       <c r="F71" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G71" s="102"/>
-      <c r="H71" s="102"/>
-      <c r="I71" s="121"/>
-      <c r="J71" s="102"/>
-      <c r="K71" s="102"/>
-      <c r="L71" s="102"/>
-      <c r="M71" s="102"/>
-      <c r="N71" s="126"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="103"/>
+      <c r="I71" s="122"/>
+      <c r="J71" s="103"/>
+      <c r="K71" s="103"/>
+      <c r="L71" s="103"/>
+      <c r="M71" s="103"/>
+      <c r="N71" s="127"/>
       <c r="O71" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P71" s="102"/>
-      <c r="Q71" s="118"/>
+      <c r="P71" s="103"/>
+      <c r="Q71" s="119"/>
       <c r="R71" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="106"/>
-      <c r="B72" s="124"/>
-      <c r="C72" s="102"/>
-      <c r="D72" s="102"/>
-      <c r="E72" s="101"/>
+      <c r="A72" s="107"/>
+      <c r="B72" s="125"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="102"/>
       <c r="F72" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="102"/>
-      <c r="H72" s="102"/>
-      <c r="I72" s="121"/>
-      <c r="J72" s="102"/>
-      <c r="K72" s="102"/>
-      <c r="L72" s="102"/>
-      <c r="M72" s="102"/>
-      <c r="N72" s="126"/>
+      <c r="G72" s="103"/>
+      <c r="H72" s="103"/>
+      <c r="I72" s="122"/>
+      <c r="J72" s="103"/>
+      <c r="K72" s="103"/>
+      <c r="L72" s="103"/>
+      <c r="M72" s="103"/>
+      <c r="N72" s="127"/>
       <c r="O72" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P72" s="102"/>
-      <c r="Q72" s="118"/>
+      <c r="P72" s="103"/>
+      <c r="Q72" s="119"/>
       <c r="R72" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
-      <c r="B73" s="124"/>
-      <c r="C73" s="102"/>
-      <c r="D73" s="102"/>
-      <c r="E73" s="101"/>
+      <c r="A73" s="107"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
+      <c r="E73" s="102"/>
       <c r="F73" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G73" s="102"/>
-      <c r="H73" s="102"/>
-      <c r="I73" s="121"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="102"/>
-      <c r="L73" s="102"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="126"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="103"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="103"/>
+      <c r="K73" s="103"/>
+      <c r="L73" s="103"/>
+      <c r="M73" s="103"/>
+      <c r="N73" s="127"/>
       <c r="O73" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="118"/>
+      <c r="P73" s="103"/>
+      <c r="Q73" s="119"/>
       <c r="R73" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
-      <c r="B74" s="124"/>
-      <c r="C74" s="102"/>
-      <c r="D74" s="102"/>
-      <c r="E74" s="101"/>
+      <c r="A74" s="107"/>
+      <c r="B74" s="125"/>
+      <c r="C74" s="103"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="102"/>
       <c r="F74" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G74" s="102"/>
-      <c r="H74" s="102"/>
-      <c r="I74" s="121"/>
-      <c r="J74" s="102"/>
-      <c r="K74" s="102"/>
-      <c r="L74" s="102"/>
-      <c r="M74" s="102"/>
-      <c r="N74" s="126"/>
+      <c r="G74" s="103"/>
+      <c r="H74" s="103"/>
+      <c r="I74" s="122"/>
+      <c r="J74" s="103"/>
+      <c r="K74" s="103"/>
+      <c r="L74" s="103"/>
+      <c r="M74" s="103"/>
+      <c r="N74" s="127"/>
       <c r="O74" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P74" s="102"/>
-      <c r="Q74" s="118"/>
+      <c r="P74" s="103"/>
+      <c r="Q74" s="119"/>
       <c r="R74" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="106"/>
-      <c r="B75" s="125"/>
-      <c r="C75" s="102"/>
-      <c r="D75" s="102"/>
-      <c r="E75" s="101"/>
+      <c r="A75" s="107"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="103"/>
+      <c r="D75" s="103"/>
+      <c r="E75" s="102"/>
       <c r="F75" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G75" s="102"/>
-      <c r="H75" s="102"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="102"/>
-      <c r="K75" s="102"/>
-      <c r="L75" s="102"/>
-      <c r="M75" s="102"/>
-      <c r="N75" s="126"/>
+      <c r="G75" s="103"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="123"/>
+      <c r="J75" s="103"/>
+      <c r="K75" s="103"/>
+      <c r="L75" s="103"/>
+      <c r="M75" s="103"/>
+      <c r="N75" s="127"/>
       <c r="O75" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P75" s="102"/>
-      <c r="Q75" s="119"/>
+      <c r="P75" s="103"/>
+      <c r="Q75" s="120"/>
       <c r="R75" s="20" t="s">
         <v>89</v>
       </c>
@@ -8328,15 +8397,15 @@
       </c>
     </row>
     <row r="85" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="107" t="s">
+      <c r="A85" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="B85" s="109" t="s">
+      <c r="B85" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="C85" s="115"/>
-      <c r="D85" s="115"/>
-      <c r="E85" s="113" t="s">
+      <c r="C85" s="116"/>
+      <c r="D85" s="116"/>
+      <c r="E85" s="114" t="s">
         <v>158</v>
       </c>
       <c r="F85" s="19"/>
@@ -8368,17 +8437,17 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="108"/>
-      <c r="B86" s="110"/>
-      <c r="C86" s="116"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="114"/>
+      <c r="A86" s="109"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="117"/>
+      <c r="E86" s="115"/>
       <c r="F86" s="48"/>
       <c r="G86" s="49" t="s">
         <v>107</v>
       </c>
       <c r="H86" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I86" s="48"/>
       <c r="J86" s="48"/>
@@ -8438,47 +8507,47 @@
       </c>
     </row>
     <row r="89" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="106" t="s">
+      <c r="A89" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="123" t="s">
+      <c r="B89" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C89" s="102"/>
-      <c r="D89" s="102"/>
-      <c r="E89" s="101" t="s">
-        <v>212</v>
+      <c r="C89" s="103"/>
+      <c r="D89" s="103"/>
+      <c r="E89" s="102" t="s">
+        <v>211</v>
       </c>
       <c r="F89" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="102"/>
-      <c r="H89" s="102"/>
+      <c r="G89" s="103"/>
+      <c r="H89" s="103"/>
       <c r="I89" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="J89" s="103" t="s">
+      <c r="J89" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="K89" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="K89" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="L89" s="103" t="s">
+      <c r="L89" s="104" t="s">
         <v>109</v>
       </c>
       <c r="M89" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="N89" s="126" t="s">
+        <v>229</v>
+      </c>
+      <c r="N89" s="127" t="s">
         <v>97</v>
       </c>
       <c r="O89" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P89" s="102" t="s">
+      <c r="P89" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="Q89" s="117" t="s">
+      <c r="Q89" s="118" t="s">
         <v>108</v>
       </c>
       <c r="R89" s="20" t="s">
@@ -8486,225 +8555,225 @@
       </c>
     </row>
     <row r="90" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="106"/>
-      <c r="B90" s="124"/>
-      <c r="C90" s="102"/>
-      <c r="D90" s="102"/>
-      <c r="E90" s="101"/>
+      <c r="A90" s="107"/>
+      <c r="B90" s="125"/>
+      <c r="C90" s="103"/>
+      <c r="D90" s="103"/>
+      <c r="E90" s="102"/>
       <c r="F90" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="102"/>
-      <c r="H90" s="102"/>
+      <c r="G90" s="103"/>
+      <c r="H90" s="103"/>
       <c r="I90" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="J90" s="104"/>
-      <c r="K90" s="104"/>
-      <c r="L90" s="104"/>
+      <c r="J90" s="105"/>
+      <c r="K90" s="105"/>
+      <c r="L90" s="105"/>
       <c r="M90" s="53" t="s">
-        <v>230</v>
-      </c>
-      <c r="N90" s="126"/>
+        <v>229</v>
+      </c>
+      <c r="N90" s="127"/>
       <c r="O90" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P90" s="102"/>
-      <c r="Q90" s="118"/>
+      <c r="P90" s="103"/>
+      <c r="Q90" s="119"/>
       <c r="R90" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
-      <c r="B91" s="124"/>
-      <c r="C91" s="102"/>
-      <c r="D91" s="102"/>
-      <c r="E91" s="101"/>
+      <c r="A91" s="107"/>
+      <c r="B91" s="125"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="103"/>
+      <c r="E91" s="102"/>
       <c r="F91" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G91" s="102"/>
-      <c r="H91" s="102"/>
-      <c r="I91" s="120"/>
-      <c r="J91" s="104"/>
-      <c r="K91" s="104"/>
-      <c r="L91" s="104"/>
+      <c r="G91" s="103"/>
+      <c r="H91" s="103"/>
+      <c r="I91" s="121"/>
+      <c r="J91" s="105"/>
+      <c r="K91" s="105"/>
+      <c r="L91" s="105"/>
       <c r="M91" s="54"/>
-      <c r="N91" s="126"/>
+      <c r="N91" s="127"/>
       <c r="O91" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P91" s="102"/>
-      <c r="Q91" s="118"/>
+      <c r="P91" s="103"/>
+      <c r="Q91" s="119"/>
       <c r="R91" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="106"/>
-      <c r="B92" s="124"/>
-      <c r="C92" s="102"/>
-      <c r="D92" s="102"/>
-      <c r="E92" s="101"/>
+      <c r="A92" s="107"/>
+      <c r="B92" s="125"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="102"/>
       <c r="F92" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G92" s="102"/>
-      <c r="H92" s="102"/>
-      <c r="I92" s="121"/>
-      <c r="J92" s="104"/>
-      <c r="K92" s="104"/>
-      <c r="L92" s="104"/>
+      <c r="G92" s="103"/>
+      <c r="H92" s="103"/>
+      <c r="I92" s="122"/>
+      <c r="J92" s="105"/>
+      <c r="K92" s="105"/>
+      <c r="L92" s="105"/>
       <c r="M92" s="54"/>
-      <c r="N92" s="126"/>
+      <c r="N92" s="127"/>
       <c r="O92" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P92" s="102"/>
-      <c r="Q92" s="118"/>
+      <c r="P92" s="103"/>
+      <c r="Q92" s="119"/>
       <c r="R92" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="106"/>
-      <c r="B93" s="124"/>
-      <c r="C93" s="102"/>
-      <c r="D93" s="102"/>
-      <c r="E93" s="101"/>
+      <c r="A93" s="107"/>
+      <c r="B93" s="125"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="103"/>
+      <c r="E93" s="102"/>
       <c r="F93" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G93" s="102"/>
-      <c r="H93" s="102"/>
-      <c r="I93" s="121"/>
-      <c r="J93" s="104"/>
-      <c r="K93" s="104"/>
-      <c r="L93" s="104"/>
+      <c r="G93" s="103"/>
+      <c r="H93" s="103"/>
+      <c r="I93" s="122"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="105"/>
+      <c r="L93" s="105"/>
       <c r="M93" s="53"/>
-      <c r="N93" s="126"/>
+      <c r="N93" s="127"/>
       <c r="O93" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P93" s="102"/>
-      <c r="Q93" s="118"/>
+      <c r="P93" s="103"/>
+      <c r="Q93" s="119"/>
       <c r="R93" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="106"/>
-      <c r="B94" s="124"/>
-      <c r="C94" s="102"/>
-      <c r="D94" s="102"/>
-      <c r="E94" s="101"/>
+      <c r="A94" s="107"/>
+      <c r="B94" s="125"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="103"/>
+      <c r="E94" s="102"/>
       <c r="F94" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G94" s="102"/>
-      <c r="H94" s="102"/>
-      <c r="I94" s="121"/>
-      <c r="J94" s="104"/>
-      <c r="K94" s="104"/>
-      <c r="L94" s="104"/>
+      <c r="G94" s="103"/>
+      <c r="H94" s="103"/>
+      <c r="I94" s="122"/>
+      <c r="J94" s="105"/>
+      <c r="K94" s="105"/>
+      <c r="L94" s="105"/>
       <c r="M94" s="54"/>
-      <c r="N94" s="126"/>
+      <c r="N94" s="127"/>
       <c r="O94" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P94" s="102"/>
-      <c r="Q94" s="118"/>
+      <c r="P94" s="103"/>
+      <c r="Q94" s="119"/>
       <c r="R94" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="106"/>
-      <c r="B95" s="124"/>
-      <c r="C95" s="102"/>
-      <c r="D95" s="102"/>
-      <c r="E95" s="101"/>
+      <c r="A95" s="107"/>
+      <c r="B95" s="125"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="102"/>
       <c r="F95" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G95" s="102"/>
-      <c r="H95" s="102"/>
-      <c r="I95" s="121"/>
-      <c r="J95" s="104"/>
-      <c r="K95" s="104"/>
-      <c r="L95" s="104"/>
+      <c r="G95" s="103"/>
+      <c r="H95" s="103"/>
+      <c r="I95" s="122"/>
+      <c r="J95" s="105"/>
+      <c r="K95" s="105"/>
+      <c r="L95" s="105"/>
       <c r="M95" s="54"/>
-      <c r="N95" s="126"/>
+      <c r="N95" s="127"/>
       <c r="O95" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P95" s="102"/>
-      <c r="Q95" s="118"/>
+      <c r="P95" s="103"/>
+      <c r="Q95" s="119"/>
       <c r="R95" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="106"/>
-      <c r="B96" s="125"/>
-      <c r="C96" s="102"/>
-      <c r="D96" s="102"/>
-      <c r="E96" s="101"/>
+      <c r="A96" s="107"/>
+      <c r="B96" s="126"/>
+      <c r="C96" s="103"/>
+      <c r="D96" s="103"/>
+      <c r="E96" s="102"/>
       <c r="F96" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G96" s="102"/>
-      <c r="H96" s="102"/>
-      <c r="I96" s="122"/>
-      <c r="J96" s="104"/>
-      <c r="K96" s="104"/>
-      <c r="L96" s="104"/>
+      <c r="G96" s="103"/>
+      <c r="H96" s="103"/>
+      <c r="I96" s="123"/>
+      <c r="J96" s="105"/>
+      <c r="K96" s="105"/>
+      <c r="L96" s="105"/>
       <c r="M96" s="54"/>
-      <c r="N96" s="126"/>
+      <c r="N96" s="127"/>
       <c r="O96" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P96" s="102"/>
-      <c r="Q96" s="119"/>
+      <c r="P96" s="103"/>
+      <c r="Q96" s="120"/>
       <c r="R96" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="106" t="s">
+      <c r="A97" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B97" s="123" t="s">
+      <c r="B97" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C97" s="102"/>
-      <c r="D97" s="102"/>
-      <c r="E97" s="101" t="s">
-        <v>218</v>
+      <c r="C97" s="103"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="102" t="s">
+        <v>217</v>
       </c>
       <c r="F97" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="G97" s="102"/>
-      <c r="H97" s="102"/>
+      <c r="G97" s="103"/>
+      <c r="H97" s="103"/>
       <c r="I97" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="J97" s="102"/>
-      <c r="K97" s="102"/>
-      <c r="L97" s="102"/>
-      <c r="M97" s="102"/>
-      <c r="N97" s="126" t="s">
+      <c r="J97" s="103"/>
+      <c r="K97" s="103"/>
+      <c r="L97" s="103"/>
+      <c r="M97" s="103"/>
+      <c r="N97" s="127" t="s">
         <v>97</v>
       </c>
       <c r="O97" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P97" s="102" t="s">
+      <c r="P97" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="Q97" s="117" t="s">
+      <c r="Q97" s="118" t="s">
         <v>108</v>
       </c>
       <c r="R97" s="20" t="s">
@@ -8712,185 +8781,185 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="106"/>
-      <c r="B98" s="124"/>
-      <c r="C98" s="102"/>
-      <c r="D98" s="102"/>
-      <c r="E98" s="101"/>
+      <c r="A98" s="107"/>
+      <c r="B98" s="125"/>
+      <c r="C98" s="103"/>
+      <c r="D98" s="103"/>
+      <c r="E98" s="102"/>
       <c r="F98" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G98" s="102"/>
-      <c r="H98" s="102"/>
+      <c r="G98" s="103"/>
+      <c r="H98" s="103"/>
       <c r="I98" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="J98" s="102"/>
-      <c r="K98" s="102"/>
-      <c r="L98" s="102"/>
-      <c r="M98" s="102"/>
-      <c r="N98" s="126"/>
+      <c r="J98" s="103"/>
+      <c r="K98" s="103"/>
+      <c r="L98" s="103"/>
+      <c r="M98" s="103"/>
+      <c r="N98" s="127"/>
       <c r="O98" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P98" s="102"/>
-      <c r="Q98" s="118"/>
+      <c r="P98" s="103"/>
+      <c r="Q98" s="119"/>
       <c r="R98" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="106"/>
-      <c r="B99" s="124"/>
-      <c r="C99" s="102"/>
-      <c r="D99" s="102"/>
-      <c r="E99" s="101"/>
+      <c r="A99" s="107"/>
+      <c r="B99" s="125"/>
+      <c r="C99" s="103"/>
+      <c r="D99" s="103"/>
+      <c r="E99" s="102"/>
       <c r="F99" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G99" s="102"/>
-      <c r="H99" s="102"/>
-      <c r="I99" s="120"/>
-      <c r="J99" s="102"/>
-      <c r="K99" s="102"/>
-      <c r="L99" s="102"/>
-      <c r="M99" s="102"/>
-      <c r="N99" s="126"/>
+      <c r="G99" s="103"/>
+      <c r="H99" s="103"/>
+      <c r="I99" s="121"/>
+      <c r="J99" s="103"/>
+      <c r="K99" s="103"/>
+      <c r="L99" s="103"/>
+      <c r="M99" s="103"/>
+      <c r="N99" s="127"/>
       <c r="O99" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P99" s="102"/>
-      <c r="Q99" s="118"/>
+      <c r="P99" s="103"/>
+      <c r="Q99" s="119"/>
       <c r="R99" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="106"/>
-      <c r="B100" s="124"/>
-      <c r="C100" s="102"/>
-      <c r="D100" s="102"/>
-      <c r="E100" s="101"/>
+      <c r="A100" s="107"/>
+      <c r="B100" s="125"/>
+      <c r="C100" s="103"/>
+      <c r="D100" s="103"/>
+      <c r="E100" s="102"/>
       <c r="F100" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="G100" s="102"/>
-      <c r="H100" s="102"/>
-      <c r="I100" s="121"/>
-      <c r="J100" s="102"/>
-      <c r="K100" s="102"/>
-      <c r="L100" s="102"/>
-      <c r="M100" s="102"/>
-      <c r="N100" s="126"/>
+      <c r="G100" s="103"/>
+      <c r="H100" s="103"/>
+      <c r="I100" s="122"/>
+      <c r="J100" s="103"/>
+      <c r="K100" s="103"/>
+      <c r="L100" s="103"/>
+      <c r="M100" s="103"/>
+      <c r="N100" s="127"/>
       <c r="O100" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P100" s="102"/>
-      <c r="Q100" s="118"/>
+      <c r="P100" s="103"/>
+      <c r="Q100" s="119"/>
       <c r="R100" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="106"/>
-      <c r="B101" s="124"/>
-      <c r="C101" s="102"/>
-      <c r="D101" s="102"/>
-      <c r="E101" s="101"/>
+      <c r="A101" s="107"/>
+      <c r="B101" s="125"/>
+      <c r="C101" s="103"/>
+      <c r="D101" s="103"/>
+      <c r="E101" s="102"/>
       <c r="F101" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G101" s="102"/>
-      <c r="H101" s="102"/>
-      <c r="I101" s="121"/>
-      <c r="J101" s="102"/>
-      <c r="K101" s="102"/>
-      <c r="L101" s="102"/>
-      <c r="M101" s="102"/>
-      <c r="N101" s="126"/>
+      <c r="G101" s="103"/>
+      <c r="H101" s="103"/>
+      <c r="I101" s="122"/>
+      <c r="J101" s="103"/>
+      <c r="K101" s="103"/>
+      <c r="L101" s="103"/>
+      <c r="M101" s="103"/>
+      <c r="N101" s="127"/>
       <c r="O101" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P101" s="102"/>
-      <c r="Q101" s="118"/>
+      <c r="P101" s="103"/>
+      <c r="Q101" s="119"/>
       <c r="R101" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="106"/>
-      <c r="B102" s="124"/>
-      <c r="C102" s="102"/>
-      <c r="D102" s="102"/>
-      <c r="E102" s="101"/>
+      <c r="A102" s="107"/>
+      <c r="B102" s="125"/>
+      <c r="C102" s="103"/>
+      <c r="D102" s="103"/>
+      <c r="E102" s="102"/>
       <c r="F102" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G102" s="102"/>
-      <c r="H102" s="102"/>
-      <c r="I102" s="121"/>
-      <c r="J102" s="102"/>
-      <c r="K102" s="102"/>
-      <c r="L102" s="102"/>
-      <c r="M102" s="102"/>
-      <c r="N102" s="126"/>
+      <c r="G102" s="103"/>
+      <c r="H102" s="103"/>
+      <c r="I102" s="122"/>
+      <c r="J102" s="103"/>
+      <c r="K102" s="103"/>
+      <c r="L102" s="103"/>
+      <c r="M102" s="103"/>
+      <c r="N102" s="127"/>
       <c r="O102" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P102" s="102"/>
-      <c r="Q102" s="118"/>
+      <c r="P102" s="103"/>
+      <c r="Q102" s="119"/>
       <c r="R102" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="106"/>
-      <c r="B103" s="124"/>
-      <c r="C103" s="102"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="101"/>
+      <c r="A103" s="107"/>
+      <c r="B103" s="125"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="102"/>
       <c r="F103" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G103" s="102"/>
-      <c r="H103" s="102"/>
-      <c r="I103" s="121"/>
-      <c r="J103" s="102"/>
-      <c r="K103" s="102"/>
-      <c r="L103" s="102"/>
-      <c r="M103" s="102"/>
-      <c r="N103" s="126"/>
+      <c r="G103" s="103"/>
+      <c r="H103" s="103"/>
+      <c r="I103" s="122"/>
+      <c r="J103" s="103"/>
+      <c r="K103" s="103"/>
+      <c r="L103" s="103"/>
+      <c r="M103" s="103"/>
+      <c r="N103" s="127"/>
       <c r="O103" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P103" s="102"/>
-      <c r="Q103" s="118"/>
+      <c r="P103" s="103"/>
+      <c r="Q103" s="119"/>
       <c r="R103" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="106"/>
-      <c r="B104" s="125"/>
-      <c r="C104" s="102"/>
-      <c r="D104" s="102"/>
-      <c r="E104" s="101"/>
+      <c r="A104" s="107"/>
+      <c r="B104" s="126"/>
+      <c r="C104" s="103"/>
+      <c r="D104" s="103"/>
+      <c r="E104" s="102"/>
       <c r="F104" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G104" s="102"/>
-      <c r="H104" s="102"/>
-      <c r="I104" s="122"/>
-      <c r="J104" s="102"/>
-      <c r="K104" s="102"/>
-      <c r="L104" s="102"/>
-      <c r="M104" s="102"/>
-      <c r="N104" s="126"/>
+      <c r="G104" s="103"/>
+      <c r="H104" s="103"/>
+      <c r="I104" s="123"/>
+      <c r="J104" s="103"/>
+      <c r="K104" s="103"/>
+      <c r="L104" s="103"/>
+      <c r="M104" s="103"/>
+      <c r="N104" s="127"/>
       <c r="O104" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P104" s="102"/>
-      <c r="Q104" s="119"/>
+      <c r="P104" s="103"/>
+      <c r="Q104" s="120"/>
       <c r="R104" s="20" t="s">
         <v>89</v>
       </c>
@@ -8905,7 +8974,7 @@
       <c r="C105" s="27"/>
       <c r="D105" s="97"/>
       <c r="E105" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
@@ -8943,7 +9012,7 @@
       <c r="C106" s="27"/>
       <c r="D106" s="97"/>
       <c r="E106" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
@@ -8979,7 +9048,7 @@
       <c r="C107" s="27"/>
       <c r="D107" s="97"/>
       <c r="E107" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
@@ -9015,7 +9084,7 @@
       <c r="C108" s="27"/>
       <c r="D108" s="97"/>
       <c r="E108" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
@@ -9051,7 +9120,7 @@
       <c r="C109" s="27"/>
       <c r="D109" s="97"/>
       <c r="E109" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
@@ -9087,7 +9156,7 @@
       <c r="C110" s="27"/>
       <c r="D110" s="97"/>
       <c r="E110" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
@@ -9123,7 +9192,7 @@
       <c r="C111" s="27"/>
       <c r="D111" s="97"/>
       <c r="E111" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
@@ -9159,7 +9228,7 @@
       <c r="C112" s="97"/>
       <c r="D112" s="97"/>
       <c r="E112" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F112" s="97"/>
       <c r="G112" s="97"/>
@@ -9176,7 +9245,7 @@
         <v>89</v>
       </c>
       <c r="P112" s="97" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q112" s="24" t="s">
         <v>120</v>
@@ -9195,7 +9264,7 @@
       <c r="C113" s="97"/>
       <c r="D113" s="97"/>
       <c r="E113" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F113" s="97"/>
       <c r="G113" s="97"/>
@@ -9212,7 +9281,7 @@
         <v>89</v>
       </c>
       <c r="P113" s="97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q113" s="24" t="s">
         <v>120</v>
@@ -9235,7 +9304,7 @@
         <v>155</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="40" t="s">
@@ -9279,7 +9348,7 @@
         <v>155</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="40" t="s">
@@ -9310,20 +9379,20 @@
       </c>
     </row>
     <row r="116" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="107" t="s">
+      <c r="A116" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="109" t="s">
+      <c r="B116" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="C116" s="111" t="s">
+      <c r="C116" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="D116" s="111" t="s">
+      <c r="D116" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="E116" s="113" t="s">
-        <v>278</v>
+      <c r="E116" s="114" t="s">
+        <v>277</v>
       </c>
       <c r="F116" s="48"/>
       <c r="G116" s="40" t="s">
@@ -9354,17 +9423,17 @@
       </c>
     </row>
     <row r="117" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="108"/>
-      <c r="B117" s="110"/>
-      <c r="C117" s="112"/>
-      <c r="D117" s="112"/>
-      <c r="E117" s="114"/>
+      <c r="A117" s="109"/>
+      <c r="B117" s="111"/>
+      <c r="C117" s="113"/>
+      <c r="D117" s="113"/>
+      <c r="E117" s="115"/>
       <c r="F117" s="48"/>
       <c r="G117" s="49" t="s">
         <v>107</v>
       </c>
       <c r="H117" s="52" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I117" s="48"/>
       <c r="J117" s="48"/>
@@ -9401,7 +9470,7 @@
         <v>155</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F118" s="27"/>
       <c r="G118" s="27"/>
@@ -9428,121 +9497,121 @@
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="106" t="s">
+      <c r="A121" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="123" t="s">
+      <c r="B121" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C121" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="D121" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="E121" s="101" t="s">
+      <c r="C121" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="D121" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="E121" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="F121" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="F121" s="38" t="s">
+      <c r="G121" s="103"/>
+      <c r="H121" s="103"/>
+      <c r="I121" s="116"/>
+      <c r="J121" s="116"/>
+      <c r="K121" s="116"/>
+      <c r="L121" s="116"/>
+      <c r="M121" s="116"/>
+      <c r="N121" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="O121" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="P121" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q121" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="R121" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="107"/>
+      <c r="B122" s="125"/>
+      <c r="C122" s="131"/>
+      <c r="D122" s="131"/>
+      <c r="E122" s="102"/>
+      <c r="F122" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G121" s="102"/>
-      <c r="H121" s="102"/>
-      <c r="I121" s="115"/>
-      <c r="J121" s="115"/>
-      <c r="K121" s="115"/>
-      <c r="L121" s="115"/>
-      <c r="M121" s="115"/>
-      <c r="N121" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="O121" s="68" t="s">
+      <c r="G122" s="103"/>
+      <c r="H122" s="103"/>
+      <c r="I122" s="129"/>
+      <c r="J122" s="129"/>
+      <c r="K122" s="129"/>
+      <c r="L122" s="129"/>
+      <c r="M122" s="129"/>
+      <c r="N122" s="127"/>
+      <c r="O122" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="P121" s="102" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q121" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="R121" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="106"/>
-      <c r="B122" s="124"/>
-      <c r="C122" s="130"/>
-      <c r="D122" s="130"/>
-      <c r="E122" s="101"/>
-      <c r="F122" s="38" t="s">
+      <c r="P122" s="103"/>
+      <c r="Q122" s="119"/>
+      <c r="R122" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A123" s="107"/>
+      <c r="B123" s="125"/>
+      <c r="C123" s="131"/>
+      <c r="D123" s="131"/>
+      <c r="E123" s="102"/>
+      <c r="F123" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="G122" s="102"/>
-      <c r="H122" s="102"/>
-      <c r="I122" s="128"/>
-      <c r="J122" s="128"/>
-      <c r="K122" s="128"/>
-      <c r="L122" s="128"/>
-      <c r="M122" s="128"/>
-      <c r="N122" s="126"/>
-      <c r="O122" s="68" t="s">
+      <c r="G123" s="103"/>
+      <c r="H123" s="103"/>
+      <c r="I123" s="129"/>
+      <c r="J123" s="129"/>
+      <c r="K123" s="129"/>
+      <c r="L123" s="129"/>
+      <c r="M123" s="129"/>
+      <c r="N123" s="127"/>
+      <c r="O123" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="P122" s="102"/>
-      <c r="Q122" s="118"/>
-      <c r="R122" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="106"/>
-      <c r="B123" s="124"/>
-      <c r="C123" s="130"/>
-      <c r="D123" s="130"/>
-      <c r="E123" s="101"/>
-      <c r="F123" s="38" t="s">
+      <c r="P123" s="103"/>
+      <c r="Q123" s="119"/>
+      <c r="R123" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="107"/>
+      <c r="B124" s="125"/>
+      <c r="C124" s="132"/>
+      <c r="D124" s="132"/>
+      <c r="E124" s="102"/>
+      <c r="F124" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="G123" s="102"/>
-      <c r="H123" s="102"/>
-      <c r="I123" s="128"/>
-      <c r="J123" s="128"/>
-      <c r="K123" s="128"/>
-      <c r="L123" s="128"/>
-      <c r="M123" s="128"/>
-      <c r="N123" s="126"/>
-      <c r="O123" s="68" t="s">
+      <c r="G124" s="103"/>
+      <c r="H124" s="103"/>
+      <c r="I124" s="117"/>
+      <c r="J124" s="117"/>
+      <c r="K124" s="117"/>
+      <c r="L124" s="117"/>
+      <c r="M124" s="117"/>
+      <c r="N124" s="127"/>
+      <c r="O124" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="P123" s="102"/>
-      <c r="Q123" s="118"/>
-      <c r="R123" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="106"/>
-      <c r="B124" s="124"/>
-      <c r="C124" s="131"/>
-      <c r="D124" s="131"/>
-      <c r="E124" s="101"/>
-      <c r="F124" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="G124" s="102"/>
-      <c r="H124" s="102"/>
-      <c r="I124" s="116"/>
-      <c r="J124" s="116"/>
-      <c r="K124" s="116"/>
-      <c r="L124" s="116"/>
-      <c r="M124" s="116"/>
-      <c r="N124" s="126"/>
-      <c r="O124" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="P124" s="102"/>
-      <c r="Q124" s="119"/>
+      <c r="P124" s="103"/>
+      <c r="Q124" s="120"/>
       <c r="R124" s="20" t="s">
         <v>89</v>
       </c>
@@ -9555,13 +9624,13 @@
         <v>152</v>
       </c>
       <c r="C125" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D125" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E125" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F125" s="57"/>
       <c r="G125" s="57"/>
@@ -9575,10 +9644,10 @@
         <v>97</v>
       </c>
       <c r="O125" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P125" s="67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q125" s="24" t="s">
         <v>120</v>
@@ -9588,121 +9657,121 @@
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="106" t="s">
+      <c r="A126" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="B126" s="109" t="s">
+      <c r="B126" s="110" t="s">
         <v>153</v>
       </c>
-      <c r="C126" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="D126" s="129" t="s">
-        <v>242</v>
-      </c>
-      <c r="E126" s="101" t="s">
+      <c r="C126" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="D126" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="E126" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="F126" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="F126" s="38" t="s">
+      <c r="G126" s="103"/>
+      <c r="H126" s="103"/>
+      <c r="I126" s="116"/>
+      <c r="J126" s="116"/>
+      <c r="K126" s="116"/>
+      <c r="L126" s="116"/>
+      <c r="M126" s="116"/>
+      <c r="N126" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="O126" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="P126" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q126" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="R126" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" s="107"/>
+      <c r="B127" s="133"/>
+      <c r="C127" s="131"/>
+      <c r="D127" s="131"/>
+      <c r="E127" s="102"/>
+      <c r="F127" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G126" s="102"/>
-      <c r="H126" s="102"/>
-      <c r="I126" s="115"/>
-      <c r="J126" s="115"/>
-      <c r="K126" s="115"/>
-      <c r="L126" s="115"/>
-      <c r="M126" s="115"/>
-      <c r="N126" s="126" t="s">
-        <v>97</v>
-      </c>
-      <c r="O126" s="68" t="s">
+      <c r="G127" s="103"/>
+      <c r="H127" s="103"/>
+      <c r="I127" s="129"/>
+      <c r="J127" s="129"/>
+      <c r="K127" s="129"/>
+      <c r="L127" s="129"/>
+      <c r="M127" s="129"/>
+      <c r="N127" s="127"/>
+      <c r="O127" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="P126" s="102" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q126" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="R126" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A127" s="106"/>
-      <c r="B127" s="132"/>
-      <c r="C127" s="130"/>
-      <c r="D127" s="130"/>
-      <c r="E127" s="101"/>
-      <c r="F127" s="38" t="s">
+      <c r="P127" s="103"/>
+      <c r="Q127" s="119"/>
+      <c r="R127" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" s="107"/>
+      <c r="B128" s="133"/>
+      <c r="C128" s="131"/>
+      <c r="D128" s="131"/>
+      <c r="E128" s="102"/>
+      <c r="F128" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="G127" s="102"/>
-      <c r="H127" s="102"/>
-      <c r="I127" s="128"/>
-      <c r="J127" s="128"/>
-      <c r="K127" s="128"/>
-      <c r="L127" s="128"/>
-      <c r="M127" s="128"/>
-      <c r="N127" s="126"/>
-      <c r="O127" s="68" t="s">
+      <c r="G128" s="103"/>
+      <c r="H128" s="103"/>
+      <c r="I128" s="129"/>
+      <c r="J128" s="129"/>
+      <c r="K128" s="129"/>
+      <c r="L128" s="129"/>
+      <c r="M128" s="129"/>
+      <c r="N128" s="127"/>
+      <c r="O128" s="68" t="s">
         <v>238</v>
       </c>
-      <c r="P127" s="102"/>
-      <c r="Q127" s="118"/>
-      <c r="R127" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A128" s="106"/>
-      <c r="B128" s="132"/>
-      <c r="C128" s="130"/>
-      <c r="D128" s="130"/>
-      <c r="E128" s="101"/>
-      <c r="F128" s="38" t="s">
+      <c r="P128" s="103"/>
+      <c r="Q128" s="119"/>
+      <c r="R128" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="107"/>
+      <c r="B129" s="111"/>
+      <c r="C129" s="132"/>
+      <c r="D129" s="132"/>
+      <c r="E129" s="102"/>
+      <c r="F129" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="G128" s="102"/>
-      <c r="H128" s="102"/>
-      <c r="I128" s="128"/>
-      <c r="J128" s="128"/>
-      <c r="K128" s="128"/>
-      <c r="L128" s="128"/>
-      <c r="M128" s="128"/>
-      <c r="N128" s="126"/>
-      <c r="O128" s="68" t="s">
+      <c r="G129" s="103"/>
+      <c r="H129" s="103"/>
+      <c r="I129" s="117"/>
+      <c r="J129" s="117"/>
+      <c r="K129" s="117"/>
+      <c r="L129" s="117"/>
+      <c r="M129" s="117"/>
+      <c r="N129" s="127"/>
+      <c r="O129" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="P128" s="102"/>
-      <c r="Q128" s="118"/>
-      <c r="R128" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="106"/>
-      <c r="B129" s="110"/>
-      <c r="C129" s="131"/>
-      <c r="D129" s="131"/>
-      <c r="E129" s="101"/>
-      <c r="F129" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="G129" s="102"/>
-      <c r="H129" s="102"/>
-      <c r="I129" s="116"/>
-      <c r="J129" s="116"/>
-      <c r="K129" s="116"/>
-      <c r="L129" s="116"/>
-      <c r="M129" s="116"/>
-      <c r="N129" s="126"/>
-      <c r="O129" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="P129" s="102"/>
-      <c r="Q129" s="119"/>
+      <c r="P129" s="103"/>
+      <c r="Q129" s="120"/>
       <c r="R129" s="20" t="s">
         <v>89</v>
       </c>
@@ -9715,13 +9784,13 @@
         <v>153</v>
       </c>
       <c r="C130" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D130" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E130" s="86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F130" s="83"/>
       <c r="G130" s="83"/>
@@ -9735,10 +9804,10 @@
         <v>97</v>
       </c>
       <c r="O130" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P130" s="67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q130" s="24" t="s">
         <v>120</v>
@@ -9775,20 +9844,20 @@
         <v>153</v>
       </c>
       <c r="C132" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D132" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E132" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F132" s="57"/>
       <c r="G132" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="H132" s="99" t="s">
         <v>246</v>
-      </c>
-      <c r="H132" s="99" t="s">
-        <v>247</v>
       </c>
       <c r="I132" s="57"/>
       <c r="J132" s="57"/>
@@ -9802,7 +9871,7 @@
         <v>89</v>
       </c>
       <c r="P132" s="70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q132" s="24" t="s">
         <v>120</v>
@@ -9819,13 +9888,13 @@
         <v>153</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D133" s="69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E133" s="63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F133" s="62"/>
       <c r="G133" s="62"/>
@@ -9842,7 +9911,7 @@
         <v>89</v>
       </c>
       <c r="P133" s="70" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q133" s="24" t="s">
         <v>120</v>
@@ -9861,7 +9930,7 @@
       <c r="C135" s="69"/>
       <c r="D135" s="69"/>
       <c r="E135" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F135" s="72"/>
       <c r="G135" s="72"/>
@@ -9875,10 +9944,10 @@
         <v>97</v>
       </c>
       <c r="O135" s="72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P135" s="70" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q135" s="24" t="s">
         <v>120</v>
@@ -9897,7 +9966,7 @@
       <c r="C136" s="69"/>
       <c r="D136" s="69"/>
       <c r="E136" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F136" s="72"/>
       <c r="G136" s="72"/>
@@ -9911,10 +9980,10 @@
         <v>97</v>
       </c>
       <c r="O136" s="72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P136" s="70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q136" s="24" t="s">
         <v>120</v>
@@ -9933,7 +10002,7 @@
       <c r="C137" s="69"/>
       <c r="D137" s="69"/>
       <c r="E137" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F137" s="72"/>
       <c r="G137" s="72"/>
@@ -9947,10 +10016,10 @@
         <v>97</v>
       </c>
       <c r="O137" s="72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P137" s="70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q137" s="24" t="s">
         <v>120</v>
@@ -9969,7 +10038,7 @@
       <c r="C138" s="69"/>
       <c r="D138" s="69"/>
       <c r="E138" s="73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F138" s="72"/>
       <c r="G138" s="72"/>
@@ -9983,10 +10052,10 @@
         <v>97</v>
       </c>
       <c r="O138" s="72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P138" s="70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q138" s="24" t="s">
         <v>120</v>
@@ -10003,13 +10072,13 @@
         <v>152</v>
       </c>
       <c r="C140" s="88" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D140" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F140" s="88"/>
       <c r="G140" s="88"/>
@@ -10026,7 +10095,7 @@
         <v>89</v>
       </c>
       <c r="P140" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q140" s="24" t="s">
         <v>120</v>
@@ -10043,13 +10112,13 @@
         <v>152</v>
       </c>
       <c r="C141" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D141" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F141" s="88"/>
       <c r="G141" s="88"/>
@@ -10066,7 +10135,7 @@
         <v>89</v>
       </c>
       <c r="P141" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q141" s="24" t="s">
         <v>120</v>
@@ -10083,13 +10152,13 @@
         <v>152</v>
       </c>
       <c r="C142" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D142" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F142" s="88"/>
       <c r="G142" s="88"/>
@@ -10106,7 +10175,7 @@
         <v>89</v>
       </c>
       <c r="P142" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q142" s="24" t="s">
         <v>120</v>
@@ -10123,13 +10192,13 @@
         <v>152</v>
       </c>
       <c r="C143" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D143" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F143" s="88"/>
       <c r="G143" s="88"/>
@@ -10146,7 +10215,7 @@
         <v>89</v>
       </c>
       <c r="P143" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q143" s="24" t="s">
         <v>120</v>
@@ -10163,13 +10232,13 @@
         <v>152</v>
       </c>
       <c r="C144" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D144" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F144" s="88"/>
       <c r="G144" s="88"/>
@@ -10186,7 +10255,7 @@
         <v>89</v>
       </c>
       <c r="P144" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q144" s="24" t="s">
         <v>120</v>
@@ -10203,13 +10272,13 @@
         <v>152</v>
       </c>
       <c r="C146" s="93" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D146" s="97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F146" s="93"/>
       <c r="G146" s="93"/>
@@ -10226,10 +10295,10 @@
         <v>89</v>
       </c>
       <c r="P146" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q146" s="24" t="s">
         <v>289</v>
-      </c>
-      <c r="Q146" s="24" t="s">
-        <v>290</v>
       </c>
       <c r="R146" s="93" t="s">
         <v>89</v>
@@ -10243,13 +10312,13 @@
         <v>153</v>
       </c>
       <c r="C148" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="D148" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="E148" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="D148" s="97" t="s">
-        <v>291</v>
-      </c>
-      <c r="E148" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="F148" s="97"/>
       <c r="G148" s="97"/>
@@ -10266,10 +10335,10 @@
         <v>89</v>
       </c>
       <c r="P148" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q148" s="24" t="s">
         <v>293</v>
-      </c>
-      <c r="Q148" s="24" t="s">
-        <v>294</v>
       </c>
       <c r="R148" s="97" t="s">
         <v>89</v>
@@ -10283,13 +10352,13 @@
         <v>154</v>
       </c>
       <c r="C149" s="97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D149" s="97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F149" s="97"/>
       <c r="G149" s="97"/>
@@ -10306,10 +10375,10 @@
         <v>89</v>
       </c>
       <c r="P149" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q149" s="24" t="s">
         <v>293</v>
-      </c>
-      <c r="Q149" s="24" t="s">
-        <v>294</v>
       </c>
       <c r="R149" s="97" t="s">
         <v>89</v>
@@ -10323,13 +10392,13 @@
         <v>154</v>
       </c>
       <c r="C150" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="D150" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="E150" s="22" t="s">
         <v>296</v>
-      </c>
-      <c r="D150" s="97" t="s">
-        <v>296</v>
-      </c>
-      <c r="E150" s="22" t="s">
-        <v>297</v>
       </c>
       <c r="F150" s="97"/>
       <c r="G150" s="97"/>
@@ -10346,10 +10415,10 @@
         <v>89</v>
       </c>
       <c r="P150" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q150" s="24" t="s">
         <v>293</v>
-      </c>
-      <c r="Q150" s="24" t="s">
-        <v>294</v>
       </c>
       <c r="R150" s="97" t="s">
         <v>89</v>
@@ -10363,13 +10432,13 @@
         <v>154</v>
       </c>
       <c r="C151" s="97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D151" s="97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E151" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F151" s="97"/>
       <c r="G151" s="97"/>
@@ -10386,10 +10455,10 @@
         <v>89</v>
       </c>
       <c r="P151" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q151" s="24" t="s">
         <v>293</v>
-      </c>
-      <c r="Q151" s="24" t="s">
-        <v>294</v>
       </c>
       <c r="R151" s="97" t="s">
         <v>89</v>
@@ -10403,13 +10472,13 @@
         <v>154</v>
       </c>
       <c r="C152" s="97" t="s">
+        <v>298</v>
+      </c>
+      <c r="D152" s="97" t="s">
+        <v>298</v>
+      </c>
+      <c r="E152" s="22" t="s">
         <v>299</v>
-      </c>
-      <c r="D152" s="97" t="s">
-        <v>299</v>
-      </c>
-      <c r="E152" s="22" t="s">
-        <v>300</v>
       </c>
       <c r="F152" s="97"/>
       <c r="G152" s="97"/>
@@ -10426,10 +10495,10 @@
         <v>89</v>
       </c>
       <c r="P152" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q152" s="24" t="s">
         <v>293</v>
-      </c>
-      <c r="Q152" s="24" t="s">
-        <v>294</v>
       </c>
       <c r="R152" s="97" t="s">
         <v>89</v>
@@ -10445,7 +10514,7 @@
       <c r="C154" s="97"/>
       <c r="D154" s="97"/>
       <c r="E154" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F154" s="97"/>
       <c r="G154" s="97"/>
@@ -10462,7 +10531,7 @@
         <v>89</v>
       </c>
       <c r="P154" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q154" s="24" t="s">
         <v>120</v>
@@ -10481,7 +10550,7 @@
       <c r="C155" s="97"/>
       <c r="D155" s="97"/>
       <c r="E155" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F155" s="97"/>
       <c r="G155" s="97"/>
@@ -10498,7 +10567,7 @@
         <v>89</v>
       </c>
       <c r="P155" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q155" s="24" t="s">
         <v>120</v>
@@ -10517,14 +10586,14 @@
       <c r="C156" s="97"/>
       <c r="D156" s="97"/>
       <c r="E156" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F156" s="97"/>
       <c r="G156" s="99" t="s">
         <v>107</v>
       </c>
       <c r="H156" s="99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I156" s="97"/>
       <c r="J156" s="97"/>
@@ -10538,7 +10607,7 @@
         <v>89</v>
       </c>
       <c r="P156" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q156" s="24" t="s">
         <v>120</v>
@@ -10555,13 +10624,13 @@
         <v>152</v>
       </c>
       <c r="C157" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D157" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F157" s="97"/>
       <c r="G157" s="97"/>
@@ -10578,7 +10647,7 @@
         <v>89</v>
       </c>
       <c r="P157" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q157" s="24" t="s">
         <v>120</v>
@@ -10595,13 +10664,13 @@
         <v>152</v>
       </c>
       <c r="C158" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D158" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F158" s="97"/>
       <c r="G158" s="97"/>
@@ -10618,7 +10687,7 @@
         <v>89</v>
       </c>
       <c r="P158" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q158" s="24" t="s">
         <v>120</v>
@@ -10635,13 +10704,13 @@
         <v>152</v>
       </c>
       <c r="C159" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D159" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F159" s="97"/>
       <c r="G159" s="97"/>
@@ -10658,7 +10727,7 @@
         <v>89</v>
       </c>
       <c r="P159" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q159" s="24" t="s">
         <v>120</v>
@@ -10675,13 +10744,13 @@
         <v>152</v>
       </c>
       <c r="C160" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="D160" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="E160" s="22" t="s">
         <v>308</v>
-      </c>
-      <c r="D160" s="97" t="s">
-        <v>308</v>
-      </c>
-      <c r="E160" s="22" t="s">
-        <v>309</v>
       </c>
       <c r="F160" s="97"/>
       <c r="G160" s="97"/>
@@ -10698,7 +10767,7 @@
         <v>89</v>
       </c>
       <c r="P160" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q160" s="24" t="s">
         <v>120</v>
@@ -10715,13 +10784,13 @@
         <v>152</v>
       </c>
       <c r="C161" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D161" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F161" s="97"/>
       <c r="G161" s="97"/>
@@ -10738,7 +10807,7 @@
         <v>89</v>
       </c>
       <c r="P161" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q161" s="24" t="s">
         <v>120</v>
@@ -10755,13 +10824,13 @@
         <v>152</v>
       </c>
       <c r="C162" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D162" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F162" s="97"/>
       <c r="G162" s="97"/>
@@ -10778,7 +10847,7 @@
         <v>89</v>
       </c>
       <c r="P162" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q162" s="24" t="s">
         <v>120</v>
@@ -10795,13 +10864,13 @@
         <v>152</v>
       </c>
       <c r="C163" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D163" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E163" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F163" s="97"/>
       <c r="G163" s="97"/>
@@ -10818,7 +10887,7 @@
         <v>89</v>
       </c>
       <c r="P163" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q163" s="24" t="s">
         <v>120</v>
@@ -10835,13 +10904,13 @@
         <v>152</v>
       </c>
       <c r="C164" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D164" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F164" s="97"/>
       <c r="G164" s="97"/>
@@ -10858,7 +10927,7 @@
         <v>89</v>
       </c>
       <c r="P164" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q164" s="24" t="s">
         <v>120</v>
@@ -10875,13 +10944,13 @@
         <v>152</v>
       </c>
       <c r="C165" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D165" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F165" s="97"/>
       <c r="G165" s="97"/>
@@ -10898,7 +10967,7 @@
         <v>89</v>
       </c>
       <c r="P165" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q165" s="24" t="s">
         <v>120</v>
@@ -10915,13 +10984,13 @@
         <v>152</v>
       </c>
       <c r="C166" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D166" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F166" s="97"/>
       <c r="G166" s="97"/>
@@ -10938,7 +11007,7 @@
         <v>89</v>
       </c>
       <c r="P166" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q166" s="24" t="s">
         <v>120</v>
@@ -10955,13 +11024,13 @@
         <v>152</v>
       </c>
       <c r="C167" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D167" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F167" s="97"/>
       <c r="G167" s="97"/>
@@ -10978,7 +11047,7 @@
         <v>89</v>
       </c>
       <c r="P167" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q167" s="24" t="s">
         <v>120</v>
@@ -10995,13 +11064,13 @@
         <v>152</v>
       </c>
       <c r="C168" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D168" s="97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F168" s="97"/>
       <c r="G168" s="97"/>
@@ -11018,7 +11087,7 @@
         <v>89</v>
       </c>
       <c r="P168" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q168" s="24" t="s">
         <v>120</v>
@@ -11035,13 +11104,13 @@
         <v>152</v>
       </c>
       <c r="C169" s="97" t="s">
+        <v>315</v>
+      </c>
+      <c r="D169" s="97" t="s">
+        <v>315</v>
+      </c>
+      <c r="E169" s="22" t="s">
         <v>316</v>
-      </c>
-      <c r="D169" s="97" t="s">
-        <v>316</v>
-      </c>
-      <c r="E169" s="22" t="s">
-        <v>317</v>
       </c>
       <c r="F169" s="97"/>
       <c r="G169" s="97"/>
@@ -11075,13 +11144,13 @@
         <v>152</v>
       </c>
       <c r="C170" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D170" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F170" s="97"/>
       <c r="G170" s="97"/>
@@ -11115,13 +11184,13 @@
         <v>152</v>
       </c>
       <c r="C171" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D171" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E171" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F171" s="97"/>
       <c r="G171" s="97"/>
@@ -11155,13 +11224,13 @@
         <v>152</v>
       </c>
       <c r="C172" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D172" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F172" s="97"/>
       <c r="G172" s="97"/>
@@ -11178,7 +11247,7 @@
         <v>89</v>
       </c>
       <c r="P172" s="76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q172" s="24" t="s">
         <v>120</v>
@@ -11195,13 +11264,13 @@
         <v>152</v>
       </c>
       <c r="C173" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D173" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E173" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F173" s="97"/>
       <c r="G173" s="97"/>
@@ -11218,7 +11287,7 @@
         <v>89</v>
       </c>
       <c r="P173" s="76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q173" s="24" t="s">
         <v>120</v>
@@ -11235,13 +11304,13 @@
         <v>152</v>
       </c>
       <c r="C174" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D174" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F174" s="97"/>
       <c r="G174" s="97"/>
@@ -11258,7 +11327,7 @@
         <v>89</v>
       </c>
       <c r="P174" s="76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q174" s="24" t="s">
         <v>120</v>
@@ -11275,13 +11344,13 @@
         <v>152</v>
       </c>
       <c r="C175" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D175" s="97" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F175" s="97"/>
       <c r="G175" s="97"/>
@@ -11298,7 +11367,7 @@
         <v>89</v>
       </c>
       <c r="P175" s="76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q175" s="24" t="s">
         <v>120</v>
@@ -11506,7 +11575,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="41"/>
@@ -11535,7 +11604,7 @@
         <v>106</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>136</v>
@@ -11559,357 +11628,357 @@
       </c>
       <c r="C5" s="81"/>
       <c r="D5" s="78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" s="78"/>
       <c r="F5" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="68" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="H5" s="68" t="s">
         <v>264</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>265</v>
       </c>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="101" t="s">
-        <v>261</v>
+      <c r="C6" s="103"/>
+      <c r="D6" s="102" t="s">
+        <v>260</v>
       </c>
       <c r="E6" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="126" t="s">
+      <c r="F6" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="107"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="126"/>
+      <c r="F7" s="127"/>
       <c r="G7" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="118"/>
+        <v>265</v>
+      </c>
+      <c r="H7" s="103"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="101"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="126"/>
+      <c r="F8" s="127"/>
       <c r="G8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="118"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="119"/>
       <c r="J8" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="101"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="126"/>
+      <c r="F9" s="127"/>
       <c r="G9" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="118"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="124"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="101"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="126"/>
+      <c r="F10" s="127"/>
       <c r="G10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="118"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="101"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="126"/>
+      <c r="F11" s="127"/>
       <c r="G11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="118"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="119"/>
       <c r="J11" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="101"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="126"/>
+      <c r="F12" s="127"/>
       <c r="G12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="118"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="119"/>
       <c r="J12" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="101"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="126"/>
+      <c r="F13" s="127"/>
       <c r="G13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="119"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="120"/>
       <c r="J13" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="101" t="s">
-        <v>267</v>
+      <c r="C14" s="103"/>
+      <c r="D14" s="102" t="s">
+        <v>266</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="126" t="s">
+      <c r="F14" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="102" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="117" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="F15" s="126"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="118"/>
+        <v>265</v>
+      </c>
+      <c r="H15" s="103"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="101"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="126"/>
+      <c r="F16" s="127"/>
       <c r="G16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="118"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="119"/>
       <c r="J16" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="101"/>
+      <c r="A17" s="107"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="126"/>
+      <c r="F17" s="127"/>
       <c r="G17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="102"/>
-      <c r="I17" s="118"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="119"/>
       <c r="J17" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="101"/>
+      <c r="A18" s="107"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="126"/>
+      <c r="F18" s="127"/>
       <c r="G18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="102"/>
-      <c r="I18" s="118"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="101"/>
+      <c r="A19" s="107"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="126"/>
+      <c r="F19" s="127"/>
       <c r="G19" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="118"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="101"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="126"/>
+      <c r="F20" s="127"/>
       <c r="G20" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="102"/>
-      <c r="I20" s="118"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="101"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="126"/>
+      <c r="F21" s="127"/>
       <c r="G21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="119"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="120"/>
       <c r="J21" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="106" t="s">
+      <c r="A22" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="101" t="s">
-        <v>268</v>
+      <c r="C22" s="103"/>
+      <c r="D22" s="102" t="s">
+        <v>267</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="126" t="s">
-        <v>263</v>
+      <c r="F22" s="127" t="s">
+        <v>262</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H22" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="117" t="s">
+      <c r="I22" s="118" t="s">
         <v>120</v>
       </c>
       <c r="J22" s="20" t="s">
@@ -11917,137 +11986,137 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="124"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="101"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="126"/>
+      <c r="F23" s="127"/>
       <c r="G23" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="118"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="101"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="126"/>
+      <c r="F24" s="127"/>
       <c r="G24" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="102"/>
-      <c r="I24" s="118"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="119"/>
       <c r="J24" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="101"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="126"/>
+      <c r="F25" s="127"/>
       <c r="G25" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="118"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="106"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="101"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="126"/>
+      <c r="F26" s="127"/>
       <c r="G26" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="102"/>
-      <c r="I26" s="118"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="101"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="126"/>
+      <c r="F27" s="127"/>
       <c r="G27" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="102"/>
-      <c r="I27" s="118"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="106"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="101"/>
+      <c r="A28" s="107"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="126"/>
+      <c r="F28" s="127"/>
       <c r="G28" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="102"/>
-      <c r="I28" s="119"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="120"/>
       <c r="J28" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="123" t="s">
+      <c r="B29" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="101" t="s">
-        <v>269</v>
+      <c r="C29" s="103"/>
+      <c r="D29" s="102" t="s">
+        <v>268</v>
       </c>
       <c r="E29" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="126" t="s">
-        <v>263</v>
+      <c r="F29" s="127" t="s">
+        <v>262</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="102" t="s">
+      <c r="H29" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="I29" s="117" t="s">
+      <c r="I29" s="118" t="s">
         <v>120</v>
       </c>
       <c r="J29" s="20" t="s">
@@ -12055,109 +12124,109 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="106"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="101"/>
+      <c r="A30" s="107"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="102"/>
       <c r="E30" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="126"/>
+      <c r="F30" s="127"/>
       <c r="G30" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="102"/>
-      <c r="I30" s="118"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="119"/>
       <c r="J30" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="101"/>
+      <c r="A31" s="107"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="126"/>
+      <c r="F31" s="127"/>
       <c r="G31" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="102"/>
-      <c r="I31" s="118"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="119"/>
       <c r="J31" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
-      <c r="B32" s="124"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="101"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="102"/>
       <c r="E32" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="126"/>
+      <c r="F32" s="127"/>
       <c r="G32" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="102"/>
-      <c r="I32" s="118"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="119"/>
       <c r="J32" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="124"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="101"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="102"/>
       <c r="E33" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="126"/>
+      <c r="F33" s="127"/>
       <c r="G33" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="102"/>
-      <c r="I33" s="118"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="119"/>
       <c r="J33" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
-      <c r="B34" s="124"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="101"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="126"/>
+      <c r="F34" s="127"/>
       <c r="G34" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="102"/>
-      <c r="I34" s="118"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="119"/>
       <c r="J34" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="106"/>
-      <c r="B35" s="125"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="101"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="126"/>
+      <c r="F35" s="127"/>
       <c r="G35" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="102"/>
-      <c r="I35" s="119"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="120"/>
       <c r="J35" s="20" t="s">
         <v>89</v>
       </c>
@@ -12216,21 +12285,21 @@
     <col min="6" max="16384" width="11.42578125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="133" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+    <row r="1" spans="1:5" s="101" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="C1" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="D1" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="133" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" s="133" t="s">
-        <v>338</v>
+      <c r="E1" s="101" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
@@ -12238,13 +12307,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>13</v>
@@ -12255,13 +12324,13 @@
         <v>171</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>14</v>
@@ -12272,13 +12341,13 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>177</v>
@@ -12291,7 +12360,7 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>178</v>
@@ -12299,26 +12368,26 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/doc/LS_Overview.xlsx
+++ b/doc/LS_Overview.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="389">
   <si>
     <t>Vocab</t>
   </si>
@@ -2512,12 +2512,20 @@
  "group": "getty"
 }]</t>
   </si>
+  <si>
+    <t>/dump/repository/:id</t>
+  </si>
+  <si>
+    <t>{
+ "file": "some file"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2618,6 +2626,30 @@
       <color theme="1"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2803,7 +2835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3089,195 +3121,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3289,13 +3147,230 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3599,13 +3674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S180"/>
+  <dimension ref="A1:S181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="O134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,49 +3779,49 @@
       <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="130" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="124"/>
-      <c r="E5" s="144" t="s">
+      <c r="D5" s="130"/>
+      <c r="E5" s="148" t="s">
         <v>88</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="161" t="s">
+      <c r="J5" s="153" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="161" t="s">
+      <c r="K5" s="153" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="161" t="s">
+      <c r="L5" s="153" t="s">
         <v>109</v>
       </c>
       <c r="M5" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="N5" s="133" t="s">
+      <c r="N5" s="149" t="s">
         <v>97</v>
       </c>
       <c r="O5" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="150" t="s">
+      <c r="P5" s="171" t="s">
         <v>359</v>
       </c>
-      <c r="Q5" s="137" t="s">
+      <c r="Q5" s="138" t="s">
         <v>108</v>
       </c>
       <c r="R5" s="20" t="s">
@@ -3754,225 +3829,225 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="144"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="148"/>
       <c r="F6" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
       <c r="I6" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
       <c r="M6" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="N6" s="133"/>
+      <c r="N6" s="149"/>
       <c r="O6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="151"/>
-      <c r="Q6" s="153"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="139"/>
       <c r="R6" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="144"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="148"/>
       <c r="F7" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="133"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="149"/>
       <c r="O7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="153"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="139"/>
       <c r="R7" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="144"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="133"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="149"/>
       <c r="O8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="153"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="139"/>
       <c r="R8" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="144"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="124"/>
-      <c r="H9" s="124"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="156"/>
-      <c r="N9" s="133"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="149"/>
       <c r="O9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="153"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="139"/>
       <c r="R9" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="144"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="133"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="149"/>
       <c r="O10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="153"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="139"/>
       <c r="R10" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="144"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="133"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="149"/>
       <c r="O11" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P11" s="151"/>
-      <c r="Q11" s="153"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="139"/>
       <c r="R11" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="144"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="133"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="149"/>
       <c r="O12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="154"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="140"/>
       <c r="R12" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="144" t="s">
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="148" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
       <c r="I13" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="133" t="s">
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="149" t="s">
         <v>97</v>
       </c>
       <c r="O13" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="122" t="s">
+      <c r="P13" s="173" t="s">
         <v>374</v>
       </c>
-      <c r="Q13" s="137" t="s">
+      <c r="Q13" s="138" t="s">
         <v>108</v>
       </c>
       <c r="R13" s="20" t="s">
@@ -3980,185 +4055,185 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="144"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="148"/>
       <c r="F14" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
       <c r="I14" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="133"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="149"/>
       <c r="O14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="153"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="139"/>
       <c r="R14" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="144"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="148"/>
       <c r="F15" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="133"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="149"/>
       <c r="O15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="153"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="139"/>
       <c r="R15" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="144"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="148"/>
       <c r="F16" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="133"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="149"/>
       <c r="O16" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="153"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="139"/>
       <c r="R16" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="144"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="148"/>
       <c r="F17" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="133"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="149"/>
       <c r="O17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="153"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="139"/>
       <c r="R17" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="144"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="148"/>
       <c r="F18" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="133"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="149"/>
       <c r="O18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="153"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="139"/>
       <c r="R18" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="144"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="148"/>
       <c r="F19" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="133"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="149"/>
       <c r="O19" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="153"/>
+      <c r="P19" s="174"/>
+      <c r="Q19" s="139"/>
       <c r="R19" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="144"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="148"/>
       <c r="F20" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
-      <c r="M20" s="124"/>
-      <c r="N20" s="133"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="149"/>
       <c r="O20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="154"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="140"/>
       <c r="R20" s="20" t="s">
         <v>89</v>
       </c>
@@ -4473,7 +4548,7 @@
       <c r="G29" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="183" t="s">
+      <c r="H29" s="125" t="s">
         <v>378</v>
       </c>
       <c r="I29" s="19"/>
@@ -4517,7 +4592,7 @@
       <c r="G30" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="184" t="s">
+      <c r="H30" s="126" t="s">
         <v>375</v>
       </c>
       <c r="I30" s="19"/>
@@ -4542,26 +4617,26 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="141" t="s">
+      <c r="B31" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="127" t="s">
+      <c r="D31" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="168" t="s">
+      <c r="E31" s="161" t="s">
         <v>241</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H31" s="183" t="s">
+      <c r="H31" s="125" t="s">
         <v>378</v>
       </c>
       <c r="I31" s="19"/>
@@ -4575,7 +4650,7 @@
       <c r="O31" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="P31" s="181" t="s">
+      <c r="P31" s="134" t="s">
         <v>375</v>
       </c>
       <c r="Q31" s="23" t="s">
@@ -4586,16 +4661,16 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="167"/>
-      <c r="B32" s="143"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="152"/>
+      <c r="A32" s="156"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="162"/>
       <c r="F32" s="45"/>
       <c r="G32" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="183" t="s">
+      <c r="H32" s="125" t="s">
         <v>380</v>
       </c>
       <c r="I32" s="45"/>
@@ -4609,7 +4684,7 @@
       <c r="O32" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="P32" s="182"/>
+      <c r="P32" s="135"/>
       <c r="Q32" s="23" t="s">
         <v>120</v>
       </c>
@@ -4658,39 +4733,39 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="140" t="s">
+      <c r="A35" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="164" t="s">
+      <c r="B35" s="165" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="144" t="s">
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="148" t="s">
         <v>135</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
       <c r="I35" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="165"/>
-      <c r="K35" s="165"/>
-      <c r="L35" s="165"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="133" t="s">
+      <c r="J35" s="131"/>
+      <c r="K35" s="131"/>
+      <c r="L35" s="131"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="149" t="s">
         <v>97</v>
       </c>
       <c r="O35" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P35" s="173" t="s">
+      <c r="P35" s="166" t="s">
         <v>359</v>
       </c>
-      <c r="Q35" s="137" t="s">
+      <c r="Q35" s="138" t="s">
         <v>108</v>
       </c>
       <c r="R35" s="20" t="s">
@@ -4698,223 +4773,223 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="140"/>
-      <c r="B36" s="164"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="144"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="148"/>
       <c r="F36" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
       <c r="I36" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
-      <c r="M36" s="124"/>
-      <c r="N36" s="133"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="149"/>
       <c r="O36" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="153"/>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="139"/>
       <c r="R36" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="140"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="144"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="148"/>
       <c r="F37" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="124"/>
-      <c r="N37" s="133"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="130"/>
+      <c r="K37" s="130"/>
+      <c r="L37" s="130"/>
+      <c r="M37" s="130"/>
+      <c r="N37" s="149"/>
       <c r="O37" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P37" s="174"/>
-      <c r="Q37" s="153"/>
+      <c r="P37" s="167"/>
+      <c r="Q37" s="139"/>
       <c r="R37" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="140"/>
-      <c r="B38" s="164"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="144"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="148"/>
       <c r="F38" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="124"/>
-      <c r="N38" s="133"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="149"/>
       <c r="O38" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="153"/>
+      <c r="P38" s="167"/>
+      <c r="Q38" s="139"/>
       <c r="R38" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="140"/>
-      <c r="B39" s="164"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="144"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="148"/>
       <c r="F39" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="133"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
+      <c r="M39" s="130"/>
+      <c r="N39" s="149"/>
       <c r="O39" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="153"/>
+      <c r="P39" s="167"/>
+      <c r="Q39" s="139"/>
       <c r="R39" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="140"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="144"/>
+      <c r="A40" s="144"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="148"/>
       <c r="F40" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="133"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="149"/>
       <c r="O40" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="153"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="139"/>
       <c r="R40" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="140"/>
-      <c r="B41" s="164"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="144"/>
+      <c r="A41" s="144"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="148"/>
       <c r="F41" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="133"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="149"/>
       <c r="O41" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="153"/>
+      <c r="P41" s="167"/>
+      <c r="Q41" s="139"/>
       <c r="R41" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="140"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="144"/>
+      <c r="A42" s="144"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="148"/>
       <c r="F42" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="133"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="130"/>
+      <c r="N42" s="149"/>
       <c r="O42" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P42" s="175"/>
-      <c r="Q42" s="154"/>
+      <c r="P42" s="168"/>
+      <c r="Q42" s="140"/>
       <c r="R42" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="140" t="s">
+      <c r="A43" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="164" t="s">
+      <c r="B43" s="165" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="144" t="s">
+      <c r="C43" s="130"/>
+      <c r="D43" s="130"/>
+      <c r="E43" s="148" t="s">
         <v>136</v>
       </c>
       <c r="F43" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
       <c r="I43" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="133" t="s">
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+      <c r="L43" s="130"/>
+      <c r="M43" s="130"/>
+      <c r="N43" s="149" t="s">
         <v>97</v>
       </c>
       <c r="O43" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P43" s="119" t="s">
+      <c r="P43" s="150" t="s">
         <v>373</v>
       </c>
-      <c r="Q43" s="137" t="s">
+      <c r="Q43" s="138" t="s">
         <v>108</v>
       </c>
       <c r="R43" s="20" t="s">
@@ -4922,185 +4997,185 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="140"/>
-      <c r="B44" s="164"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="144"/>
+      <c r="A44" s="144"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="148"/>
       <c r="F44" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
       <c r="I44" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="133"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="130"/>
+      <c r="N44" s="149"/>
       <c r="O44" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="153"/>
+      <c r="P44" s="169"/>
+      <c r="Q44" s="139"/>
       <c r="R44" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="140"/>
-      <c r="B45" s="164"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="144"/>
+      <c r="A45" s="144"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="148"/>
       <c r="F45" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="133"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="141"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="130"/>
+      <c r="N45" s="149"/>
       <c r="O45" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="153"/>
+      <c r="P45" s="169"/>
+      <c r="Q45" s="139"/>
       <c r="R45" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="140"/>
-      <c r="B46" s="164"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="144"/>
+      <c r="A46" s="144"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="148"/>
       <c r="F46" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="133"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="130"/>
+      <c r="N46" s="149"/>
       <c r="O46" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="153"/>
+      <c r="P46" s="169"/>
+      <c r="Q46" s="139"/>
       <c r="R46" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="140"/>
-      <c r="B47" s="164"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="144"/>
+      <c r="A47" s="144"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="148"/>
       <c r="F47" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="133"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="130"/>
+      <c r="K47" s="130"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="130"/>
+      <c r="N47" s="149"/>
       <c r="O47" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="153"/>
+      <c r="P47" s="169"/>
+      <c r="Q47" s="139"/>
       <c r="R47" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="140"/>
-      <c r="B48" s="164"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="144"/>
+      <c r="A48" s="144"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="148"/>
       <c r="F48" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="133"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="149"/>
       <c r="O48" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="153"/>
+      <c r="P48" s="169"/>
+      <c r="Q48" s="139"/>
       <c r="R48" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="140"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="144"/>
+      <c r="A49" s="144"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="148"/>
       <c r="F49" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="133"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="130"/>
+      <c r="I49" s="142"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="149"/>
       <c r="O49" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="153"/>
+      <c r="P49" s="169"/>
+      <c r="Q49" s="139"/>
       <c r="R49" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="140"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="144"/>
+      <c r="A50" s="144"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="148"/>
       <c r="F50" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="133"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="143"/>
+      <c r="J50" s="130"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="130"/>
+      <c r="M50" s="130"/>
+      <c r="N50" s="149"/>
       <c r="O50" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P50" s="121"/>
-      <c r="Q50" s="154"/>
+      <c r="P50" s="170"/>
+      <c r="Q50" s="140"/>
       <c r="R50" s="20" t="s">
         <v>89</v>
       </c>
@@ -5400,41 +5475,41 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="140" t="s">
+      <c r="A60" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="148" t="s">
+      <c r="B60" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="124"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="144" t="s">
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="148" t="s">
         <v>151</v>
       </c>
       <c r="F60" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G60" s="124"/>
-      <c r="H60" s="124"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
       <c r="I60" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J60" s="161" t="s">
+      <c r="J60" s="153" t="s">
         <v>162</v>
       </c>
-      <c r="K60" s="165"/>
-      <c r="L60" s="165"/>
-      <c r="M60" s="124"/>
-      <c r="N60" s="133" t="s">
+      <c r="K60" s="131"/>
+      <c r="L60" s="131"/>
+      <c r="M60" s="130"/>
+      <c r="N60" s="149" t="s">
         <v>97</v>
       </c>
       <c r="O60" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P60" s="173" t="s">
+      <c r="P60" s="166" t="s">
         <v>359</v>
       </c>
-      <c r="Q60" s="137" t="s">
+      <c r="Q60" s="138" t="s">
         <v>108</v>
       </c>
       <c r="R60" s="20" t="s">
@@ -5442,223 +5517,223 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="140"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="124"/>
-      <c r="D61" s="124"/>
-      <c r="E61" s="144"/>
+      <c r="A61" s="144"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="148"/>
       <c r="F61" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G61" s="124"/>
-      <c r="H61" s="124"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
       <c r="I61" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J61" s="162"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="124"/>
-      <c r="M61" s="124"/>
-      <c r="N61" s="133"/>
+      <c r="J61" s="154"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="130"/>
+      <c r="N61" s="149"/>
       <c r="O61" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P61" s="174"/>
-      <c r="Q61" s="153"/>
+      <c r="P61" s="167"/>
+      <c r="Q61" s="139"/>
       <c r="R61" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="140"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="144"/>
+      <c r="A62" s="144"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="148"/>
       <c r="F62" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="162"/>
-      <c r="K62" s="124"/>
-      <c r="L62" s="124"/>
-      <c r="M62" s="124"/>
-      <c r="N62" s="133"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="141"/>
+      <c r="J62" s="154"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="130"/>
+      <c r="N62" s="149"/>
       <c r="O62" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P62" s="174"/>
-      <c r="Q62" s="153"/>
+      <c r="P62" s="167"/>
+      <c r="Q62" s="139"/>
       <c r="R62" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="140"/>
-      <c r="B63" s="149"/>
-      <c r="C63" s="124"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="144"/>
+      <c r="A63" s="144"/>
+      <c r="B63" s="146"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="148"/>
       <c r="F63" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="162"/>
-      <c r="K63" s="124"/>
-      <c r="L63" s="124"/>
-      <c r="M63" s="124"/>
-      <c r="N63" s="133"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="142"/>
+      <c r="J63" s="154"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="130"/>
+      <c r="N63" s="149"/>
       <c r="O63" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P63" s="174"/>
-      <c r="Q63" s="153"/>
+      <c r="P63" s="167"/>
+      <c r="Q63" s="139"/>
       <c r="R63" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="140"/>
-      <c r="B64" s="149"/>
-      <c r="C64" s="124"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="144"/>
+      <c r="A64" s="144"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="148"/>
       <c r="F64" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="156"/>
-      <c r="J64" s="162"/>
-      <c r="K64" s="124"/>
-      <c r="L64" s="124"/>
-      <c r="M64" s="124"/>
-      <c r="N64" s="133"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="142"/>
+      <c r="J64" s="154"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="149"/>
       <c r="O64" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P64" s="174"/>
-      <c r="Q64" s="153"/>
+      <c r="P64" s="167"/>
+      <c r="Q64" s="139"/>
       <c r="R64" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="140"/>
-      <c r="B65" s="149"/>
-      <c r="C65" s="124"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="144"/>
+      <c r="A65" s="144"/>
+      <c r="B65" s="146"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="148"/>
       <c r="F65" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="124"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="162"/>
-      <c r="K65" s="124"/>
-      <c r="L65" s="124"/>
-      <c r="M65" s="124"/>
-      <c r="N65" s="133"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="142"/>
+      <c r="J65" s="154"/>
+      <c r="K65" s="130"/>
+      <c r="L65" s="130"/>
+      <c r="M65" s="130"/>
+      <c r="N65" s="149"/>
       <c r="O65" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P65" s="174"/>
-      <c r="Q65" s="153"/>
+      <c r="P65" s="167"/>
+      <c r="Q65" s="139"/>
       <c r="R65" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="140"/>
-      <c r="B66" s="149"/>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="144"/>
+      <c r="A66" s="144"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="148"/>
       <c r="F66" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="162"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="124"/>
-      <c r="M66" s="124"/>
-      <c r="N66" s="133"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="142"/>
+      <c r="J66" s="154"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="130"/>
+      <c r="N66" s="149"/>
       <c r="O66" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P66" s="174"/>
-      <c r="Q66" s="153"/>
+      <c r="P66" s="167"/>
+      <c r="Q66" s="139"/>
       <c r="R66" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="140"/>
-      <c r="B67" s="158"/>
-      <c r="C67" s="124"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="144"/>
+      <c r="A67" s="144"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="148"/>
       <c r="F67" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="157"/>
-      <c r="J67" s="162"/>
-      <c r="K67" s="124"/>
-      <c r="L67" s="124"/>
-      <c r="M67" s="124"/>
-      <c r="N67" s="133"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="143"/>
+      <c r="J67" s="154"/>
+      <c r="K67" s="130"/>
+      <c r="L67" s="130"/>
+      <c r="M67" s="130"/>
+      <c r="N67" s="149"/>
       <c r="O67" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P67" s="175"/>
-      <c r="Q67" s="154"/>
+      <c r="P67" s="168"/>
+      <c r="Q67" s="140"/>
       <c r="R67" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="140" t="s">
+      <c r="A68" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="148" t="s">
+      <c r="B68" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="124"/>
-      <c r="D68" s="124"/>
-      <c r="E68" s="144" t="s">
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="148" t="s">
         <v>152</v>
       </c>
       <c r="F68" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="124"/>
-      <c r="H68" s="124"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="130"/>
       <c r="I68" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J68" s="124"/>
-      <c r="K68" s="124"/>
-      <c r="L68" s="124"/>
-      <c r="M68" s="124"/>
-      <c r="N68" s="133" t="s">
+      <c r="J68" s="130"/>
+      <c r="K68" s="130"/>
+      <c r="L68" s="130"/>
+      <c r="M68" s="130"/>
+      <c r="N68" s="149" t="s">
         <v>97</v>
       </c>
       <c r="O68" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P68" s="119" t="s">
+      <c r="P68" s="150" t="s">
         <v>372</v>
       </c>
-      <c r="Q68" s="137" t="s">
+      <c r="Q68" s="138" t="s">
         <v>108</v>
       </c>
       <c r="R68" s="20" t="s">
@@ -5666,185 +5741,185 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="140"/>
-      <c r="B69" s="149"/>
-      <c r="C69" s="124"/>
-      <c r="D69" s="124"/>
-      <c r="E69" s="144"/>
+      <c r="A69" s="144"/>
+      <c r="B69" s="146"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="148"/>
       <c r="F69" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
       <c r="I69" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J69" s="124"/>
-      <c r="K69" s="124"/>
-      <c r="L69" s="124"/>
-      <c r="M69" s="124"/>
-      <c r="N69" s="133"/>
+      <c r="J69" s="130"/>
+      <c r="K69" s="130"/>
+      <c r="L69" s="130"/>
+      <c r="M69" s="130"/>
+      <c r="N69" s="149"/>
       <c r="O69" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P69" s="177"/>
-      <c r="Q69" s="153"/>
+      <c r="P69" s="151"/>
+      <c r="Q69" s="139"/>
       <c r="R69" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="140"/>
-      <c r="B70" s="149"/>
-      <c r="C70" s="124"/>
-      <c r="D70" s="124"/>
-      <c r="E70" s="144"/>
+      <c r="A70" s="144"/>
+      <c r="B70" s="146"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="148"/>
       <c r="F70" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G70" s="124"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="124"/>
-      <c r="K70" s="124"/>
-      <c r="L70" s="124"/>
-      <c r="M70" s="124"/>
-      <c r="N70" s="133"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="141"/>
+      <c r="J70" s="130"/>
+      <c r="K70" s="130"/>
+      <c r="L70" s="130"/>
+      <c r="M70" s="130"/>
+      <c r="N70" s="149"/>
       <c r="O70" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P70" s="177"/>
-      <c r="Q70" s="153"/>
+      <c r="P70" s="151"/>
+      <c r="Q70" s="139"/>
       <c r="R70" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="140"/>
-      <c r="B71" s="149"/>
-      <c r="C71" s="124"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="144"/>
+      <c r="A71" s="144"/>
+      <c r="B71" s="146"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="148"/>
       <c r="F71" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="124"/>
-      <c r="L71" s="124"/>
-      <c r="M71" s="124"/>
-      <c r="N71" s="133"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="142"/>
+      <c r="J71" s="130"/>
+      <c r="K71" s="130"/>
+      <c r="L71" s="130"/>
+      <c r="M71" s="130"/>
+      <c r="N71" s="149"/>
       <c r="O71" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P71" s="177"/>
-      <c r="Q71" s="153"/>
+      <c r="P71" s="151"/>
+      <c r="Q71" s="139"/>
       <c r="R71" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="140"/>
-      <c r="B72" s="149"/>
-      <c r="C72" s="124"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="144"/>
+      <c r="A72" s="144"/>
+      <c r="B72" s="146"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="148"/>
       <c r="F72" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="156"/>
-      <c r="J72" s="124"/>
-      <c r="K72" s="124"/>
-      <c r="L72" s="124"/>
-      <c r="M72" s="124"/>
-      <c r="N72" s="133"/>
+      <c r="G72" s="130"/>
+      <c r="H72" s="130"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="130"/>
+      <c r="K72" s="130"/>
+      <c r="L72" s="130"/>
+      <c r="M72" s="130"/>
+      <c r="N72" s="149"/>
       <c r="O72" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P72" s="177"/>
-      <c r="Q72" s="153"/>
+      <c r="P72" s="151"/>
+      <c r="Q72" s="139"/>
       <c r="R72" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="140"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="124"/>
-      <c r="D73" s="124"/>
-      <c r="E73" s="144"/>
+      <c r="A73" s="144"/>
+      <c r="B73" s="146"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="148"/>
       <c r="F73" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="156"/>
-      <c r="J73" s="124"/>
-      <c r="K73" s="124"/>
-      <c r="L73" s="124"/>
-      <c r="M73" s="124"/>
-      <c r="N73" s="133"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="142"/>
+      <c r="J73" s="130"/>
+      <c r="K73" s="130"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="149"/>
       <c r="O73" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P73" s="177"/>
-      <c r="Q73" s="153"/>
+      <c r="P73" s="151"/>
+      <c r="Q73" s="139"/>
       <c r="R73" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="140"/>
-      <c r="B74" s="149"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="144"/>
+      <c r="A74" s="144"/>
+      <c r="B74" s="146"/>
+      <c r="C74" s="130"/>
+      <c r="D74" s="130"/>
+      <c r="E74" s="148"/>
       <c r="F74" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="156"/>
-      <c r="J74" s="124"/>
-      <c r="K74" s="124"/>
-      <c r="L74" s="124"/>
-      <c r="M74" s="124"/>
-      <c r="N74" s="133"/>
+      <c r="G74" s="130"/>
+      <c r="H74" s="130"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="130"/>
+      <c r="K74" s="130"/>
+      <c r="L74" s="130"/>
+      <c r="M74" s="130"/>
+      <c r="N74" s="149"/>
       <c r="O74" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P74" s="177"/>
-      <c r="Q74" s="153"/>
+      <c r="P74" s="151"/>
+      <c r="Q74" s="139"/>
       <c r="R74" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="140"/>
-      <c r="B75" s="158"/>
-      <c r="C75" s="124"/>
-      <c r="D75" s="124"/>
-      <c r="E75" s="144"/>
+      <c r="A75" s="144"/>
+      <c r="B75" s="147"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="148"/>
       <c r="F75" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G75" s="124"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="157"/>
-      <c r="J75" s="124"/>
-      <c r="K75" s="124"/>
-      <c r="L75" s="124"/>
-      <c r="M75" s="124"/>
-      <c r="N75" s="133"/>
+      <c r="G75" s="130"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="143"/>
+      <c r="J75" s="130"/>
+      <c r="K75" s="130"/>
+      <c r="L75" s="130"/>
+      <c r="M75" s="130"/>
+      <c r="N75" s="149"/>
       <c r="O75" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P75" s="178"/>
-      <c r="Q75" s="154"/>
+      <c r="P75" s="152"/>
+      <c r="Q75" s="140"/>
       <c r="R75" s="20" t="s">
         <v>89</v>
       </c>
@@ -6119,7 +6194,7 @@
       <c r="G83" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H83" s="183" t="s">
+      <c r="H83" s="125" t="s">
         <v>382</v>
       </c>
       <c r="I83" s="19"/>
@@ -6143,7 +6218,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>47</v>
       </c>
@@ -6159,7 +6234,7 @@
       <c r="G84" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H84" s="183" t="s">
+      <c r="H84" s="125" t="s">
         <v>372</v>
       </c>
       <c r="I84" s="19"/>
@@ -6184,22 +6259,22 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="166" t="s">
+      <c r="A85" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="B85" s="141" t="s">
+      <c r="B85" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="125"/>
-      <c r="D85" s="125"/>
-      <c r="E85" s="168" t="s">
+      <c r="C85" s="163"/>
+      <c r="D85" s="163"/>
+      <c r="E85" s="161" t="s">
         <v>152</v>
       </c>
       <c r="F85" s="19"/>
       <c r="G85" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H85" s="183" t="s">
+      <c r="H85" s="125" t="s">
         <v>382</v>
       </c>
       <c r="I85" s="19"/>
@@ -6213,7 +6288,7 @@
       <c r="O85" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="P85" s="179" t="s">
+      <c r="P85" s="132" t="s">
         <v>372</v>
       </c>
       <c r="Q85" s="23" t="s">
@@ -6224,16 +6299,16 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="167"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="126"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="152"/>
+      <c r="A86" s="156"/>
+      <c r="B86" s="158"/>
+      <c r="C86" s="164"/>
+      <c r="D86" s="164"/>
+      <c r="E86" s="162"/>
       <c r="F86" s="45"/>
       <c r="G86" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H86" s="183" t="s">
+      <c r="H86" s="125" t="s">
         <v>381</v>
       </c>
       <c r="I86" s="45"/>
@@ -6247,7 +6322,7 @@
       <c r="O86" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="P86" s="180"/>
+      <c r="P86" s="133"/>
       <c r="Q86" s="23" t="s">
         <v>120</v>
       </c>
@@ -6292,480 +6367,480 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="140" t="s">
+      <c r="A89" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="148" t="s">
+      <c r="B89" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="124" t="s">
+      <c r="C89" s="130" t="s">
         <v>347</v>
       </c>
-      <c r="D89" s="124"/>
-      <c r="E89" s="144" t="s">
+      <c r="D89" s="130"/>
+      <c r="E89" s="148" t="s">
         <v>203</v>
       </c>
       <c r="F89" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="124"/>
-      <c r="H89" s="124"/>
+      <c r="G89" s="130"/>
+      <c r="H89" s="130"/>
       <c r="I89" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J89" s="161" t="s">
+      <c r="J89" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="K89" s="161" t="s">
+      <c r="K89" s="153" t="s">
         <v>205</v>
       </c>
-      <c r="L89" s="161" t="s">
+      <c r="L89" s="153" t="s">
         <v>109</v>
       </c>
       <c r="M89" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="N89" s="133" t="s">
+      <c r="N89" s="149" t="s">
         <v>97</v>
       </c>
       <c r="O89" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P89" s="150" t="s">
+      <c r="P89" s="171" t="s">
         <v>359</v>
       </c>
-      <c r="Q89" s="137" t="s">
+      <c r="Q89" s="138" t="s">
         <v>108</v>
       </c>
       <c r="R89" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S89" s="187"/>
+      <c r="S89" s="136"/>
     </row>
     <row r="90" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="140"/>
-      <c r="B90" s="149"/>
-      <c r="C90" s="124"/>
-      <c r="D90" s="124"/>
-      <c r="E90" s="144"/>
+      <c r="A90" s="144"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="130"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="148"/>
       <c r="F90" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="124"/>
-      <c r="H90" s="124"/>
+      <c r="G90" s="130"/>
+      <c r="H90" s="130"/>
       <c r="I90" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J90" s="162"/>
-      <c r="K90" s="162"/>
-      <c r="L90" s="162"/>
+      <c r="J90" s="154"/>
+      <c r="K90" s="154"/>
+      <c r="L90" s="154"/>
       <c r="M90" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="N90" s="133"/>
+      <c r="N90" s="149"/>
       <c r="O90" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P90" s="151"/>
-      <c r="Q90" s="153"/>
+      <c r="P90" s="172"/>
+      <c r="Q90" s="139"/>
       <c r="R90" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S90" s="188"/>
+      <c r="S90" s="137"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="140"/>
-      <c r="B91" s="149"/>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="144"/>
+      <c r="A91" s="144"/>
+      <c r="B91" s="146"/>
+      <c r="C91" s="130"/>
+      <c r="D91" s="130"/>
+      <c r="E91" s="148"/>
       <c r="F91" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G91" s="124"/>
-      <c r="H91" s="124"/>
-      <c r="I91" s="155"/>
-      <c r="J91" s="162"/>
-      <c r="K91" s="162"/>
-      <c r="L91" s="162"/>
+      <c r="G91" s="130"/>
+      <c r="H91" s="130"/>
+      <c r="I91" s="141"/>
+      <c r="J91" s="154"/>
+      <c r="K91" s="154"/>
+      <c r="L91" s="154"/>
       <c r="M91" s="50"/>
-      <c r="N91" s="133"/>
+      <c r="N91" s="149"/>
       <c r="O91" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P91" s="151"/>
-      <c r="Q91" s="153"/>
+      <c r="P91" s="172"/>
+      <c r="Q91" s="139"/>
       <c r="R91" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S91" s="188"/>
+      <c r="S91" s="137"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="140"/>
-      <c r="B92" s="149"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="144"/>
+      <c r="A92" s="144"/>
+      <c r="B92" s="146"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="148"/>
       <c r="F92" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G92" s="124"/>
-      <c r="H92" s="124"/>
-      <c r="I92" s="156"/>
-      <c r="J92" s="162"/>
-      <c r="K92" s="162"/>
-      <c r="L92" s="162"/>
+      <c r="G92" s="130"/>
+      <c r="H92" s="130"/>
+      <c r="I92" s="142"/>
+      <c r="J92" s="154"/>
+      <c r="K92" s="154"/>
+      <c r="L92" s="154"/>
       <c r="M92" s="50"/>
-      <c r="N92" s="133"/>
+      <c r="N92" s="149"/>
       <c r="O92" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P92" s="151"/>
-      <c r="Q92" s="153"/>
+      <c r="P92" s="172"/>
+      <c r="Q92" s="139"/>
       <c r="R92" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S92" s="188"/>
+      <c r="S92" s="137"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="140"/>
-      <c r="B93" s="149"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="124"/>
-      <c r="E93" s="144"/>
+      <c r="A93" s="144"/>
+      <c r="B93" s="146"/>
+      <c r="C93" s="130"/>
+      <c r="D93" s="130"/>
+      <c r="E93" s="148"/>
       <c r="F93" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G93" s="124"/>
-      <c r="H93" s="124"/>
-      <c r="I93" s="156"/>
-      <c r="J93" s="162"/>
-      <c r="K93" s="162"/>
-      <c r="L93" s="162"/>
+      <c r="G93" s="130"/>
+      <c r="H93" s="130"/>
+      <c r="I93" s="142"/>
+      <c r="J93" s="154"/>
+      <c r="K93" s="154"/>
+      <c r="L93" s="154"/>
       <c r="M93" s="49"/>
-      <c r="N93" s="133"/>
+      <c r="N93" s="149"/>
       <c r="O93" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P93" s="151"/>
-      <c r="Q93" s="153"/>
+      <c r="P93" s="172"/>
+      <c r="Q93" s="139"/>
       <c r="R93" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S93" s="188"/>
+      <c r="S93" s="137"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="140"/>
-      <c r="B94" s="149"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="124"/>
-      <c r="E94" s="144"/>
+      <c r="A94" s="144"/>
+      <c r="B94" s="146"/>
+      <c r="C94" s="130"/>
+      <c r="D94" s="130"/>
+      <c r="E94" s="148"/>
       <c r="F94" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G94" s="124"/>
-      <c r="H94" s="124"/>
-      <c r="I94" s="156"/>
-      <c r="J94" s="162"/>
-      <c r="K94" s="162"/>
-      <c r="L94" s="162"/>
+      <c r="G94" s="130"/>
+      <c r="H94" s="130"/>
+      <c r="I94" s="142"/>
+      <c r="J94" s="154"/>
+      <c r="K94" s="154"/>
+      <c r="L94" s="154"/>
       <c r="M94" s="50"/>
-      <c r="N94" s="133"/>
+      <c r="N94" s="149"/>
       <c r="O94" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P94" s="151"/>
-      <c r="Q94" s="153"/>
+      <c r="P94" s="172"/>
+      <c r="Q94" s="139"/>
       <c r="R94" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S94" s="188"/>
+      <c r="S94" s="137"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="140"/>
-      <c r="B95" s="149"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="124"/>
-      <c r="E95" s="144"/>
+      <c r="A95" s="144"/>
+      <c r="B95" s="146"/>
+      <c r="C95" s="130"/>
+      <c r="D95" s="130"/>
+      <c r="E95" s="148"/>
       <c r="F95" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G95" s="124"/>
-      <c r="H95" s="124"/>
-      <c r="I95" s="156"/>
-      <c r="J95" s="162"/>
-      <c r="K95" s="162"/>
-      <c r="L95" s="162"/>
+      <c r="G95" s="130"/>
+      <c r="H95" s="130"/>
+      <c r="I95" s="142"/>
+      <c r="J95" s="154"/>
+      <c r="K95" s="154"/>
+      <c r="L95" s="154"/>
       <c r="M95" s="50"/>
-      <c r="N95" s="133"/>
+      <c r="N95" s="149"/>
       <c r="O95" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P95" s="151"/>
-      <c r="Q95" s="153"/>
+      <c r="P95" s="172"/>
+      <c r="Q95" s="139"/>
       <c r="R95" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S95" s="188"/>
+      <c r="S95" s="137"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="140"/>
-      <c r="B96" s="158"/>
-      <c r="C96" s="124"/>
-      <c r="D96" s="124"/>
-      <c r="E96" s="144"/>
+      <c r="A96" s="144"/>
+      <c r="B96" s="147"/>
+      <c r="C96" s="130"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="148"/>
       <c r="F96" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G96" s="124"/>
-      <c r="H96" s="124"/>
-      <c r="I96" s="157"/>
-      <c r="J96" s="162"/>
-      <c r="K96" s="162"/>
-      <c r="L96" s="162"/>
+      <c r="G96" s="130"/>
+      <c r="H96" s="130"/>
+      <c r="I96" s="143"/>
+      <c r="J96" s="154"/>
+      <c r="K96" s="154"/>
+      <c r="L96" s="154"/>
       <c r="M96" s="50"/>
-      <c r="N96" s="133"/>
+      <c r="N96" s="149"/>
       <c r="O96" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P96" s="152"/>
-      <c r="Q96" s="154"/>
+      <c r="P96" s="162"/>
+      <c r="Q96" s="140"/>
       <c r="R96" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S96" s="188"/>
+      <c r="S96" s="137"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="140" t="s">
+      <c r="A97" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B97" s="148" t="s">
+      <c r="B97" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="124"/>
-      <c r="D97" s="124"/>
-      <c r="E97" s="144" t="s">
+      <c r="C97" s="130"/>
+      <c r="D97" s="130"/>
+      <c r="E97" s="148" t="s">
         <v>209</v>
       </c>
       <c r="F97" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G97" s="124"/>
-      <c r="H97" s="124"/>
+      <c r="G97" s="130"/>
+      <c r="H97" s="130"/>
       <c r="I97" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J97" s="124"/>
-      <c r="K97" s="124"/>
-      <c r="L97" s="124"/>
-      <c r="M97" s="124"/>
-      <c r="N97" s="133" t="s">
+      <c r="J97" s="130"/>
+      <c r="K97" s="130"/>
+      <c r="L97" s="130"/>
+      <c r="M97" s="130"/>
+      <c r="N97" s="149" t="s">
         <v>97</v>
       </c>
       <c r="O97" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P97" s="122" t="s">
+      <c r="P97" s="173" t="s">
         <v>376</v>
       </c>
-      <c r="Q97" s="137" t="s">
+      <c r="Q97" s="138" t="s">
         <v>108</v>
       </c>
       <c r="R97" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S97" s="185"/>
+      <c r="S97" s="127"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="140"/>
-      <c r="B98" s="149"/>
-      <c r="C98" s="124"/>
-      <c r="D98" s="124"/>
-      <c r="E98" s="144"/>
+      <c r="A98" s="144"/>
+      <c r="B98" s="146"/>
+      <c r="C98" s="130"/>
+      <c r="D98" s="130"/>
+      <c r="E98" s="148"/>
       <c r="F98" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G98" s="124"/>
-      <c r="H98" s="124"/>
+      <c r="G98" s="130"/>
+      <c r="H98" s="130"/>
       <c r="I98" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J98" s="124"/>
-      <c r="K98" s="124"/>
-      <c r="L98" s="124"/>
-      <c r="M98" s="124"/>
-      <c r="N98" s="133"/>
+      <c r="J98" s="130"/>
+      <c r="K98" s="130"/>
+      <c r="L98" s="130"/>
+      <c r="M98" s="130"/>
+      <c r="N98" s="149"/>
       <c r="O98" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P98" s="159"/>
-      <c r="Q98" s="153"/>
+      <c r="P98" s="176"/>
+      <c r="Q98" s="139"/>
       <c r="R98" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S98" s="185"/>
+      <c r="S98" s="127"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="140"/>
-      <c r="B99" s="149"/>
-      <c r="C99" s="124"/>
-      <c r="D99" s="124"/>
-      <c r="E99" s="144"/>
+      <c r="A99" s="144"/>
+      <c r="B99" s="146"/>
+      <c r="C99" s="130"/>
+      <c r="D99" s="130"/>
+      <c r="E99" s="148"/>
       <c r="F99" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G99" s="124"/>
-      <c r="H99" s="124"/>
-      <c r="I99" s="155"/>
-      <c r="J99" s="124"/>
-      <c r="K99" s="124"/>
-      <c r="L99" s="124"/>
-      <c r="M99" s="124"/>
-      <c r="N99" s="133"/>
+      <c r="G99" s="130"/>
+      <c r="H99" s="130"/>
+      <c r="I99" s="141"/>
+      <c r="J99" s="130"/>
+      <c r="K99" s="130"/>
+      <c r="L99" s="130"/>
+      <c r="M99" s="130"/>
+      <c r="N99" s="149"/>
       <c r="O99" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P99" s="159"/>
-      <c r="Q99" s="153"/>
+      <c r="P99" s="176"/>
+      <c r="Q99" s="139"/>
       <c r="R99" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S99" s="185"/>
+      <c r="S99" s="127"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="140"/>
-      <c r="B100" s="149"/>
-      <c r="C100" s="124"/>
-      <c r="D100" s="124"/>
-      <c r="E100" s="144"/>
+      <c r="A100" s="144"/>
+      <c r="B100" s="146"/>
+      <c r="C100" s="130"/>
+      <c r="D100" s="130"/>
+      <c r="E100" s="148"/>
       <c r="F100" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G100" s="124"/>
-      <c r="H100" s="124"/>
-      <c r="I100" s="156"/>
-      <c r="J100" s="124"/>
-      <c r="K100" s="124"/>
-      <c r="L100" s="124"/>
-      <c r="M100" s="124"/>
-      <c r="N100" s="133"/>
+      <c r="G100" s="130"/>
+      <c r="H100" s="130"/>
+      <c r="I100" s="142"/>
+      <c r="J100" s="130"/>
+      <c r="K100" s="130"/>
+      <c r="L100" s="130"/>
+      <c r="M100" s="130"/>
+      <c r="N100" s="149"/>
       <c r="O100" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P100" s="159"/>
-      <c r="Q100" s="153"/>
+      <c r="P100" s="176"/>
+      <c r="Q100" s="139"/>
       <c r="R100" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S100" s="185"/>
+      <c r="S100" s="127"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="140"/>
-      <c r="B101" s="149"/>
-      <c r="C101" s="124"/>
-      <c r="D101" s="124"/>
-      <c r="E101" s="144"/>
+      <c r="A101" s="144"/>
+      <c r="B101" s="146"/>
+      <c r="C101" s="130"/>
+      <c r="D101" s="130"/>
+      <c r="E101" s="148"/>
       <c r="F101" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G101" s="124"/>
-      <c r="H101" s="124"/>
-      <c r="I101" s="156"/>
-      <c r="J101" s="124"/>
-      <c r="K101" s="124"/>
-      <c r="L101" s="124"/>
-      <c r="M101" s="124"/>
-      <c r="N101" s="133"/>
+      <c r="G101" s="130"/>
+      <c r="H101" s="130"/>
+      <c r="I101" s="142"/>
+      <c r="J101" s="130"/>
+      <c r="K101" s="130"/>
+      <c r="L101" s="130"/>
+      <c r="M101" s="130"/>
+      <c r="N101" s="149"/>
       <c r="O101" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P101" s="159"/>
-      <c r="Q101" s="153"/>
+      <c r="P101" s="176"/>
+      <c r="Q101" s="139"/>
       <c r="R101" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S101" s="185"/>
+      <c r="S101" s="127"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="140"/>
-      <c r="B102" s="149"/>
-      <c r="C102" s="124"/>
-      <c r="D102" s="124"/>
-      <c r="E102" s="144"/>
+      <c r="A102" s="144"/>
+      <c r="B102" s="146"/>
+      <c r="C102" s="130"/>
+      <c r="D102" s="130"/>
+      <c r="E102" s="148"/>
       <c r="F102" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G102" s="124"/>
-      <c r="H102" s="124"/>
-      <c r="I102" s="156"/>
-      <c r="J102" s="124"/>
-      <c r="K102" s="124"/>
-      <c r="L102" s="124"/>
-      <c r="M102" s="124"/>
-      <c r="N102" s="133"/>
+      <c r="G102" s="130"/>
+      <c r="H102" s="130"/>
+      <c r="I102" s="142"/>
+      <c r="J102" s="130"/>
+      <c r="K102" s="130"/>
+      <c r="L102" s="130"/>
+      <c r="M102" s="130"/>
+      <c r="N102" s="149"/>
       <c r="O102" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P102" s="159"/>
-      <c r="Q102" s="153"/>
+      <c r="P102" s="176"/>
+      <c r="Q102" s="139"/>
       <c r="R102" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S102" s="185"/>
+      <c r="S102" s="127"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="140"/>
-      <c r="B103" s="149"/>
-      <c r="C103" s="124"/>
-      <c r="D103" s="124"/>
-      <c r="E103" s="144"/>
+      <c r="A103" s="144"/>
+      <c r="B103" s="146"/>
+      <c r="C103" s="130"/>
+      <c r="D103" s="130"/>
+      <c r="E103" s="148"/>
       <c r="F103" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G103" s="124"/>
-      <c r="H103" s="124"/>
-      <c r="I103" s="156"/>
-      <c r="J103" s="124"/>
-      <c r="K103" s="124"/>
-      <c r="L103" s="124"/>
-      <c r="M103" s="124"/>
-      <c r="N103" s="133"/>
+      <c r="G103" s="130"/>
+      <c r="H103" s="130"/>
+      <c r="I103" s="142"/>
+      <c r="J103" s="130"/>
+      <c r="K103" s="130"/>
+      <c r="L103" s="130"/>
+      <c r="M103" s="130"/>
+      <c r="N103" s="149"/>
       <c r="O103" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P103" s="159"/>
-      <c r="Q103" s="153"/>
+      <c r="P103" s="176"/>
+      <c r="Q103" s="139"/>
       <c r="R103" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S103" s="185"/>
+      <c r="S103" s="127"/>
     </row>
     <row r="104" spans="1:19" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="140"/>
-      <c r="B104" s="158"/>
-      <c r="C104" s="124"/>
-      <c r="D104" s="124"/>
-      <c r="E104" s="144"/>
+      <c r="A104" s="144"/>
+      <c r="B104" s="147"/>
+      <c r="C104" s="130"/>
+      <c r="D104" s="130"/>
+      <c r="E104" s="148"/>
       <c r="F104" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G104" s="124"/>
-      <c r="H104" s="124"/>
-      <c r="I104" s="157"/>
-      <c r="J104" s="124"/>
-      <c r="K104" s="124"/>
-      <c r="L104" s="124"/>
-      <c r="M104" s="124"/>
-      <c r="N104" s="133"/>
+      <c r="G104" s="130"/>
+      <c r="H104" s="130"/>
+      <c r="I104" s="143"/>
+      <c r="J104" s="130"/>
+      <c r="K104" s="130"/>
+      <c r="L104" s="130"/>
+      <c r="M104" s="130"/>
+      <c r="N104" s="149"/>
       <c r="O104" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P104" s="160"/>
-      <c r="Q104" s="154"/>
+      <c r="P104" s="177"/>
+      <c r="Q104" s="140"/>
       <c r="R104" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S104" s="185"/>
+      <c r="S104" s="127"/>
     </row>
     <row r="105" spans="1:19" ht="270" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
@@ -6804,7 +6879,7 @@
       <c r="R105" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S105" s="186" t="s">
+      <c r="S105" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6843,7 +6918,7 @@
       <c r="R106" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S106" s="186" t="s">
+      <c r="S106" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6882,7 +6957,7 @@
       <c r="R107" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S107" s="186" t="s">
+      <c r="S107" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6921,7 +6996,7 @@
       <c r="R108" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S108" s="186" t="s">
+      <c r="S108" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6960,7 +7035,7 @@
       <c r="R109" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S109" s="186" t="s">
+      <c r="S109" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6999,7 +7074,7 @@
       <c r="R110" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S110" s="186" t="s">
+      <c r="S110" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7038,7 +7113,7 @@
       <c r="R111" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S111" s="186" t="s">
+      <c r="S111" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7077,7 +7152,7 @@
       <c r="R112" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S112" s="186" t="s">
+      <c r="S112" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7116,7 +7191,7 @@
       <c r="R113" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S113" s="186" t="s">
+      <c r="S113" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7140,7 +7215,7 @@
       <c r="G114" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H114" s="183" t="s">
+      <c r="H114" s="125" t="s">
         <v>385</v>
       </c>
       <c r="I114" s="26"/>
@@ -7163,7 +7238,7 @@
       <c r="R114" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S114" s="186" t="s">
+      <c r="S114" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7187,7 +7262,7 @@
       <c r="G115" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H115" s="183" t="s">
+      <c r="H115" s="125" t="s">
         <v>376</v>
       </c>
       <c r="I115" s="26"/>
@@ -7210,31 +7285,31 @@
       <c r="R115" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S115" s="186" t="s">
+      <c r="S115" s="128" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="288.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="166" t="s">
+      <c r="A116" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="141" t="s">
+      <c r="B116" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="C116" s="127" t="s">
+      <c r="C116" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="D116" s="127" t="s">
+      <c r="D116" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="E116" s="168" t="s">
+      <c r="E116" s="161" t="s">
         <v>384</v>
       </c>
       <c r="F116" s="45"/>
       <c r="G116" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H116" s="183" t="s">
+      <c r="H116" s="125" t="s">
         <v>376</v>
       </c>
       <c r="I116" s="26"/>
@@ -7248,7 +7323,7 @@
       <c r="O116" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="P116" s="122" t="s">
+      <c r="P116" s="173" t="s">
         <v>360</v>
       </c>
       <c r="Q116" s="23" t="s">
@@ -7257,21 +7332,21 @@
       <c r="R116" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S116" s="186" t="s">
+      <c r="S116" s="128" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="167"/>
-      <c r="B117" s="143"/>
-      <c r="C117" s="128"/>
-      <c r="D117" s="128"/>
-      <c r="E117" s="152"/>
+      <c r="A117" s="156"/>
+      <c r="B117" s="158"/>
+      <c r="C117" s="160"/>
+      <c r="D117" s="160"/>
+      <c r="E117" s="162"/>
       <c r="F117" s="45"/>
       <c r="G117" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H117" s="183" t="s">
+      <c r="H117" s="125" t="s">
         <v>383</v>
       </c>
       <c r="I117" s="45"/>
@@ -7285,14 +7360,14 @@
       <c r="O117" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="P117" s="123"/>
+      <c r="P117" s="175"/>
       <c r="Q117" s="23" t="s">
         <v>120</v>
       </c>
       <c r="R117" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S117" s="186" t="s">
+      <c r="S117" s="128" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7326,140 +7401,140 @@
       <c r="O118" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="P118" s="176"/>
+      <c r="P118" s="124"/>
       <c r="Q118" s="23" t="s">
         <v>120</v>
       </c>
       <c r="R118" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S118" s="186" t="s">
+      <c r="S118" s="128" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="140" t="s">
+      <c r="A121" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="148" t="s">
+      <c r="B121" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="129" t="s">
+      <c r="C121" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="D121" s="129"/>
-      <c r="E121" s="144" t="s">
+      <c r="D121" s="178"/>
+      <c r="E121" s="148" t="s">
         <v>222</v>
       </c>
       <c r="F121" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="G121" s="124"/>
-      <c r="H121" s="124"/>
-      <c r="I121" s="125"/>
-      <c r="J121" s="125"/>
-      <c r="K121" s="125"/>
-      <c r="L121" s="125"/>
-      <c r="M121" s="125"/>
-      <c r="N121" s="133" t="s">
+      <c r="G121" s="130"/>
+      <c r="H121" s="130"/>
+      <c r="I121" s="163"/>
+      <c r="J121" s="163"/>
+      <c r="K121" s="163"/>
+      <c r="L121" s="163"/>
+      <c r="M121" s="163"/>
+      <c r="N121" s="149" t="s">
         <v>97</v>
       </c>
       <c r="O121" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="P121" s="145" t="s">
+      <c r="P121" s="188" t="s">
         <v>231</v>
       </c>
-      <c r="Q121" s="137" t="s">
+      <c r="Q121" s="138" t="s">
         <v>120</v>
       </c>
       <c r="R121" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S121" s="119" t="s">
+      <c r="S121" s="150" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="140"/>
-      <c r="B122" s="149"/>
-      <c r="C122" s="130"/>
-      <c r="D122" s="130"/>
-      <c r="E122" s="144"/>
+      <c r="A122" s="144"/>
+      <c r="B122" s="146"/>
+      <c r="C122" s="179"/>
+      <c r="D122" s="179"/>
+      <c r="E122" s="148"/>
       <c r="F122" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="G122" s="124"/>
-      <c r="H122" s="124"/>
-      <c r="I122" s="132"/>
-      <c r="J122" s="132"/>
-      <c r="K122" s="132"/>
-      <c r="L122" s="132"/>
-      <c r="M122" s="132"/>
-      <c r="N122" s="133"/>
+      <c r="G122" s="130"/>
+      <c r="H122" s="130"/>
+      <c r="I122" s="181"/>
+      <c r="J122" s="181"/>
+      <c r="K122" s="181"/>
+      <c r="L122" s="181"/>
+      <c r="M122" s="181"/>
+      <c r="N122" s="149"/>
       <c r="O122" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="P122" s="146"/>
-      <c r="Q122" s="138"/>
+      <c r="P122" s="189"/>
+      <c r="Q122" s="186"/>
       <c r="R122" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S122" s="120"/>
+      <c r="S122" s="169"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="140"/>
-      <c r="B123" s="149"/>
-      <c r="C123" s="130"/>
-      <c r="D123" s="130"/>
-      <c r="E123" s="144"/>
+      <c r="A123" s="144"/>
+      <c r="B123" s="146"/>
+      <c r="C123" s="179"/>
+      <c r="D123" s="179"/>
+      <c r="E123" s="148"/>
       <c r="F123" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="G123" s="124"/>
-      <c r="H123" s="124"/>
-      <c r="I123" s="132"/>
-      <c r="J123" s="132"/>
-      <c r="K123" s="132"/>
-      <c r="L123" s="132"/>
-      <c r="M123" s="132"/>
-      <c r="N123" s="133"/>
+      <c r="G123" s="130"/>
+      <c r="H123" s="130"/>
+      <c r="I123" s="181"/>
+      <c r="J123" s="181"/>
+      <c r="K123" s="181"/>
+      <c r="L123" s="181"/>
+      <c r="M123" s="181"/>
+      <c r="N123" s="149"/>
       <c r="O123" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="P123" s="146"/>
-      <c r="Q123" s="138"/>
+      <c r="P123" s="189"/>
+      <c r="Q123" s="186"/>
       <c r="R123" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S123" s="120"/>
+      <c r="S123" s="169"/>
     </row>
     <row r="124" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="140"/>
-      <c r="B124" s="149"/>
-      <c r="C124" s="131"/>
-      <c r="D124" s="131"/>
-      <c r="E124" s="144"/>
+      <c r="A124" s="144"/>
+      <c r="B124" s="146"/>
+      <c r="C124" s="180"/>
+      <c r="D124" s="180"/>
+      <c r="E124" s="148"/>
       <c r="F124" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G124" s="124"/>
-      <c r="H124" s="124"/>
-      <c r="I124" s="126"/>
-      <c r="J124" s="126"/>
-      <c r="K124" s="126"/>
-      <c r="L124" s="126"/>
-      <c r="M124" s="126"/>
-      <c r="N124" s="133"/>
+      <c r="G124" s="130"/>
+      <c r="H124" s="130"/>
+      <c r="I124" s="164"/>
+      <c r="J124" s="164"/>
+      <c r="K124" s="164"/>
+      <c r="L124" s="164"/>
+      <c r="M124" s="164"/>
+      <c r="N124" s="149"/>
       <c r="O124" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="P124" s="147"/>
-      <c r="Q124" s="139"/>
+      <c r="P124" s="190"/>
+      <c r="Q124" s="187"/>
       <c r="R124" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S124" s="121"/>
+      <c r="S124" s="170"/>
     </row>
     <row r="125" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A125" s="55" t="s">
@@ -7503,128 +7578,128 @@
       </c>
     </row>
     <row r="126" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="140" t="s">
+      <c r="A126" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B126" s="141" t="s">
+      <c r="B126" s="157" t="s">
         <v>147</v>
       </c>
-      <c r="C126" s="129" t="s">
+      <c r="C126" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="D126" s="129"/>
-      <c r="E126" s="144" t="s">
+      <c r="D126" s="178"/>
+      <c r="E126" s="148" t="s">
         <v>222</v>
       </c>
       <c r="F126" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="G126" s="124"/>
-      <c r="H126" s="124"/>
-      <c r="I126" s="125"/>
-      <c r="J126" s="125"/>
-      <c r="K126" s="125"/>
-      <c r="L126" s="125"/>
-      <c r="M126" s="125"/>
-      <c r="N126" s="133" t="s">
+      <c r="G126" s="130"/>
+      <c r="H126" s="130"/>
+      <c r="I126" s="163"/>
+      <c r="J126" s="163"/>
+      <c r="K126" s="163"/>
+      <c r="L126" s="163"/>
+      <c r="M126" s="163"/>
+      <c r="N126" s="149" t="s">
         <v>97</v>
       </c>
       <c r="O126" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="P126" s="134" t="s">
+      <c r="P126" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="Q126" s="137" t="s">
+      <c r="Q126" s="138" t="s">
         <v>120</v>
       </c>
       <c r="R126" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S126" s="119" t="s">
+      <c r="S126" s="150" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="140"/>
-      <c r="B127" s="142"/>
-      <c r="C127" s="130"/>
-      <c r="D127" s="130"/>
-      <c r="E127" s="144"/>
+      <c r="A127" s="144"/>
+      <c r="B127" s="182"/>
+      <c r="C127" s="179"/>
+      <c r="D127" s="179"/>
+      <c r="E127" s="148"/>
       <c r="F127" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="G127" s="124"/>
-      <c r="H127" s="124"/>
-      <c r="I127" s="132"/>
-      <c r="J127" s="132"/>
-      <c r="K127" s="132"/>
-      <c r="L127" s="132"/>
-      <c r="M127" s="132"/>
-      <c r="N127" s="133"/>
+      <c r="G127" s="130"/>
+      <c r="H127" s="130"/>
+      <c r="I127" s="181"/>
+      <c r="J127" s="181"/>
+      <c r="K127" s="181"/>
+      <c r="L127" s="181"/>
+      <c r="M127" s="181"/>
+      <c r="N127" s="149"/>
       <c r="O127" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="P127" s="135"/>
-      <c r="Q127" s="138"/>
+      <c r="P127" s="184"/>
+      <c r="Q127" s="186"/>
       <c r="R127" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S127" s="120"/>
+      <c r="S127" s="169"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="140"/>
-      <c r="B128" s="142"/>
-      <c r="C128" s="130"/>
-      <c r="D128" s="130"/>
-      <c r="E128" s="144"/>
+      <c r="A128" s="144"/>
+      <c r="B128" s="182"/>
+      <c r="C128" s="179"/>
+      <c r="D128" s="179"/>
+      <c r="E128" s="148"/>
       <c r="F128" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="G128" s="124"/>
-      <c r="H128" s="124"/>
-      <c r="I128" s="132"/>
-      <c r="J128" s="132"/>
-      <c r="K128" s="132"/>
-      <c r="L128" s="132"/>
-      <c r="M128" s="132"/>
-      <c r="N128" s="133"/>
+      <c r="G128" s="130"/>
+      <c r="H128" s="130"/>
+      <c r="I128" s="181"/>
+      <c r="J128" s="181"/>
+      <c r="K128" s="181"/>
+      <c r="L128" s="181"/>
+      <c r="M128" s="181"/>
+      <c r="N128" s="149"/>
       <c r="O128" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="P128" s="135"/>
-      <c r="Q128" s="138"/>
+      <c r="P128" s="184"/>
+      <c r="Q128" s="186"/>
       <c r="R128" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S128" s="120"/>
+      <c r="S128" s="169"/>
     </row>
     <row r="129" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="140"/>
-      <c r="B129" s="143"/>
-      <c r="C129" s="131"/>
-      <c r="D129" s="131"/>
-      <c r="E129" s="144"/>
+      <c r="A129" s="144"/>
+      <c r="B129" s="158"/>
+      <c r="C129" s="180"/>
+      <c r="D129" s="180"/>
+      <c r="E129" s="148"/>
       <c r="F129" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G129" s="124"/>
-      <c r="H129" s="124"/>
-      <c r="I129" s="126"/>
-      <c r="J129" s="126"/>
-      <c r="K129" s="126"/>
-      <c r="L129" s="126"/>
-      <c r="M129" s="126"/>
-      <c r="N129" s="133"/>
+      <c r="G129" s="130"/>
+      <c r="H129" s="130"/>
+      <c r="I129" s="164"/>
+      <c r="J129" s="164"/>
+      <c r="K129" s="164"/>
+      <c r="L129" s="164"/>
+      <c r="M129" s="164"/>
+      <c r="N129" s="149"/>
       <c r="O129" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="P129" s="136"/>
-      <c r="Q129" s="139"/>
+      <c r="P129" s="185"/>
+      <c r="Q129" s="187"/>
       <c r="R129" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S129" s="121"/>
+      <c r="S129" s="170"/>
     </row>
     <row r="130" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A130" s="79" t="s">
@@ -7694,7 +7769,7 @@
       <c r="B132" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C132" s="189" t="s">
+      <c r="C132" s="129" t="s">
         <v>235</v>
       </c>
       <c r="D132" s="64"/>
@@ -7739,7 +7814,7 @@
       <c r="B133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C133" s="189" t="s">
+      <c r="C133" s="129" t="s">
         <v>239</v>
       </c>
       <c r="D133" s="64"/>
@@ -7780,7 +7855,7 @@
       <c r="B135" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="C135" s="189"/>
+      <c r="C135" s="129"/>
       <c r="D135" s="64"/>
       <c r="E135" s="67" t="s">
         <v>259</v>
@@ -7816,157 +7891,155 @@
       <c r="A136" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B136" s="69" t="s">
+      <c r="B136" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="189"/>
+      <c r="C136" s="129"/>
       <c r="D136" s="64"/>
-      <c r="E136" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="F136" s="66"/>
-      <c r="G136" s="66"/>
-      <c r="H136" s="66"/>
-      <c r="I136" s="66"/>
-      <c r="J136" s="66"/>
-      <c r="K136" s="66"/>
-      <c r="L136" s="66"/>
-      <c r="M136" s="66"/>
-      <c r="N136" s="68" t="s">
+      <c r="E136" s="121" t="s">
+        <v>387</v>
+      </c>
+      <c r="F136" s="119"/>
+      <c r="G136" s="119"/>
+      <c r="H136" s="119"/>
+      <c r="I136" s="119"/>
+      <c r="J136" s="119"/>
+      <c r="K136" s="119"/>
+      <c r="L136" s="119"/>
+      <c r="M136" s="119"/>
+      <c r="N136" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="O136" s="108" t="s">
+      <c r="O136" s="119" t="s">
         <v>89</v>
       </c>
       <c r="P136" s="109" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="Q136" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R136" s="108" t="s">
+      <c r="R136" s="119" t="s">
         <v>89</v>
       </c>
       <c r="S136" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="65" t="s">
+    <row r="137" spans="1:19" s="203" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="194" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137" s="195" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" s="196"/>
+      <c r="D137" s="197"/>
+      <c r="E137" s="198" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" s="199"/>
+      <c r="G137" s="199"/>
+      <c r="H137" s="199"/>
+      <c r="I137" s="199"/>
+      <c r="J137" s="199"/>
+      <c r="K137" s="199"/>
+      <c r="L137" s="199"/>
+      <c r="M137" s="199"/>
+      <c r="N137" s="200" t="s">
+        <v>97</v>
+      </c>
+      <c r="O137" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="P137" s="201" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q137" s="202" t="s">
+        <v>120</v>
+      </c>
+      <c r="R137" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="S137" s="201" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" s="203" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B138" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="C137" s="189"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="67" t="s">
+      <c r="C138" s="196"/>
+      <c r="D138" s="197"/>
+      <c r="E138" s="198" t="s">
         <v>261</v>
       </c>
-      <c r="F137" s="66"/>
-      <c r="G137" s="66"/>
-      <c r="H137" s="66"/>
-      <c r="I137" s="66"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="66"/>
-      <c r="L137" s="66"/>
-      <c r="M137" s="66"/>
-      <c r="N137" s="68" t="s">
+      <c r="F138" s="199"/>
+      <c r="G138" s="199"/>
+      <c r="H138" s="199"/>
+      <c r="I138" s="199"/>
+      <c r="J138" s="199"/>
+      <c r="K138" s="199"/>
+      <c r="L138" s="199"/>
+      <c r="M138" s="199"/>
+      <c r="N138" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="O137" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="P137" s="109" t="s">
+      <c r="O138" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="P138" s="201" t="s">
         <v>354</v>
       </c>
-      <c r="Q137" s="23" t="s">
+      <c r="Q138" s="202" t="s">
         <v>120</v>
       </c>
-      <c r="R137" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S137" s="109" t="s">
+      <c r="R138" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="S138" s="201" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="65" t="s">
+    <row r="139" spans="1:19" s="203" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B139" s="204" t="s">
         <v>147</v>
       </c>
-      <c r="C138" s="189"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="67" t="s">
+      <c r="C139" s="196"/>
+      <c r="D139" s="197"/>
+      <c r="E139" s="198" t="s">
         <v>262</v>
       </c>
-      <c r="F138" s="66"/>
-      <c r="G138" s="66"/>
-      <c r="H138" s="66"/>
-      <c r="I138" s="66"/>
-      <c r="J138" s="66"/>
-      <c r="K138" s="66"/>
-      <c r="L138" s="66"/>
-      <c r="M138" s="66"/>
-      <c r="N138" s="68" t="s">
+      <c r="F139" s="199"/>
+      <c r="G139" s="199"/>
+      <c r="H139" s="199"/>
+      <c r="I139" s="199"/>
+      <c r="J139" s="199"/>
+      <c r="K139" s="199"/>
+      <c r="L139" s="199"/>
+      <c r="M139" s="199"/>
+      <c r="N139" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="O138" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="P138" s="109" t="s">
+      <c r="O139" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="P139" s="201" t="s">
         <v>354</v>
       </c>
-      <c r="Q138" s="23" t="s">
+      <c r="Q139" s="202" t="s">
         <v>120</v>
       </c>
-      <c r="R138" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S138" s="109" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A140" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B140" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="C140" s="82" t="s">
-        <v>287</v>
-      </c>
-      <c r="D140" s="90"/>
-      <c r="E140" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="F140" s="82"/>
-      <c r="G140" s="82"/>
-      <c r="H140" s="82"/>
-      <c r="I140" s="82"/>
-      <c r="J140" s="82"/>
-      <c r="K140" s="82"/>
-      <c r="L140" s="82"/>
-      <c r="M140" s="82"/>
-      <c r="N140" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="O140" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="P140" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q140" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="R140" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S140" s="109" t="s">
+      <c r="R139" s="199" t="s">
+        <v>89</v>
+      </c>
+      <c r="S139" s="201" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7977,12 +8050,12 @@
       <c r="B141" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="C141" s="90" t="s">
+      <c r="C141" s="82" t="s">
         <v>287</v>
       </c>
       <c r="D141" s="90"/>
       <c r="E141" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F141" s="82"/>
       <c r="G141" s="82"/>
@@ -8023,7 +8096,7 @@
       </c>
       <c r="D142" s="90"/>
       <c r="E142" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F142" s="82"/>
       <c r="G142" s="82"/>
@@ -8064,7 +8137,7 @@
       </c>
       <c r="D143" s="90"/>
       <c r="E143" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F143" s="82"/>
       <c r="G143" s="82"/>
@@ -8105,7 +8178,7 @@
       </c>
       <c r="D144" s="90"/>
       <c r="E144" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F144" s="82"/>
       <c r="G144" s="82"/>
@@ -8134,89 +8207,89 @@
         <v>356</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="65" t="s">
+    <row r="145" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+      <c r="A145" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B146" s="88" t="s">
+      <c r="B145" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="C146" s="86" t="s">
+      <c r="C145" s="90" t="s">
+        <v>287</v>
+      </c>
+      <c r="D145" s="90"/>
+      <c r="E145" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F145" s="82"/>
+      <c r="G145" s="82"/>
+      <c r="H145" s="82"/>
+      <c r="I145" s="82"/>
+      <c r="J145" s="82"/>
+      <c r="K145" s="82"/>
+      <c r="L145" s="82"/>
+      <c r="M145" s="82"/>
+      <c r="N145" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="O145" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="P145" s="109" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q145" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R145" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S145" s="109" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B147" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C147" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="D146" s="90"/>
-      <c r="E146" s="21" t="s">
+      <c r="D147" s="90"/>
+      <c r="E147" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F146" s="86"/>
-      <c r="G146" s="86"/>
-      <c r="H146" s="86"/>
-      <c r="I146" s="86"/>
-      <c r="J146" s="86"/>
-      <c r="K146" s="86"/>
-      <c r="L146" s="86"/>
-      <c r="M146" s="86"/>
-      <c r="N146" s="87" t="s">
+      <c r="F147" s="86"/>
+      <c r="G147" s="86"/>
+      <c r="H147" s="86"/>
+      <c r="I147" s="86"/>
+      <c r="J147" s="86"/>
+      <c r="K147" s="86"/>
+      <c r="L147" s="86"/>
+      <c r="M147" s="86"/>
+      <c r="N147" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="O146" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="P146" s="109" t="s">
+      <c r="O147" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="P147" s="109" t="s">
         <v>352</v>
       </c>
-      <c r="Q146" s="23" t="s">
+      <c r="Q147" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="R146" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S146" s="109" t="s">
+      <c r="R147" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S147" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B148" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C148" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="D148" s="95"/>
-      <c r="E148" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="F148" s="95"/>
-      <c r="G148" s="95"/>
-      <c r="H148" s="95"/>
-      <c r="I148" s="95"/>
-      <c r="J148" s="95"/>
-      <c r="K148" s="95"/>
-      <c r="L148" s="95"/>
-      <c r="M148" s="95"/>
-      <c r="N148" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="O148" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="P148" s="109" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q148" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="R148" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S148" s="109" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="65" t="s">
         <v>46</v>
       </c>
@@ -8224,11 +8297,11 @@
         <v>147</v>
       </c>
       <c r="C149" s="95" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D149" s="95"/>
       <c r="E149" s="21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F149" s="95"/>
       <c r="G149" s="95"/>
@@ -8245,10 +8318,10 @@
         <v>89</v>
       </c>
       <c r="P149" s="109" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q149" s="23" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="R149" s="108" t="s">
         <v>89</v>
@@ -8257,7 +8330,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="65" t="s">
         <v>46</v>
       </c>
@@ -8269,7 +8342,7 @@
       </c>
       <c r="D150" s="95"/>
       <c r="E150" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F150" s="95"/>
       <c r="G150" s="95"/>
@@ -8286,7 +8359,7 @@
         <v>89</v>
       </c>
       <c r="P150" s="109" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q150" s="23" t="s">
         <v>120</v>
@@ -8302,35 +8375,35 @@
       <c r="A151" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B151" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C151" s="90" t="s">
-        <v>274</v>
-      </c>
-      <c r="D151" s="90"/>
+      <c r="B151" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="D151" s="95"/>
       <c r="E151" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="F151" s="90"/>
-      <c r="G151" s="90"/>
-      <c r="H151" s="90"/>
-      <c r="I151" s="90"/>
-      <c r="J151" s="90"/>
-      <c r="K151" s="90"/>
-      <c r="L151" s="90"/>
-      <c r="M151" s="90"/>
-      <c r="N151" s="89" t="s">
+        <v>337</v>
+      </c>
+      <c r="F151" s="95"/>
+      <c r="G151" s="95"/>
+      <c r="H151" s="95"/>
+      <c r="I151" s="95"/>
+      <c r="J151" s="95"/>
+      <c r="K151" s="95"/>
+      <c r="L151" s="95"/>
+      <c r="M151" s="95"/>
+      <c r="N151" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="O151" s="90" t="s">
+      <c r="O151" s="95" t="s">
         <v>89</v>
       </c>
       <c r="P151" s="109" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q151" s="23" t="s">
-        <v>275</v>
+        <v>120</v>
       </c>
       <c r="R151" s="108" t="s">
         <v>89</v>
@@ -8347,11 +8420,11 @@
         <v>148</v>
       </c>
       <c r="C152" s="90" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D152" s="90"/>
       <c r="E152" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F152" s="90"/>
       <c r="G152" s="90"/>
@@ -8392,7 +8465,7 @@
       </c>
       <c r="D153" s="90"/>
       <c r="E153" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F153" s="90"/>
       <c r="G153" s="90"/>
@@ -8429,11 +8502,11 @@
         <v>148</v>
       </c>
       <c r="C154" s="90" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D154" s="90"/>
       <c r="E154" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F154" s="90"/>
       <c r="G154" s="90"/>
@@ -8450,7 +8523,7 @@
         <v>89</v>
       </c>
       <c r="P154" s="109" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q154" s="23" t="s">
         <v>275</v>
@@ -8462,44 +8535,44 @@
         <v>356</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="B156" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="C156" s="95" t="s">
-        <v>294</v>
-      </c>
-      <c r="D156" s="95"/>
-      <c r="E156" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="F156" s="95"/>
-      <c r="G156" s="95"/>
-      <c r="H156" s="95"/>
-      <c r="I156" s="95"/>
-      <c r="J156" s="95"/>
-      <c r="K156" s="95"/>
-      <c r="L156" s="95"/>
-      <c r="M156" s="95"/>
-      <c r="N156" s="97" t="s">
-        <v>251</v>
-      </c>
-      <c r="O156" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="P156" s="110" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q156" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="R156" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S156" s="109" t="s">
+    <row r="155" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B155" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="D155" s="90"/>
+      <c r="E155" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F155" s="90"/>
+      <c r="G155" s="90"/>
+      <c r="H155" s="90"/>
+      <c r="I155" s="90"/>
+      <c r="J155" s="90"/>
+      <c r="K155" s="90"/>
+      <c r="L155" s="90"/>
+      <c r="M155" s="90"/>
+      <c r="N155" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="O155" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="P155" s="109" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q155" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="R155" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S155" s="109" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8511,11 +8584,11 @@
         <v>146</v>
       </c>
       <c r="C157" s="95" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="D157" s="95"/>
       <c r="E157" s="21" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F157" s="95"/>
       <c r="G157" s="95"/>
@@ -8532,7 +8605,7 @@
         <v>89</v>
       </c>
       <c r="P157" s="110" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q157" s="23" t="s">
         <v>120</v>
@@ -8544,42 +8617,44 @@
         <v>356</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A159" s="65" t="s">
+    <row r="158" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B159" s="93" t="s">
+      <c r="B158" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C159" s="90"/>
-      <c r="D159" s="90"/>
-      <c r="E159" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="F159" s="90"/>
-      <c r="G159" s="90"/>
-      <c r="H159" s="90"/>
-      <c r="I159" s="90"/>
-      <c r="J159" s="90"/>
-      <c r="K159" s="90"/>
-      <c r="L159" s="90"/>
-      <c r="M159" s="90"/>
-      <c r="N159" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="O159" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P159" s="109" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q159" s="23" t="s">
+      <c r="C158" s="95" t="s">
+        <v>349</v>
+      </c>
+      <c r="D158" s="95"/>
+      <c r="E158" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F158" s="95"/>
+      <c r="G158" s="95"/>
+      <c r="H158" s="95"/>
+      <c r="I158" s="95"/>
+      <c r="J158" s="95"/>
+      <c r="K158" s="95"/>
+      <c r="L158" s="95"/>
+      <c r="M158" s="95"/>
+      <c r="N158" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="O158" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="P158" s="110" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q158" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R159" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="S159" s="109" t="s">
+      <c r="R158" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S158" s="109" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8593,7 +8668,7 @@
       <c r="C160" s="90"/>
       <c r="D160" s="90"/>
       <c r="E160" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F160" s="90"/>
       <c r="G160" s="90"/>
@@ -8622,12 +8697,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A161" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>147</v>
+        <v>45</v>
+      </c>
+      <c r="B161" s="93" t="s">
+        <v>146</v>
       </c>
       <c r="C161" s="90"/>
       <c r="D161" s="90"/>
@@ -8635,12 +8710,8 @@
         <v>283</v>
       </c>
       <c r="F161" s="90"/>
-      <c r="G161" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="H161" s="183" t="s">
-        <v>386</v>
-      </c>
+      <c r="G161" s="90"/>
+      <c r="H161" s="90"/>
       <c r="I161" s="90"/>
       <c r="J161" s="90"/>
       <c r="K161" s="90"/>
@@ -8665,23 +8736,25 @@
         <v>356</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B162" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="C162" s="90" t="s">
-        <v>287</v>
-      </c>
+    <row r="162" spans="1:19" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C162" s="90"/>
       <c r="D162" s="90"/>
       <c r="E162" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F162" s="90"/>
-      <c r="G162" s="90"/>
-      <c r="H162" s="90"/>
+      <c r="G162" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="H162" s="125" t="s">
+        <v>386</v>
+      </c>
       <c r="I162" s="90"/>
       <c r="J162" s="90"/>
       <c r="K162" s="90"/>
@@ -8694,12 +8767,12 @@
         <v>89</v>
       </c>
       <c r="P162" s="109" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="Q162" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R162" s="108" t="s">
+      <c r="R162" s="90" t="s">
         <v>89</v>
       </c>
       <c r="S162" s="109" t="s">
@@ -8718,7 +8791,7 @@
       </c>
       <c r="D163" s="90"/>
       <c r="E163" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F163" s="90"/>
       <c r="G163" s="90"/>
@@ -8759,7 +8832,7 @@
       </c>
       <c r="D164" s="90"/>
       <c r="E164" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F164" s="90"/>
       <c r="G164" s="90"/>
@@ -8800,7 +8873,7 @@
       </c>
       <c r="D165" s="90"/>
       <c r="E165" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F165" s="90"/>
       <c r="G165" s="90"/>
@@ -8841,7 +8914,7 @@
       </c>
       <c r="D166" s="90"/>
       <c r="E166" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F166" s="90"/>
       <c r="G166" s="90"/>
@@ -8882,7 +8955,7 @@
       </c>
       <c r="D167" s="90"/>
       <c r="E167" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F167" s="90"/>
       <c r="G167" s="90"/>
@@ -8912,7 +8985,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="65" t="s">
+      <c r="A168" s="91" t="s">
         <v>45</v>
       </c>
       <c r="B168" s="93" t="s">
@@ -8923,7 +8996,7 @@
       </c>
       <c r="D168" s="90"/>
       <c r="E168" s="21" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F168" s="90"/>
       <c r="G168" s="90"/>
@@ -8964,7 +9037,7 @@
       </c>
       <c r="D169" s="90"/>
       <c r="E169" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F169" s="90"/>
       <c r="G169" s="90"/>
@@ -9005,7 +9078,7 @@
       </c>
       <c r="D170" s="90"/>
       <c r="E170" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F170" s="90"/>
       <c r="G170" s="90"/>
@@ -9046,7 +9119,7 @@
       </c>
       <c r="D171" s="90"/>
       <c r="E171" s="21" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="F171" s="90"/>
       <c r="G171" s="90"/>
@@ -9087,7 +9160,7 @@
       </c>
       <c r="D172" s="90"/>
       <c r="E172" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F172" s="90"/>
       <c r="G172" s="90"/>
@@ -9128,7 +9201,7 @@
       </c>
       <c r="D173" s="90"/>
       <c r="E173" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F173" s="90"/>
       <c r="G173" s="90"/>
@@ -9157,7 +9230,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A174" s="65" t="s">
         <v>45</v>
       </c>
@@ -9165,11 +9238,11 @@
         <v>146</v>
       </c>
       <c r="C174" s="90" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D174" s="90"/>
       <c r="E174" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F174" s="90"/>
       <c r="G174" s="90"/>
@@ -9186,7 +9259,7 @@
         <v>89</v>
       </c>
       <c r="P174" s="109" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q174" s="23" t="s">
         <v>120</v>
@@ -9210,7 +9283,7 @@
       </c>
       <c r="D175" s="90"/>
       <c r="E175" s="21" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F175" s="90"/>
       <c r="G175" s="90"/>
@@ -9251,7 +9324,7 @@
       </c>
       <c r="D176" s="90"/>
       <c r="E176" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F176" s="90"/>
       <c r="G176" s="90"/>
@@ -9273,7 +9346,7 @@
       <c r="Q176" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R176" s="90" t="s">
+      <c r="R176" s="108" t="s">
         <v>89</v>
       </c>
       <c r="S176" s="109" t="s">
@@ -9292,7 +9365,7 @@
       </c>
       <c r="D177" s="90"/>
       <c r="E177" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F177" s="90"/>
       <c r="G177" s="90"/>
@@ -9333,7 +9406,7 @@
       </c>
       <c r="D178" s="90"/>
       <c r="E178" s="21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F178" s="90"/>
       <c r="G178" s="90"/>
@@ -9374,7 +9447,7 @@
       </c>
       <c r="D179" s="90"/>
       <c r="E179" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F179" s="90"/>
       <c r="G179" s="90"/>
@@ -9415,7 +9488,7 @@
       </c>
       <c r="D180" s="90"/>
       <c r="E180" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F180" s="90"/>
       <c r="G180" s="90"/>
@@ -9444,74 +9517,125 @@
         <v>356</v>
       </c>
     </row>
+    <row r="181" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B181" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C181" s="90" t="s">
+        <v>294</v>
+      </c>
+      <c r="D181" s="90"/>
+      <c r="E181" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="F181" s="90"/>
+      <c r="G181" s="90"/>
+      <c r="H181" s="90"/>
+      <c r="I181" s="90"/>
+      <c r="J181" s="90"/>
+      <c r="K181" s="90"/>
+      <c r="L181" s="90"/>
+      <c r="M181" s="90"/>
+      <c r="N181" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="O181" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="P181" s="109" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q181" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R181" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="S181" s="109" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="H35:H42"/>
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="L35:L42"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="D60:D67"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="S89:S96"/>
-    <mergeCell ref="Q60:Q67"/>
-    <mergeCell ref="I62:I67"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="H68:H75"/>
-    <mergeCell ref="J68:J75"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="L68:L75"/>
-    <mergeCell ref="N68:N75"/>
-    <mergeCell ref="P68:P75"/>
-    <mergeCell ref="Q68:Q75"/>
-    <mergeCell ref="I70:I75"/>
-    <mergeCell ref="M68:M75"/>
-    <mergeCell ref="E60:E67"/>
-    <mergeCell ref="G60:G67"/>
-    <mergeCell ref="H60:H67"/>
-    <mergeCell ref="J60:J67"/>
-    <mergeCell ref="K60:K67"/>
-    <mergeCell ref="L60:L67"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="M35:M42"/>
-    <mergeCell ref="M43:M50"/>
-    <mergeCell ref="M60:M67"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="S121:S124"/>
+    <mergeCell ref="S126:S129"/>
+    <mergeCell ref="P116:P117"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D89:D96"/>
+    <mergeCell ref="D97:D104"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="P126:P129"/>
+    <mergeCell ref="Q126:Q129"/>
+    <mergeCell ref="N121:N124"/>
+    <mergeCell ref="P121:P124"/>
+    <mergeCell ref="Q121:Q124"/>
+    <mergeCell ref="I121:I124"/>
+    <mergeCell ref="M121:M124"/>
+    <mergeCell ref="P89:P96"/>
+    <mergeCell ref="G89:G96"/>
+    <mergeCell ref="M97:M104"/>
+    <mergeCell ref="Q89:Q96"/>
+    <mergeCell ref="L121:L124"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="G97:G104"/>
+    <mergeCell ref="H97:H104"/>
+    <mergeCell ref="J97:J104"/>
+    <mergeCell ref="K97:K104"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="J121:J124"/>
+    <mergeCell ref="K121:K124"/>
+    <mergeCell ref="L97:L104"/>
+    <mergeCell ref="N97:N104"/>
+    <mergeCell ref="P97:P104"/>
+    <mergeCell ref="Q97:Q104"/>
+    <mergeCell ref="I99:I104"/>
+    <mergeCell ref="H89:H96"/>
+    <mergeCell ref="J89:J96"/>
+    <mergeCell ref="K89:K96"/>
+    <mergeCell ref="L89:L96"/>
+    <mergeCell ref="N89:N96"/>
+    <mergeCell ref="I91:I96"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="Q13:Q20"/>
+    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="H13:H20"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="Q5:Q12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="M7:M12"/>
     <mergeCell ref="N35:N42"/>
     <mergeCell ref="P35:P42"/>
     <mergeCell ref="Q35:Q42"/>
@@ -9536,86 +9660,76 @@
     <mergeCell ref="K35:K42"/>
     <mergeCell ref="M13:M20"/>
     <mergeCell ref="L13:L20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="Q13:Q20"/>
-    <mergeCell ref="H5:H12"/>
-    <mergeCell ref="H13:H20"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="Q5:Q12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="L97:L104"/>
-    <mergeCell ref="N97:N104"/>
-    <mergeCell ref="P97:P104"/>
-    <mergeCell ref="Q97:Q104"/>
-    <mergeCell ref="I99:I104"/>
-    <mergeCell ref="H89:H96"/>
-    <mergeCell ref="J89:J96"/>
-    <mergeCell ref="K89:K96"/>
-    <mergeCell ref="L89:L96"/>
-    <mergeCell ref="N89:N96"/>
-    <mergeCell ref="I91:I96"/>
+    <mergeCell ref="M60:M67"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="E35:E42"/>
     <mergeCell ref="A97:A104"/>
     <mergeCell ref="B97:B104"/>
     <mergeCell ref="C97:C104"/>
     <mergeCell ref="E97:E104"/>
-    <mergeCell ref="G97:G104"/>
-    <mergeCell ref="H97:H104"/>
-    <mergeCell ref="J97:J104"/>
-    <mergeCell ref="K97:K104"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="J121:J124"/>
-    <mergeCell ref="K121:K124"/>
-    <mergeCell ref="L121:L124"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="S121:S124"/>
-    <mergeCell ref="S126:S129"/>
-    <mergeCell ref="P116:P117"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D89:D96"/>
-    <mergeCell ref="D97:D104"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="Q126:Q129"/>
-    <mergeCell ref="N121:N124"/>
-    <mergeCell ref="P121:P124"/>
-    <mergeCell ref="Q121:Q124"/>
-    <mergeCell ref="I121:I124"/>
-    <mergeCell ref="M121:M124"/>
-    <mergeCell ref="P89:P96"/>
-    <mergeCell ref="G89:G96"/>
-    <mergeCell ref="M97:M104"/>
-    <mergeCell ref="Q89:Q96"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="H68:H75"/>
+    <mergeCell ref="J68:J75"/>
+    <mergeCell ref="K68:K75"/>
+    <mergeCell ref="L68:L75"/>
+    <mergeCell ref="I70:I75"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="H35:H42"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="S89:S96"/>
+    <mergeCell ref="Q60:Q67"/>
+    <mergeCell ref="I62:I67"/>
+    <mergeCell ref="N68:N75"/>
+    <mergeCell ref="P68:P75"/>
+    <mergeCell ref="Q68:Q75"/>
+    <mergeCell ref="M68:M75"/>
+    <mergeCell ref="E60:E67"/>
+    <mergeCell ref="G60:G67"/>
+    <mergeCell ref="H60:H67"/>
+    <mergeCell ref="J60:J67"/>
+    <mergeCell ref="K60:K67"/>
+    <mergeCell ref="L60:L67"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="M35:M42"/>
+    <mergeCell ref="M43:M50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9718,29 +9832,29 @@
       <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="144" t="s">
+      <c r="C6" s="130"/>
+      <c r="D6" s="148" t="s">
         <v>249</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="133" t="s">
+      <c r="F6" s="149" t="s">
         <v>251</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="124" t="s">
+      <c r="H6" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="137" t="s">
+      <c r="I6" s="138" t="s">
         <v>120</v>
       </c>
       <c r="J6" s="20" t="s">
@@ -9748,155 +9862,155 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="144"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="133"/>
+      <c r="F7" s="149"/>
       <c r="G7" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="153"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="139"/>
       <c r="J7" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="144"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="148"/>
       <c r="E8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="133"/>
+      <c r="F8" s="149"/>
       <c r="G8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="124"/>
-      <c r="I8" s="153"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="139"/>
       <c r="J8" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="144"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="133"/>
+      <c r="F9" s="149"/>
       <c r="G9" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="124"/>
-      <c r="I9" s="153"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="139"/>
       <c r="J9" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="144"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="148"/>
       <c r="E10" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="133"/>
+      <c r="F10" s="149"/>
       <c r="G10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="124"/>
-      <c r="I10" s="153"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="139"/>
       <c r="J10" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="144"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="148"/>
       <c r="E11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="133"/>
+      <c r="F11" s="149"/>
       <c r="G11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="153"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="139"/>
       <c r="J11" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="144"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="148"/>
       <c r="E12" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="133"/>
+      <c r="F12" s="149"/>
       <c r="G12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="153"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="139"/>
       <c r="J12" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="144"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="133"/>
+      <c r="F13" s="149"/>
       <c r="G13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="124"/>
-      <c r="I13" s="154"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="140"/>
       <c r="J13" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="144" t="s">
+      <c r="C14" s="130"/>
+      <c r="D14" s="148" t="s">
         <v>255</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="133" t="s">
+      <c r="F14" s="149" t="s">
         <v>251</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="124" t="s">
+      <c r="H14" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="137" t="s">
+      <c r="I14" s="138" t="s">
         <v>120</v>
       </c>
       <c r="J14" s="20" t="s">
@@ -9904,155 +10018,155 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="144"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="148"/>
       <c r="E15" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="133"/>
+      <c r="F15" s="149"/>
       <c r="G15" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="H15" s="124"/>
-      <c r="I15" s="153"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="139"/>
       <c r="J15" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="144"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="148"/>
       <c r="E16" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="133"/>
+      <c r="F16" s="149"/>
       <c r="G16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="124"/>
-      <c r="I16" s="153"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="139"/>
       <c r="J16" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="144"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="148"/>
       <c r="E17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="133"/>
+      <c r="F17" s="149"/>
       <c r="G17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="124"/>
-      <c r="I17" s="153"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="144"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="148"/>
       <c r="E18" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="133"/>
+      <c r="F18" s="149"/>
       <c r="G18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="124"/>
-      <c r="I18" s="153"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="139"/>
       <c r="J18" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="144"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="133"/>
+      <c r="F19" s="149"/>
       <c r="G19" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="124"/>
-      <c r="I19" s="153"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="139"/>
       <c r="J19" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
-      <c r="B20" s="149"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="144"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="148"/>
       <c r="E20" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="133"/>
+      <c r="F20" s="149"/>
       <c r="G20" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="124"/>
-      <c r="I20" s="153"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="139"/>
       <c r="J20" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="140"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="144"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="148"/>
       <c r="E21" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="133"/>
+      <c r="F21" s="149"/>
       <c r="G21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="124"/>
-      <c r="I21" s="154"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="140"/>
       <c r="J21" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="148" t="s">
+      <c r="B22" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="144" t="s">
+      <c r="C22" s="130"/>
+      <c r="D22" s="148" t="s">
         <v>256</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="133" t="s">
+      <c r="F22" s="149" t="s">
         <v>251</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="124" t="s">
+      <c r="H22" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="137" t="s">
+      <c r="I22" s="138" t="s">
         <v>120</v>
       </c>
       <c r="J22" s="20" t="s">
@@ -10060,137 +10174,137 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="140"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="144"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="148"/>
       <c r="E23" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="133"/>
+      <c r="F23" s="149"/>
       <c r="G23" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="124"/>
-      <c r="I23" s="153"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="139"/>
       <c r="J23" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="140"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="144"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="148"/>
       <c r="E24" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="133"/>
+      <c r="F24" s="149"/>
       <c r="G24" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="124"/>
-      <c r="I24" s="153"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="139"/>
       <c r="J24" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="140"/>
-      <c r="B25" s="149"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="144"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="148"/>
       <c r="E25" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="133"/>
+      <c r="F25" s="149"/>
       <c r="G25" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="124"/>
-      <c r="I25" s="153"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="139"/>
       <c r="J25" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="140"/>
-      <c r="B26" s="149"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="144"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="148"/>
       <c r="E26" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="133"/>
+      <c r="F26" s="149"/>
       <c r="G26" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="124"/>
-      <c r="I26" s="153"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="139"/>
       <c r="J26" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="140"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="144"/>
+      <c r="A27" s="144"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="148"/>
       <c r="E27" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="133"/>
+      <c r="F27" s="149"/>
       <c r="G27" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="124"/>
-      <c r="I27" s="153"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="139"/>
       <c r="J27" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="140"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="144"/>
+      <c r="A28" s="144"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="148"/>
       <c r="E28" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="133"/>
+      <c r="F28" s="149"/>
       <c r="G28" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="124"/>
-      <c r="I28" s="154"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="140"/>
       <c r="J28" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="144" t="s">
+      <c r="C29" s="130"/>
+      <c r="D29" s="148" t="s">
         <v>257</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="133" t="s">
+      <c r="F29" s="149" t="s">
         <v>251</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="124" t="s">
+      <c r="H29" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="I29" s="137" t="s">
+      <c r="I29" s="138" t="s">
         <v>120</v>
       </c>
       <c r="J29" s="20" t="s">
@@ -10198,122 +10312,120 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="140"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="144"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="148"/>
       <c r="E30" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="133"/>
+      <c r="F30" s="149"/>
       <c r="G30" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="124"/>
-      <c r="I30" s="153"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="139"/>
       <c r="J30" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="140"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="144"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="133"/>
+      <c r="F31" s="149"/>
       <c r="G31" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="124"/>
-      <c r="I31" s="153"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="139"/>
       <c r="J31" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="140"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="144"/>
+      <c r="A32" s="144"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="133"/>
+      <c r="F32" s="149"/>
       <c r="G32" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="124"/>
-      <c r="I32" s="153"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="139"/>
       <c r="J32" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="140"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="144"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="133"/>
+      <c r="F33" s="149"/>
       <c r="G33" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="124"/>
-      <c r="I33" s="153"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="139"/>
       <c r="J33" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="140"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="144"/>
+      <c r="A34" s="144"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="148"/>
       <c r="E34" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="133"/>
+      <c r="F34" s="149"/>
       <c r="G34" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="124"/>
-      <c r="I34" s="153"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="139"/>
       <c r="J34" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="140"/>
-      <c r="B35" s="158"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="144"/>
+      <c r="A35" s="144"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="148"/>
       <c r="E35" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="133"/>
+      <c r="F35" s="149"/>
       <c r="G35" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="124"/>
-      <c r="I35" s="154"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="140"/>
       <c r="J35" s="20" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="F22:F28"/>
     <mergeCell ref="H29:H35"/>
     <mergeCell ref="I29:I35"/>
     <mergeCell ref="A14:A21"/>
@@ -10330,11 +10442,13 @@
     <mergeCell ref="I14:I21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="B22:B28"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D6:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -13108,17 +13222,17 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="191" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="171"/>
-      <c r="G2" s="169" t="s">
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="193"/>
+      <c r="G2" s="191" t="s">
         <v>370</v>
       </c>
-      <c r="H2" s="170"/>
-      <c r="I2" s="171"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="193"/>
     </row>
     <row r="3" spans="2:9" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="94" t="s">
@@ -13210,7 +13324,7 @@
       <c r="H7" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="172" t="s">
+      <c r="I7" s="123" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13230,7 +13344,7 @@
       <c r="H8" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="172" t="s">
+      <c r="I8" s="123" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13245,7 +13359,7 @@
       <c r="H9" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="172" t="s">
+      <c r="I9" s="123" t="s">
         <v>367</v>
       </c>
     </row>

--- a/doc/LS_Overview.xlsx
+++ b/doc/LS_Overview.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="392">
   <si>
     <t>Vocab</t>
   </si>
@@ -2520,12 +2520,21 @@
  "file": "some file"
 }</t>
   </si>
+  <si>
+    <t>accept encoding</t>
+  </si>
+  <si>
+    <t>gzip, deflate</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2650,6 +2659,15 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2835,7 +2853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3153,195 +3171,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3373,6 +3202,199 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3674,13 +3696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S181"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="O134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,33 +3712,37 @@
     <col min="3" max="4" width="28.28515625" style="40" customWidth="1"/>
     <col min="5" max="5" width="58.85546875" customWidth="1"/>
     <col min="6" max="6" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
-    <col min="8" max="8" width="84.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="40.85546875" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.85546875" customWidth="1"/>
-    <col min="14" max="14" width="28.85546875" customWidth="1"/>
-    <col min="15" max="15" width="45.85546875" customWidth="1"/>
-    <col min="16" max="16" width="98" style="112" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" style="15" customWidth="1"/>
-    <col min="18" max="18" width="35.42578125" style="15" customWidth="1"/>
-    <col min="19" max="19" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="84.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.85546875" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" customWidth="1"/>
+    <col min="16" max="16" width="45.85546875" customWidth="1"/>
+    <col min="17" max="17" width="98" style="112" customWidth="1"/>
+    <col min="18" max="18" width="30.42578125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="35.42578125" style="15" customWidth="1"/>
+    <col min="20" max="20" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>87</v>
+      </c>
+      <c r="B1" s="206" t="s">
+        <v>391</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="47"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>116</v>
       </c>
@@ -3736,509 +3762,532 @@
         <v>98</v>
       </c>
       <c r="G3" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="K3" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="L3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="N3" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="Q3" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="R3" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="S3" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E4" s="47"/>
     </row>
-    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="144" t="s">
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="147" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="148" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="175" t="s">
         <v>88</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="35" t="s">
+      <c r="G5" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="153" t="s">
+      <c r="K5" s="184" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="153" t="s">
+      <c r="L5" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="153" t="s">
+      <c r="M5" s="184" t="s">
         <v>109</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="N5" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="N5" s="149" t="s">
+      <c r="O5" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="O5" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P5" s="171" t="s">
+      <c r="P5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" s="166" t="s">
         <v>359</v>
       </c>
-      <c r="Q5" s="138" t="s">
+      <c r="R5" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="R5" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="144"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="148"/>
+      <c r="S5" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="171"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="175"/>
       <c r="F6" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="35" t="s">
+      <c r="G6" s="63"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="49" t="s">
+      <c r="K6" s="185"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="N6" s="149"/>
-      <c r="O6" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="144"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="148"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="171"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="175"/>
       <c r="F7" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="20" t="s">
+      <c r="G7" s="63"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="139"/>
-      <c r="R7" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="144"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="148"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="171"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="175"/>
       <c r="F8" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="20" t="s">
+      <c r="G8" s="63"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="148"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="171"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="175"/>
       <c r="F9" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="20" t="s">
+      <c r="G9" s="63"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="185"/>
+      <c r="N9" s="182"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="144"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="148"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="171"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="175"/>
       <c r="F10" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="20" t="s">
+      <c r="G10" s="63"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="182"/>
+      <c r="O10" s="156"/>
+      <c r="P10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="139"/>
-      <c r="R10" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="144"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="148"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="171"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="175"/>
       <c r="F11" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="20" t="s">
+      <c r="G11" s="63"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="182"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="148"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="171"/>
+      <c r="B12" s="178"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="175"/>
       <c r="F12" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="149"/>
-      <c r="O12" s="20" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="140"/>
-      <c r="R12" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="144" t="s">
+      <c r="Q12" s="168"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="148" t="s">
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="175" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="35" t="s">
+      <c r="G13" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="149" t="s">
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P13" s="173" t="s">
+      <c r="P13" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="145" t="s">
         <v>374</v>
       </c>
-      <c r="Q13" s="138" t="s">
+      <c r="R13" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="R13" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="148"/>
+      <c r="S13" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="171"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="175"/>
       <c r="F14" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="35" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="139"/>
-      <c r="R14" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="148"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="147"/>
+      <c r="N14" s="147"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="171"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="175"/>
       <c r="F15" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="20" t="s">
+      <c r="G15" s="63"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="148"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="169"/>
+      <c r="S15" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="171"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="175"/>
       <c r="F16" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="20" t="s">
+      <c r="G16" s="63"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="156"/>
+      <c r="P16" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="148"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="169"/>
+      <c r="S16" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="171"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="175"/>
       <c r="F17" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="149"/>
-      <c r="O17" s="20" t="s">
+      <c r="G17" s="63"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="182"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="174"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="148"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="171"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="175"/>
       <c r="F18" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="20" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="148"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="169"/>
+      <c r="S18" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="171"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="175"/>
       <c r="F19" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="149"/>
-      <c r="O19" s="20" t="s">
+      <c r="G19" s="63"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="174"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="148"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="169"/>
+      <c r="S19" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="171"/>
+      <c r="B20" s="178"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="175"/>
       <c r="F20" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="149"/>
-      <c r="O20" s="20" t="s">
+      <c r="G20" s="63"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="156"/>
+      <c r="P20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="140"/>
-      <c r="R20" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="Q20" s="146"/>
+      <c r="R20" s="170"/>
+      <c r="S20" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>45</v>
       </c>
@@ -4251,32 +4300,35 @@
         <v>126</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="36" t="s">
+        <v>390</v>
+      </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="19"/>
+      <c r="J21" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J21" s="19"/>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="22" t="s">
+      <c r="M21" s="19"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O21" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" s="117" t="s">
+      <c r="P21" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="R21" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R21" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S21" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>45</v>
       </c>
@@ -4289,30 +4341,31 @@
         <v>127</v>
       </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="G22" s="130"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="22" t="s">
+      <c r="M22" s="19"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="P22" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="P22" s="116" t="s">
+      <c r="Q22" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="R22" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R22" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S22" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>45</v>
       </c>
@@ -4325,30 +4378,31 @@
         <v>128</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="130"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="22" t="s">
+      <c r="M23" s="19"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="P23" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="P23" s="116" t="s">
+      <c r="Q23" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="R23" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R23" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S23" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>45</v>
       </c>
@@ -4361,30 +4415,31 @@
         <v>125</v>
       </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
+      <c r="G24" s="130"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="22" t="s">
+      <c r="M24" s="19"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="P24" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="116" t="s">
+      <c r="Q24" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q24" s="23" t="s">
+      <c r="R24" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R24" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S24" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>45</v>
       </c>
@@ -4397,30 +4452,31 @@
         <v>124</v>
       </c>
       <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="G25" s="130"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="22" t="s">
+      <c r="M25" s="19"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="P25" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="P25" s="116" t="s">
+      <c r="Q25" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q25" s="23" t="s">
+      <c r="R25" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R25" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S25" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>45</v>
       </c>
@@ -4433,30 +4489,31 @@
         <v>123</v>
       </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="130"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="22" t="s">
+      <c r="M26" s="19"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O26" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P26" s="116" t="s">
+      <c r="P26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q26" s="23" t="s">
+      <c r="R26" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R26" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S26" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>45</v>
       </c>
@@ -4469,30 +4526,31 @@
         <v>122</v>
       </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="G27" s="130"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="22" t="s">
+      <c r="M27" s="19"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="P27" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="P27" s="116" t="s">
+      <c r="Q27" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q27" s="23" t="s">
+      <c r="R27" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R27" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S27" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="91" t="s">
         <v>45</v>
       </c>
@@ -4505,30 +4563,31 @@
         <v>264</v>
       </c>
       <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
+      <c r="G28" s="130"/>
       <c r="H28" s="77"/>
       <c r="I28" s="77"/>
       <c r="J28" s="77"/>
       <c r="K28" s="77"/>
       <c r="L28" s="77"/>
       <c r="M28" s="77"/>
-      <c r="N28" s="78" t="s">
+      <c r="N28" s="77"/>
+      <c r="O28" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="O28" s="77" t="s">
+      <c r="P28" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="P28" s="116" t="s">
+      <c r="Q28" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q28" s="23" t="s">
+      <c r="R28" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R28" s="77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="237" x14ac:dyDescent="0.25">
+      <c r="S28" s="77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="237" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>46</v>
       </c>
@@ -4545,34 +4604,35 @@
         <v>160</v>
       </c>
       <c r="F29" s="19"/>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="130"/>
+      <c r="H29" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="125" t="s">
+      <c r="I29" s="125" t="s">
         <v>378</v>
       </c>
-      <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="25" t="s">
+      <c r="M29" s="19"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O29" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P29" s="118" t="s">
+      <c r="P29" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="118" t="s">
         <v>375</v>
       </c>
-      <c r="Q29" s="23" t="s">
+      <c r="R29" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R29" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="237" x14ac:dyDescent="0.25">
+      <c r="S29" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="237" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>47</v>
       </c>
@@ -4589,110 +4649,113 @@
         <v>241</v>
       </c>
       <c r="F30" s="19"/>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="130"/>
+      <c r="H30" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="126" t="s">
+      <c r="I30" s="126" t="s">
         <v>375</v>
       </c>
-      <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="25" t="s">
+      <c r="M30" s="19"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O30" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P30" s="118" t="s">
+      <c r="P30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q30" s="118" t="s">
         <v>375</v>
       </c>
-      <c r="Q30" s="23" t="s">
+      <c r="R30" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R30" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="155" t="s">
+      <c r="S30" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="157" t="s">
+      <c r="B31" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="159" t="s">
+      <c r="D31" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="161" t="s">
+      <c r="E31" s="194" t="s">
         <v>241</v>
       </c>
       <c r="F31" s="19"/>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="130"/>
+      <c r="H31" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H31" s="125" t="s">
+      <c r="I31" s="125" t="s">
         <v>378</v>
       </c>
-      <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="25" t="s">
+      <c r="M31" s="19"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O31" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P31" s="134" t="s">
+      <c r="P31" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="197" t="s">
         <v>375</v>
       </c>
-      <c r="Q31" s="23" t="s">
+      <c r="R31" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R31" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="156"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="162"/>
+      <c r="S31" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="193"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="168"/>
       <c r="F32" s="45"/>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="130"/>
+      <c r="H32" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="125" t="s">
+      <c r="I32" s="125" t="s">
         <v>380</v>
       </c>
-      <c r="I32" s="45"/>
       <c r="J32" s="45"/>
       <c r="K32" s="45"/>
       <c r="L32" s="45"/>
       <c r="M32" s="45"/>
-      <c r="N32" s="25" t="s">
+      <c r="N32" s="45"/>
+      <c r="O32" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O32" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="23" t="s">
+      <c r="P32" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q32" s="198"/>
+      <c r="R32" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R32" s="45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="S32" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="79.5" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>48</v>
       </c>
@@ -4709,478 +4772,499 @@
         <v>130</v>
       </c>
       <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="G33" s="130"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="25" t="s">
+      <c r="M33" s="19"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O33" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P33" s="118" t="s">
+      <c r="P33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="118" t="s">
         <v>377</v>
       </c>
-      <c r="Q33" s="23" t="s">
+      <c r="R33" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R33" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="144" t="s">
+      <c r="S33" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="190" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="148" t="s">
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="175" t="s">
         <v>135</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="35" t="s">
+      <c r="G35" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="149" t="s">
+      <c r="K35" s="191"/>
+      <c r="L35" s="191"/>
+      <c r="M35" s="191"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="O35" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P35" s="166" t="s">
+      <c r="P35" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q35" s="187" t="s">
         <v>359</v>
       </c>
-      <c r="Q35" s="138" t="s">
+      <c r="R35" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="R35" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="144"/>
-      <c r="B36" s="165"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="148"/>
+      <c r="S35" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="171"/>
+      <c r="B36" s="190"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="175"/>
       <c r="F36" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="35" t="s">
+      <c r="G36" s="63"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P36" s="167"/>
-      <c r="Q36" s="139"/>
-      <c r="R36" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="144"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="148"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="156"/>
+      <c r="P36" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q36" s="188"/>
+      <c r="R36" s="169"/>
+      <c r="S36" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="171"/>
+      <c r="B37" s="190"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="175"/>
       <c r="F37" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="149"/>
-      <c r="O37" s="20" t="s">
+      <c r="G37" s="63"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="147"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="139"/>
-      <c r="R37" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="144"/>
-      <c r="B38" s="165"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="148"/>
+      <c r="Q37" s="188"/>
+      <c r="R37" s="169"/>
+      <c r="S37" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="171"/>
+      <c r="B38" s="190"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="175"/>
       <c r="F38" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="149"/>
-      <c r="O38" s="20" t="s">
+      <c r="G38" s="63"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="182"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P38" s="167"/>
-      <c r="Q38" s="139"/>
-      <c r="R38" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="144"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="148"/>
+      <c r="Q38" s="188"/>
+      <c r="R38" s="169"/>
+      <c r="S38" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="171"/>
+      <c r="B39" s="190"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="175"/>
       <c r="F39" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="20" t="s">
+      <c r="G39" s="63"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="182"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P39" s="167"/>
-      <c r="Q39" s="139"/>
-      <c r="R39" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="144"/>
-      <c r="B40" s="165"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="148"/>
+      <c r="Q39" s="188"/>
+      <c r="R39" s="169"/>
+      <c r="S39" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="171"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="175"/>
       <c r="F40" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="149"/>
-      <c r="O40" s="20" t="s">
+      <c r="G40" s="63"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="182"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="156"/>
+      <c r="P40" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P40" s="167"/>
-      <c r="Q40" s="139"/>
-      <c r="R40" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="144"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="148"/>
+      <c r="Q40" s="188"/>
+      <c r="R40" s="169"/>
+      <c r="S40" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="171"/>
+      <c r="B41" s="190"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="175"/>
       <c r="F41" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="149"/>
-      <c r="O41" s="20" t="s">
+      <c r="G41" s="63"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="147"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P41" s="167"/>
-      <c r="Q41" s="139"/>
-      <c r="R41" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="144"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="148"/>
+      <c r="Q41" s="188"/>
+      <c r="R41" s="169"/>
+      <c r="S41" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="171"/>
+      <c r="B42" s="190"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="175"/>
       <c r="F42" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="149"/>
-      <c r="O42" s="20" t="s">
+      <c r="G42" s="63"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="156"/>
+      <c r="P42" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P42" s="168"/>
-      <c r="Q42" s="140"/>
-      <c r="R42" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="144" t="s">
+      <c r="Q42" s="189"/>
+      <c r="R42" s="170"/>
+      <c r="S42" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="165" t="s">
+      <c r="B43" s="190" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="148" t="s">
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="175" t="s">
         <v>136</v>
       </c>
       <c r="F43" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="35" t="s">
+      <c r="G43" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="149" t="s">
+      <c r="K43" s="147"/>
+      <c r="L43" s="147"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="147"/>
+      <c r="O43" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="O43" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P43" s="150" t="s">
+      <c r="P43" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q43" s="142" t="s">
         <v>373</v>
       </c>
-      <c r="Q43" s="138" t="s">
+      <c r="R43" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="R43" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="144"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="148"/>
+      <c r="S43" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="171"/>
+      <c r="B44" s="190"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="175"/>
       <c r="F44" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="35" t="s">
+      <c r="G44" s="63"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="149"/>
-      <c r="O44" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P44" s="169"/>
-      <c r="Q44" s="139"/>
-      <c r="R44" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="144"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="148"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="147"/>
+      <c r="M44" s="147"/>
+      <c r="N44" s="147"/>
+      <c r="O44" s="156"/>
+      <c r="P44" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q44" s="143"/>
+      <c r="R44" s="169"/>
+      <c r="S44" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="171"/>
+      <c r="B45" s="190"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="175"/>
       <c r="F45" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="130"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="130"/>
-      <c r="N45" s="149"/>
-      <c r="O45" s="20" t="s">
+      <c r="G45" s="63"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
+      <c r="M45" s="147"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="156"/>
+      <c r="P45" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P45" s="169"/>
-      <c r="Q45" s="139"/>
-      <c r="R45" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="144"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="148"/>
+      <c r="Q45" s="143"/>
+      <c r="R45" s="169"/>
+      <c r="S45" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="171"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="175"/>
       <c r="F46" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="20" t="s">
+      <c r="G46" s="63"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="182"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
+      <c r="M46" s="147"/>
+      <c r="N46" s="147"/>
+      <c r="O46" s="156"/>
+      <c r="P46" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P46" s="169"/>
-      <c r="Q46" s="139"/>
-      <c r="R46" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="144"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="148"/>
+      <c r="Q46" s="143"/>
+      <c r="R46" s="169"/>
+      <c r="S46" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="171"/>
+      <c r="B47" s="190"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="175"/>
       <c r="F47" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="130"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="149"/>
-      <c r="O47" s="20" t="s">
+      <c r="G47" s="63"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="156"/>
+      <c r="P47" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P47" s="169"/>
-      <c r="Q47" s="139"/>
-      <c r="R47" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="144"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="148"/>
+      <c r="Q47" s="143"/>
+      <c r="R47" s="169"/>
+      <c r="S47" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="171"/>
+      <c r="B48" s="190"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="175"/>
       <c r="F48" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="149"/>
-      <c r="O48" s="20" t="s">
+      <c r="G48" s="63"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
+      <c r="J48" s="182"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="147"/>
+      <c r="M48" s="147"/>
+      <c r="N48" s="147"/>
+      <c r="O48" s="156"/>
+      <c r="P48" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P48" s="169"/>
-      <c r="Q48" s="139"/>
-      <c r="R48" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="144"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="148"/>
+      <c r="Q48" s="143"/>
+      <c r="R48" s="169"/>
+      <c r="S48" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="171"/>
+      <c r="B49" s="190"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="175"/>
       <c r="F49" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="149"/>
-      <c r="O49" s="20" t="s">
+      <c r="G49" s="63"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="182"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="147"/>
+      <c r="M49" s="147"/>
+      <c r="N49" s="147"/>
+      <c r="O49" s="156"/>
+      <c r="P49" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P49" s="169"/>
-      <c r="Q49" s="139"/>
-      <c r="R49" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="144"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="148"/>
+      <c r="Q49" s="143"/>
+      <c r="R49" s="169"/>
+      <c r="S49" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="171"/>
+      <c r="B50" s="190"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="175"/>
       <c r="F50" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="130"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="149"/>
-      <c r="O50" s="20" t="s">
+      <c r="G50" s="63"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="147"/>
+      <c r="L50" s="147"/>
+      <c r="M50" s="147"/>
+      <c r="N50" s="147"/>
+      <c r="O50" s="156"/>
+      <c r="P50" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P50" s="170"/>
-      <c r="Q50" s="140"/>
-      <c r="R50" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="Q50" s="144"/>
+      <c r="R50" s="170"/>
+      <c r="S50" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>45</v>
       </c>
@@ -5193,32 +5277,35 @@
         <v>137</v>
       </c>
       <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
+      <c r="G51" s="36" t="s">
+        <v>390</v>
+      </c>
       <c r="H51" s="19"/>
-      <c r="I51" s="35" t="s">
+      <c r="I51" s="19"/>
+      <c r="J51" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="19"/>
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="22" t="s">
+      <c r="M51" s="19"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O51" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P51" s="109" t="s">
+      <c r="P51" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q51" s="109" t="s">
         <v>373</v>
       </c>
-      <c r="Q51" s="23" t="s">
+      <c r="R51" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R51" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S51" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>45</v>
       </c>
@@ -5231,30 +5318,31 @@
         <v>138</v>
       </c>
       <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
+      <c r="G52" s="130"/>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="22" t="s">
+      <c r="M52" s="19"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O52" s="19" t="s">
+      <c r="P52" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="P52" s="116" t="s">
+      <c r="Q52" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q52" s="23" t="s">
+      <c r="R52" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R52" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S52" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>45</v>
       </c>
@@ -5267,30 +5355,31 @@
         <v>139</v>
       </c>
       <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
+      <c r="G53" s="130"/>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="22" t="s">
+      <c r="M53" s="19"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O53" s="19" t="s">
+      <c r="P53" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="P53" s="116" t="s">
+      <c r="Q53" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q53" s="23" t="s">
+      <c r="R53" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R53" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S53" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>45</v>
       </c>
@@ -5303,30 +5392,31 @@
         <v>140</v>
       </c>
       <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
+      <c r="G54" s="130"/>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="19"/>
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="22" t="s">
+      <c r="M54" s="19"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O54" s="19" t="s">
+      <c r="P54" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="P54" s="116" t="s">
+      <c r="Q54" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q54" s="23" t="s">
+      <c r="R54" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R54" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S54" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="24" t="s">
         <v>45</v>
       </c>
@@ -5339,30 +5429,31 @@
         <v>141</v>
       </c>
       <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
+      <c r="G55" s="130"/>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="19"/>
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="22" t="s">
+      <c r="M55" s="19"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O55" s="19" t="s">
+      <c r="P55" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="P55" s="116" t="s">
+      <c r="Q55" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q55" s="23" t="s">
+      <c r="R55" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R55" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S55" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="24" t="s">
         <v>45</v>
       </c>
@@ -5375,30 +5466,31 @@
         <v>142</v>
       </c>
       <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="G56" s="130"/>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="22" t="s">
+      <c r="M56" s="19"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O56" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P56" s="116" t="s">
+      <c r="P56" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q56" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q56" s="23" t="s">
+      <c r="R56" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R56" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S56" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>45</v>
       </c>
@@ -5411,30 +5503,31 @@
         <v>143</v>
       </c>
       <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
+      <c r="G57" s="130"/>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="22" t="s">
+      <c r="M57" s="19"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O57" s="19" t="s">
+      <c r="P57" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="P57" s="116" t="s">
+      <c r="Q57" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q57" s="23" t="s">
+      <c r="R57" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R57" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S57" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>48</v>
       </c>
@@ -5451,480 +5544,501 @@
         <v>136</v>
       </c>
       <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
+      <c r="G58" s="130"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="25" t="s">
+      <c r="M58" s="19"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O58" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P58" s="85" t="s">
+      <c r="P58" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q58" s="85" t="s">
         <v>371</v>
       </c>
-      <c r="Q58" s="23" t="s">
+      <c r="R58" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R58" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="144" t="s">
+      <c r="S58" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="145" t="s">
+      <c r="B60" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="148" t="s">
+      <c r="C60" s="147"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="175" t="s">
         <v>151</v>
       </c>
       <c r="F60" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="35" t="s">
+      <c r="G60" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
+      <c r="J60" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J60" s="153" t="s">
+      <c r="K60" s="184" t="s">
         <v>162</v>
       </c>
-      <c r="K60" s="131"/>
-      <c r="L60" s="131"/>
-      <c r="M60" s="130"/>
-      <c r="N60" s="149" t="s">
+      <c r="L60" s="191"/>
+      <c r="M60" s="191"/>
+      <c r="N60" s="147"/>
+      <c r="O60" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="O60" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P60" s="166" t="s">
+      <c r="P60" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q60" s="187" t="s">
         <v>359</v>
       </c>
-      <c r="Q60" s="138" t="s">
+      <c r="R60" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="R60" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="144"/>
-      <c r="B61" s="146"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="148"/>
+      <c r="S60" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="171"/>
+      <c r="B61" s="177"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="175"/>
       <c r="F61" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G61" s="130"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="35" t="s">
+      <c r="G61" s="63"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
+      <c r="J61" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J61" s="154"/>
-      <c r="K61" s="130"/>
-      <c r="L61" s="130"/>
-      <c r="M61" s="130"/>
-      <c r="N61" s="149"/>
-      <c r="O61" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P61" s="167"/>
-      <c r="Q61" s="139"/>
-      <c r="R61" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="144"/>
-      <c r="B62" s="146"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="148"/>
+      <c r="K61" s="185"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
+      <c r="N61" s="147"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q61" s="188"/>
+      <c r="R61" s="169"/>
+      <c r="S61" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="171"/>
+      <c r="B62" s="177"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="175"/>
       <c r="F62" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="141"/>
-      <c r="J62" s="154"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="130"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="149"/>
-      <c r="O62" s="20" t="s">
+      <c r="G62" s="63"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
+      <c r="J62" s="181"/>
+      <c r="K62" s="185"/>
+      <c r="L62" s="147"/>
+      <c r="M62" s="147"/>
+      <c r="N62" s="147"/>
+      <c r="O62" s="156"/>
+      <c r="P62" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P62" s="167"/>
-      <c r="Q62" s="139"/>
-      <c r="R62" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="144"/>
-      <c r="B63" s="146"/>
-      <c r="C63" s="130"/>
-      <c r="D63" s="130"/>
-      <c r="E63" s="148"/>
+      <c r="Q62" s="188"/>
+      <c r="R62" s="169"/>
+      <c r="S62" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="171"/>
+      <c r="B63" s="177"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="175"/>
       <c r="F63" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="130"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="130"/>
-      <c r="L63" s="130"/>
-      <c r="M63" s="130"/>
-      <c r="N63" s="149"/>
-      <c r="O63" s="20" t="s">
+      <c r="G63" s="63"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="147"/>
+      <c r="J63" s="182"/>
+      <c r="K63" s="185"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="147"/>
+      <c r="N63" s="147"/>
+      <c r="O63" s="156"/>
+      <c r="P63" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P63" s="167"/>
-      <c r="Q63" s="139"/>
-      <c r="R63" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="144"/>
-      <c r="B64" s="146"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="148"/>
+      <c r="Q63" s="188"/>
+      <c r="R63" s="169"/>
+      <c r="S63" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="171"/>
+      <c r="B64" s="177"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="175"/>
       <c r="F64" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="130"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="142"/>
-      <c r="J64" s="154"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="130"/>
-      <c r="M64" s="130"/>
-      <c r="N64" s="149"/>
-      <c r="O64" s="20" t="s">
+      <c r="G64" s="63"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
+      <c r="J64" s="182"/>
+      <c r="K64" s="185"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="147"/>
+      <c r="N64" s="147"/>
+      <c r="O64" s="156"/>
+      <c r="P64" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P64" s="167"/>
-      <c r="Q64" s="139"/>
-      <c r="R64" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="144"/>
-      <c r="B65" s="146"/>
-      <c r="C65" s="130"/>
-      <c r="D65" s="130"/>
-      <c r="E65" s="148"/>
+      <c r="Q64" s="188"/>
+      <c r="R64" s="169"/>
+      <c r="S64" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="171"/>
+      <c r="B65" s="177"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="175"/>
       <c r="F65" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="130"/>
-      <c r="H65" s="130"/>
-      <c r="I65" s="142"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="130"/>
-      <c r="L65" s="130"/>
-      <c r="M65" s="130"/>
-      <c r="N65" s="149"/>
-      <c r="O65" s="20" t="s">
+      <c r="G65" s="63"/>
+      <c r="H65" s="147"/>
+      <c r="I65" s="147"/>
+      <c r="J65" s="182"/>
+      <c r="K65" s="185"/>
+      <c r="L65" s="147"/>
+      <c r="M65" s="147"/>
+      <c r="N65" s="147"/>
+      <c r="O65" s="156"/>
+      <c r="P65" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P65" s="167"/>
-      <c r="Q65" s="139"/>
-      <c r="R65" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="144"/>
-      <c r="B66" s="146"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="148"/>
+      <c r="Q65" s="188"/>
+      <c r="R65" s="169"/>
+      <c r="S65" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="171"/>
+      <c r="B66" s="177"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="175"/>
       <c r="F66" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G66" s="130"/>
-      <c r="H66" s="130"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="154"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="130"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="149"/>
-      <c r="O66" s="20" t="s">
+      <c r="G66" s="63"/>
+      <c r="H66" s="147"/>
+      <c r="I66" s="147"/>
+      <c r="J66" s="182"/>
+      <c r="K66" s="185"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="147"/>
+      <c r="N66" s="147"/>
+      <c r="O66" s="156"/>
+      <c r="P66" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P66" s="167"/>
-      <c r="Q66" s="139"/>
-      <c r="R66" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="144"/>
-      <c r="B67" s="147"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="148"/>
+      <c r="Q66" s="188"/>
+      <c r="R66" s="169"/>
+      <c r="S66" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="171"/>
+      <c r="B67" s="178"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="147"/>
+      <c r="E67" s="175"/>
       <c r="F67" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="143"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="130"/>
-      <c r="L67" s="130"/>
-      <c r="M67" s="130"/>
-      <c r="N67" s="149"/>
-      <c r="O67" s="20" t="s">
+      <c r="G67" s="63"/>
+      <c r="H67" s="147"/>
+      <c r="I67" s="147"/>
+      <c r="J67" s="183"/>
+      <c r="K67" s="185"/>
+      <c r="L67" s="147"/>
+      <c r="M67" s="147"/>
+      <c r="N67" s="147"/>
+      <c r="O67" s="156"/>
+      <c r="P67" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P67" s="168"/>
-      <c r="Q67" s="140"/>
-      <c r="R67" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="144" t="s">
+      <c r="Q67" s="189"/>
+      <c r="R67" s="170"/>
+      <c r="S67" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="145" t="s">
+      <c r="B68" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="130"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="148" t="s">
+      <c r="C68" s="147"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="175" t="s">
         <v>152</v>
       </c>
       <c r="F68" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="130"/>
-      <c r="H68" s="130"/>
-      <c r="I68" s="35" t="s">
+      <c r="G68" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H68" s="147"/>
+      <c r="I68" s="147"/>
+      <c r="J68" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J68" s="130"/>
-      <c r="K68" s="130"/>
-      <c r="L68" s="130"/>
-      <c r="M68" s="130"/>
-      <c r="N68" s="149" t="s">
+      <c r="K68" s="147"/>
+      <c r="L68" s="147"/>
+      <c r="M68" s="147"/>
+      <c r="N68" s="147"/>
+      <c r="O68" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="O68" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P68" s="150" t="s">
+      <c r="P68" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q68" s="142" t="s">
         <v>372</v>
       </c>
-      <c r="Q68" s="138" t="s">
+      <c r="R68" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="R68" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="144"/>
-      <c r="B69" s="146"/>
-      <c r="C69" s="130"/>
-      <c r="D69" s="130"/>
-      <c r="E69" s="148"/>
+      <c r="S68" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="171"/>
+      <c r="B69" s="177"/>
+      <c r="C69" s="147"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="175"/>
       <c r="F69" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="130"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="35" t="s">
+      <c r="G69" s="63"/>
+      <c r="H69" s="147"/>
+      <c r="I69" s="147"/>
+      <c r="J69" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J69" s="130"/>
-      <c r="K69" s="130"/>
-      <c r="L69" s="130"/>
-      <c r="M69" s="130"/>
-      <c r="N69" s="149"/>
-      <c r="O69" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P69" s="151"/>
-      <c r="Q69" s="139"/>
-      <c r="R69" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="144"/>
-      <c r="B70" s="146"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="148"/>
+      <c r="K69" s="147"/>
+      <c r="L69" s="147"/>
+      <c r="M69" s="147"/>
+      <c r="N69" s="147"/>
+      <c r="O69" s="156"/>
+      <c r="P69" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q69" s="201"/>
+      <c r="R69" s="169"/>
+      <c r="S69" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="171"/>
+      <c r="B70" s="177"/>
+      <c r="C70" s="147"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="175"/>
       <c r="F70" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G70" s="130"/>
-      <c r="H70" s="130"/>
-      <c r="I70" s="141"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="130"/>
-      <c r="L70" s="130"/>
-      <c r="M70" s="130"/>
-      <c r="N70" s="149"/>
-      <c r="O70" s="20" t="s">
+      <c r="G70" s="63"/>
+      <c r="H70" s="147"/>
+      <c r="I70" s="147"/>
+      <c r="J70" s="181"/>
+      <c r="K70" s="147"/>
+      <c r="L70" s="147"/>
+      <c r="M70" s="147"/>
+      <c r="N70" s="147"/>
+      <c r="O70" s="156"/>
+      <c r="P70" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P70" s="151"/>
-      <c r="Q70" s="139"/>
-      <c r="R70" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="144"/>
-      <c r="B71" s="146"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="148"/>
+      <c r="Q70" s="201"/>
+      <c r="R70" s="169"/>
+      <c r="S70" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="171"/>
+      <c r="B71" s="177"/>
+      <c r="C71" s="147"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="175"/>
       <c r="F71" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G71" s="130"/>
-      <c r="H71" s="130"/>
-      <c r="I71" s="142"/>
-      <c r="J71" s="130"/>
-      <c r="K71" s="130"/>
-      <c r="L71" s="130"/>
-      <c r="M71" s="130"/>
-      <c r="N71" s="149"/>
-      <c r="O71" s="20" t="s">
+      <c r="G71" s="63"/>
+      <c r="H71" s="147"/>
+      <c r="I71" s="147"/>
+      <c r="J71" s="182"/>
+      <c r="K71" s="147"/>
+      <c r="L71" s="147"/>
+      <c r="M71" s="147"/>
+      <c r="N71" s="147"/>
+      <c r="O71" s="156"/>
+      <c r="P71" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P71" s="151"/>
-      <c r="Q71" s="139"/>
-      <c r="R71" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="144"/>
-      <c r="B72" s="146"/>
-      <c r="C72" s="130"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="148"/>
+      <c r="Q71" s="201"/>
+      <c r="R71" s="169"/>
+      <c r="S71" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="171"/>
+      <c r="B72" s="177"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="175"/>
       <c r="F72" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="130"/>
-      <c r="H72" s="130"/>
-      <c r="I72" s="142"/>
-      <c r="J72" s="130"/>
-      <c r="K72" s="130"/>
-      <c r="L72" s="130"/>
-      <c r="M72" s="130"/>
-      <c r="N72" s="149"/>
-      <c r="O72" s="20" t="s">
+      <c r="G72" s="63"/>
+      <c r="H72" s="147"/>
+      <c r="I72" s="147"/>
+      <c r="J72" s="182"/>
+      <c r="K72" s="147"/>
+      <c r="L72" s="147"/>
+      <c r="M72" s="147"/>
+      <c r="N72" s="147"/>
+      <c r="O72" s="156"/>
+      <c r="P72" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P72" s="151"/>
-      <c r="Q72" s="139"/>
-      <c r="R72" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="144"/>
-      <c r="B73" s="146"/>
-      <c r="C73" s="130"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="148"/>
+      <c r="Q72" s="201"/>
+      <c r="R72" s="169"/>
+      <c r="S72" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="171"/>
+      <c r="B73" s="177"/>
+      <c r="C73" s="147"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="175"/>
       <c r="F73" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G73" s="130"/>
-      <c r="H73" s="130"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="130"/>
-      <c r="K73" s="130"/>
-      <c r="L73" s="130"/>
-      <c r="M73" s="130"/>
-      <c r="N73" s="149"/>
-      <c r="O73" s="20" t="s">
+      <c r="G73" s="63"/>
+      <c r="H73" s="147"/>
+      <c r="I73" s="147"/>
+      <c r="J73" s="182"/>
+      <c r="K73" s="147"/>
+      <c r="L73" s="147"/>
+      <c r="M73" s="147"/>
+      <c r="N73" s="147"/>
+      <c r="O73" s="156"/>
+      <c r="P73" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P73" s="151"/>
-      <c r="Q73" s="139"/>
-      <c r="R73" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="144"/>
-      <c r="B74" s="146"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="148"/>
+      <c r="Q73" s="201"/>
+      <c r="R73" s="169"/>
+      <c r="S73" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="171"/>
+      <c r="B74" s="177"/>
+      <c r="C74" s="147"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="175"/>
       <c r="F74" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G74" s="130"/>
-      <c r="H74" s="130"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="130"/>
-      <c r="K74" s="130"/>
-      <c r="L74" s="130"/>
-      <c r="M74" s="130"/>
-      <c r="N74" s="149"/>
-      <c r="O74" s="20" t="s">
+      <c r="G74" s="63"/>
+      <c r="H74" s="147"/>
+      <c r="I74" s="147"/>
+      <c r="J74" s="182"/>
+      <c r="K74" s="147"/>
+      <c r="L74" s="147"/>
+      <c r="M74" s="147"/>
+      <c r="N74" s="147"/>
+      <c r="O74" s="156"/>
+      <c r="P74" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P74" s="151"/>
-      <c r="Q74" s="139"/>
-      <c r="R74" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="144"/>
-      <c r="B75" s="147"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="130"/>
-      <c r="E75" s="148"/>
+      <c r="Q74" s="201"/>
+      <c r="R74" s="169"/>
+      <c r="S74" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="171"/>
+      <c r="B75" s="178"/>
+      <c r="C75" s="147"/>
+      <c r="D75" s="147"/>
+      <c r="E75" s="175"/>
       <c r="F75" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G75" s="130"/>
-      <c r="H75" s="130"/>
-      <c r="I75" s="143"/>
-      <c r="J75" s="130"/>
-      <c r="K75" s="130"/>
-      <c r="L75" s="130"/>
-      <c r="M75" s="130"/>
-      <c r="N75" s="149"/>
-      <c r="O75" s="20" t="s">
+      <c r="G75" s="63"/>
+      <c r="H75" s="147"/>
+      <c r="I75" s="147"/>
+      <c r="J75" s="183"/>
+      <c r="K75" s="147"/>
+      <c r="L75" s="147"/>
+      <c r="M75" s="147"/>
+      <c r="N75" s="147"/>
+      <c r="O75" s="156"/>
+      <c r="P75" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P75" s="152"/>
-      <c r="Q75" s="140"/>
-      <c r="R75" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+      <c r="Q75" s="202"/>
+      <c r="R75" s="170"/>
+      <c r="S75" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>45</v>
       </c>
@@ -5937,32 +6051,35 @@
         <v>153</v>
       </c>
       <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
+      <c r="G76" s="36" t="s">
+        <v>390</v>
+      </c>
       <c r="H76" s="19"/>
-      <c r="I76" s="35" t="s">
+      <c r="I76" s="19"/>
+      <c r="J76" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J76" s="19"/>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="22" t="s">
+      <c r="M76" s="19"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O76" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P76" s="109" t="s">
+      <c r="P76" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q76" s="109" t="s">
         <v>372</v>
       </c>
-      <c r="Q76" s="23" t="s">
+      <c r="R76" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R76" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S76" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>45</v>
       </c>
@@ -5975,30 +6092,31 @@
         <v>154</v>
       </c>
       <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
+      <c r="G77" s="130"/>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="22" t="s">
+      <c r="M77" s="19"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O77" s="19" t="s">
+      <c r="P77" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="P77" s="116" t="s">
+      <c r="Q77" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q77" s="23" t="s">
+      <c r="R77" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R77" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S77" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
         <v>45</v>
       </c>
@@ -6011,30 +6129,31 @@
         <v>155</v>
       </c>
       <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
+      <c r="G78" s="130"/>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
       <c r="L78" s="19"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="22" t="s">
+      <c r="M78" s="19"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O78" s="19" t="s">
+      <c r="P78" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="P78" s="116" t="s">
+      <c r="Q78" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q78" s="23" t="s">
+      <c r="R78" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R78" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S78" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
         <v>45</v>
       </c>
@@ -6047,30 +6166,31 @@
         <v>156</v>
       </c>
       <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
+      <c r="G79" s="130"/>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
       <c r="L79" s="19"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="22" t="s">
+      <c r="M79" s="19"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O79" s="19" t="s">
+      <c r="P79" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="P79" s="116" t="s">
+      <c r="Q79" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q79" s="23" t="s">
+      <c r="R79" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R79" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S79" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
         <v>45</v>
       </c>
@@ -6083,30 +6203,31 @@
         <v>157</v>
       </c>
       <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
+      <c r="G80" s="130"/>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
       <c r="L80" s="19"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="22" t="s">
+      <c r="M80" s="19"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O80" s="19" t="s">
+      <c r="P80" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="P80" s="116" t="s">
+      <c r="Q80" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q80" s="23" t="s">
+      <c r="R80" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R80" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S80" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
         <v>45</v>
       </c>
@@ -6119,30 +6240,31 @@
         <v>158</v>
       </c>
       <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
+      <c r="G81" s="130"/>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
       <c r="L81" s="19"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="22" t="s">
+      <c r="M81" s="19"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O81" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P81" s="116" t="s">
+      <c r="P81" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q81" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q81" s="23" t="s">
+      <c r="R81" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R81" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="S81" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="24" t="s">
         <v>45</v>
       </c>
@@ -6155,30 +6277,31 @@
         <v>159</v>
       </c>
       <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
+      <c r="G82" s="130"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="19"/>
       <c r="K82" s="19"/>
       <c r="L82" s="19"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="22" t="s">
+      <c r="M82" s="19"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="O82" s="19" t="s">
+      <c r="P82" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="P82" s="116" t="s">
+      <c r="Q82" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q82" s="23" t="s">
+      <c r="R82" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R82" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+      <c r="S82" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>46</v>
       </c>
@@ -6191,34 +6314,35 @@
         <v>151</v>
       </c>
       <c r="F83" s="19"/>
-      <c r="G83" s="35" t="s">
+      <c r="G83" s="130"/>
+      <c r="H83" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H83" s="125" t="s">
+      <c r="I83" s="125" t="s">
         <v>382</v>
       </c>
-      <c r="I83" s="19"/>
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
       <c r="L83" s="19"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="25" t="s">
+      <c r="M83" s="19"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O83" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P83" s="109" t="s">
+      <c r="P83" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q83" s="109" t="s">
         <v>372</v>
       </c>
-      <c r="Q83" s="23" t="s">
+      <c r="R83" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R83" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+      <c r="S83" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>47</v>
       </c>
@@ -6231,106 +6355,109 @@
         <v>152</v>
       </c>
       <c r="F84" s="19"/>
-      <c r="G84" s="35" t="s">
+      <c r="G84" s="130"/>
+      <c r="H84" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H84" s="125" t="s">
+      <c r="I84" s="125" t="s">
         <v>372</v>
       </c>
-      <c r="I84" s="19"/>
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="25" t="s">
+      <c r="M84" s="19"/>
+      <c r="N84" s="45"/>
+      <c r="O84" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O84" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P84" s="109" t="s">
+      <c r="P84" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q84" s="109" t="s">
         <v>372</v>
       </c>
-      <c r="Q84" s="23" t="s">
+      <c r="R84" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R84" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="155" t="s">
+      <c r="S84" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="B85" s="157" t="s">
+      <c r="B85" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="163"/>
-      <c r="D85" s="163"/>
-      <c r="E85" s="161" t="s">
+      <c r="C85" s="148"/>
+      <c r="D85" s="148"/>
+      <c r="E85" s="194" t="s">
         <v>152</v>
       </c>
       <c r="F85" s="19"/>
-      <c r="G85" s="35" t="s">
+      <c r="G85" s="130"/>
+      <c r="H85" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H85" s="125" t="s">
+      <c r="I85" s="125" t="s">
         <v>382</v>
       </c>
-      <c r="I85" s="19"/>
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="25" t="s">
+      <c r="M85" s="19"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O85" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P85" s="132" t="s">
+      <c r="P85" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q85" s="195" t="s">
         <v>372</v>
       </c>
-      <c r="Q85" s="23" t="s">
+      <c r="R85" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R85" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="156"/>
-      <c r="B86" s="158"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="164"/>
-      <c r="E86" s="162"/>
+      <c r="S85" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="193"/>
+      <c r="B86" s="174"/>
+      <c r="C86" s="149"/>
+      <c r="D86" s="149"/>
+      <c r="E86" s="168"/>
       <c r="F86" s="45"/>
-      <c r="G86" s="46" t="s">
+      <c r="G86" s="130"/>
+      <c r="H86" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H86" s="125" t="s">
+      <c r="I86" s="125" t="s">
         <v>381</v>
       </c>
-      <c r="I86" s="45"/>
       <c r="J86" s="45"/>
       <c r="K86" s="45"/>
       <c r="L86" s="45"/>
       <c r="M86" s="45"/>
-      <c r="N86" s="25" t="s">
+      <c r="N86" s="45"/>
+      <c r="O86" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O86" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="P86" s="133"/>
-      <c r="Q86" s="23" t="s">
+      <c r="P86" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q86" s="196"/>
+      <c r="R86" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R86" s="45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S86" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="24" t="s">
         <v>48</v>
       </c>
@@ -6343,506 +6470,527 @@
         <v>152</v>
       </c>
       <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
+      <c r="G87" s="130"/>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
       <c r="L87" s="19"/>
-      <c r="M87" s="45"/>
-      <c r="N87" s="25" t="s">
+      <c r="M87" s="19"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O87" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P87" s="85" t="s">
+      <c r="P87" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q87" s="85" t="s">
         <v>371</v>
       </c>
-      <c r="Q87" s="23" t="s">
+      <c r="R87" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R87" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="144" t="s">
+      <c r="S87" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="145" t="s">
+      <c r="B89" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="130" t="s">
+      <c r="C89" s="147" t="s">
         <v>347</v>
       </c>
-      <c r="D89" s="130"/>
-      <c r="E89" s="148" t="s">
+      <c r="D89" s="147"/>
+      <c r="E89" s="175" t="s">
         <v>203</v>
       </c>
       <c r="F89" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="130"/>
-      <c r="H89" s="130"/>
-      <c r="I89" s="37" t="s">
+      <c r="G89" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H89" s="147"/>
+      <c r="I89" s="147"/>
+      <c r="J89" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J89" s="153" t="s">
+      <c r="K89" s="184" t="s">
         <v>204</v>
       </c>
-      <c r="K89" s="153" t="s">
+      <c r="L89" s="184" t="s">
         <v>205</v>
       </c>
-      <c r="L89" s="153" t="s">
+      <c r="M89" s="184" t="s">
         <v>109</v>
       </c>
-      <c r="M89" s="49" t="s">
+      <c r="N89" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="N89" s="149" t="s">
+      <c r="O89" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="O89" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P89" s="171" t="s">
+      <c r="P89" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q89" s="166" t="s">
         <v>359</v>
       </c>
-      <c r="Q89" s="138" t="s">
+      <c r="R89" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="R89" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S89" s="136"/>
-    </row>
-    <row r="90" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="144"/>
-      <c r="B90" s="146"/>
-      <c r="C90" s="130"/>
-      <c r="D90" s="130"/>
-      <c r="E90" s="148"/>
+      <c r="S89" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T89" s="199"/>
+    </row>
+    <row r="90" spans="1:20" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="171"/>
+      <c r="B90" s="177"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
+      <c r="E90" s="175"/>
       <c r="F90" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="130"/>
-      <c r="H90" s="130"/>
-      <c r="I90" s="37" t="s">
+      <c r="G90" s="63"/>
+      <c r="H90" s="147"/>
+      <c r="I90" s="147"/>
+      <c r="J90" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J90" s="154"/>
-      <c r="K90" s="154"/>
-      <c r="L90" s="154"/>
-      <c r="M90" s="49" t="s">
+      <c r="K90" s="185"/>
+      <c r="L90" s="185"/>
+      <c r="M90" s="185"/>
+      <c r="N90" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="N90" s="149"/>
-      <c r="O90" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P90" s="172"/>
-      <c r="Q90" s="139"/>
-      <c r="R90" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S90" s="137"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="144"/>
-      <c r="B91" s="146"/>
-      <c r="C91" s="130"/>
-      <c r="D91" s="130"/>
-      <c r="E91" s="148"/>
+      <c r="O90" s="156"/>
+      <c r="P90" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q90" s="167"/>
+      <c r="R90" s="169"/>
+      <c r="S90" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T90" s="200"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="171"/>
+      <c r="B91" s="177"/>
+      <c r="C91" s="147"/>
+      <c r="D91" s="147"/>
+      <c r="E91" s="175"/>
       <c r="F91" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G91" s="130"/>
-      <c r="H91" s="130"/>
-      <c r="I91" s="141"/>
-      <c r="J91" s="154"/>
-      <c r="K91" s="154"/>
-      <c r="L91" s="154"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="149"/>
-      <c r="O91" s="20" t="s">
+      <c r="G91" s="63"/>
+      <c r="H91" s="147"/>
+      <c r="I91" s="147"/>
+      <c r="J91" s="181"/>
+      <c r="K91" s="185"/>
+      <c r="L91" s="185"/>
+      <c r="M91" s="185"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="156"/>
+      <c r="P91" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P91" s="172"/>
-      <c r="Q91" s="139"/>
-      <c r="R91" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S91" s="137"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="144"/>
-      <c r="B92" s="146"/>
-      <c r="C92" s="130"/>
-      <c r="D92" s="130"/>
-      <c r="E92" s="148"/>
+      <c r="Q91" s="167"/>
+      <c r="R91" s="169"/>
+      <c r="S91" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T91" s="200"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="171"/>
+      <c r="B92" s="177"/>
+      <c r="C92" s="147"/>
+      <c r="D92" s="147"/>
+      <c r="E92" s="175"/>
       <c r="F92" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G92" s="130"/>
-      <c r="H92" s="130"/>
-      <c r="I92" s="142"/>
-      <c r="J92" s="154"/>
-      <c r="K92" s="154"/>
-      <c r="L92" s="154"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="149"/>
-      <c r="O92" s="20" t="s">
+      <c r="G92" s="63"/>
+      <c r="H92" s="147"/>
+      <c r="I92" s="147"/>
+      <c r="J92" s="182"/>
+      <c r="K92" s="185"/>
+      <c r="L92" s="185"/>
+      <c r="M92" s="185"/>
+      <c r="N92" s="50"/>
+      <c r="O92" s="156"/>
+      <c r="P92" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P92" s="172"/>
-      <c r="Q92" s="139"/>
-      <c r="R92" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S92" s="137"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="144"/>
-      <c r="B93" s="146"/>
-      <c r="C93" s="130"/>
-      <c r="D93" s="130"/>
-      <c r="E93" s="148"/>
+      <c r="Q92" s="167"/>
+      <c r="R92" s="169"/>
+      <c r="S92" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T92" s="200"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="171"/>
+      <c r="B93" s="177"/>
+      <c r="C93" s="147"/>
+      <c r="D93" s="147"/>
+      <c r="E93" s="175"/>
       <c r="F93" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G93" s="130"/>
-      <c r="H93" s="130"/>
-      <c r="I93" s="142"/>
-      <c r="J93" s="154"/>
-      <c r="K93" s="154"/>
-      <c r="L93" s="154"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="149"/>
-      <c r="O93" s="20" t="s">
+      <c r="G93" s="63"/>
+      <c r="H93" s="147"/>
+      <c r="I93" s="147"/>
+      <c r="J93" s="182"/>
+      <c r="K93" s="185"/>
+      <c r="L93" s="185"/>
+      <c r="M93" s="185"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="156"/>
+      <c r="P93" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P93" s="172"/>
-      <c r="Q93" s="139"/>
-      <c r="R93" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S93" s="137"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="144"/>
-      <c r="B94" s="146"/>
-      <c r="C94" s="130"/>
-      <c r="D94" s="130"/>
-      <c r="E94" s="148"/>
+      <c r="Q93" s="167"/>
+      <c r="R93" s="169"/>
+      <c r="S93" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T93" s="200"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="171"/>
+      <c r="B94" s="177"/>
+      <c r="C94" s="147"/>
+      <c r="D94" s="147"/>
+      <c r="E94" s="175"/>
       <c r="F94" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G94" s="130"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="142"/>
-      <c r="J94" s="154"/>
-      <c r="K94" s="154"/>
-      <c r="L94" s="154"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="149"/>
-      <c r="O94" s="20" t="s">
+      <c r="G94" s="63"/>
+      <c r="H94" s="147"/>
+      <c r="I94" s="147"/>
+      <c r="J94" s="182"/>
+      <c r="K94" s="185"/>
+      <c r="L94" s="185"/>
+      <c r="M94" s="185"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="156"/>
+      <c r="P94" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P94" s="172"/>
-      <c r="Q94" s="139"/>
-      <c r="R94" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S94" s="137"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="144"/>
-      <c r="B95" s="146"/>
-      <c r="C95" s="130"/>
-      <c r="D95" s="130"/>
-      <c r="E95" s="148"/>
+      <c r="Q94" s="167"/>
+      <c r="R94" s="169"/>
+      <c r="S94" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T94" s="200"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="171"/>
+      <c r="B95" s="177"/>
+      <c r="C95" s="147"/>
+      <c r="D95" s="147"/>
+      <c r="E95" s="175"/>
       <c r="F95" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G95" s="130"/>
-      <c r="H95" s="130"/>
-      <c r="I95" s="142"/>
-      <c r="J95" s="154"/>
-      <c r="K95" s="154"/>
-      <c r="L95" s="154"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="149"/>
-      <c r="O95" s="20" t="s">
+      <c r="G95" s="63"/>
+      <c r="H95" s="147"/>
+      <c r="I95" s="147"/>
+      <c r="J95" s="182"/>
+      <c r="K95" s="185"/>
+      <c r="L95" s="185"/>
+      <c r="M95" s="185"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="156"/>
+      <c r="P95" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P95" s="172"/>
-      <c r="Q95" s="139"/>
-      <c r="R95" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S95" s="137"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="144"/>
-      <c r="B96" s="147"/>
-      <c r="C96" s="130"/>
-      <c r="D96" s="130"/>
-      <c r="E96" s="148"/>
+      <c r="Q95" s="167"/>
+      <c r="R95" s="169"/>
+      <c r="S95" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T95" s="200"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="171"/>
+      <c r="B96" s="178"/>
+      <c r="C96" s="147"/>
+      <c r="D96" s="147"/>
+      <c r="E96" s="175"/>
       <c r="F96" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G96" s="130"/>
-      <c r="H96" s="130"/>
-      <c r="I96" s="143"/>
-      <c r="J96" s="154"/>
-      <c r="K96" s="154"/>
-      <c r="L96" s="154"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="149"/>
-      <c r="O96" s="20" t="s">
+      <c r="G96" s="63"/>
+      <c r="H96" s="147"/>
+      <c r="I96" s="147"/>
+      <c r="J96" s="183"/>
+      <c r="K96" s="185"/>
+      <c r="L96" s="185"/>
+      <c r="M96" s="185"/>
+      <c r="N96" s="50"/>
+      <c r="O96" s="156"/>
+      <c r="P96" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P96" s="162"/>
-      <c r="Q96" s="140"/>
-      <c r="R96" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S96" s="137"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="144" t="s">
+      <c r="Q96" s="168"/>
+      <c r="R96" s="170"/>
+      <c r="S96" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T96" s="200"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B97" s="145" t="s">
+      <c r="B97" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="130"/>
-      <c r="D97" s="130"/>
-      <c r="E97" s="148" t="s">
+      <c r="C97" s="147"/>
+      <c r="D97" s="147"/>
+      <c r="E97" s="175" t="s">
         <v>209</v>
       </c>
       <c r="F97" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G97" s="130"/>
-      <c r="H97" s="130"/>
-      <c r="I97" s="37" t="s">
+      <c r="G97" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H97" s="147"/>
+      <c r="I97" s="147"/>
+      <c r="J97" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J97" s="130"/>
-      <c r="K97" s="130"/>
-      <c r="L97" s="130"/>
-      <c r="M97" s="130"/>
-      <c r="N97" s="149" t="s">
+      <c r="K97" s="147"/>
+      <c r="L97" s="147"/>
+      <c r="M97" s="147"/>
+      <c r="N97" s="147"/>
+      <c r="O97" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="O97" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P97" s="173" t="s">
+      <c r="P97" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q97" s="145" t="s">
         <v>376</v>
       </c>
-      <c r="Q97" s="138" t="s">
+      <c r="R97" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="R97" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S97" s="127"/>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="144"/>
-      <c r="B98" s="146"/>
-      <c r="C98" s="130"/>
-      <c r="D98" s="130"/>
-      <c r="E98" s="148"/>
+      <c r="S97" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T97" s="127"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="171"/>
+      <c r="B98" s="177"/>
+      <c r="C98" s="147"/>
+      <c r="D98" s="147"/>
+      <c r="E98" s="175"/>
       <c r="F98" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G98" s="130"/>
-      <c r="H98" s="130"/>
-      <c r="I98" s="37" t="s">
+      <c r="G98" s="63"/>
+      <c r="H98" s="147"/>
+      <c r="I98" s="147"/>
+      <c r="J98" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J98" s="130"/>
-      <c r="K98" s="130"/>
-      <c r="L98" s="130"/>
-      <c r="M98" s="130"/>
-      <c r="N98" s="149"/>
-      <c r="O98" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P98" s="176"/>
-      <c r="Q98" s="139"/>
-      <c r="R98" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S98" s="127"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="144"/>
-      <c r="B99" s="146"/>
-      <c r="C99" s="130"/>
-      <c r="D99" s="130"/>
-      <c r="E99" s="148"/>
+      <c r="K98" s="147"/>
+      <c r="L98" s="147"/>
+      <c r="M98" s="147"/>
+      <c r="N98" s="147"/>
+      <c r="O98" s="156"/>
+      <c r="P98" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q98" s="179"/>
+      <c r="R98" s="169"/>
+      <c r="S98" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T98" s="127"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="171"/>
+      <c r="B99" s="177"/>
+      <c r="C99" s="147"/>
+      <c r="D99" s="147"/>
+      <c r="E99" s="175"/>
       <c r="F99" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G99" s="130"/>
-      <c r="H99" s="130"/>
-      <c r="I99" s="141"/>
-      <c r="J99" s="130"/>
-      <c r="K99" s="130"/>
-      <c r="L99" s="130"/>
-      <c r="M99" s="130"/>
-      <c r="N99" s="149"/>
-      <c r="O99" s="20" t="s">
+      <c r="G99" s="63"/>
+      <c r="H99" s="147"/>
+      <c r="I99" s="147"/>
+      <c r="J99" s="181"/>
+      <c r="K99" s="147"/>
+      <c r="L99" s="147"/>
+      <c r="M99" s="147"/>
+      <c r="N99" s="147"/>
+      <c r="O99" s="156"/>
+      <c r="P99" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P99" s="176"/>
-      <c r="Q99" s="139"/>
-      <c r="R99" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S99" s="127"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="144"/>
-      <c r="B100" s="146"/>
-      <c r="C100" s="130"/>
-      <c r="D100" s="130"/>
-      <c r="E100" s="148"/>
+      <c r="Q99" s="179"/>
+      <c r="R99" s="169"/>
+      <c r="S99" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T99" s="127"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="171"/>
+      <c r="B100" s="177"/>
+      <c r="C100" s="147"/>
+      <c r="D100" s="147"/>
+      <c r="E100" s="175"/>
       <c r="F100" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G100" s="130"/>
-      <c r="H100" s="130"/>
-      <c r="I100" s="142"/>
-      <c r="J100" s="130"/>
-      <c r="K100" s="130"/>
-      <c r="L100" s="130"/>
-      <c r="M100" s="130"/>
-      <c r="N100" s="149"/>
-      <c r="O100" s="20" t="s">
+      <c r="G100" s="63"/>
+      <c r="H100" s="147"/>
+      <c r="I100" s="147"/>
+      <c r="J100" s="182"/>
+      <c r="K100" s="147"/>
+      <c r="L100" s="147"/>
+      <c r="M100" s="147"/>
+      <c r="N100" s="147"/>
+      <c r="O100" s="156"/>
+      <c r="P100" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P100" s="176"/>
-      <c r="Q100" s="139"/>
-      <c r="R100" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S100" s="127"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="144"/>
-      <c r="B101" s="146"/>
-      <c r="C101" s="130"/>
-      <c r="D101" s="130"/>
-      <c r="E101" s="148"/>
+      <c r="Q100" s="179"/>
+      <c r="R100" s="169"/>
+      <c r="S100" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T100" s="127"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="171"/>
+      <c r="B101" s="177"/>
+      <c r="C101" s="147"/>
+      <c r="D101" s="147"/>
+      <c r="E101" s="175"/>
       <c r="F101" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G101" s="130"/>
-      <c r="H101" s="130"/>
-      <c r="I101" s="142"/>
-      <c r="J101" s="130"/>
-      <c r="K101" s="130"/>
-      <c r="L101" s="130"/>
-      <c r="M101" s="130"/>
-      <c r="N101" s="149"/>
-      <c r="O101" s="20" t="s">
+      <c r="G101" s="63"/>
+      <c r="H101" s="147"/>
+      <c r="I101" s="147"/>
+      <c r="J101" s="182"/>
+      <c r="K101" s="147"/>
+      <c r="L101" s="147"/>
+      <c r="M101" s="147"/>
+      <c r="N101" s="147"/>
+      <c r="O101" s="156"/>
+      <c r="P101" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P101" s="176"/>
-      <c r="Q101" s="139"/>
-      <c r="R101" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S101" s="127"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="144"/>
-      <c r="B102" s="146"/>
-      <c r="C102" s="130"/>
-      <c r="D102" s="130"/>
-      <c r="E102" s="148"/>
+      <c r="Q101" s="179"/>
+      <c r="R101" s="169"/>
+      <c r="S101" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T101" s="127"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="171"/>
+      <c r="B102" s="177"/>
+      <c r="C102" s="147"/>
+      <c r="D102" s="147"/>
+      <c r="E102" s="175"/>
       <c r="F102" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G102" s="130"/>
-      <c r="H102" s="130"/>
-      <c r="I102" s="142"/>
-      <c r="J102" s="130"/>
-      <c r="K102" s="130"/>
-      <c r="L102" s="130"/>
-      <c r="M102" s="130"/>
-      <c r="N102" s="149"/>
-      <c r="O102" s="20" t="s">
+      <c r="G102" s="63"/>
+      <c r="H102" s="147"/>
+      <c r="I102" s="147"/>
+      <c r="J102" s="182"/>
+      <c r="K102" s="147"/>
+      <c r="L102" s="147"/>
+      <c r="M102" s="147"/>
+      <c r="N102" s="147"/>
+      <c r="O102" s="156"/>
+      <c r="P102" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P102" s="176"/>
-      <c r="Q102" s="139"/>
-      <c r="R102" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S102" s="127"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="144"/>
-      <c r="B103" s="146"/>
-      <c r="C103" s="130"/>
-      <c r="D103" s="130"/>
-      <c r="E103" s="148"/>
+      <c r="Q102" s="179"/>
+      <c r="R102" s="169"/>
+      <c r="S102" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T102" s="127"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="171"/>
+      <c r="B103" s="177"/>
+      <c r="C103" s="147"/>
+      <c r="D103" s="147"/>
+      <c r="E103" s="175"/>
       <c r="F103" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G103" s="130"/>
-      <c r="H103" s="130"/>
-      <c r="I103" s="142"/>
-      <c r="J103" s="130"/>
-      <c r="K103" s="130"/>
-      <c r="L103" s="130"/>
-      <c r="M103" s="130"/>
-      <c r="N103" s="149"/>
-      <c r="O103" s="20" t="s">
+      <c r="G103" s="63"/>
+      <c r="H103" s="147"/>
+      <c r="I103" s="147"/>
+      <c r="J103" s="182"/>
+      <c r="K103" s="147"/>
+      <c r="L103" s="147"/>
+      <c r="M103" s="147"/>
+      <c r="N103" s="147"/>
+      <c r="O103" s="156"/>
+      <c r="P103" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P103" s="176"/>
-      <c r="Q103" s="139"/>
-      <c r="R103" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S103" s="127"/>
-    </row>
-    <row r="104" spans="1:19" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="144"/>
-      <c r="B104" s="147"/>
-      <c r="C104" s="130"/>
-      <c r="D104" s="130"/>
-      <c r="E104" s="148"/>
+      <c r="Q103" s="179"/>
+      <c r="R103" s="169"/>
+      <c r="S103" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T103" s="127"/>
+    </row>
+    <row r="104" spans="1:20" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="171"/>
+      <c r="B104" s="178"/>
+      <c r="C104" s="147"/>
+      <c r="D104" s="147"/>
+      <c r="E104" s="175"/>
       <c r="F104" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G104" s="130"/>
-      <c r="H104" s="130"/>
-      <c r="I104" s="143"/>
-      <c r="J104" s="130"/>
-      <c r="K104" s="130"/>
-      <c r="L104" s="130"/>
-      <c r="M104" s="130"/>
-      <c r="N104" s="149"/>
-      <c r="O104" s="20" t="s">
+      <c r="G104" s="63"/>
+      <c r="H104" s="147"/>
+      <c r="I104" s="147"/>
+      <c r="J104" s="183"/>
+      <c r="K104" s="147"/>
+      <c r="L104" s="147"/>
+      <c r="M104" s="147"/>
+      <c r="N104" s="147"/>
+      <c r="O104" s="156"/>
+      <c r="P104" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P104" s="177"/>
-      <c r="Q104" s="140"/>
-      <c r="R104" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S104" s="127"/>
-    </row>
-    <row r="105" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+      <c r="Q104" s="180"/>
+      <c r="R104" s="170"/>
+      <c r="S104" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T104" s="127"/>
+    </row>
+    <row r="105" spans="1:20" ht="270" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>45</v>
       </c>
@@ -6855,35 +7003,38 @@
         <v>210</v>
       </c>
       <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
+      <c r="G105" s="36" t="s">
+        <v>390</v>
+      </c>
       <c r="H105" s="26"/>
-      <c r="I105" s="37" t="s">
+      <c r="I105" s="26"/>
+      <c r="J105" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J105" s="26"/>
       <c r="K105" s="26"/>
       <c r="L105" s="26"/>
-      <c r="M105" s="45"/>
-      <c r="N105" s="27" t="s">
+      <c r="M105" s="26"/>
+      <c r="N105" s="45"/>
+      <c r="O105" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O105" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="P105" s="117" t="s">
+      <c r="P105" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q105" s="117" t="s">
         <v>376</v>
       </c>
-      <c r="Q105" s="23" t="s">
+      <c r="R105" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R105" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S105" s="128" t="s">
+      <c r="S105" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T105" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A106" s="28" t="s">
         <v>45</v>
       </c>
@@ -6896,33 +7047,34 @@
         <v>211</v>
       </c>
       <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
+      <c r="G106" s="130"/>
       <c r="H106" s="26"/>
       <c r="I106" s="26"/>
       <c r="J106" s="26"/>
       <c r="K106" s="26"/>
       <c r="L106" s="26"/>
-      <c r="M106" s="45"/>
-      <c r="N106" s="27" t="s">
+      <c r="M106" s="26"/>
+      <c r="N106" s="45"/>
+      <c r="O106" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O106" s="26" t="s">
+      <c r="P106" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="P106" s="116" t="s">
+      <c r="Q106" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q106" s="23" t="s">
+      <c r="R106" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R106" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S106" s="128" t="s">
+      <c r="S106" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T106" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A107" s="28" t="s">
         <v>45</v>
       </c>
@@ -6935,33 +7087,34 @@
         <v>212</v>
       </c>
       <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
+      <c r="G107" s="130"/>
       <c r="H107" s="26"/>
       <c r="I107" s="26"/>
       <c r="J107" s="26"/>
       <c r="K107" s="26"/>
       <c r="L107" s="26"/>
-      <c r="M107" s="45"/>
-      <c r="N107" s="27" t="s">
+      <c r="M107" s="26"/>
+      <c r="N107" s="45"/>
+      <c r="O107" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O107" s="26" t="s">
+      <c r="P107" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P107" s="116" t="s">
+      <c r="Q107" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q107" s="23" t="s">
+      <c r="R107" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R107" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S107" s="128" t="s">
+      <c r="S107" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T107" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
         <v>45</v>
       </c>
@@ -6974,33 +7127,34 @@
         <v>213</v>
       </c>
       <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
+      <c r="G108" s="130"/>
       <c r="H108" s="26"/>
       <c r="I108" s="26"/>
       <c r="J108" s="26"/>
       <c r="K108" s="26"/>
       <c r="L108" s="26"/>
-      <c r="M108" s="45"/>
-      <c r="N108" s="27" t="s">
+      <c r="M108" s="26"/>
+      <c r="N108" s="45"/>
+      <c r="O108" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O108" s="26" t="s">
+      <c r="P108" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="P108" s="116" t="s">
+      <c r="Q108" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q108" s="23" t="s">
+      <c r="R108" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R108" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S108" s="128" t="s">
+      <c r="S108" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T108" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A109" s="28" t="s">
         <v>45</v>
       </c>
@@ -7013,33 +7167,34 @@
         <v>214</v>
       </c>
       <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
+      <c r="G109" s="130"/>
       <c r="H109" s="26"/>
       <c r="I109" s="26"/>
       <c r="J109" s="26"/>
       <c r="K109" s="26"/>
       <c r="L109" s="26"/>
-      <c r="M109" s="45"/>
-      <c r="N109" s="27" t="s">
+      <c r="M109" s="26"/>
+      <c r="N109" s="45"/>
+      <c r="O109" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O109" s="26" t="s">
+      <c r="P109" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="P109" s="116" t="s">
+      <c r="Q109" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q109" s="23" t="s">
+      <c r="R109" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R109" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S109" s="128" t="s">
+      <c r="S109" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T109" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A110" s="28" t="s">
         <v>45</v>
       </c>
@@ -7052,33 +7207,34 @@
         <v>215</v>
       </c>
       <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
+      <c r="G110" s="130"/>
       <c r="H110" s="26"/>
       <c r="I110" s="26"/>
       <c r="J110" s="26"/>
       <c r="K110" s="26"/>
       <c r="L110" s="26"/>
-      <c r="M110" s="45"/>
-      <c r="N110" s="27" t="s">
+      <c r="M110" s="26"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O110" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="P110" s="116" t="s">
+      <c r="P110" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q110" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q110" s="23" t="s">
+      <c r="R110" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R110" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S110" s="128" t="s">
+      <c r="S110" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T110" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A111" s="28" t="s">
         <v>45</v>
       </c>
@@ -7091,33 +7247,34 @@
         <v>216</v>
       </c>
       <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
+      <c r="G111" s="130"/>
       <c r="H111" s="26"/>
       <c r="I111" s="26"/>
       <c r="J111" s="26"/>
       <c r="K111" s="26"/>
       <c r="L111" s="26"/>
-      <c r="M111" s="45"/>
-      <c r="N111" s="27" t="s">
+      <c r="M111" s="26"/>
+      <c r="N111" s="45"/>
+      <c r="O111" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="O111" s="26" t="s">
+      <c r="P111" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="P111" s="116" t="s">
+      <c r="Q111" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="Q111" s="23" t="s">
+      <c r="R111" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R111" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S111" s="128" t="s">
+      <c r="S111" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T111" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A112" s="91" t="s">
         <v>45</v>
       </c>
@@ -7130,33 +7287,34 @@
         <v>299</v>
       </c>
       <c r="F112" s="90"/>
-      <c r="G112" s="90"/>
+      <c r="G112" s="130"/>
       <c r="H112" s="90"/>
       <c r="I112" s="90"/>
       <c r="J112" s="90"/>
       <c r="K112" s="90"/>
       <c r="L112" s="90"/>
       <c r="M112" s="90"/>
-      <c r="N112" s="89" t="s">
+      <c r="N112" s="90"/>
+      <c r="O112" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O112" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P112" s="109" t="s">
+      <c r="P112" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q112" s="109" t="s">
         <v>362</v>
       </c>
-      <c r="Q112" s="23" t="s">
+      <c r="R112" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R112" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S112" s="128" t="s">
+      <c r="S112" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T112" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A113" s="91" t="s">
         <v>45</v>
       </c>
@@ -7169,33 +7327,34 @@
         <v>300</v>
       </c>
       <c r="F113" s="90"/>
-      <c r="G113" s="90"/>
+      <c r="G113" s="130"/>
       <c r="H113" s="90"/>
       <c r="I113" s="90"/>
       <c r="J113" s="90"/>
       <c r="K113" s="90"/>
       <c r="L113" s="90"/>
       <c r="M113" s="90"/>
-      <c r="N113" s="89" t="s">
+      <c r="N113" s="90"/>
+      <c r="O113" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O113" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P113" s="109" t="s">
+      <c r="P113" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q113" s="109" t="s">
         <v>361</v>
       </c>
-      <c r="Q113" s="23" t="s">
+      <c r="R113" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R113" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S113" s="128" t="s">
+      <c r="S113" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T113" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="270" x14ac:dyDescent="0.25">
       <c r="A114" s="28" t="s">
         <v>46</v>
       </c>
@@ -7212,37 +7371,38 @@
         <v>217</v>
       </c>
       <c r="F114" s="26"/>
-      <c r="G114" s="37" t="s">
+      <c r="G114" s="130"/>
+      <c r="H114" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H114" s="125" t="s">
+      <c r="I114" s="125" t="s">
         <v>385</v>
       </c>
-      <c r="I114" s="26"/>
       <c r="J114" s="26"/>
       <c r="K114" s="26"/>
       <c r="L114" s="26"/>
-      <c r="M114" s="45"/>
-      <c r="N114" s="25" t="s">
+      <c r="M114" s="26"/>
+      <c r="N114" s="45"/>
+      <c r="O114" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O114" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="P114" s="117" t="s">
+      <c r="P114" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q114" s="117" t="s">
         <v>376</v>
       </c>
-      <c r="Q114" s="23" t="s">
+      <c r="R114" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R114" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S114" s="128" t="s">
+      <c r="S114" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T114" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="270" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="270" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>47</v>
       </c>
@@ -7259,119 +7419,122 @@
         <v>242</v>
       </c>
       <c r="F115" s="26"/>
-      <c r="G115" s="37" t="s">
+      <c r="G115" s="130"/>
+      <c r="H115" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H115" s="125" t="s">
+      <c r="I115" s="125" t="s">
         <v>376</v>
       </c>
-      <c r="I115" s="26"/>
       <c r="J115" s="26"/>
       <c r="K115" s="26"/>
       <c r="L115" s="26"/>
-      <c r="M115" s="45"/>
-      <c r="N115" s="25" t="s">
+      <c r="M115" s="26"/>
+      <c r="N115" s="45"/>
+      <c r="O115" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O115" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="P115" s="117" t="s">
+      <c r="P115" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q115" s="117" t="s">
         <v>376</v>
       </c>
-      <c r="Q115" s="23" t="s">
+      <c r="R115" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R115" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S115" s="128" t="s">
+      <c r="S115" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T115" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="288.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="155" t="s">
+    <row r="116" spans="1:20" ht="288.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="157" t="s">
+      <c r="B116" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="C116" s="159" t="s">
+      <c r="C116" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="D116" s="159" t="s">
+      <c r="D116" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="E116" s="161" t="s">
+      <c r="E116" s="194" t="s">
         <v>384</v>
       </c>
       <c r="F116" s="45"/>
-      <c r="G116" s="37" t="s">
+      <c r="G116" s="130"/>
+      <c r="H116" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H116" s="125" t="s">
+      <c r="I116" s="125" t="s">
         <v>376</v>
       </c>
-      <c r="I116" s="26"/>
       <c r="J116" s="26"/>
       <c r="K116" s="26"/>
       <c r="L116" s="26"/>
-      <c r="M116" s="45"/>
-      <c r="N116" s="25" t="s">
+      <c r="M116" s="26"/>
+      <c r="N116" s="45"/>
+      <c r="O116" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O116" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="P116" s="173" t="s">
+      <c r="P116" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q116" s="145" t="s">
         <v>360</v>
       </c>
-      <c r="Q116" s="23" t="s">
+      <c r="R116" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R116" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S116" s="128" t="s">
+      <c r="S116" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T116" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="156"/>
-      <c r="B117" s="158"/>
-      <c r="C117" s="160"/>
-      <c r="D117" s="160"/>
-      <c r="E117" s="162"/>
+    <row r="117" spans="1:20" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="193"/>
+      <c r="B117" s="174"/>
+      <c r="C117" s="151"/>
+      <c r="D117" s="151"/>
+      <c r="E117" s="168"/>
       <c r="F117" s="45"/>
-      <c r="G117" s="46" t="s">
+      <c r="G117" s="130"/>
+      <c r="H117" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H117" s="125" t="s">
+      <c r="I117" s="125" t="s">
         <v>383</v>
       </c>
-      <c r="I117" s="45"/>
       <c r="J117" s="45"/>
       <c r="K117" s="45"/>
       <c r="L117" s="45"/>
       <c r="M117" s="45"/>
-      <c r="N117" s="25" t="s">
+      <c r="N117" s="45"/>
+      <c r="O117" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O117" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="P117" s="175"/>
-      <c r="Q117" s="23" t="s">
+      <c r="P117" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q117" s="146"/>
+      <c r="R117" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R117" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S117" s="128" t="s">
+      <c r="S117" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T117" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A118" s="28" t="s">
         <v>48</v>
       </c>
@@ -7388,155 +7551,160 @@
         <v>218</v>
       </c>
       <c r="F118" s="26"/>
-      <c r="G118" s="26"/>
+      <c r="G118" s="130"/>
       <c r="H118" s="26"/>
       <c r="I118" s="26"/>
       <c r="J118" s="26"/>
       <c r="K118" s="26"/>
       <c r="L118" s="26"/>
-      <c r="M118" s="45"/>
-      <c r="N118" s="25" t="s">
+      <c r="M118" s="26"/>
+      <c r="N118" s="45"/>
+      <c r="O118" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O118" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="P118" s="124"/>
-      <c r="Q118" s="23" t="s">
+      <c r="P118" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q118" s="124"/>
+      <c r="R118" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R118" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S118" s="128" t="s">
+      <c r="S118" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T118" s="128" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="144" t="s">
+    <row r="121" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="145" t="s">
+      <c r="B121" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="178" t="s">
+      <c r="C121" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="D121" s="178"/>
-      <c r="E121" s="148" t="s">
+      <c r="D121" s="152"/>
+      <c r="E121" s="175" t="s">
         <v>222</v>
       </c>
       <c r="F121" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="G121" s="130"/>
-      <c r="H121" s="130"/>
-      <c r="I121" s="163"/>
-      <c r="J121" s="163"/>
-      <c r="K121" s="163"/>
-      <c r="L121" s="163"/>
-      <c r="M121" s="163"/>
-      <c r="N121" s="149" t="s">
+      <c r="G121" s="36"/>
+      <c r="H121" s="147"/>
+      <c r="I121" s="147"/>
+      <c r="J121" s="148"/>
+      <c r="K121" s="148"/>
+      <c r="L121" s="148"/>
+      <c r="M121" s="148"/>
+      <c r="N121" s="148"/>
+      <c r="O121" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="O121" s="63" t="s">
+      <c r="P121" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="P121" s="188" t="s">
+      <c r="Q121" s="163" t="s">
         <v>231</v>
       </c>
-      <c r="Q121" s="138" t="s">
+      <c r="R121" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="R121" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S121" s="150" t="s">
+      <c r="S121" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T121" s="142" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="144"/>
-      <c r="B122" s="146"/>
-      <c r="C122" s="179"/>
-      <c r="D122" s="179"/>
-      <c r="E122" s="148"/>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="171"/>
+      <c r="B122" s="177"/>
+      <c r="C122" s="153"/>
+      <c r="D122" s="153"/>
+      <c r="E122" s="175"/>
       <c r="F122" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="G122" s="130"/>
-      <c r="H122" s="130"/>
-      <c r="I122" s="181"/>
-      <c r="J122" s="181"/>
-      <c r="K122" s="181"/>
-      <c r="L122" s="181"/>
-      <c r="M122" s="181"/>
-      <c r="N122" s="149"/>
-      <c r="O122" s="63" t="s">
+      <c r="G122" s="36"/>
+      <c r="H122" s="147"/>
+      <c r="I122" s="147"/>
+      <c r="J122" s="155"/>
+      <c r="K122" s="155"/>
+      <c r="L122" s="155"/>
+      <c r="M122" s="155"/>
+      <c r="N122" s="155"/>
+      <c r="O122" s="156"/>
+      <c r="P122" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="P122" s="189"/>
-      <c r="Q122" s="186"/>
-      <c r="R122" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S122" s="169"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="144"/>
-      <c r="B123" s="146"/>
-      <c r="C123" s="179"/>
-      <c r="D123" s="179"/>
-      <c r="E123" s="148"/>
+      <c r="Q122" s="164"/>
+      <c r="R122" s="161"/>
+      <c r="S122" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T122" s="143"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="171"/>
+      <c r="B123" s="177"/>
+      <c r="C123" s="153"/>
+      <c r="D123" s="153"/>
+      <c r="E123" s="175"/>
       <c r="F123" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="G123" s="130"/>
-      <c r="H123" s="130"/>
-      <c r="I123" s="181"/>
-      <c r="J123" s="181"/>
-      <c r="K123" s="181"/>
-      <c r="L123" s="181"/>
-      <c r="M123" s="181"/>
-      <c r="N123" s="149"/>
-      <c r="O123" s="63" t="s">
+      <c r="G123" s="36"/>
+      <c r="H123" s="147"/>
+      <c r="I123" s="147"/>
+      <c r="J123" s="155"/>
+      <c r="K123" s="155"/>
+      <c r="L123" s="155"/>
+      <c r="M123" s="155"/>
+      <c r="N123" s="155"/>
+      <c r="O123" s="156"/>
+      <c r="P123" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="P123" s="189"/>
-      <c r="Q123" s="186"/>
-      <c r="R123" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S123" s="169"/>
-    </row>
-    <row r="124" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="144"/>
-      <c r="B124" s="146"/>
-      <c r="C124" s="180"/>
-      <c r="D124" s="180"/>
-      <c r="E124" s="148"/>
+      <c r="Q123" s="164"/>
+      <c r="R123" s="161"/>
+      <c r="S123" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T123" s="143"/>
+    </row>
+    <row r="124" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="171"/>
+      <c r="B124" s="177"/>
+      <c r="C124" s="154"/>
+      <c r="D124" s="154"/>
+      <c r="E124" s="175"/>
       <c r="F124" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G124" s="130"/>
-      <c r="H124" s="130"/>
-      <c r="I124" s="164"/>
-      <c r="J124" s="164"/>
-      <c r="K124" s="164"/>
-      <c r="L124" s="164"/>
-      <c r="M124" s="164"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="147"/>
+      <c r="I124" s="147"/>
+      <c r="J124" s="149"/>
+      <c r="K124" s="149"/>
+      <c r="L124" s="149"/>
+      <c r="M124" s="149"/>
       <c r="N124" s="149"/>
-      <c r="O124" s="63" t="s">
+      <c r="O124" s="156"/>
+      <c r="P124" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="P124" s="190"/>
-      <c r="Q124" s="187"/>
-      <c r="R124" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S124" s="170"/>
-    </row>
-    <row r="125" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="Q124" s="165"/>
+      <c r="R124" s="162"/>
+      <c r="S124" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T124" s="144"/>
+    </row>
+    <row r="125" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A125" s="55" t="s">
         <v>45</v>
       </c>
@@ -7551,157 +7719,162 @@
         <v>222</v>
       </c>
       <c r="F125" s="53"/>
-      <c r="G125" s="53"/>
+      <c r="G125" s="130"/>
       <c r="H125" s="53"/>
       <c r="I125" s="53"/>
       <c r="J125" s="53"/>
       <c r="K125" s="53"/>
       <c r="L125" s="53"/>
       <c r="M125" s="53"/>
-      <c r="N125" s="54" t="s">
+      <c r="N125" s="53"/>
+      <c r="O125" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O125" s="63" t="s">
+      <c r="P125" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="P125" s="114" t="s">
+      <c r="Q125" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="Q125" s="23" t="s">
+      <c r="R125" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R125" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S125" s="109" t="s">
+      <c r="S125" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T125" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="144" t="s">
+    <row r="126" spans="1:20" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="171" t="s">
         <v>46</v>
       </c>
-      <c r="B126" s="157" t="s">
+      <c r="B126" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="C126" s="178" t="s">
+      <c r="C126" s="152" t="s">
         <v>232</v>
       </c>
-      <c r="D126" s="178"/>
-      <c r="E126" s="148" t="s">
+      <c r="D126" s="152"/>
+      <c r="E126" s="175" t="s">
         <v>222</v>
       </c>
       <c r="F126" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="G126" s="130"/>
-      <c r="H126" s="130"/>
-      <c r="I126" s="163"/>
-      <c r="J126" s="163"/>
-      <c r="K126" s="163"/>
-      <c r="L126" s="163"/>
-      <c r="M126" s="163"/>
-      <c r="N126" s="149" t="s">
+      <c r="G126" s="36"/>
+      <c r="H126" s="147"/>
+      <c r="I126" s="147"/>
+      <c r="J126" s="148"/>
+      <c r="K126" s="148"/>
+      <c r="L126" s="148"/>
+      <c r="M126" s="148"/>
+      <c r="N126" s="148"/>
+      <c r="O126" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="O126" s="63" t="s">
+      <c r="P126" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="P126" s="183" t="s">
+      <c r="Q126" s="157" t="s">
         <v>231</v>
       </c>
-      <c r="Q126" s="138" t="s">
+      <c r="R126" s="160" t="s">
         <v>120</v>
       </c>
-      <c r="R126" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S126" s="150" t="s">
+      <c r="S126" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T126" s="142" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="144"/>
-      <c r="B127" s="182"/>
-      <c r="C127" s="179"/>
-      <c r="D127" s="179"/>
-      <c r="E127" s="148"/>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="171"/>
+      <c r="B127" s="173"/>
+      <c r="C127" s="153"/>
+      <c r="D127" s="153"/>
+      <c r="E127" s="175"/>
       <c r="F127" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="G127" s="130"/>
-      <c r="H127" s="130"/>
-      <c r="I127" s="181"/>
-      <c r="J127" s="181"/>
-      <c r="K127" s="181"/>
-      <c r="L127" s="181"/>
-      <c r="M127" s="181"/>
-      <c r="N127" s="149"/>
-      <c r="O127" s="63" t="s">
+      <c r="G127" s="36"/>
+      <c r="H127" s="147"/>
+      <c r="I127" s="147"/>
+      <c r="J127" s="155"/>
+      <c r="K127" s="155"/>
+      <c r="L127" s="155"/>
+      <c r="M127" s="155"/>
+      <c r="N127" s="155"/>
+      <c r="O127" s="156"/>
+      <c r="P127" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="P127" s="184"/>
-      <c r="Q127" s="186"/>
-      <c r="R127" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S127" s="169"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="144"/>
-      <c r="B128" s="182"/>
-      <c r="C128" s="179"/>
-      <c r="D128" s="179"/>
-      <c r="E128" s="148"/>
+      <c r="Q127" s="158"/>
+      <c r="R127" s="161"/>
+      <c r="S127" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T127" s="143"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="171"/>
+      <c r="B128" s="173"/>
+      <c r="C128" s="153"/>
+      <c r="D128" s="153"/>
+      <c r="E128" s="175"/>
       <c r="F128" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="G128" s="130"/>
-      <c r="H128" s="130"/>
-      <c r="I128" s="181"/>
-      <c r="J128" s="181"/>
-      <c r="K128" s="181"/>
-      <c r="L128" s="181"/>
-      <c r="M128" s="181"/>
-      <c r="N128" s="149"/>
-      <c r="O128" s="63" t="s">
+      <c r="G128" s="36"/>
+      <c r="H128" s="147"/>
+      <c r="I128" s="147"/>
+      <c r="J128" s="155"/>
+      <c r="K128" s="155"/>
+      <c r="L128" s="155"/>
+      <c r="M128" s="155"/>
+      <c r="N128" s="155"/>
+      <c r="O128" s="156"/>
+      <c r="P128" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="P128" s="184"/>
-      <c r="Q128" s="186"/>
-      <c r="R128" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S128" s="169"/>
-    </row>
-    <row r="129" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="144"/>
-      <c r="B129" s="158"/>
-      <c r="C129" s="180"/>
-      <c r="D129" s="180"/>
-      <c r="E129" s="148"/>
+      <c r="Q128" s="158"/>
+      <c r="R128" s="161"/>
+      <c r="S128" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T128" s="143"/>
+    </row>
+    <row r="129" spans="1:20" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="171"/>
+      <c r="B129" s="174"/>
+      <c r="C129" s="154"/>
+      <c r="D129" s="154"/>
+      <c r="E129" s="175"/>
       <c r="F129" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G129" s="130"/>
-      <c r="H129" s="130"/>
-      <c r="I129" s="164"/>
-      <c r="J129" s="164"/>
-      <c r="K129" s="164"/>
-      <c r="L129" s="164"/>
-      <c r="M129" s="164"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="147"/>
+      <c r="I129" s="147"/>
+      <c r="J129" s="149"/>
+      <c r="K129" s="149"/>
+      <c r="L129" s="149"/>
+      <c r="M129" s="149"/>
       <c r="N129" s="149"/>
-      <c r="O129" s="63" t="s">
+      <c r="O129" s="156"/>
+      <c r="P129" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="P129" s="185"/>
-      <c r="Q129" s="187"/>
-      <c r="R129" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="S129" s="170"/>
-    </row>
-    <row r="130" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="Q129" s="159"/>
+      <c r="R129" s="162"/>
+      <c r="S129" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="T129" s="144"/>
+    </row>
+    <row r="130" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A130" s="79" t="s">
         <v>46</v>
       </c>
@@ -7716,33 +7889,34 @@
         <v>222</v>
       </c>
       <c r="F130" s="77"/>
-      <c r="G130" s="77"/>
+      <c r="G130" s="130"/>
       <c r="H130" s="77"/>
       <c r="I130" s="77"/>
       <c r="J130" s="77"/>
       <c r="K130" s="77"/>
       <c r="L130" s="77"/>
       <c r="M130" s="77"/>
-      <c r="N130" s="78" t="s">
+      <c r="N130" s="77"/>
+      <c r="O130" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="O130" s="63" t="s">
+      <c r="P130" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="P130" s="114" t="s">
+      <c r="Q130" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="Q130" s="23" t="s">
+      <c r="R130" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R130" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S130" s="109" t="s">
+      <c r="S130" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T130" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="131" spans="1:19" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="65"/>
       <c r="B131" s="65"/>
       <c r="C131" s="64"/>
@@ -7757,12 +7931,13 @@
       <c r="L131" s="52"/>
       <c r="M131" s="52"/>
       <c r="N131" s="52"/>
-      <c r="O131" s="63"/>
-      <c r="P131" s="113"/>
-      <c r="Q131" s="70"/>
-      <c r="R131" s="52"/>
-    </row>
-    <row r="132" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="O131" s="52"/>
+      <c r="P131" s="63"/>
+      <c r="Q131" s="113"/>
+      <c r="R131" s="70"/>
+      <c r="S131" s="52"/>
+    </row>
+    <row r="132" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A132" s="65" t="s">
         <v>46</v>
       </c>
@@ -7777,37 +7952,38 @@
         <v>240</v>
       </c>
       <c r="F132" s="53"/>
-      <c r="G132" s="60" t="s">
+      <c r="G132" s="130"/>
+      <c r="H132" s="60" t="s">
         <v>236</v>
       </c>
-      <c r="H132" s="92" t="s">
+      <c r="I132" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="I132" s="53"/>
       <c r="J132" s="53"/>
       <c r="K132" s="53"/>
       <c r="L132" s="53"/>
       <c r="M132" s="53"/>
-      <c r="N132" s="54" t="s">
+      <c r="N132" s="53"/>
+      <c r="O132" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O132" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="P132" s="115" t="s">
+      <c r="P132" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q132" s="115" t="s">
         <v>357</v>
       </c>
-      <c r="Q132" s="23" t="s">
+      <c r="R132" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R132" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S132" s="109" t="s">
+      <c r="S132" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T132" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="258.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="258.75" x14ac:dyDescent="0.25">
       <c r="A133" s="65" t="s">
         <v>45</v>
       </c>
@@ -7822,33 +7998,34 @@
         <v>238</v>
       </c>
       <c r="F133" s="58"/>
-      <c r="G133" s="58"/>
+      <c r="G133" s="130"/>
       <c r="H133" s="58"/>
       <c r="I133" s="58"/>
       <c r="J133" s="58"/>
       <c r="K133" s="58"/>
       <c r="L133" s="58"/>
       <c r="M133" s="58"/>
-      <c r="N133" s="61" t="s">
+      <c r="N133" s="58"/>
+      <c r="O133" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="O133" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="P133" s="115" t="s">
+      <c r="P133" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q133" s="115" t="s">
         <v>358</v>
       </c>
-      <c r="Q133" s="23" t="s">
+      <c r="R133" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R133" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S133" s="109" t="s">
+      <c r="S133" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T133" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A135" s="65" t="s">
         <v>45</v>
       </c>
@@ -7861,33 +8038,34 @@
         <v>259</v>
       </c>
       <c r="F135" s="66"/>
-      <c r="G135" s="66"/>
+      <c r="G135" s="130"/>
       <c r="H135" s="66"/>
       <c r="I135" s="66"/>
       <c r="J135" s="66"/>
       <c r="K135" s="66"/>
       <c r="L135" s="66"/>
       <c r="M135" s="66"/>
-      <c r="N135" s="68" t="s">
+      <c r="N135" s="66"/>
+      <c r="O135" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="O135" s="66" t="s">
+      <c r="P135" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="P135" s="110" t="s">
+      <c r="Q135" s="110" t="s">
         <v>263</v>
       </c>
-      <c r="Q135" s="23" t="s">
+      <c r="R135" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R135" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S135" s="109" t="s">
+      <c r="S135" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T135" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A136" s="65" t="s">
         <v>45</v>
       </c>
@@ -7900,150 +8078,154 @@
         <v>387</v>
       </c>
       <c r="F136" s="119"/>
-      <c r="G136" s="119"/>
+      <c r="G136" s="130"/>
       <c r="H136" s="119"/>
       <c r="I136" s="119"/>
       <c r="J136" s="119"/>
       <c r="K136" s="119"/>
       <c r="L136" s="119"/>
       <c r="M136" s="119"/>
-      <c r="N136" s="120" t="s">
+      <c r="N136" s="119"/>
+      <c r="O136" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="O136" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="P136" s="109" t="s">
+      <c r="P136" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q136" s="109" t="s">
         <v>388</v>
       </c>
-      <c r="Q136" s="23" t="s">
+      <c r="R136" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R136" s="119" t="s">
-        <v>89</v>
-      </c>
-      <c r="S136" s="109" t="s">
+      <c r="S136" s="119" t="s">
+        <v>89</v>
+      </c>
+      <c r="T136" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="1:19" s="203" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="194" t="s">
+    <row r="137" spans="1:20" s="140" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="B137" s="195" t="s">
+      <c r="B137" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="C137" s="196"/>
-      <c r="D137" s="197"/>
-      <c r="E137" s="198" t="s">
+      <c r="C137" s="133"/>
+      <c r="D137" s="134"/>
+      <c r="E137" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="F137" s="199"/>
-      <c r="G137" s="199"/>
-      <c r="H137" s="199"/>
-      <c r="I137" s="199"/>
-      <c r="J137" s="199"/>
-      <c r="K137" s="199"/>
-      <c r="L137" s="199"/>
-      <c r="M137" s="199"/>
-      <c r="N137" s="200" t="s">
+      <c r="F137" s="136"/>
+      <c r="G137" s="136"/>
+      <c r="H137" s="136"/>
+      <c r="I137" s="136"/>
+      <c r="J137" s="136"/>
+      <c r="K137" s="136"/>
+      <c r="L137" s="136"/>
+      <c r="M137" s="136"/>
+      <c r="N137" s="136"/>
+      <c r="O137" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="O137" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="P137" s="201" t="s">
+      <c r="P137" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q137" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="Q137" s="202" t="s">
+      <c r="R137" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="R137" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="S137" s="201" t="s">
+      <c r="S137" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="T137" s="138" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="138" spans="1:19" s="203" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="194" t="s">
+    <row r="138" spans="1:20" s="140" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="B138" s="204" t="s">
+      <c r="B138" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="C138" s="196"/>
-      <c r="D138" s="197"/>
-      <c r="E138" s="198" t="s">
+      <c r="C138" s="133"/>
+      <c r="D138" s="134"/>
+      <c r="E138" s="135" t="s">
         <v>261</v>
       </c>
-      <c r="F138" s="199"/>
-      <c r="G138" s="199"/>
-      <c r="H138" s="199"/>
-      <c r="I138" s="199"/>
-      <c r="J138" s="199"/>
-      <c r="K138" s="199"/>
-      <c r="L138" s="199"/>
-      <c r="M138" s="199"/>
-      <c r="N138" s="200" t="s">
+      <c r="F138" s="136"/>
+      <c r="G138" s="136"/>
+      <c r="H138" s="136"/>
+      <c r="I138" s="136"/>
+      <c r="J138" s="136"/>
+      <c r="K138" s="136"/>
+      <c r="L138" s="136"/>
+      <c r="M138" s="136"/>
+      <c r="N138" s="136"/>
+      <c r="O138" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="O138" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="P138" s="201" t="s">
+      <c r="P138" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q138" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="Q138" s="202" t="s">
+      <c r="R138" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="R138" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="S138" s="201" t="s">
+      <c r="S138" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="T138" s="138" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="139" spans="1:19" s="203" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="194" t="s">
+    <row r="139" spans="1:20" s="140" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="B139" s="204" t="s">
+      <c r="B139" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="196"/>
-      <c r="D139" s="197"/>
-      <c r="E139" s="198" t="s">
+      <c r="C139" s="133"/>
+      <c r="D139" s="134"/>
+      <c r="E139" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="F139" s="199"/>
-      <c r="G139" s="199"/>
-      <c r="H139" s="199"/>
-      <c r="I139" s="199"/>
-      <c r="J139" s="199"/>
-      <c r="K139" s="199"/>
-      <c r="L139" s="199"/>
-      <c r="M139" s="199"/>
-      <c r="N139" s="200" t="s">
+      <c r="F139" s="136"/>
+      <c r="G139" s="136"/>
+      <c r="H139" s="136"/>
+      <c r="I139" s="136"/>
+      <c r="J139" s="136"/>
+      <c r="K139" s="136"/>
+      <c r="L139" s="136"/>
+      <c r="M139" s="136"/>
+      <c r="N139" s="136"/>
+      <c r="O139" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="O139" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="P139" s="201" t="s">
+      <c r="P139" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q139" s="138" t="s">
         <v>354</v>
       </c>
-      <c r="Q139" s="202" t="s">
+      <c r="R139" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="R139" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="S139" s="201" t="s">
+      <c r="S139" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="T139" s="138" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A141" s="65" t="s">
         <v>45</v>
       </c>
@@ -8058,33 +8240,34 @@
         <v>266</v>
       </c>
       <c r="F141" s="82"/>
-      <c r="G141" s="82"/>
+      <c r="G141" s="130"/>
       <c r="H141" s="82"/>
       <c r="I141" s="82"/>
       <c r="J141" s="82"/>
       <c r="K141" s="82"/>
       <c r="L141" s="82"/>
       <c r="M141" s="82"/>
-      <c r="N141" s="83" t="s">
+      <c r="N141" s="82"/>
+      <c r="O141" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="O141" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="P141" s="109" t="s">
+      <c r="P141" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q141" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="Q141" s="23" t="s">
+      <c r="R141" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R141" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S141" s="109" t="s">
+      <c r="S141" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T141" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A142" s="65" t="s">
         <v>45</v>
       </c>
@@ -8099,33 +8282,34 @@
         <v>267</v>
       </c>
       <c r="F142" s="82"/>
-      <c r="G142" s="82"/>
+      <c r="G142" s="130"/>
       <c r="H142" s="82"/>
       <c r="I142" s="82"/>
       <c r="J142" s="82"/>
       <c r="K142" s="82"/>
       <c r="L142" s="82"/>
       <c r="M142" s="82"/>
-      <c r="N142" s="83" t="s">
+      <c r="N142" s="82"/>
+      <c r="O142" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="O142" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="P142" s="109" t="s">
+      <c r="P142" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q142" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="Q142" s="23" t="s">
+      <c r="R142" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R142" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S142" s="109" t="s">
+      <c r="S142" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T142" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A143" s="65" t="s">
         <v>45</v>
       </c>
@@ -8140,33 +8324,34 @@
         <v>268</v>
       </c>
       <c r="F143" s="82"/>
-      <c r="G143" s="82"/>
+      <c r="G143" s="130"/>
       <c r="H143" s="82"/>
       <c r="I143" s="82"/>
       <c r="J143" s="82"/>
       <c r="K143" s="82"/>
       <c r="L143" s="82"/>
       <c r="M143" s="82"/>
-      <c r="N143" s="83" t="s">
+      <c r="N143" s="82"/>
+      <c r="O143" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="O143" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="P143" s="109" t="s">
+      <c r="P143" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q143" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="Q143" s="23" t="s">
+      <c r="R143" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R143" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S143" s="109" t="s">
+      <c r="S143" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T143" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="65" t="s">
         <v>45</v>
       </c>
@@ -8181,33 +8366,34 @@
         <v>269</v>
       </c>
       <c r="F144" s="82"/>
-      <c r="G144" s="82"/>
+      <c r="G144" s="130"/>
       <c r="H144" s="82"/>
       <c r="I144" s="82"/>
       <c r="J144" s="82"/>
       <c r="K144" s="82"/>
       <c r="L144" s="82"/>
       <c r="M144" s="82"/>
-      <c r="N144" s="83" t="s">
+      <c r="N144" s="82"/>
+      <c r="O144" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="O144" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="P144" s="109" t="s">
+      <c r="P144" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q144" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="Q144" s="23" t="s">
+      <c r="R144" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R144" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S144" s="109" t="s">
+      <c r="S144" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T144" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A145" s="65" t="s">
         <v>45</v>
       </c>
@@ -8222,33 +8408,34 @@
         <v>270</v>
       </c>
       <c r="F145" s="82"/>
-      <c r="G145" s="82"/>
+      <c r="G145" s="130"/>
       <c r="H145" s="82"/>
       <c r="I145" s="82"/>
       <c r="J145" s="82"/>
       <c r="K145" s="82"/>
       <c r="L145" s="82"/>
       <c r="M145" s="82"/>
-      <c r="N145" s="83" t="s">
+      <c r="N145" s="82"/>
+      <c r="O145" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="O145" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="P145" s="109" t="s">
+      <c r="P145" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q145" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="Q145" s="23" t="s">
+      <c r="R145" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R145" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S145" s="109" t="s">
+      <c r="S145" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T145" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A147" s="65" t="s">
         <v>45</v>
       </c>
@@ -8263,33 +8450,34 @@
         <v>272</v>
       </c>
       <c r="F147" s="86"/>
-      <c r="G147" s="86"/>
+      <c r="G147" s="130"/>
       <c r="H147" s="86"/>
       <c r="I147" s="86"/>
       <c r="J147" s="86"/>
       <c r="K147" s="86"/>
       <c r="L147" s="86"/>
       <c r="M147" s="86"/>
-      <c r="N147" s="87" t="s">
+      <c r="N147" s="86"/>
+      <c r="O147" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="O147" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="P147" s="109" t="s">
+      <c r="P147" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q147" s="109" t="s">
         <v>352</v>
       </c>
-      <c r="Q147" s="23" t="s">
+      <c r="R147" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="R147" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S147" s="109" t="s">
+      <c r="S147" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T147" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="65" t="s">
         <v>46</v>
       </c>
@@ -8304,33 +8492,34 @@
         <v>335</v>
       </c>
       <c r="F149" s="95"/>
-      <c r="G149" s="95"/>
+      <c r="G149" s="130"/>
       <c r="H149" s="95"/>
       <c r="I149" s="95"/>
       <c r="J149" s="95"/>
       <c r="K149" s="95"/>
       <c r="L149" s="95"/>
       <c r="M149" s="95"/>
-      <c r="N149" s="97" t="s">
+      <c r="N149" s="95"/>
+      <c r="O149" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="O149" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="P149" s="109" t="s">
+      <c r="P149" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q149" s="109" t="s">
         <v>338</v>
       </c>
-      <c r="Q149" s="23" t="s">
+      <c r="R149" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="R149" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S149" s="109" t="s">
+      <c r="S149" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T149" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="65" t="s">
         <v>46</v>
       </c>
@@ -8345,33 +8534,34 @@
         <v>336</v>
       </c>
       <c r="F150" s="95"/>
-      <c r="G150" s="95"/>
+      <c r="G150" s="130"/>
       <c r="H150" s="95"/>
       <c r="I150" s="95"/>
       <c r="J150" s="95"/>
       <c r="K150" s="95"/>
       <c r="L150" s="95"/>
       <c r="M150" s="95"/>
-      <c r="N150" s="97" t="s">
+      <c r="N150" s="95"/>
+      <c r="O150" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="O150" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="P150" s="109" t="s">
+      <c r="P150" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q150" s="109" t="s">
         <v>340</v>
       </c>
-      <c r="Q150" s="23" t="s">
+      <c r="R150" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R150" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S150" s="109" t="s">
+      <c r="S150" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T150" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A151" s="65" t="s">
         <v>46</v>
       </c>
@@ -8386,33 +8576,34 @@
         <v>337</v>
       </c>
       <c r="F151" s="95"/>
-      <c r="G151" s="95"/>
+      <c r="G151" s="130"/>
       <c r="H151" s="95"/>
       <c r="I151" s="95"/>
       <c r="J151" s="95"/>
       <c r="K151" s="95"/>
       <c r="L151" s="95"/>
       <c r="M151" s="95"/>
-      <c r="N151" s="97" t="s">
+      <c r="N151" s="95"/>
+      <c r="O151" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="O151" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="P151" s="109" t="s">
+      <c r="P151" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q151" s="109" t="s">
         <v>339</v>
       </c>
-      <c r="Q151" s="23" t="s">
+      <c r="R151" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R151" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S151" s="109" t="s">
+      <c r="S151" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T151" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A152" s="65" t="s">
         <v>46</v>
       </c>
@@ -8427,33 +8618,34 @@
         <v>276</v>
       </c>
       <c r="F152" s="90"/>
-      <c r="G152" s="90"/>
+      <c r="G152" s="130"/>
       <c r="H152" s="90"/>
       <c r="I152" s="90"/>
       <c r="J152" s="90"/>
       <c r="K152" s="90"/>
       <c r="L152" s="90"/>
       <c r="M152" s="90"/>
-      <c r="N152" s="89" t="s">
+      <c r="N152" s="90"/>
+      <c r="O152" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O152" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P152" s="109" t="s">
+      <c r="P152" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q152" s="109" t="s">
         <v>341</v>
       </c>
-      <c r="Q152" s="23" t="s">
+      <c r="R152" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="R152" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S152" s="109" t="s">
+      <c r="S152" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T152" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A153" s="65" t="s">
         <v>46</v>
       </c>
@@ -8468,33 +8660,34 @@
         <v>278</v>
       </c>
       <c r="F153" s="90"/>
-      <c r="G153" s="90"/>
+      <c r="G153" s="130"/>
       <c r="H153" s="90"/>
       <c r="I153" s="90"/>
       <c r="J153" s="90"/>
       <c r="K153" s="90"/>
       <c r="L153" s="90"/>
       <c r="M153" s="90"/>
-      <c r="N153" s="89" t="s">
+      <c r="N153" s="90"/>
+      <c r="O153" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O153" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P153" s="109" t="s">
+      <c r="P153" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q153" s="109" t="s">
         <v>341</v>
       </c>
-      <c r="Q153" s="23" t="s">
+      <c r="R153" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="R153" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S153" s="109" t="s">
+      <c r="S153" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T153" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A154" s="65" t="s">
         <v>46</v>
       </c>
@@ -8509,33 +8702,34 @@
         <v>279</v>
       </c>
       <c r="F154" s="90"/>
-      <c r="G154" s="90"/>
+      <c r="G154" s="130"/>
       <c r="H154" s="90"/>
       <c r="I154" s="90"/>
       <c r="J154" s="90"/>
       <c r="K154" s="90"/>
       <c r="L154" s="90"/>
       <c r="M154" s="90"/>
-      <c r="N154" s="89" t="s">
+      <c r="N154" s="90"/>
+      <c r="O154" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O154" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P154" s="109" t="s">
+      <c r="P154" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q154" s="109" t="s">
         <v>341</v>
       </c>
-      <c r="Q154" s="23" t="s">
+      <c r="R154" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="R154" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S154" s="109" t="s">
+      <c r="S154" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T154" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A155" s="65" t="s">
         <v>46</v>
       </c>
@@ -8550,33 +8744,34 @@
         <v>281</v>
       </c>
       <c r="F155" s="90"/>
-      <c r="G155" s="90"/>
+      <c r="G155" s="130"/>
       <c r="H155" s="90"/>
       <c r="I155" s="90"/>
       <c r="J155" s="90"/>
       <c r="K155" s="90"/>
       <c r="L155" s="90"/>
       <c r="M155" s="90"/>
-      <c r="N155" s="89" t="s">
+      <c r="N155" s="90"/>
+      <c r="O155" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O155" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P155" s="109" t="s">
+      <c r="P155" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q155" s="109" t="s">
         <v>342</v>
       </c>
-      <c r="Q155" s="23" t="s">
+      <c r="R155" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="R155" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S155" s="109" t="s">
+      <c r="S155" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T155" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="96" t="s">
         <v>45</v>
       </c>
@@ -8591,33 +8786,34 @@
         <v>344</v>
       </c>
       <c r="F157" s="95"/>
-      <c r="G157" s="95"/>
+      <c r="G157" s="130"/>
       <c r="H157" s="95"/>
       <c r="I157" s="95"/>
       <c r="J157" s="95"/>
       <c r="K157" s="95"/>
       <c r="L157" s="95"/>
       <c r="M157" s="95"/>
-      <c r="N157" s="97" t="s">
+      <c r="N157" s="95"/>
+      <c r="O157" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="O157" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="P157" s="110" t="s">
+      <c r="P157" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q157" s="110" t="s">
         <v>345</v>
       </c>
-      <c r="Q157" s="23" t="s">
+      <c r="R157" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R157" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S157" s="109" t="s">
+      <c r="S157" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T157" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="96" t="s">
         <v>45</v>
       </c>
@@ -8632,33 +8828,34 @@
         <v>348</v>
       </c>
       <c r="F158" s="95"/>
-      <c r="G158" s="95"/>
+      <c r="G158" s="130"/>
       <c r="H158" s="95"/>
       <c r="I158" s="95"/>
       <c r="J158" s="95"/>
       <c r="K158" s="95"/>
       <c r="L158" s="95"/>
       <c r="M158" s="95"/>
-      <c r="N158" s="97" t="s">
+      <c r="N158" s="95"/>
+      <c r="O158" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="O158" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="P158" s="110" t="s">
+      <c r="P158" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q158" s="110" t="s">
         <v>346</v>
       </c>
-      <c r="Q158" s="23" t="s">
+      <c r="R158" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R158" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S158" s="109" t="s">
+      <c r="S158" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T158" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A160" s="65" t="s">
         <v>45</v>
       </c>
@@ -8671,33 +8868,34 @@
         <v>282</v>
       </c>
       <c r="F160" s="90"/>
-      <c r="G160" s="90"/>
+      <c r="G160" s="130"/>
       <c r="H160" s="90"/>
       <c r="I160" s="90"/>
       <c r="J160" s="90"/>
       <c r="K160" s="90"/>
       <c r="L160" s="90"/>
       <c r="M160" s="90"/>
-      <c r="N160" s="89" t="s">
+      <c r="N160" s="90"/>
+      <c r="O160" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O160" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P160" s="109" t="s">
+      <c r="P160" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q160" s="109" t="s">
         <v>386</v>
       </c>
-      <c r="Q160" s="23" t="s">
+      <c r="R160" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R160" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="S160" s="109" t="s">
+      <c r="S160" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="T160" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A161" s="65" t="s">
         <v>45</v>
       </c>
@@ -8710,33 +8908,34 @@
         <v>283</v>
       </c>
       <c r="F161" s="90"/>
-      <c r="G161" s="90"/>
+      <c r="G161" s="130"/>
       <c r="H161" s="90"/>
       <c r="I161" s="90"/>
       <c r="J161" s="90"/>
       <c r="K161" s="90"/>
       <c r="L161" s="90"/>
       <c r="M161" s="90"/>
-      <c r="N161" s="89" t="s">
+      <c r="N161" s="90"/>
+      <c r="O161" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O161" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P161" s="109" t="s">
+      <c r="P161" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q161" s="109" t="s">
         <v>386</v>
       </c>
-      <c r="Q161" s="23" t="s">
+      <c r="R161" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R161" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="S161" s="109" t="s">
+      <c r="S161" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="T161" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="101.25" x14ac:dyDescent="0.25">
       <c r="A162" s="65" t="s">
         <v>46</v>
       </c>
@@ -8749,37 +8948,38 @@
         <v>283</v>
       </c>
       <c r="F162" s="90"/>
-      <c r="G162" s="111" t="s">
+      <c r="G162" s="130"/>
+      <c r="H162" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="H162" s="125" t="s">
+      <c r="I162" s="125" t="s">
         <v>386</v>
       </c>
-      <c r="I162" s="90"/>
       <c r="J162" s="90"/>
       <c r="K162" s="90"/>
       <c r="L162" s="90"/>
       <c r="M162" s="90"/>
-      <c r="N162" s="89" t="s">
+      <c r="N162" s="90"/>
+      <c r="O162" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O162" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P162" s="109" t="s">
+      <c r="P162" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q162" s="109" t="s">
         <v>386</v>
       </c>
-      <c r="Q162" s="23" t="s">
+      <c r="R162" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R162" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="S162" s="109" t="s">
+      <c r="S162" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="T162" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A163" s="91" t="s">
         <v>45</v>
       </c>
@@ -8794,33 +8994,34 @@
         <v>284</v>
       </c>
       <c r="F163" s="90"/>
-      <c r="G163" s="90"/>
+      <c r="G163" s="130"/>
       <c r="H163" s="90"/>
       <c r="I163" s="90"/>
       <c r="J163" s="90"/>
       <c r="K163" s="90"/>
       <c r="L163" s="90"/>
       <c r="M163" s="90"/>
-      <c r="N163" s="89" t="s">
+      <c r="N163" s="90"/>
+      <c r="O163" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O163" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P163" s="109" t="s">
+      <c r="P163" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q163" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q163" s="23" t="s">
+      <c r="R163" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R163" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S163" s="109" t="s">
+      <c r="S163" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T163" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A164" s="91" t="s">
         <v>45</v>
       </c>
@@ -8835,33 +9036,34 @@
         <v>285</v>
       </c>
       <c r="F164" s="90"/>
-      <c r="G164" s="90"/>
+      <c r="G164" s="130"/>
       <c r="H164" s="90"/>
       <c r="I164" s="90"/>
       <c r="J164" s="90"/>
       <c r="K164" s="90"/>
       <c r="L164" s="90"/>
       <c r="M164" s="90"/>
-      <c r="N164" s="89" t="s">
+      <c r="N164" s="90"/>
+      <c r="O164" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O164" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P164" s="109" t="s">
+      <c r="P164" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q164" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q164" s="23" t="s">
+      <c r="R164" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R164" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S164" s="109" t="s">
+      <c r="S164" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T164" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A165" s="91" t="s">
         <v>45</v>
       </c>
@@ -8876,33 +9078,34 @@
         <v>286</v>
       </c>
       <c r="F165" s="90"/>
-      <c r="G165" s="90"/>
+      <c r="G165" s="130"/>
       <c r="H165" s="90"/>
       <c r="I165" s="90"/>
       <c r="J165" s="90"/>
       <c r="K165" s="90"/>
       <c r="L165" s="90"/>
       <c r="M165" s="90"/>
-      <c r="N165" s="89" t="s">
+      <c r="N165" s="90"/>
+      <c r="O165" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O165" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P165" s="109" t="s">
+      <c r="P165" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q165" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q165" s="23" t="s">
+      <c r="R165" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R165" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S165" s="109" t="s">
+      <c r="S165" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T165" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A166" s="91" t="s">
         <v>45</v>
       </c>
@@ -8917,33 +9120,34 @@
         <v>288</v>
       </c>
       <c r="F166" s="90"/>
-      <c r="G166" s="90"/>
+      <c r="G166" s="130"/>
       <c r="H166" s="90"/>
       <c r="I166" s="90"/>
       <c r="J166" s="90"/>
       <c r="K166" s="90"/>
       <c r="L166" s="90"/>
       <c r="M166" s="90"/>
-      <c r="N166" s="89" t="s">
+      <c r="N166" s="90"/>
+      <c r="O166" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O166" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P166" s="109" t="s">
+      <c r="P166" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q166" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q166" s="23" t="s">
+      <c r="R166" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R166" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S166" s="109" t="s">
+      <c r="S166" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T166" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A167" s="91" t="s">
         <v>45</v>
       </c>
@@ -8958,33 +9162,34 @@
         <v>289</v>
       </c>
       <c r="F167" s="90"/>
-      <c r="G167" s="90"/>
+      <c r="G167" s="130"/>
       <c r="H167" s="90"/>
       <c r="I167" s="90"/>
       <c r="J167" s="90"/>
       <c r="K167" s="90"/>
       <c r="L167" s="90"/>
       <c r="M167" s="90"/>
-      <c r="N167" s="89" t="s">
+      <c r="N167" s="90"/>
+      <c r="O167" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O167" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P167" s="109" t="s">
+      <c r="P167" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q167" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q167" s="23" t="s">
+      <c r="R167" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R167" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S167" s="109" t="s">
+      <c r="S167" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T167" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A168" s="91" t="s">
         <v>45</v>
       </c>
@@ -8999,33 +9204,34 @@
         <v>290</v>
       </c>
       <c r="F168" s="90"/>
-      <c r="G168" s="90"/>
+      <c r="G168" s="130"/>
       <c r="H168" s="90"/>
       <c r="I168" s="90"/>
       <c r="J168" s="90"/>
       <c r="K168" s="90"/>
       <c r="L168" s="90"/>
       <c r="M168" s="90"/>
-      <c r="N168" s="89" t="s">
+      <c r="N168" s="90"/>
+      <c r="O168" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O168" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P168" s="109" t="s">
+      <c r="P168" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q168" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q168" s="23" t="s">
+      <c r="R168" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R168" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S168" s="109" t="s">
+      <c r="S168" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T168" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A169" s="65" t="s">
         <v>45</v>
       </c>
@@ -9040,33 +9246,34 @@
         <v>301</v>
       </c>
       <c r="F169" s="90"/>
-      <c r="G169" s="90"/>
+      <c r="G169" s="130"/>
       <c r="H169" s="90"/>
       <c r="I169" s="90"/>
       <c r="J169" s="90"/>
       <c r="K169" s="90"/>
       <c r="L169" s="90"/>
       <c r="M169" s="90"/>
-      <c r="N169" s="89" t="s">
+      <c r="N169" s="90"/>
+      <c r="O169" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O169" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P169" s="109" t="s">
+      <c r="P169" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q169" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q169" s="23" t="s">
+      <c r="R169" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R169" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S169" s="109" t="s">
+      <c r="S169" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T169" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A170" s="65" t="s">
         <v>45</v>
       </c>
@@ -9081,33 +9288,34 @@
         <v>303</v>
       </c>
       <c r="F170" s="90"/>
-      <c r="G170" s="90"/>
+      <c r="G170" s="130"/>
       <c r="H170" s="90"/>
       <c r="I170" s="90"/>
       <c r="J170" s="90"/>
       <c r="K170" s="90"/>
       <c r="L170" s="90"/>
       <c r="M170" s="90"/>
-      <c r="N170" s="89" t="s">
+      <c r="N170" s="90"/>
+      <c r="O170" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O170" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P170" s="109" t="s">
+      <c r="P170" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q170" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q170" s="23" t="s">
+      <c r="R170" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R170" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S170" s="109" t="s">
+      <c r="S170" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T170" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A171" s="65" t="s">
         <v>45</v>
       </c>
@@ -9122,33 +9330,34 @@
         <v>305</v>
       </c>
       <c r="F171" s="90"/>
-      <c r="G171" s="90"/>
+      <c r="G171" s="130"/>
       <c r="H171" s="90"/>
       <c r="I171" s="90"/>
       <c r="J171" s="90"/>
       <c r="K171" s="90"/>
       <c r="L171" s="90"/>
       <c r="M171" s="90"/>
-      <c r="N171" s="89" t="s">
+      <c r="N171" s="90"/>
+      <c r="O171" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O171" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P171" s="109" t="s">
+      <c r="P171" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q171" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q171" s="23" t="s">
+      <c r="R171" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R171" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S171" s="109" t="s">
+      <c r="S171" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T171" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A172" s="65" t="s">
         <v>45</v>
       </c>
@@ -9163,33 +9372,34 @@
         <v>291</v>
       </c>
       <c r="F172" s="90"/>
-      <c r="G172" s="90"/>
+      <c r="G172" s="130"/>
       <c r="H172" s="90"/>
       <c r="I172" s="90"/>
       <c r="J172" s="90"/>
       <c r="K172" s="90"/>
       <c r="L172" s="90"/>
       <c r="M172" s="90"/>
-      <c r="N172" s="89" t="s">
+      <c r="N172" s="90"/>
+      <c r="O172" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O172" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P172" s="109" t="s">
+      <c r="P172" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q172" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q172" s="23" t="s">
+      <c r="R172" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R172" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S172" s="109" t="s">
+      <c r="S172" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T172" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A173" s="65" t="s">
         <v>45</v>
       </c>
@@ -9204,33 +9414,34 @@
         <v>292</v>
       </c>
       <c r="F173" s="90"/>
-      <c r="G173" s="90"/>
+      <c r="G173" s="130"/>
       <c r="H173" s="90"/>
       <c r="I173" s="90"/>
       <c r="J173" s="90"/>
       <c r="K173" s="90"/>
       <c r="L173" s="90"/>
       <c r="M173" s="90"/>
-      <c r="N173" s="89" t="s">
+      <c r="N173" s="90"/>
+      <c r="O173" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O173" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P173" s="109" t="s">
+      <c r="P173" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q173" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q173" s="23" t="s">
+      <c r="R173" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R173" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S173" s="109" t="s">
+      <c r="S173" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T173" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A174" s="65" t="s">
         <v>45</v>
       </c>
@@ -9245,33 +9456,34 @@
         <v>293</v>
       </c>
       <c r="F174" s="90"/>
-      <c r="G174" s="90"/>
+      <c r="G174" s="130"/>
       <c r="H174" s="90"/>
       <c r="I174" s="90"/>
       <c r="J174" s="90"/>
       <c r="K174" s="90"/>
       <c r="L174" s="90"/>
       <c r="M174" s="90"/>
-      <c r="N174" s="89" t="s">
+      <c r="N174" s="90"/>
+      <c r="O174" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O174" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P174" s="109" t="s">
+      <c r="P174" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q174" s="109" t="s">
         <v>350</v>
       </c>
-      <c r="Q174" s="23" t="s">
+      <c r="R174" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R174" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S174" s="109" t="s">
+      <c r="S174" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T174" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A175" s="65" t="s">
         <v>45</v>
       </c>
@@ -9286,33 +9498,34 @@
         <v>295</v>
       </c>
       <c r="F175" s="90"/>
-      <c r="G175" s="90"/>
+      <c r="G175" s="130"/>
       <c r="H175" s="90"/>
       <c r="I175" s="90"/>
       <c r="J175" s="90"/>
       <c r="K175" s="90"/>
       <c r="L175" s="90"/>
       <c r="M175" s="90"/>
-      <c r="N175" s="89" t="s">
+      <c r="N175" s="90"/>
+      <c r="O175" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O175" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P175" s="109" t="s">
+      <c r="P175" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q175" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="Q175" s="23" t="s">
+      <c r="R175" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R175" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S175" s="109" t="s">
+      <c r="S175" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T175" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A176" s="65" t="s">
         <v>45</v>
       </c>
@@ -9327,33 +9540,34 @@
         <v>296</v>
       </c>
       <c r="F176" s="90"/>
-      <c r="G176" s="90"/>
+      <c r="G176" s="130"/>
       <c r="H176" s="90"/>
       <c r="I176" s="90"/>
       <c r="J176" s="90"/>
       <c r="K176" s="90"/>
       <c r="L176" s="90"/>
       <c r="M176" s="90"/>
-      <c r="N176" s="89" t="s">
+      <c r="N176" s="90"/>
+      <c r="O176" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O176" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P176" s="109" t="s">
+      <c r="P176" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q176" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="Q176" s="23" t="s">
+      <c r="R176" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R176" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S176" s="109" t="s">
+      <c r="S176" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="T176" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A177" s="65" t="s">
         <v>45</v>
       </c>
@@ -9368,33 +9582,34 @@
         <v>297</v>
       </c>
       <c r="F177" s="90"/>
-      <c r="G177" s="90"/>
+      <c r="G177" s="130"/>
       <c r="H177" s="90"/>
       <c r="I177" s="90"/>
       <c r="J177" s="90"/>
       <c r="K177" s="90"/>
       <c r="L177" s="90"/>
       <c r="M177" s="90"/>
-      <c r="N177" s="89" t="s">
+      <c r="N177" s="90"/>
+      <c r="O177" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O177" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P177" s="109" t="s">
+      <c r="P177" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q177" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="Q177" s="23" t="s">
+      <c r="R177" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R177" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="S177" s="109" t="s">
+      <c r="S177" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="T177" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A178" s="65" t="s">
         <v>45</v>
       </c>
@@ -9409,33 +9624,34 @@
         <v>298</v>
       </c>
       <c r="F178" s="90"/>
-      <c r="G178" s="90"/>
+      <c r="G178" s="130"/>
       <c r="H178" s="90"/>
       <c r="I178" s="90"/>
       <c r="J178" s="90"/>
       <c r="K178" s="90"/>
       <c r="L178" s="90"/>
       <c r="M178" s="90"/>
-      <c r="N178" s="89" t="s">
+      <c r="N178" s="90"/>
+      <c r="O178" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O178" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P178" s="109" t="s">
+      <c r="P178" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q178" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="Q178" s="23" t="s">
+      <c r="R178" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R178" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="S178" s="109" t="s">
+      <c r="S178" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="T178" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A179" s="65" t="s">
         <v>45</v>
       </c>
@@ -9450,33 +9666,34 @@
         <v>302</v>
       </c>
       <c r="F179" s="90"/>
-      <c r="G179" s="90"/>
+      <c r="G179" s="130"/>
       <c r="H179" s="90"/>
       <c r="I179" s="90"/>
       <c r="J179" s="90"/>
       <c r="K179" s="90"/>
       <c r="L179" s="90"/>
       <c r="M179" s="90"/>
-      <c r="N179" s="89" t="s">
+      <c r="N179" s="90"/>
+      <c r="O179" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O179" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P179" s="109" t="s">
+      <c r="P179" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q179" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="Q179" s="23" t="s">
+      <c r="R179" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R179" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="S179" s="109" t="s">
+      <c r="S179" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="T179" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A180" s="65" t="s">
         <v>45</v>
       </c>
@@ -9491,33 +9708,34 @@
         <v>304</v>
       </c>
       <c r="F180" s="90"/>
-      <c r="G180" s="90"/>
+      <c r="G180" s="130"/>
       <c r="H180" s="90"/>
       <c r="I180" s="90"/>
       <c r="J180" s="90"/>
       <c r="K180" s="90"/>
       <c r="L180" s="90"/>
       <c r="M180" s="90"/>
-      <c r="N180" s="89" t="s">
+      <c r="N180" s="90"/>
+      <c r="O180" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O180" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P180" s="109" t="s">
+      <c r="P180" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q180" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="Q180" s="23" t="s">
+      <c r="R180" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R180" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="S180" s="109" t="s">
+      <c r="S180" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="T180" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A181" s="65" t="s">
         <v>45</v>
       </c>
@@ -9532,160 +9750,61 @@
         <v>306</v>
       </c>
       <c r="F181" s="90"/>
-      <c r="G181" s="90"/>
+      <c r="G181" s="130"/>
       <c r="H181" s="90"/>
       <c r="I181" s="90"/>
       <c r="J181" s="90"/>
       <c r="K181" s="90"/>
       <c r="L181" s="90"/>
       <c r="M181" s="90"/>
-      <c r="N181" s="89" t="s">
+      <c r="N181" s="90"/>
+      <c r="O181" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O181" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P181" s="109" t="s">
+      <c r="P181" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q181" s="109" t="s">
         <v>351</v>
       </c>
-      <c r="Q181" s="23" t="s">
+      <c r="R181" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R181" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="S181" s="109" t="s">
+      <c r="S181" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="T181" s="109" t="s">
         <v>356</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="S121:S124"/>
-    <mergeCell ref="S126:S129"/>
-    <mergeCell ref="P116:P117"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="D89:D96"/>
-    <mergeCell ref="D97:D104"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="L126:L129"/>
-    <mergeCell ref="M126:M129"/>
-    <mergeCell ref="N126:N129"/>
-    <mergeCell ref="P126:P129"/>
-    <mergeCell ref="Q126:Q129"/>
-    <mergeCell ref="N121:N124"/>
-    <mergeCell ref="P121:P124"/>
-    <mergeCell ref="Q121:Q124"/>
-    <mergeCell ref="I121:I124"/>
-    <mergeCell ref="M121:M124"/>
-    <mergeCell ref="P89:P96"/>
-    <mergeCell ref="G89:G96"/>
-    <mergeCell ref="M97:M104"/>
-    <mergeCell ref="Q89:Q96"/>
-    <mergeCell ref="L121:L124"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="G97:G104"/>
-    <mergeCell ref="H97:H104"/>
-    <mergeCell ref="J97:J104"/>
-    <mergeCell ref="K97:K104"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="J121:J124"/>
-    <mergeCell ref="K121:K124"/>
-    <mergeCell ref="L97:L104"/>
-    <mergeCell ref="N97:N104"/>
-    <mergeCell ref="P97:P104"/>
-    <mergeCell ref="Q97:Q104"/>
-    <mergeCell ref="I99:I104"/>
-    <mergeCell ref="H89:H96"/>
-    <mergeCell ref="J89:J96"/>
-    <mergeCell ref="K89:K96"/>
-    <mergeCell ref="L89:L96"/>
-    <mergeCell ref="N89:N96"/>
-    <mergeCell ref="I91:I96"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="Q13:Q20"/>
-    <mergeCell ref="H5:H12"/>
-    <mergeCell ref="H13:H20"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="Q5:Q12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="M7:M12"/>
+    <mergeCell ref="Q85:Q86"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="T89:T96"/>
+    <mergeCell ref="R60:R67"/>
+    <mergeCell ref="J62:J67"/>
+    <mergeCell ref="O68:O75"/>
+    <mergeCell ref="Q68:Q75"/>
+    <mergeCell ref="R68:R75"/>
+    <mergeCell ref="N68:N75"/>
+    <mergeCell ref="K60:K67"/>
+    <mergeCell ref="L60:L67"/>
+    <mergeCell ref="M60:M67"/>
     <mergeCell ref="N35:N42"/>
-    <mergeCell ref="P35:P42"/>
-    <mergeCell ref="Q35:Q42"/>
-    <mergeCell ref="P43:P50"/>
-    <mergeCell ref="Q43:Q50"/>
-    <mergeCell ref="N60:N67"/>
-    <mergeCell ref="P60:P67"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="L43:L50"/>
     <mergeCell ref="N43:N50"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="H43:H50"/>
-    <mergeCell ref="J43:J50"/>
-    <mergeCell ref="I45:I50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="K43:K50"/>
+    <mergeCell ref="H68:H75"/>
+    <mergeCell ref="I68:I75"/>
+    <mergeCell ref="K68:K75"/>
+    <mergeCell ref="L68:L75"/>
+    <mergeCell ref="M68:M75"/>
+    <mergeCell ref="J70:J75"/>
+    <mergeCell ref="H35:H42"/>
+    <mergeCell ref="I35:I42"/>
     <mergeCell ref="K35:K42"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M60:M67"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="M35:M42"/>
+    <mergeCell ref="H60:H67"/>
+    <mergeCell ref="I60:I67"/>
     <mergeCell ref="A85:A86"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="C85:C86"/>
@@ -9700,36 +9819,136 @@
     <mergeCell ref="B68:B75"/>
     <mergeCell ref="C68:C75"/>
     <mergeCell ref="E68:E75"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="H68:H75"/>
-    <mergeCell ref="J68:J75"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="L68:L75"/>
-    <mergeCell ref="I70:I75"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="H35:H42"/>
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="L35:L42"/>
     <mergeCell ref="D43:D50"/>
     <mergeCell ref="D60:D67"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="S89:S96"/>
+    <mergeCell ref="E60:E67"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="N60:N67"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="O35:O42"/>
+    <mergeCell ref="Q35:Q42"/>
+    <mergeCell ref="R35:R42"/>
+    <mergeCell ref="Q43:Q50"/>
+    <mergeCell ref="R43:R50"/>
+    <mergeCell ref="O60:O67"/>
     <mergeCell ref="Q60:Q67"/>
-    <mergeCell ref="I62:I67"/>
-    <mergeCell ref="N68:N75"/>
-    <mergeCell ref="P68:P75"/>
-    <mergeCell ref="Q68:Q75"/>
-    <mergeCell ref="M68:M75"/>
-    <mergeCell ref="E60:E67"/>
-    <mergeCell ref="G60:G67"/>
-    <mergeCell ref="H60:H67"/>
-    <mergeCell ref="J60:J67"/>
-    <mergeCell ref="K60:K67"/>
-    <mergeCell ref="L60:L67"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="M35:M42"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="H13:H20"/>
+    <mergeCell ref="J15:J20"/>
     <mergeCell ref="M43:M50"/>
+    <mergeCell ref="O43:O50"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="H43:H50"/>
+    <mergeCell ref="I43:I50"/>
+    <mergeCell ref="K43:K50"/>
+    <mergeCell ref="J45:J50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="L43:L50"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="R13:R20"/>
+    <mergeCell ref="I5:I12"/>
+    <mergeCell ref="I13:I20"/>
+    <mergeCell ref="Q5:Q12"/>
+    <mergeCell ref="Q13:Q20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="R5:R12"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="N7:N12"/>
+    <mergeCell ref="M97:M104"/>
+    <mergeCell ref="O97:O104"/>
+    <mergeCell ref="Q97:Q104"/>
+    <mergeCell ref="R97:R104"/>
+    <mergeCell ref="J99:J104"/>
+    <mergeCell ref="I89:I96"/>
+    <mergeCell ref="K89:K96"/>
+    <mergeCell ref="L89:L96"/>
+    <mergeCell ref="M89:M96"/>
+    <mergeCell ref="O89:O96"/>
+    <mergeCell ref="J91:J96"/>
+    <mergeCell ref="H97:H104"/>
+    <mergeCell ref="I97:I104"/>
+    <mergeCell ref="K97:K104"/>
+    <mergeCell ref="L97:L104"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="I121:I124"/>
+    <mergeCell ref="K121:K124"/>
+    <mergeCell ref="L121:L124"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="M121:M124"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
+    <mergeCell ref="L126:L129"/>
+    <mergeCell ref="T121:T124"/>
+    <mergeCell ref="T126:T129"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D89:D96"/>
+    <mergeCell ref="D97:D104"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="M126:M129"/>
+    <mergeCell ref="N126:N129"/>
+    <mergeCell ref="O126:O129"/>
+    <mergeCell ref="Q126:Q129"/>
+    <mergeCell ref="R126:R129"/>
+    <mergeCell ref="O121:O124"/>
+    <mergeCell ref="Q121:Q124"/>
+    <mergeCell ref="R121:R124"/>
+    <mergeCell ref="J121:J124"/>
+    <mergeCell ref="N121:N124"/>
+    <mergeCell ref="Q89:Q96"/>
+    <mergeCell ref="H89:H96"/>
+    <mergeCell ref="N97:N104"/>
+    <mergeCell ref="R89:R96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9832,29 +10051,29 @@
       <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="148" t="s">
+      <c r="C6" s="147"/>
+      <c r="D6" s="175" t="s">
         <v>249</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="149" t="s">
+      <c r="F6" s="156" t="s">
         <v>251</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="160" t="s">
         <v>120</v>
       </c>
       <c r="J6" s="20" t="s">
@@ -9862,155 +10081,155 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="144"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="148"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="H7" s="130"/>
-      <c r="I7" s="139"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="169"/>
       <c r="J7" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="144"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="148"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="156"/>
       <c r="G8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="139"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="169"/>
       <c r="J8" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="148"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="149"/>
+      <c r="F9" s="156"/>
       <c r="G9" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="130"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="169"/>
       <c r="J9" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="144"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="148"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="149"/>
+      <c r="F10" s="156"/>
       <c r="G10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="139"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="169"/>
       <c r="J10" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="144"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="148"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="149"/>
+      <c r="F11" s="156"/>
       <c r="G11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="139"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="169"/>
       <c r="J11" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="148"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="175"/>
       <c r="E12" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="149"/>
+      <c r="F12" s="156"/>
       <c r="G12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="139"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="169"/>
       <c r="J12" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="148"/>
+      <c r="A13" s="171"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="149"/>
+      <c r="F13" s="156"/>
       <c r="G13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="140"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="170"/>
       <c r="J13" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="148" t="s">
+      <c r="C14" s="147"/>
+      <c r="D14" s="175" t="s">
         <v>255</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="F14" s="156" t="s">
         <v>251</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H14" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="138" t="s">
+      <c r="I14" s="160" t="s">
         <v>120</v>
       </c>
       <c r="J14" s="20" t="s">
@@ -10018,155 +10237,155 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="148"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="149"/>
+      <c r="F15" s="156"/>
       <c r="G15" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="H15" s="130"/>
-      <c r="I15" s="139"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="169"/>
       <c r="J15" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="148"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="175"/>
       <c r="E16" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="149"/>
+      <c r="F16" s="156"/>
       <c r="G16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="130"/>
-      <c r="I16" s="139"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="169"/>
       <c r="J16" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="148"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="149"/>
+      <c r="F17" s="156"/>
       <c r="G17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="130"/>
-      <c r="I17" s="139"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="169"/>
       <c r="J17" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="148"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="149"/>
+      <c r="F18" s="156"/>
       <c r="G18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="130"/>
-      <c r="I18" s="139"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="169"/>
       <c r="J18" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="148"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="149"/>
+      <c r="F19" s="156"/>
       <c r="G19" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="130"/>
-      <c r="I19" s="139"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="169"/>
       <c r="J19" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="148"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="175"/>
       <c r="E20" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="149"/>
+      <c r="F20" s="156"/>
       <c r="G20" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="130"/>
-      <c r="I20" s="139"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="169"/>
       <c r="J20" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="144"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="148"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="175"/>
       <c r="E21" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="149"/>
+      <c r="F21" s="156"/>
       <c r="G21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="130"/>
-      <c r="I21" s="140"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="170"/>
       <c r="J21" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="148" t="s">
+      <c r="C22" s="147"/>
+      <c r="D22" s="175" t="s">
         <v>256</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="149" t="s">
+      <c r="F22" s="156" t="s">
         <v>251</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="130" t="s">
+      <c r="H22" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="138" t="s">
+      <c r="I22" s="160" t="s">
         <v>120</v>
       </c>
       <c r="J22" s="20" t="s">
@@ -10174,137 +10393,137 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="144"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="148"/>
+      <c r="A23" s="171"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="175"/>
       <c r="E23" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="149"/>
+      <c r="F23" s="156"/>
       <c r="G23" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="130"/>
-      <c r="I23" s="139"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="169"/>
       <c r="J23" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="144"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="148"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="175"/>
       <c r="E24" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="149"/>
+      <c r="F24" s="156"/>
       <c r="G24" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="130"/>
-      <c r="I24" s="139"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="169"/>
       <c r="J24" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="144"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="148"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="149"/>
+      <c r="F25" s="156"/>
       <c r="G25" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="130"/>
-      <c r="I25" s="139"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="169"/>
       <c r="J25" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="144"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="148"/>
+      <c r="A26" s="171"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="149"/>
+      <c r="F26" s="156"/>
       <c r="G26" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="130"/>
-      <c r="I26" s="139"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="169"/>
       <c r="J26" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="144"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="148"/>
+      <c r="A27" s="171"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="149"/>
+      <c r="F27" s="156"/>
       <c r="G27" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="130"/>
-      <c r="I27" s="139"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="169"/>
       <c r="J27" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="144"/>
-      <c r="B28" s="147"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="148"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="175"/>
       <c r="E28" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="149"/>
+      <c r="F28" s="156"/>
       <c r="G28" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="130"/>
-      <c r="I28" s="140"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="170"/>
       <c r="J28" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="171" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="176" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="148" t="s">
+      <c r="C29" s="147"/>
+      <c r="D29" s="175" t="s">
         <v>257</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="149" t="s">
+      <c r="F29" s="156" t="s">
         <v>251</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="130" t="s">
+      <c r="H29" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="I29" s="138" t="s">
+      <c r="I29" s="160" t="s">
         <v>120</v>
       </c>
       <c r="J29" s="20" t="s">
@@ -10312,120 +10531,122 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="144"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="148"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="175"/>
       <c r="E30" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="149"/>
+      <c r="F30" s="156"/>
       <c r="G30" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="130"/>
-      <c r="I30" s="139"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="169"/>
       <c r="J30" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="144"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="148"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="175"/>
       <c r="E31" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="149"/>
+      <c r="F31" s="156"/>
       <c r="G31" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="130"/>
-      <c r="I31" s="139"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="169"/>
       <c r="J31" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="144"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="148"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="149"/>
+      <c r="F32" s="156"/>
       <c r="G32" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="130"/>
-      <c r="I32" s="139"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="169"/>
       <c r="J32" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="144"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="148"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="149"/>
+      <c r="F33" s="156"/>
       <c r="G33" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="130"/>
-      <c r="I33" s="139"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="169"/>
       <c r="J33" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="144"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="148"/>
+      <c r="A34" s="171"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="149"/>
+      <c r="F34" s="156"/>
       <c r="G34" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="130"/>
-      <c r="I34" s="139"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="169"/>
       <c r="J34" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="144"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="148"/>
+      <c r="A35" s="171"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="175"/>
       <c r="E35" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="149"/>
+      <c r="F35" s="156"/>
       <c r="G35" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="130"/>
-      <c r="I35" s="140"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="170"/>
       <c r="J35" s="20" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D6:D13"/>
     <mergeCell ref="H29:H35"/>
     <mergeCell ref="I29:I35"/>
     <mergeCell ref="A14:A21"/>
@@ -10442,13 +10663,11 @@
     <mergeCell ref="I14:I21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="B22:B28"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="F22:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -13222,17 +13441,17 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="203" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="193"/>
-      <c r="G2" s="191" t="s">
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="205"/>
+      <c r="G2" s="203" t="s">
         <v>370</v>
       </c>
-      <c r="H2" s="192"/>
-      <c r="I2" s="193"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="205"/>
     </row>
     <row r="3" spans="2:9" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="94" t="s">

--- a/doc/LS_Overview.xlsx
+++ b/doc/LS_Overview.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="387">
   <si>
     <t>Vocab</t>
   </si>
@@ -2512,20 +2512,12 @@
  "group": "getty"
 }]</t>
   </si>
-  <si>
-    <t>/dump/repository/:id</t>
-  </si>
-  <si>
-    <t>{
- "file": "some file"
-}</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2626,30 +2618,6 @@
       <color theme="1"/>
       <name val="Open Sans"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2835,7 +2803,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3121,21 +3089,195 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3147,230 +3289,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3674,13 +3599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S181"/>
+  <dimension ref="A1:S180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="O134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,49 +3704,49 @@
       <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="148" t="s">
+      <c r="D5" s="124"/>
+      <c r="E5" s="144" t="s">
         <v>88</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J5" s="153" t="s">
+      <c r="J5" s="161" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="153" t="s">
+      <c r="K5" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="L5" s="153" t="s">
+      <c r="L5" s="161" t="s">
         <v>109</v>
       </c>
       <c r="M5" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="N5" s="149" t="s">
+      <c r="N5" s="133" t="s">
         <v>97</v>
       </c>
       <c r="O5" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="171" t="s">
+      <c r="P5" s="150" t="s">
         <v>359</v>
       </c>
-      <c r="Q5" s="138" t="s">
+      <c r="Q5" s="137" t="s">
         <v>108</v>
       </c>
       <c r="R5" s="20" t="s">
@@ -3829,225 +3754,225 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="144"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="148"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
       <c r="I6" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="162"/>
       <c r="M6" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="N6" s="149"/>
+      <c r="N6" s="133"/>
       <c r="O6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="139"/>
+      <c r="P6" s="151"/>
+      <c r="Q6" s="153"/>
       <c r="R6" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="144"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="148"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="149"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="133"/>
       <c r="O7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="139"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="153"/>
       <c r="R7" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="144"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="148"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="144"/>
       <c r="F8" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="149"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="133"/>
       <c r="O8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="172"/>
-      <c r="Q8" s="139"/>
+      <c r="P8" s="151"/>
+      <c r="Q8" s="153"/>
       <c r="R8" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="148"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="144"/>
       <c r="F9" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="149"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="133"/>
       <c r="O9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="139"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="153"/>
       <c r="R9" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="144"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="148"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="144"/>
       <c r="F10" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="149"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="156"/>
+      <c r="N10" s="133"/>
       <c r="O10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="172"/>
-      <c r="Q10" s="139"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="153"/>
       <c r="R10" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="144"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="148"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="144"/>
       <c r="F11" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="149"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="156"/>
+      <c r="N11" s="133"/>
       <c r="O11" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="139"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="153"/>
       <c r="R11" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="148"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="144"/>
       <c r="F12" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="149"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="133"/>
       <c r="O12" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="140"/>
+      <c r="P12" s="152"/>
+      <c r="Q12" s="154"/>
       <c r="R12" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="144" t="s">
+      <c r="A13" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="148" t="s">
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="144" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="149" t="s">
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="133" t="s">
         <v>97</v>
       </c>
       <c r="O13" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P13" s="173" t="s">
+      <c r="P13" s="122" t="s">
         <v>374</v>
       </c>
-      <c r="Q13" s="138" t="s">
+      <c r="Q13" s="137" t="s">
         <v>108</v>
       </c>
       <c r="R13" s="20" t="s">
@@ -4055,185 +3980,185 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="144"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="148"/>
+      <c r="A14" s="140"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="144"/>
       <c r="F14" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="130"/>
-      <c r="M14" s="130"/>
-      <c r="N14" s="149"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="133"/>
       <c r="O14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="139"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="153"/>
       <c r="R14" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="148"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="144"/>
       <c r="F15" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="149"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="133"/>
       <c r="O15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="139"/>
+      <c r="P15" s="163"/>
+      <c r="Q15" s="153"/>
       <c r="R15" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="148"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="149"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="133"/>
       <c r="O16" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="139"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="153"/>
       <c r="R16" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="148"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="149"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="133"/>
       <c r="O17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="174"/>
-      <c r="Q17" s="139"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="153"/>
       <c r="R17" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="148"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="144"/>
       <c r="F18" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="149"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="133"/>
       <c r="O18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="139"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="153"/>
       <c r="R18" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="148"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="144"/>
       <c r="F19" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="149"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="133"/>
       <c r="O19" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="174"/>
-      <c r="Q19" s="139"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="153"/>
       <c r="R19" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="148"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="144"/>
       <c r="F20" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="149"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="133"/>
       <c r="O20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="140"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="154"/>
       <c r="R20" s="20" t="s">
         <v>89</v>
       </c>
@@ -4548,7 +4473,7 @@
       <c r="G29" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H29" s="125" t="s">
+      <c r="H29" s="183" t="s">
         <v>378</v>
       </c>
       <c r="I29" s="19"/>
@@ -4592,7 +4517,7 @@
       <c r="G30" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="126" t="s">
+      <c r="H30" s="184" t="s">
         <v>375</v>
       </c>
       <c r="I30" s="19"/>
@@ -4617,26 +4542,26 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="155" t="s">
+      <c r="A31" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="157" t="s">
+      <c r="B31" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="159" t="s">
+      <c r="C31" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="D31" s="159" t="s">
+      <c r="D31" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="161" t="s">
+      <c r="E31" s="168" t="s">
         <v>241</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H31" s="125" t="s">
+      <c r="H31" s="183" t="s">
         <v>378</v>
       </c>
       <c r="I31" s="19"/>
@@ -4650,7 +4575,7 @@
       <c r="O31" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="P31" s="134" t="s">
+      <c r="P31" s="181" t="s">
         <v>375</v>
       </c>
       <c r="Q31" s="23" t="s">
@@ -4661,16 +4586,16 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="156"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="162"/>
+      <c r="A32" s="167"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="152"/>
       <c r="F32" s="45"/>
       <c r="G32" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="125" t="s">
+      <c r="H32" s="183" t="s">
         <v>380</v>
       </c>
       <c r="I32" s="45"/>
@@ -4684,7 +4609,7 @@
       <c r="O32" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="P32" s="135"/>
+      <c r="P32" s="182"/>
       <c r="Q32" s="23" t="s">
         <v>120</v>
       </c>
@@ -4733,39 +4658,39 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="144" t="s">
+      <c r="A35" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="148" t="s">
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="144" t="s">
         <v>135</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
       <c r="I35" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="149" t="s">
+      <c r="J35" s="165"/>
+      <c r="K35" s="165"/>
+      <c r="L35" s="165"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="133" t="s">
         <v>97</v>
       </c>
       <c r="O35" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P35" s="166" t="s">
+      <c r="P35" s="173" t="s">
         <v>359</v>
       </c>
-      <c r="Q35" s="138" t="s">
+      <c r="Q35" s="137" t="s">
         <v>108</v>
       </c>
       <c r="R35" s="20" t="s">
@@ -4773,223 +4698,223 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="144"/>
-      <c r="B36" s="165"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="148"/>
+      <c r="A36" s="140"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="144"/>
       <c r="F36" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
       <c r="I36" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="149"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
+      <c r="M36" s="124"/>
+      <c r="N36" s="133"/>
       <c r="O36" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P36" s="167"/>
-      <c r="Q36" s="139"/>
+      <c r="P36" s="174"/>
+      <c r="Q36" s="153"/>
       <c r="R36" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="144"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="148"/>
+      <c r="A37" s="140"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="144"/>
       <c r="F37" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="130"/>
-      <c r="H37" s="130"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="130"/>
-      <c r="K37" s="130"/>
-      <c r="L37" s="130"/>
-      <c r="M37" s="130"/>
-      <c r="N37" s="149"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
+      <c r="M37" s="124"/>
+      <c r="N37" s="133"/>
       <c r="O37" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P37" s="167"/>
-      <c r="Q37" s="139"/>
+      <c r="P37" s="174"/>
+      <c r="Q37" s="153"/>
       <c r="R37" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="144"/>
-      <c r="B38" s="165"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="148"/>
+      <c r="A38" s="140"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="144"/>
       <c r="F38" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="130"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="149"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="133"/>
       <c r="O38" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P38" s="167"/>
-      <c r="Q38" s="139"/>
+      <c r="P38" s="174"/>
+      <c r="Q38" s="153"/>
       <c r="R38" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="144"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="148"/>
+      <c r="A39" s="140"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="144"/>
       <c r="F39" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="149"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="133"/>
       <c r="O39" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P39" s="167"/>
-      <c r="Q39" s="139"/>
+      <c r="P39" s="174"/>
+      <c r="Q39" s="153"/>
       <c r="R39" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="144"/>
-      <c r="B40" s="165"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="148"/>
+      <c r="A40" s="140"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="144"/>
       <c r="F40" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="149"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="133"/>
       <c r="O40" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P40" s="167"/>
-      <c r="Q40" s="139"/>
+      <c r="P40" s="174"/>
+      <c r="Q40" s="153"/>
       <c r="R40" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="144"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="148"/>
+      <c r="A41" s="140"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="144"/>
       <c r="F41" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="149"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="133"/>
       <c r="O41" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P41" s="167"/>
-      <c r="Q41" s="139"/>
+      <c r="P41" s="174"/>
+      <c r="Q41" s="153"/>
       <c r="R41" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="144"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="148"/>
+      <c r="A42" s="140"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="144"/>
       <c r="F42" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G42" s="130"/>
-      <c r="H42" s="130"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
-      <c r="L42" s="130"/>
-      <c r="M42" s="130"/>
-      <c r="N42" s="149"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="133"/>
       <c r="O42" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P42" s="168"/>
-      <c r="Q42" s="140"/>
+      <c r="P42" s="175"/>
+      <c r="Q42" s="154"/>
       <c r="R42" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="144" t="s">
+      <c r="A43" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="165" t="s">
+      <c r="B43" s="164" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="148" t="s">
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="144" t="s">
         <v>136</v>
       </c>
       <c r="F43" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
       <c r="I43" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J43" s="130"/>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="149" t="s">
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="133" t="s">
         <v>97</v>
       </c>
       <c r="O43" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P43" s="150" t="s">
+      <c r="P43" s="119" t="s">
         <v>373</v>
       </c>
-      <c r="Q43" s="138" t="s">
+      <c r="Q43" s="137" t="s">
         <v>108</v>
       </c>
       <c r="R43" s="20" t="s">
@@ -4997,185 +4922,185 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="144"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="130"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="148"/>
+      <c r="A44" s="140"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="144"/>
       <c r="F44" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
       <c r="I44" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="149"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="133"/>
       <c r="O44" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P44" s="169"/>
-      <c r="Q44" s="139"/>
+      <c r="P44" s="120"/>
+      <c r="Q44" s="153"/>
       <c r="R44" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="144"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="148"/>
+      <c r="A45" s="140"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="144"/>
       <c r="F45" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="130"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="130"/>
-      <c r="N45" s="149"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="124"/>
+      <c r="N45" s="133"/>
       <c r="O45" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P45" s="169"/>
-      <c r="Q45" s="139"/>
+      <c r="P45" s="120"/>
+      <c r="Q45" s="153"/>
       <c r="R45" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="144"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="148"/>
+      <c r="A46" s="140"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="144"/>
       <c r="F46" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="149"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="133"/>
       <c r="O46" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P46" s="169"/>
-      <c r="Q46" s="139"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="153"/>
       <c r="R46" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="144"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="148"/>
+      <c r="A47" s="140"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="144"/>
       <c r="F47" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="130"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="149"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="133"/>
       <c r="O47" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P47" s="169"/>
-      <c r="Q47" s="139"/>
+      <c r="P47" s="120"/>
+      <c r="Q47" s="153"/>
       <c r="R47" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="144"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="148"/>
+      <c r="A48" s="140"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="144"/>
       <c r="F48" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="149"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="133"/>
       <c r="O48" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P48" s="169"/>
-      <c r="Q48" s="139"/>
+      <c r="P48" s="120"/>
+      <c r="Q48" s="153"/>
       <c r="R48" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="144"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="148"/>
+      <c r="A49" s="140"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="144"/>
       <c r="F49" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="149"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="133"/>
       <c r="O49" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P49" s="169"/>
-      <c r="Q49" s="139"/>
+      <c r="P49" s="120"/>
+      <c r="Q49" s="153"/>
       <c r="R49" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="144"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="148"/>
+      <c r="A50" s="140"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="144"/>
       <c r="F50" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="143"/>
-      <c r="J50" s="130"/>
-      <c r="K50" s="130"/>
-      <c r="L50" s="130"/>
-      <c r="M50" s="130"/>
-      <c r="N50" s="149"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="124"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="133"/>
       <c r="O50" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P50" s="170"/>
-      <c r="Q50" s="140"/>
+      <c r="P50" s="121"/>
+      <c r="Q50" s="154"/>
       <c r="R50" s="20" t="s">
         <v>89</v>
       </c>
@@ -5475,41 +5400,41 @@
       </c>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="144" t="s">
+      <c r="A60" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B60" s="145" t="s">
+      <c r="B60" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="148" t="s">
+      <c r="C60" s="124"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="144" t="s">
         <v>151</v>
       </c>
       <c r="F60" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
       <c r="I60" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J60" s="153" t="s">
+      <c r="J60" s="161" t="s">
         <v>162</v>
       </c>
-      <c r="K60" s="131"/>
-      <c r="L60" s="131"/>
-      <c r="M60" s="130"/>
-      <c r="N60" s="149" t="s">
+      <c r="K60" s="165"/>
+      <c r="L60" s="165"/>
+      <c r="M60" s="124"/>
+      <c r="N60" s="133" t="s">
         <v>97</v>
       </c>
       <c r="O60" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P60" s="166" t="s">
+      <c r="P60" s="173" t="s">
         <v>359</v>
       </c>
-      <c r="Q60" s="138" t="s">
+      <c r="Q60" s="137" t="s">
         <v>108</v>
       </c>
       <c r="R60" s="20" t="s">
@@ -5517,223 +5442,223 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="144"/>
-      <c r="B61" s="146"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="148"/>
+      <c r="A61" s="140"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="124"/>
+      <c r="D61" s="124"/>
+      <c r="E61" s="144"/>
       <c r="F61" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G61" s="130"/>
-      <c r="H61" s="130"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
       <c r="I61" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J61" s="154"/>
-      <c r="K61" s="130"/>
-      <c r="L61" s="130"/>
-      <c r="M61" s="130"/>
-      <c r="N61" s="149"/>
+      <c r="J61" s="162"/>
+      <c r="K61" s="124"/>
+      <c r="L61" s="124"/>
+      <c r="M61" s="124"/>
+      <c r="N61" s="133"/>
       <c r="O61" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P61" s="167"/>
-      <c r="Q61" s="139"/>
+      <c r="P61" s="174"/>
+      <c r="Q61" s="153"/>
       <c r="R61" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="144"/>
-      <c r="B62" s="146"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="148"/>
+      <c r="A62" s="140"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="144"/>
       <c r="F62" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="141"/>
-      <c r="J62" s="154"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="130"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="149"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="155"/>
+      <c r="J62" s="162"/>
+      <c r="K62" s="124"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="124"/>
+      <c r="N62" s="133"/>
       <c r="O62" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P62" s="167"/>
-      <c r="Q62" s="139"/>
+      <c r="P62" s="174"/>
+      <c r="Q62" s="153"/>
       <c r="R62" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="144"/>
-      <c r="B63" s="146"/>
-      <c r="C63" s="130"/>
-      <c r="D63" s="130"/>
-      <c r="E63" s="148"/>
+      <c r="A63" s="140"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="144"/>
       <c r="F63" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="130"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="154"/>
-      <c r="K63" s="130"/>
-      <c r="L63" s="130"/>
-      <c r="M63" s="130"/>
-      <c r="N63" s="149"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="162"/>
+      <c r="K63" s="124"/>
+      <c r="L63" s="124"/>
+      <c r="M63" s="124"/>
+      <c r="N63" s="133"/>
       <c r="O63" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P63" s="167"/>
-      <c r="Q63" s="139"/>
+      <c r="P63" s="174"/>
+      <c r="Q63" s="153"/>
       <c r="R63" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="144"/>
-      <c r="B64" s="146"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="148"/>
+      <c r="A64" s="140"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="124"/>
+      <c r="D64" s="124"/>
+      <c r="E64" s="144"/>
       <c r="F64" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="130"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="142"/>
-      <c r="J64" s="154"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="130"/>
-      <c r="M64" s="130"/>
-      <c r="N64" s="149"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="162"/>
+      <c r="K64" s="124"/>
+      <c r="L64" s="124"/>
+      <c r="M64" s="124"/>
+      <c r="N64" s="133"/>
       <c r="O64" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P64" s="167"/>
-      <c r="Q64" s="139"/>
+      <c r="P64" s="174"/>
+      <c r="Q64" s="153"/>
       <c r="R64" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="144"/>
-      <c r="B65" s="146"/>
-      <c r="C65" s="130"/>
-      <c r="D65" s="130"/>
-      <c r="E65" s="148"/>
+      <c r="A65" s="140"/>
+      <c r="B65" s="149"/>
+      <c r="C65" s="124"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="144"/>
       <c r="F65" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="130"/>
-      <c r="H65" s="130"/>
-      <c r="I65" s="142"/>
-      <c r="J65" s="154"/>
-      <c r="K65" s="130"/>
-      <c r="L65" s="130"/>
-      <c r="M65" s="130"/>
-      <c r="N65" s="149"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="162"/>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="133"/>
       <c r="O65" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P65" s="167"/>
-      <c r="Q65" s="139"/>
+      <c r="P65" s="174"/>
+      <c r="Q65" s="153"/>
       <c r="R65" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="144"/>
-      <c r="B66" s="146"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="148"/>
+      <c r="A66" s="140"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="144"/>
       <c r="F66" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G66" s="130"/>
-      <c r="H66" s="130"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="154"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="130"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="149"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="162"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="124"/>
+      <c r="N66" s="133"/>
       <c r="O66" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P66" s="167"/>
-      <c r="Q66" s="139"/>
+      <c r="P66" s="174"/>
+      <c r="Q66" s="153"/>
       <c r="R66" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="144"/>
-      <c r="B67" s="147"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="148"/>
+      <c r="A67" s="140"/>
+      <c r="B67" s="158"/>
+      <c r="C67" s="124"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="144"/>
       <c r="F67" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="143"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="130"/>
-      <c r="L67" s="130"/>
-      <c r="M67" s="130"/>
-      <c r="N67" s="149"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="162"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="124"/>
+      <c r="N67" s="133"/>
       <c r="O67" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P67" s="168"/>
-      <c r="Q67" s="140"/>
+      <c r="P67" s="175"/>
+      <c r="Q67" s="154"/>
       <c r="R67" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="144" t="s">
+      <c r="A68" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="145" t="s">
+      <c r="B68" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="130"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="148" t="s">
+      <c r="C68" s="124"/>
+      <c r="D68" s="124"/>
+      <c r="E68" s="144" t="s">
         <v>152</v>
       </c>
       <c r="F68" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="130"/>
-      <c r="H68" s="130"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
       <c r="I68" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J68" s="130"/>
-      <c r="K68" s="130"/>
-      <c r="L68" s="130"/>
-      <c r="M68" s="130"/>
-      <c r="N68" s="149" t="s">
+      <c r="J68" s="124"/>
+      <c r="K68" s="124"/>
+      <c r="L68" s="124"/>
+      <c r="M68" s="124"/>
+      <c r="N68" s="133" t="s">
         <v>97</v>
       </c>
       <c r="O68" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P68" s="150" t="s">
+      <c r="P68" s="119" t="s">
         <v>372</v>
       </c>
-      <c r="Q68" s="138" t="s">
+      <c r="Q68" s="137" t="s">
         <v>108</v>
       </c>
       <c r="R68" s="20" t="s">
@@ -5741,185 +5666,185 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="144"/>
-      <c r="B69" s="146"/>
-      <c r="C69" s="130"/>
-      <c r="D69" s="130"/>
-      <c r="E69" s="148"/>
+      <c r="A69" s="140"/>
+      <c r="B69" s="149"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="144"/>
       <c r="F69" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G69" s="130"/>
-      <c r="H69" s="130"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
       <c r="I69" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="J69" s="130"/>
-      <c r="K69" s="130"/>
-      <c r="L69" s="130"/>
-      <c r="M69" s="130"/>
-      <c r="N69" s="149"/>
+      <c r="J69" s="124"/>
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="133"/>
       <c r="O69" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P69" s="151"/>
-      <c r="Q69" s="139"/>
+      <c r="P69" s="177"/>
+      <c r="Q69" s="153"/>
       <c r="R69" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="144"/>
-      <c r="B70" s="146"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="148"/>
+      <c r="A70" s="140"/>
+      <c r="B70" s="149"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="144"/>
       <c r="F70" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G70" s="130"/>
-      <c r="H70" s="130"/>
-      <c r="I70" s="141"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="130"/>
-      <c r="L70" s="130"/>
-      <c r="M70" s="130"/>
-      <c r="N70" s="149"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="155"/>
+      <c r="J70" s="124"/>
+      <c r="K70" s="124"/>
+      <c r="L70" s="124"/>
+      <c r="M70" s="124"/>
+      <c r="N70" s="133"/>
       <c r="O70" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P70" s="151"/>
-      <c r="Q70" s="139"/>
+      <c r="P70" s="177"/>
+      <c r="Q70" s="153"/>
       <c r="R70" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="144"/>
-      <c r="B71" s="146"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="148"/>
+      <c r="A71" s="140"/>
+      <c r="B71" s="149"/>
+      <c r="C71" s="124"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="144"/>
       <c r="F71" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G71" s="130"/>
-      <c r="H71" s="130"/>
-      <c r="I71" s="142"/>
-      <c r="J71" s="130"/>
-      <c r="K71" s="130"/>
-      <c r="L71" s="130"/>
-      <c r="M71" s="130"/>
-      <c r="N71" s="149"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="124"/>
+      <c r="K71" s="124"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="124"/>
+      <c r="N71" s="133"/>
       <c r="O71" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P71" s="151"/>
-      <c r="Q71" s="139"/>
+      <c r="P71" s="177"/>
+      <c r="Q71" s="153"/>
       <c r="R71" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="144"/>
-      <c r="B72" s="146"/>
-      <c r="C72" s="130"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="148"/>
+      <c r="A72" s="140"/>
+      <c r="B72" s="149"/>
+      <c r="C72" s="124"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="144"/>
       <c r="F72" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="130"/>
-      <c r="H72" s="130"/>
-      <c r="I72" s="142"/>
-      <c r="J72" s="130"/>
-      <c r="K72" s="130"/>
-      <c r="L72" s="130"/>
-      <c r="M72" s="130"/>
-      <c r="N72" s="149"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="156"/>
+      <c r="J72" s="124"/>
+      <c r="K72" s="124"/>
+      <c r="L72" s="124"/>
+      <c r="M72" s="124"/>
+      <c r="N72" s="133"/>
       <c r="O72" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P72" s="151"/>
-      <c r="Q72" s="139"/>
+      <c r="P72" s="177"/>
+      <c r="Q72" s="153"/>
       <c r="R72" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="144"/>
-      <c r="B73" s="146"/>
-      <c r="C73" s="130"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="148"/>
+      <c r="A73" s="140"/>
+      <c r="B73" s="149"/>
+      <c r="C73" s="124"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="144"/>
       <c r="F73" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G73" s="130"/>
-      <c r="H73" s="130"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="130"/>
-      <c r="K73" s="130"/>
-      <c r="L73" s="130"/>
-      <c r="M73" s="130"/>
-      <c r="N73" s="149"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="156"/>
+      <c r="J73" s="124"/>
+      <c r="K73" s="124"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="124"/>
+      <c r="N73" s="133"/>
       <c r="O73" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P73" s="151"/>
-      <c r="Q73" s="139"/>
+      <c r="P73" s="177"/>
+      <c r="Q73" s="153"/>
       <c r="R73" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="144"/>
-      <c r="B74" s="146"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="148"/>
+      <c r="A74" s="140"/>
+      <c r="B74" s="149"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="144"/>
       <c r="F74" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G74" s="130"/>
-      <c r="H74" s="130"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="130"/>
-      <c r="K74" s="130"/>
-      <c r="L74" s="130"/>
-      <c r="M74" s="130"/>
-      <c r="N74" s="149"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="156"/>
+      <c r="J74" s="124"/>
+      <c r="K74" s="124"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="124"/>
+      <c r="N74" s="133"/>
       <c r="O74" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P74" s="151"/>
-      <c r="Q74" s="139"/>
+      <c r="P74" s="177"/>
+      <c r="Q74" s="153"/>
       <c r="R74" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="144"/>
-      <c r="B75" s="147"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="130"/>
-      <c r="E75" s="148"/>
+      <c r="A75" s="140"/>
+      <c r="B75" s="158"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="144"/>
       <c r="F75" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G75" s="130"/>
-      <c r="H75" s="130"/>
-      <c r="I75" s="143"/>
-      <c r="J75" s="130"/>
-      <c r="K75" s="130"/>
-      <c r="L75" s="130"/>
-      <c r="M75" s="130"/>
-      <c r="N75" s="149"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="157"/>
+      <c r="J75" s="124"/>
+      <c r="K75" s="124"/>
+      <c r="L75" s="124"/>
+      <c r="M75" s="124"/>
+      <c r="N75" s="133"/>
       <c r="O75" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P75" s="152"/>
-      <c r="Q75" s="140"/>
+      <c r="P75" s="178"/>
+      <c r="Q75" s="154"/>
       <c r="R75" s="20" t="s">
         <v>89</v>
       </c>
@@ -6194,7 +6119,7 @@
       <c r="G83" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H83" s="125" t="s">
+      <c r="H83" s="183" t="s">
         <v>382</v>
       </c>
       <c r="I83" s="19"/>
@@ -6218,7 +6143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="146.25" x14ac:dyDescent="0.25">
       <c r="A84" s="24" t="s">
         <v>47</v>
       </c>
@@ -6234,7 +6159,7 @@
       <c r="G84" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H84" s="125" t="s">
+      <c r="H84" s="183" t="s">
         <v>372</v>
       </c>
       <c r="I84" s="19"/>
@@ -6259,22 +6184,22 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="155" t="s">
+      <c r="A85" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="B85" s="157" t="s">
+      <c r="B85" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="163"/>
-      <c r="D85" s="163"/>
-      <c r="E85" s="161" t="s">
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="168" t="s">
         <v>152</v>
       </c>
       <c r="F85" s="19"/>
       <c r="G85" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H85" s="125" t="s">
+      <c r="H85" s="183" t="s">
         <v>382</v>
       </c>
       <c r="I85" s="19"/>
@@ -6288,7 +6213,7 @@
       <c r="O85" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="P85" s="132" t="s">
+      <c r="P85" s="179" t="s">
         <v>372</v>
       </c>
       <c r="Q85" s="23" t="s">
@@ -6299,16 +6224,16 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="156"/>
-      <c r="B86" s="158"/>
-      <c r="C86" s="164"/>
-      <c r="D86" s="164"/>
-      <c r="E86" s="162"/>
+      <c r="A86" s="167"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="152"/>
       <c r="F86" s="45"/>
       <c r="G86" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H86" s="125" t="s">
+      <c r="H86" s="183" t="s">
         <v>381</v>
       </c>
       <c r="I86" s="45"/>
@@ -6322,7 +6247,7 @@
       <c r="O86" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="P86" s="133"/>
+      <c r="P86" s="180"/>
       <c r="Q86" s="23" t="s">
         <v>120</v>
       </c>
@@ -6367,480 +6292,480 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="144" t="s">
+      <c r="A89" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B89" s="145" t="s">
+      <c r="B89" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="130" t="s">
+      <c r="C89" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="D89" s="130"/>
-      <c r="E89" s="148" t="s">
+      <c r="D89" s="124"/>
+      <c r="E89" s="144" t="s">
         <v>203</v>
       </c>
       <c r="F89" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="130"/>
-      <c r="H89" s="130"/>
+      <c r="G89" s="124"/>
+      <c r="H89" s="124"/>
       <c r="I89" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J89" s="153" t="s">
+      <c r="J89" s="161" t="s">
         <v>204</v>
       </c>
-      <c r="K89" s="153" t="s">
+      <c r="K89" s="161" t="s">
         <v>205</v>
       </c>
-      <c r="L89" s="153" t="s">
+      <c r="L89" s="161" t="s">
         <v>109</v>
       </c>
       <c r="M89" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="N89" s="149" t="s">
+      <c r="N89" s="133" t="s">
         <v>97</v>
       </c>
       <c r="O89" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P89" s="171" t="s">
+      <c r="P89" s="150" t="s">
         <v>359</v>
       </c>
-      <c r="Q89" s="138" t="s">
+      <c r="Q89" s="137" t="s">
         <v>108</v>
       </c>
       <c r="R89" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S89" s="136"/>
+      <c r="S89" s="187"/>
     </row>
     <row r="90" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90" s="144"/>
-      <c r="B90" s="146"/>
-      <c r="C90" s="130"/>
-      <c r="D90" s="130"/>
-      <c r="E90" s="148"/>
+      <c r="A90" s="140"/>
+      <c r="B90" s="149"/>
+      <c r="C90" s="124"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="144"/>
       <c r="F90" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="130"/>
-      <c r="H90" s="130"/>
+      <c r="G90" s="124"/>
+      <c r="H90" s="124"/>
       <c r="I90" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J90" s="154"/>
-      <c r="K90" s="154"/>
-      <c r="L90" s="154"/>
+      <c r="J90" s="162"/>
+      <c r="K90" s="162"/>
+      <c r="L90" s="162"/>
       <c r="M90" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="N90" s="149"/>
+      <c r="N90" s="133"/>
       <c r="O90" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P90" s="172"/>
-      <c r="Q90" s="139"/>
+      <c r="P90" s="151"/>
+      <c r="Q90" s="153"/>
       <c r="R90" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S90" s="137"/>
+      <c r="S90" s="188"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="144"/>
-      <c r="B91" s="146"/>
-      <c r="C91" s="130"/>
-      <c r="D91" s="130"/>
-      <c r="E91" s="148"/>
+      <c r="A91" s="140"/>
+      <c r="B91" s="149"/>
+      <c r="C91" s="124"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="144"/>
       <c r="F91" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G91" s="130"/>
-      <c r="H91" s="130"/>
-      <c r="I91" s="141"/>
-      <c r="J91" s="154"/>
-      <c r="K91" s="154"/>
-      <c r="L91" s="154"/>
+      <c r="G91" s="124"/>
+      <c r="H91" s="124"/>
+      <c r="I91" s="155"/>
+      <c r="J91" s="162"/>
+      <c r="K91" s="162"/>
+      <c r="L91" s="162"/>
       <c r="M91" s="50"/>
-      <c r="N91" s="149"/>
+      <c r="N91" s="133"/>
       <c r="O91" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P91" s="172"/>
-      <c r="Q91" s="139"/>
+      <c r="P91" s="151"/>
+      <c r="Q91" s="153"/>
       <c r="R91" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S91" s="137"/>
+      <c r="S91" s="188"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="144"/>
-      <c r="B92" s="146"/>
-      <c r="C92" s="130"/>
-      <c r="D92" s="130"/>
-      <c r="E92" s="148"/>
+      <c r="A92" s="140"/>
+      <c r="B92" s="149"/>
+      <c r="C92" s="124"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="144"/>
       <c r="F92" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G92" s="130"/>
-      <c r="H92" s="130"/>
-      <c r="I92" s="142"/>
-      <c r="J92" s="154"/>
-      <c r="K92" s="154"/>
-      <c r="L92" s="154"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="156"/>
+      <c r="J92" s="162"/>
+      <c r="K92" s="162"/>
+      <c r="L92" s="162"/>
       <c r="M92" s="50"/>
-      <c r="N92" s="149"/>
+      <c r="N92" s="133"/>
       <c r="O92" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P92" s="172"/>
-      <c r="Q92" s="139"/>
+      <c r="P92" s="151"/>
+      <c r="Q92" s="153"/>
       <c r="R92" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S92" s="137"/>
+      <c r="S92" s="188"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="144"/>
-      <c r="B93" s="146"/>
-      <c r="C93" s="130"/>
-      <c r="D93" s="130"/>
-      <c r="E93" s="148"/>
+      <c r="A93" s="140"/>
+      <c r="B93" s="149"/>
+      <c r="C93" s="124"/>
+      <c r="D93" s="124"/>
+      <c r="E93" s="144"/>
       <c r="F93" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G93" s="130"/>
-      <c r="H93" s="130"/>
-      <c r="I93" s="142"/>
-      <c r="J93" s="154"/>
-      <c r="K93" s="154"/>
-      <c r="L93" s="154"/>
+      <c r="G93" s="124"/>
+      <c r="H93" s="124"/>
+      <c r="I93" s="156"/>
+      <c r="J93" s="162"/>
+      <c r="K93" s="162"/>
+      <c r="L93" s="162"/>
       <c r="M93" s="49"/>
-      <c r="N93" s="149"/>
+      <c r="N93" s="133"/>
       <c r="O93" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P93" s="172"/>
-      <c r="Q93" s="139"/>
+      <c r="P93" s="151"/>
+      <c r="Q93" s="153"/>
       <c r="R93" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S93" s="137"/>
+      <c r="S93" s="188"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="144"/>
-      <c r="B94" s="146"/>
-      <c r="C94" s="130"/>
-      <c r="D94" s="130"/>
-      <c r="E94" s="148"/>
+      <c r="A94" s="140"/>
+      <c r="B94" s="149"/>
+      <c r="C94" s="124"/>
+      <c r="D94" s="124"/>
+      <c r="E94" s="144"/>
       <c r="F94" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G94" s="130"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="142"/>
-      <c r="J94" s="154"/>
-      <c r="K94" s="154"/>
-      <c r="L94" s="154"/>
+      <c r="G94" s="124"/>
+      <c r="H94" s="124"/>
+      <c r="I94" s="156"/>
+      <c r="J94" s="162"/>
+      <c r="K94" s="162"/>
+      <c r="L94" s="162"/>
       <c r="M94" s="50"/>
-      <c r="N94" s="149"/>
+      <c r="N94" s="133"/>
       <c r="O94" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P94" s="172"/>
-      <c r="Q94" s="139"/>
+      <c r="P94" s="151"/>
+      <c r="Q94" s="153"/>
       <c r="R94" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S94" s="137"/>
+      <c r="S94" s="188"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="144"/>
-      <c r="B95" s="146"/>
-      <c r="C95" s="130"/>
-      <c r="D95" s="130"/>
-      <c r="E95" s="148"/>
+      <c r="A95" s="140"/>
+      <c r="B95" s="149"/>
+      <c r="C95" s="124"/>
+      <c r="D95" s="124"/>
+      <c r="E95" s="144"/>
       <c r="F95" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G95" s="130"/>
-      <c r="H95" s="130"/>
-      <c r="I95" s="142"/>
-      <c r="J95" s="154"/>
-      <c r="K95" s="154"/>
-      <c r="L95" s="154"/>
+      <c r="G95" s="124"/>
+      <c r="H95" s="124"/>
+      <c r="I95" s="156"/>
+      <c r="J95" s="162"/>
+      <c r="K95" s="162"/>
+      <c r="L95" s="162"/>
       <c r="M95" s="50"/>
-      <c r="N95" s="149"/>
+      <c r="N95" s="133"/>
       <c r="O95" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P95" s="172"/>
-      <c r="Q95" s="139"/>
+      <c r="P95" s="151"/>
+      <c r="Q95" s="153"/>
       <c r="R95" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S95" s="137"/>
+      <c r="S95" s="188"/>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="144"/>
-      <c r="B96" s="147"/>
-      <c r="C96" s="130"/>
-      <c r="D96" s="130"/>
-      <c r="E96" s="148"/>
+      <c r="A96" s="140"/>
+      <c r="B96" s="158"/>
+      <c r="C96" s="124"/>
+      <c r="D96" s="124"/>
+      <c r="E96" s="144"/>
       <c r="F96" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G96" s="130"/>
-      <c r="H96" s="130"/>
-      <c r="I96" s="143"/>
-      <c r="J96" s="154"/>
-      <c r="K96" s="154"/>
-      <c r="L96" s="154"/>
+      <c r="G96" s="124"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="157"/>
+      <c r="J96" s="162"/>
+      <c r="K96" s="162"/>
+      <c r="L96" s="162"/>
       <c r="M96" s="50"/>
-      <c r="N96" s="149"/>
+      <c r="N96" s="133"/>
       <c r="O96" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P96" s="162"/>
-      <c r="Q96" s="140"/>
+      <c r="P96" s="152"/>
+      <c r="Q96" s="154"/>
       <c r="R96" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S96" s="137"/>
+      <c r="S96" s="188"/>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="144" t="s">
+      <c r="A97" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B97" s="145" t="s">
+      <c r="B97" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="130"/>
-      <c r="D97" s="130"/>
-      <c r="E97" s="148" t="s">
+      <c r="C97" s="124"/>
+      <c r="D97" s="124"/>
+      <c r="E97" s="144" t="s">
         <v>209</v>
       </c>
       <c r="F97" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G97" s="130"/>
-      <c r="H97" s="130"/>
+      <c r="G97" s="124"/>
+      <c r="H97" s="124"/>
       <c r="I97" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J97" s="130"/>
-      <c r="K97" s="130"/>
-      <c r="L97" s="130"/>
-      <c r="M97" s="130"/>
-      <c r="N97" s="149" t="s">
+      <c r="J97" s="124"/>
+      <c r="K97" s="124"/>
+      <c r="L97" s="124"/>
+      <c r="M97" s="124"/>
+      <c r="N97" s="133" t="s">
         <v>97</v>
       </c>
       <c r="O97" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P97" s="173" t="s">
+      <c r="P97" s="122" t="s">
         <v>376</v>
       </c>
-      <c r="Q97" s="138" t="s">
+      <c r="Q97" s="137" t="s">
         <v>108</v>
       </c>
       <c r="R97" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S97" s="127"/>
+      <c r="S97" s="185"/>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="144"/>
-      <c r="B98" s="146"/>
-      <c r="C98" s="130"/>
-      <c r="D98" s="130"/>
-      <c r="E98" s="148"/>
+      <c r="A98" s="140"/>
+      <c r="B98" s="149"/>
+      <c r="C98" s="124"/>
+      <c r="D98" s="124"/>
+      <c r="E98" s="144"/>
       <c r="F98" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="G98" s="130"/>
-      <c r="H98" s="130"/>
+      <c r="G98" s="124"/>
+      <c r="H98" s="124"/>
       <c r="I98" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="J98" s="130"/>
-      <c r="K98" s="130"/>
-      <c r="L98" s="130"/>
-      <c r="M98" s="130"/>
-      <c r="N98" s="149"/>
+      <c r="J98" s="124"/>
+      <c r="K98" s="124"/>
+      <c r="L98" s="124"/>
+      <c r="M98" s="124"/>
+      <c r="N98" s="133"/>
       <c r="O98" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="P98" s="176"/>
-      <c r="Q98" s="139"/>
+      <c r="P98" s="159"/>
+      <c r="Q98" s="153"/>
       <c r="R98" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S98" s="127"/>
+      <c r="S98" s="185"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="144"/>
-      <c r="B99" s="146"/>
-      <c r="C99" s="130"/>
-      <c r="D99" s="130"/>
-      <c r="E99" s="148"/>
+      <c r="A99" s="140"/>
+      <c r="B99" s="149"/>
+      <c r="C99" s="124"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="144"/>
       <c r="F99" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="G99" s="130"/>
-      <c r="H99" s="130"/>
-      <c r="I99" s="141"/>
-      <c r="J99" s="130"/>
-      <c r="K99" s="130"/>
-      <c r="L99" s="130"/>
-      <c r="M99" s="130"/>
-      <c r="N99" s="149"/>
+      <c r="G99" s="124"/>
+      <c r="H99" s="124"/>
+      <c r="I99" s="155"/>
+      <c r="J99" s="124"/>
+      <c r="K99" s="124"/>
+      <c r="L99" s="124"/>
+      <c r="M99" s="124"/>
+      <c r="N99" s="133"/>
       <c r="O99" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="P99" s="176"/>
-      <c r="Q99" s="139"/>
+      <c r="P99" s="159"/>
+      <c r="Q99" s="153"/>
       <c r="R99" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S99" s="127"/>
+      <c r="S99" s="185"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="144"/>
-      <c r="B100" s="146"/>
-      <c r="C100" s="130"/>
-      <c r="D100" s="130"/>
-      <c r="E100" s="148"/>
+      <c r="A100" s="140"/>
+      <c r="B100" s="149"/>
+      <c r="C100" s="124"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="144"/>
       <c r="F100" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="G100" s="130"/>
-      <c r="H100" s="130"/>
-      <c r="I100" s="142"/>
-      <c r="J100" s="130"/>
-      <c r="K100" s="130"/>
-      <c r="L100" s="130"/>
-      <c r="M100" s="130"/>
-      <c r="N100" s="149"/>
+      <c r="G100" s="124"/>
+      <c r="H100" s="124"/>
+      <c r="I100" s="156"/>
+      <c r="J100" s="124"/>
+      <c r="K100" s="124"/>
+      <c r="L100" s="124"/>
+      <c r="M100" s="124"/>
+      <c r="N100" s="133"/>
       <c r="O100" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="P100" s="176"/>
-      <c r="Q100" s="139"/>
+      <c r="P100" s="159"/>
+      <c r="Q100" s="153"/>
       <c r="R100" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S100" s="127"/>
+      <c r="S100" s="185"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="144"/>
-      <c r="B101" s="146"/>
-      <c r="C101" s="130"/>
-      <c r="D101" s="130"/>
-      <c r="E101" s="148"/>
+      <c r="A101" s="140"/>
+      <c r="B101" s="149"/>
+      <c r="C101" s="124"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="144"/>
       <c r="F101" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G101" s="130"/>
-      <c r="H101" s="130"/>
-      <c r="I101" s="142"/>
-      <c r="J101" s="130"/>
-      <c r="K101" s="130"/>
-      <c r="L101" s="130"/>
-      <c r="M101" s="130"/>
-      <c r="N101" s="149"/>
+      <c r="G101" s="124"/>
+      <c r="H101" s="124"/>
+      <c r="I101" s="156"/>
+      <c r="J101" s="124"/>
+      <c r="K101" s="124"/>
+      <c r="L101" s="124"/>
+      <c r="M101" s="124"/>
+      <c r="N101" s="133"/>
       <c r="O101" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="P101" s="176"/>
-      <c r="Q101" s="139"/>
+      <c r="P101" s="159"/>
+      <c r="Q101" s="153"/>
       <c r="R101" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S101" s="127"/>
+      <c r="S101" s="185"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="144"/>
-      <c r="B102" s="146"/>
-      <c r="C102" s="130"/>
-      <c r="D102" s="130"/>
-      <c r="E102" s="148"/>
+      <c r="A102" s="140"/>
+      <c r="B102" s="149"/>
+      <c r="C102" s="124"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="144"/>
       <c r="F102" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G102" s="130"/>
-      <c r="H102" s="130"/>
-      <c r="I102" s="142"/>
-      <c r="J102" s="130"/>
-      <c r="K102" s="130"/>
-      <c r="L102" s="130"/>
-      <c r="M102" s="130"/>
-      <c r="N102" s="149"/>
+      <c r="G102" s="124"/>
+      <c r="H102" s="124"/>
+      <c r="I102" s="156"/>
+      <c r="J102" s="124"/>
+      <c r="K102" s="124"/>
+      <c r="L102" s="124"/>
+      <c r="M102" s="124"/>
+      <c r="N102" s="133"/>
       <c r="O102" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="P102" s="176"/>
-      <c r="Q102" s="139"/>
+      <c r="P102" s="159"/>
+      <c r="Q102" s="153"/>
       <c r="R102" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S102" s="127"/>
+      <c r="S102" s="185"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="144"/>
-      <c r="B103" s="146"/>
-      <c r="C103" s="130"/>
-      <c r="D103" s="130"/>
-      <c r="E103" s="148"/>
+      <c r="A103" s="140"/>
+      <c r="B103" s="149"/>
+      <c r="C103" s="124"/>
+      <c r="D103" s="124"/>
+      <c r="E103" s="144"/>
       <c r="F103" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G103" s="130"/>
-      <c r="H103" s="130"/>
-      <c r="I103" s="142"/>
-      <c r="J103" s="130"/>
-      <c r="K103" s="130"/>
-      <c r="L103" s="130"/>
-      <c r="M103" s="130"/>
-      <c r="N103" s="149"/>
+      <c r="G103" s="124"/>
+      <c r="H103" s="124"/>
+      <c r="I103" s="156"/>
+      <c r="J103" s="124"/>
+      <c r="K103" s="124"/>
+      <c r="L103" s="124"/>
+      <c r="M103" s="124"/>
+      <c r="N103" s="133"/>
       <c r="O103" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="P103" s="176"/>
-      <c r="Q103" s="139"/>
+      <c r="P103" s="159"/>
+      <c r="Q103" s="153"/>
       <c r="R103" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S103" s="127"/>
+      <c r="S103" s="185"/>
     </row>
     <row r="104" spans="1:19" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="144"/>
-      <c r="B104" s="147"/>
-      <c r="C104" s="130"/>
-      <c r="D104" s="130"/>
-      <c r="E104" s="148"/>
+      <c r="A104" s="140"/>
+      <c r="B104" s="158"/>
+      <c r="C104" s="124"/>
+      <c r="D104" s="124"/>
+      <c r="E104" s="144"/>
       <c r="F104" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="G104" s="130"/>
-      <c r="H104" s="130"/>
-      <c r="I104" s="143"/>
-      <c r="J104" s="130"/>
-      <c r="K104" s="130"/>
-      <c r="L104" s="130"/>
-      <c r="M104" s="130"/>
-      <c r="N104" s="149"/>
+      <c r="G104" s="124"/>
+      <c r="H104" s="124"/>
+      <c r="I104" s="157"/>
+      <c r="J104" s="124"/>
+      <c r="K104" s="124"/>
+      <c r="L104" s="124"/>
+      <c r="M104" s="124"/>
+      <c r="N104" s="133"/>
       <c r="O104" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="P104" s="177"/>
-      <c r="Q104" s="140"/>
+      <c r="P104" s="160"/>
+      <c r="Q104" s="154"/>
       <c r="R104" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S104" s="127"/>
+      <c r="S104" s="185"/>
     </row>
     <row r="105" spans="1:19" ht="270" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
@@ -6879,7 +6804,7 @@
       <c r="R105" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S105" s="128" t="s">
+      <c r="S105" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6918,7 +6843,7 @@
       <c r="R106" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S106" s="128" t="s">
+      <c r="S106" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6957,7 +6882,7 @@
       <c r="R107" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S107" s="128" t="s">
+      <c r="S107" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -6996,7 +6921,7 @@
       <c r="R108" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S108" s="128" t="s">
+      <c r="S108" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7035,7 +6960,7 @@
       <c r="R109" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S109" s="128" t="s">
+      <c r="S109" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7074,7 +6999,7 @@
       <c r="R110" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S110" s="128" t="s">
+      <c r="S110" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7113,7 +7038,7 @@
       <c r="R111" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S111" s="128" t="s">
+      <c r="S111" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7152,7 +7077,7 @@
       <c r="R112" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S112" s="128" t="s">
+      <c r="S112" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7191,7 +7116,7 @@
       <c r="R113" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S113" s="128" t="s">
+      <c r="S113" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7215,7 +7140,7 @@
       <c r="G114" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H114" s="125" t="s">
+      <c r="H114" s="183" t="s">
         <v>385</v>
       </c>
       <c r="I114" s="26"/>
@@ -7238,7 +7163,7 @@
       <c r="R114" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S114" s="128" t="s">
+      <c r="S114" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7262,7 +7187,7 @@
       <c r="G115" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H115" s="125" t="s">
+      <c r="H115" s="183" t="s">
         <v>376</v>
       </c>
       <c r="I115" s="26"/>
@@ -7285,31 +7210,31 @@
       <c r="R115" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S115" s="128" t="s">
+      <c r="S115" s="186" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="288.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="155" t="s">
+      <c r="A116" s="166" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="157" t="s">
+      <c r="B116" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="C116" s="159" t="s">
+      <c r="C116" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="D116" s="159" t="s">
+      <c r="D116" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="E116" s="161" t="s">
+      <c r="E116" s="168" t="s">
         <v>384</v>
       </c>
       <c r="F116" s="45"/>
       <c r="G116" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H116" s="125" t="s">
+      <c r="H116" s="183" t="s">
         <v>376</v>
       </c>
       <c r="I116" s="26"/>
@@ -7323,7 +7248,7 @@
       <c r="O116" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="P116" s="173" t="s">
+      <c r="P116" s="122" t="s">
         <v>360</v>
       </c>
       <c r="Q116" s="23" t="s">
@@ -7332,21 +7257,21 @@
       <c r="R116" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S116" s="128" t="s">
+      <c r="S116" s="186" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="156"/>
-      <c r="B117" s="158"/>
-      <c r="C117" s="160"/>
-      <c r="D117" s="160"/>
-      <c r="E117" s="162"/>
+      <c r="A117" s="167"/>
+      <c r="B117" s="143"/>
+      <c r="C117" s="128"/>
+      <c r="D117" s="128"/>
+      <c r="E117" s="152"/>
       <c r="F117" s="45"/>
       <c r="G117" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="H117" s="125" t="s">
+      <c r="H117" s="183" t="s">
         <v>383</v>
       </c>
       <c r="I117" s="45"/>
@@ -7360,14 +7285,14 @@
       <c r="O117" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="P117" s="175"/>
+      <c r="P117" s="123"/>
       <c r="Q117" s="23" t="s">
         <v>120</v>
       </c>
       <c r="R117" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S117" s="128" t="s">
+      <c r="S117" s="186" t="s">
         <v>356</v>
       </c>
     </row>
@@ -7401,140 +7326,140 @@
       <c r="O118" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="P118" s="124"/>
+      <c r="P118" s="176"/>
       <c r="Q118" s="23" t="s">
         <v>120</v>
       </c>
       <c r="R118" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="S118" s="128" t="s">
+      <c r="S118" s="186" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="144" t="s">
+      <c r="A121" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="145" t="s">
+      <c r="B121" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C121" s="178" t="s">
+      <c r="C121" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="D121" s="178"/>
-      <c r="E121" s="148" t="s">
+      <c r="D121" s="129"/>
+      <c r="E121" s="144" t="s">
         <v>222</v>
       </c>
       <c r="F121" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="G121" s="130"/>
-      <c r="H121" s="130"/>
-      <c r="I121" s="163"/>
-      <c r="J121" s="163"/>
-      <c r="K121" s="163"/>
-      <c r="L121" s="163"/>
-      <c r="M121" s="163"/>
-      <c r="N121" s="149" t="s">
+      <c r="G121" s="124"/>
+      <c r="H121" s="124"/>
+      <c r="I121" s="125"/>
+      <c r="J121" s="125"/>
+      <c r="K121" s="125"/>
+      <c r="L121" s="125"/>
+      <c r="M121" s="125"/>
+      <c r="N121" s="133" t="s">
         <v>97</v>
       </c>
       <c r="O121" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="P121" s="188" t="s">
+      <c r="P121" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="Q121" s="138" t="s">
+      <c r="Q121" s="137" t="s">
         <v>120</v>
       </c>
       <c r="R121" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S121" s="150" t="s">
+      <c r="S121" s="119" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="144"/>
-      <c r="B122" s="146"/>
-      <c r="C122" s="179"/>
-      <c r="D122" s="179"/>
-      <c r="E122" s="148"/>
+      <c r="A122" s="140"/>
+      <c r="B122" s="149"/>
+      <c r="C122" s="130"/>
+      <c r="D122" s="130"/>
+      <c r="E122" s="144"/>
       <c r="F122" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="G122" s="130"/>
-      <c r="H122" s="130"/>
-      <c r="I122" s="181"/>
-      <c r="J122" s="181"/>
-      <c r="K122" s="181"/>
-      <c r="L122" s="181"/>
-      <c r="M122" s="181"/>
-      <c r="N122" s="149"/>
+      <c r="G122" s="124"/>
+      <c r="H122" s="124"/>
+      <c r="I122" s="132"/>
+      <c r="J122" s="132"/>
+      <c r="K122" s="132"/>
+      <c r="L122" s="132"/>
+      <c r="M122" s="132"/>
+      <c r="N122" s="133"/>
       <c r="O122" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="P122" s="189"/>
-      <c r="Q122" s="186"/>
+      <c r="P122" s="146"/>
+      <c r="Q122" s="138"/>
       <c r="R122" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S122" s="169"/>
+      <c r="S122" s="120"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="144"/>
-      <c r="B123" s="146"/>
-      <c r="C123" s="179"/>
-      <c r="D123" s="179"/>
-      <c r="E123" s="148"/>
+      <c r="A123" s="140"/>
+      <c r="B123" s="149"/>
+      <c r="C123" s="130"/>
+      <c r="D123" s="130"/>
+      <c r="E123" s="144"/>
       <c r="F123" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="G123" s="130"/>
-      <c r="H123" s="130"/>
-      <c r="I123" s="181"/>
-      <c r="J123" s="181"/>
-      <c r="K123" s="181"/>
-      <c r="L123" s="181"/>
-      <c r="M123" s="181"/>
-      <c r="N123" s="149"/>
+      <c r="G123" s="124"/>
+      <c r="H123" s="124"/>
+      <c r="I123" s="132"/>
+      <c r="J123" s="132"/>
+      <c r="K123" s="132"/>
+      <c r="L123" s="132"/>
+      <c r="M123" s="132"/>
+      <c r="N123" s="133"/>
       <c r="O123" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="P123" s="189"/>
-      <c r="Q123" s="186"/>
+      <c r="P123" s="146"/>
+      <c r="Q123" s="138"/>
       <c r="R123" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S123" s="169"/>
+      <c r="S123" s="120"/>
     </row>
     <row r="124" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="144"/>
-      <c r="B124" s="146"/>
-      <c r="C124" s="180"/>
-      <c r="D124" s="180"/>
-      <c r="E124" s="148"/>
+      <c r="A124" s="140"/>
+      <c r="B124" s="149"/>
+      <c r="C124" s="131"/>
+      <c r="D124" s="131"/>
+      <c r="E124" s="144"/>
       <c r="F124" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G124" s="130"/>
-      <c r="H124" s="130"/>
-      <c r="I124" s="164"/>
-      <c r="J124" s="164"/>
-      <c r="K124" s="164"/>
-      <c r="L124" s="164"/>
-      <c r="M124" s="164"/>
-      <c r="N124" s="149"/>
+      <c r="G124" s="124"/>
+      <c r="H124" s="124"/>
+      <c r="I124" s="126"/>
+      <c r="J124" s="126"/>
+      <c r="K124" s="126"/>
+      <c r="L124" s="126"/>
+      <c r="M124" s="126"/>
+      <c r="N124" s="133"/>
       <c r="O124" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="P124" s="190"/>
-      <c r="Q124" s="187"/>
+      <c r="P124" s="147"/>
+      <c r="Q124" s="139"/>
       <c r="R124" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S124" s="170"/>
+      <c r="S124" s="121"/>
     </row>
     <row r="125" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A125" s="55" t="s">
@@ -7578,128 +7503,128 @@
       </c>
     </row>
     <row r="126" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="144" t="s">
+      <c r="A126" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B126" s="157" t="s">
+      <c r="B126" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="C126" s="178" t="s">
+      <c r="C126" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="D126" s="178"/>
-      <c r="E126" s="148" t="s">
+      <c r="D126" s="129"/>
+      <c r="E126" s="144" t="s">
         <v>222</v>
       </c>
       <c r="F126" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="G126" s="130"/>
-      <c r="H126" s="130"/>
-      <c r="I126" s="163"/>
-      <c r="J126" s="163"/>
-      <c r="K126" s="163"/>
-      <c r="L126" s="163"/>
-      <c r="M126" s="163"/>
-      <c r="N126" s="149" t="s">
+      <c r="G126" s="124"/>
+      <c r="H126" s="124"/>
+      <c r="I126" s="125"/>
+      <c r="J126" s="125"/>
+      <c r="K126" s="125"/>
+      <c r="L126" s="125"/>
+      <c r="M126" s="125"/>
+      <c r="N126" s="133" t="s">
         <v>97</v>
       </c>
       <c r="O126" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="P126" s="183" t="s">
+      <c r="P126" s="134" t="s">
         <v>231</v>
       </c>
-      <c r="Q126" s="138" t="s">
+      <c r="Q126" s="137" t="s">
         <v>120</v>
       </c>
       <c r="R126" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S126" s="150" t="s">
+      <c r="S126" s="119" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="144"/>
-      <c r="B127" s="182"/>
-      <c r="C127" s="179"/>
-      <c r="D127" s="179"/>
-      <c r="E127" s="148"/>
+      <c r="A127" s="140"/>
+      <c r="B127" s="142"/>
+      <c r="C127" s="130"/>
+      <c r="D127" s="130"/>
+      <c r="E127" s="144"/>
       <c r="F127" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="G127" s="130"/>
-      <c r="H127" s="130"/>
-      <c r="I127" s="181"/>
-      <c r="J127" s="181"/>
-      <c r="K127" s="181"/>
-      <c r="L127" s="181"/>
-      <c r="M127" s="181"/>
-      <c r="N127" s="149"/>
+      <c r="G127" s="124"/>
+      <c r="H127" s="124"/>
+      <c r="I127" s="132"/>
+      <c r="J127" s="132"/>
+      <c r="K127" s="132"/>
+      <c r="L127" s="132"/>
+      <c r="M127" s="132"/>
+      <c r="N127" s="133"/>
       <c r="O127" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="P127" s="184"/>
-      <c r="Q127" s="186"/>
+      <c r="P127" s="135"/>
+      <c r="Q127" s="138"/>
       <c r="R127" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S127" s="169"/>
+      <c r="S127" s="120"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="144"/>
-      <c r="B128" s="182"/>
-      <c r="C128" s="179"/>
-      <c r="D128" s="179"/>
-      <c r="E128" s="148"/>
+      <c r="A128" s="140"/>
+      <c r="B128" s="142"/>
+      <c r="C128" s="130"/>
+      <c r="D128" s="130"/>
+      <c r="E128" s="144"/>
       <c r="F128" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="G128" s="130"/>
-      <c r="H128" s="130"/>
-      <c r="I128" s="181"/>
-      <c r="J128" s="181"/>
-      <c r="K128" s="181"/>
-      <c r="L128" s="181"/>
-      <c r="M128" s="181"/>
-      <c r="N128" s="149"/>
+      <c r="G128" s="124"/>
+      <c r="H128" s="124"/>
+      <c r="I128" s="132"/>
+      <c r="J128" s="132"/>
+      <c r="K128" s="132"/>
+      <c r="L128" s="132"/>
+      <c r="M128" s="132"/>
+      <c r="N128" s="133"/>
       <c r="O128" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="P128" s="184"/>
-      <c r="Q128" s="186"/>
+      <c r="P128" s="135"/>
+      <c r="Q128" s="138"/>
       <c r="R128" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S128" s="169"/>
+      <c r="S128" s="120"/>
     </row>
     <row r="129" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="144"/>
-      <c r="B129" s="158"/>
-      <c r="C129" s="180"/>
-      <c r="D129" s="180"/>
-      <c r="E129" s="148"/>
+      <c r="A129" s="140"/>
+      <c r="B129" s="143"/>
+      <c r="C129" s="131"/>
+      <c r="D129" s="131"/>
+      <c r="E129" s="144"/>
       <c r="F129" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="G129" s="130"/>
-      <c r="H129" s="130"/>
-      <c r="I129" s="164"/>
-      <c r="J129" s="164"/>
-      <c r="K129" s="164"/>
-      <c r="L129" s="164"/>
-      <c r="M129" s="164"/>
-      <c r="N129" s="149"/>
+      <c r="G129" s="124"/>
+      <c r="H129" s="124"/>
+      <c r="I129" s="126"/>
+      <c r="J129" s="126"/>
+      <c r="K129" s="126"/>
+      <c r="L129" s="126"/>
+      <c r="M129" s="126"/>
+      <c r="N129" s="133"/>
       <c r="O129" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="P129" s="185"/>
-      <c r="Q129" s="187"/>
+      <c r="P129" s="136"/>
+      <c r="Q129" s="139"/>
       <c r="R129" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S129" s="170"/>
+      <c r="S129" s="121"/>
     </row>
     <row r="130" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A130" s="79" t="s">
@@ -7769,7 +7694,7 @@
       <c r="B132" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C132" s="129" t="s">
+      <c r="C132" s="189" t="s">
         <v>235</v>
       </c>
       <c r="D132" s="64"/>
@@ -7814,7 +7739,7 @@
       <c r="B133" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C133" s="129" t="s">
+      <c r="C133" s="189" t="s">
         <v>239</v>
       </c>
       <c r="D133" s="64"/>
@@ -7855,7 +7780,7 @@
       <c r="B135" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="C135" s="129"/>
+      <c r="C135" s="189"/>
       <c r="D135" s="64"/>
       <c r="E135" s="67" t="s">
         <v>259</v>
@@ -7891,155 +7816,157 @@
       <c r="A136" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B136" s="122" t="s">
+      <c r="B136" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="C136" s="129"/>
+      <c r="C136" s="189"/>
       <c r="D136" s="64"/>
-      <c r="E136" s="121" t="s">
-        <v>387</v>
-      </c>
-      <c r="F136" s="119"/>
-      <c r="G136" s="119"/>
-      <c r="H136" s="119"/>
-      <c r="I136" s="119"/>
-      <c r="J136" s="119"/>
-      <c r="K136" s="119"/>
-      <c r="L136" s="119"/>
-      <c r="M136" s="119"/>
-      <c r="N136" s="120" t="s">
+      <c r="E136" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" s="66"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="66"/>
+      <c r="J136" s="66"/>
+      <c r="K136" s="66"/>
+      <c r="L136" s="66"/>
+      <c r="M136" s="66"/>
+      <c r="N136" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="O136" s="119" t="s">
+      <c r="O136" s="108" t="s">
         <v>89</v>
       </c>
       <c r="P136" s="109" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="Q136" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R136" s="119" t="s">
+      <c r="R136" s="108" t="s">
         <v>89</v>
       </c>
       <c r="S136" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="137" spans="1:19" s="203" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="194" t="s">
+    <row r="137" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C137" s="189"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="F137" s="66"/>
+      <c r="G137" s="66"/>
+      <c r="H137" s="66"/>
+      <c r="I137" s="66"/>
+      <c r="J137" s="66"/>
+      <c r="K137" s="66"/>
+      <c r="L137" s="66"/>
+      <c r="M137" s="66"/>
+      <c r="N137" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="O137" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="P137" s="109" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q137" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R137" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S137" s="109" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" s="189"/>
+      <c r="D138" s="64"/>
+      <c r="E138" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" s="66"/>
+      <c r="G138" s="66"/>
+      <c r="H138" s="66"/>
+      <c r="I138" s="66"/>
+      <c r="J138" s="66"/>
+      <c r="K138" s="66"/>
+      <c r="L138" s="66"/>
+      <c r="M138" s="66"/>
+      <c r="N138" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="O138" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="P138" s="109" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q138" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R138" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S138" s="109" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+      <c r="A140" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B137" s="195" t="s">
+      <c r="B140" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="C137" s="196"/>
-      <c r="D137" s="197"/>
-      <c r="E137" s="198" t="s">
-        <v>260</v>
-      </c>
-      <c r="F137" s="199"/>
-      <c r="G137" s="199"/>
-      <c r="H137" s="199"/>
-      <c r="I137" s="199"/>
-      <c r="J137" s="199"/>
-      <c r="K137" s="199"/>
-      <c r="L137" s="199"/>
-      <c r="M137" s="199"/>
-      <c r="N137" s="200" t="s">
+      <c r="C140" s="82" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" s="90"/>
+      <c r="E140" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" s="82"/>
+      <c r="G140" s="82"/>
+      <c r="H140" s="82"/>
+      <c r="I140" s="82"/>
+      <c r="J140" s="82"/>
+      <c r="K140" s="82"/>
+      <c r="L140" s="82"/>
+      <c r="M140" s="82"/>
+      <c r="N140" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="O137" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="P137" s="201" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q137" s="202" t="s">
+      <c r="O140" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="P140" s="109" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q140" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R137" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="S137" s="201" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" s="203" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="194" t="s">
-        <v>46</v>
-      </c>
-      <c r="B138" s="204" t="s">
-        <v>147</v>
-      </c>
-      <c r="C138" s="196"/>
-      <c r="D138" s="197"/>
-      <c r="E138" s="198" t="s">
-        <v>261</v>
-      </c>
-      <c r="F138" s="199"/>
-      <c r="G138" s="199"/>
-      <c r="H138" s="199"/>
-      <c r="I138" s="199"/>
-      <c r="J138" s="199"/>
-      <c r="K138" s="199"/>
-      <c r="L138" s="199"/>
-      <c r="M138" s="199"/>
-      <c r="N138" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="O138" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="P138" s="201" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q138" s="202" t="s">
-        <v>120</v>
-      </c>
-      <c r="R138" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="S138" s="201" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" s="203" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="194" t="s">
-        <v>46</v>
-      </c>
-      <c r="B139" s="204" t="s">
-        <v>147</v>
-      </c>
-      <c r="C139" s="196"/>
-      <c r="D139" s="197"/>
-      <c r="E139" s="198" t="s">
-        <v>262</v>
-      </c>
-      <c r="F139" s="199"/>
-      <c r="G139" s="199"/>
-      <c r="H139" s="199"/>
-      <c r="I139" s="199"/>
-      <c r="J139" s="199"/>
-      <c r="K139" s="199"/>
-      <c r="L139" s="199"/>
-      <c r="M139" s="199"/>
-      <c r="N139" s="200" t="s">
-        <v>97</v>
-      </c>
-      <c r="O139" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="P139" s="201" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q139" s="202" t="s">
-        <v>120</v>
-      </c>
-      <c r="R139" s="199" t="s">
-        <v>89</v>
-      </c>
-      <c r="S139" s="201" t="s">
+      <c r="R140" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S140" s="109" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8050,12 +7977,12 @@
       <c r="B141" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="C141" s="82" t="s">
+      <c r="C141" s="90" t="s">
         <v>287</v>
       </c>
       <c r="D141" s="90"/>
       <c r="E141" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F141" s="82"/>
       <c r="G141" s="82"/>
@@ -8096,7 +8023,7 @@
       </c>
       <c r="D142" s="90"/>
       <c r="E142" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F142" s="82"/>
       <c r="G142" s="82"/>
@@ -8137,7 +8064,7 @@
       </c>
       <c r="D143" s="90"/>
       <c r="E143" s="21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F143" s="82"/>
       <c r="G143" s="82"/>
@@ -8178,7 +8105,7 @@
       </c>
       <c r="D144" s="90"/>
       <c r="E144" s="21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F144" s="82"/>
       <c r="G144" s="82"/>
@@ -8207,89 +8134,89 @@
         <v>356</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A145" s="65" t="s">
+    <row r="146" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B145" s="84" t="s">
+      <c r="B146" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="C145" s="90" t="s">
-        <v>287</v>
-      </c>
-      <c r="D145" s="90"/>
-      <c r="E145" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="F145" s="82"/>
-      <c r="G145" s="82"/>
-      <c r="H145" s="82"/>
-      <c r="I145" s="82"/>
-      <c r="J145" s="82"/>
-      <c r="K145" s="82"/>
-      <c r="L145" s="82"/>
-      <c r="M145" s="82"/>
-      <c r="N145" s="83" t="s">
+      <c r="C146" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D146" s="90"/>
+      <c r="E146" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F146" s="86"/>
+      <c r="G146" s="86"/>
+      <c r="H146" s="86"/>
+      <c r="I146" s="86"/>
+      <c r="J146" s="86"/>
+      <c r="K146" s="86"/>
+      <c r="L146" s="86"/>
+      <c r="M146" s="86"/>
+      <c r="N146" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="O145" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="P145" s="109" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q145" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="R145" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S145" s="109" t="s">
+      <c r="O146" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="P146" s="109" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q146" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="R146" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S146" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B147" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="C147" s="86" t="s">
-        <v>265</v>
-      </c>
-      <c r="D147" s="90"/>
-      <c r="E147" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="F147" s="86"/>
-      <c r="G147" s="86"/>
-      <c r="H147" s="86"/>
-      <c r="I147" s="86"/>
-      <c r="J147" s="86"/>
-      <c r="K147" s="86"/>
-      <c r="L147" s="86"/>
-      <c r="M147" s="86"/>
-      <c r="N147" s="87" t="s">
+    <row r="148" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C148" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="D148" s="95"/>
+      <c r="E148" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="F148" s="95"/>
+      <c r="G148" s="95"/>
+      <c r="H148" s="95"/>
+      <c r="I148" s="95"/>
+      <c r="J148" s="95"/>
+      <c r="K148" s="95"/>
+      <c r="L148" s="95"/>
+      <c r="M148" s="95"/>
+      <c r="N148" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="O147" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="P147" s="109" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q147" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="R147" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S147" s="109" t="s">
+      <c r="O148" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="P148" s="109" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q148" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="R148" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S148" s="109" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="65" t="s">
         <v>46</v>
       </c>
@@ -8297,11 +8224,11 @@
         <v>147</v>
       </c>
       <c r="C149" s="95" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D149" s="95"/>
       <c r="E149" s="21" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F149" s="95"/>
       <c r="G149" s="95"/>
@@ -8318,10 +8245,10 @@
         <v>89</v>
       </c>
       <c r="P149" s="109" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q149" s="23" t="s">
-        <v>275</v>
+        <v>120</v>
       </c>
       <c r="R149" s="108" t="s">
         <v>89</v>
@@ -8330,7 +8257,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A150" s="65" t="s">
         <v>46</v>
       </c>
@@ -8342,7 +8269,7 @@
       </c>
       <c r="D150" s="95"/>
       <c r="E150" s="21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F150" s="95"/>
       <c r="G150" s="95"/>
@@ -8359,7 +8286,7 @@
         <v>89</v>
       </c>
       <c r="P150" s="109" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q150" s="23" t="s">
         <v>120</v>
@@ -8375,35 +8302,35 @@
       <c r="A151" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B151" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C151" s="95" t="s">
-        <v>277</v>
-      </c>
-      <c r="D151" s="95"/>
+      <c r="B151" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C151" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="D151" s="90"/>
       <c r="E151" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="F151" s="95"/>
-      <c r="G151" s="95"/>
-      <c r="H151" s="95"/>
-      <c r="I151" s="95"/>
-      <c r="J151" s="95"/>
-      <c r="K151" s="95"/>
-      <c r="L151" s="95"/>
-      <c r="M151" s="95"/>
-      <c r="N151" s="97" t="s">
+        <v>276</v>
+      </c>
+      <c r="F151" s="90"/>
+      <c r="G151" s="90"/>
+      <c r="H151" s="90"/>
+      <c r="I151" s="90"/>
+      <c r="J151" s="90"/>
+      <c r="K151" s="90"/>
+      <c r="L151" s="90"/>
+      <c r="M151" s="90"/>
+      <c r="N151" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="O151" s="95" t="s">
+      <c r="O151" s="90" t="s">
         <v>89</v>
       </c>
       <c r="P151" s="109" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q151" s="23" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="R151" s="108" t="s">
         <v>89</v>
@@ -8420,11 +8347,11 @@
         <v>148</v>
       </c>
       <c r="C152" s="90" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D152" s="90"/>
       <c r="E152" s="21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F152" s="90"/>
       <c r="G152" s="90"/>
@@ -8465,7 +8392,7 @@
       </c>
       <c r="D153" s="90"/>
       <c r="E153" s="21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F153" s="90"/>
       <c r="G153" s="90"/>
@@ -8502,11 +8429,11 @@
         <v>148</v>
       </c>
       <c r="C154" s="90" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D154" s="90"/>
       <c r="E154" s="21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F154" s="90"/>
       <c r="G154" s="90"/>
@@ -8523,7 +8450,7 @@
         <v>89</v>
       </c>
       <c r="P154" s="109" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q154" s="23" t="s">
         <v>275</v>
@@ -8535,44 +8462,44 @@
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B155" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="C155" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="D155" s="90"/>
-      <c r="E155" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="F155" s="90"/>
-      <c r="G155" s="90"/>
-      <c r="H155" s="90"/>
-      <c r="I155" s="90"/>
-      <c r="J155" s="90"/>
-      <c r="K155" s="90"/>
-      <c r="L155" s="90"/>
-      <c r="M155" s="90"/>
-      <c r="N155" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="O155" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P155" s="109" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q155" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="R155" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S155" s="109" t="s">
+    <row r="156" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="B156" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C156" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="D156" s="95"/>
+      <c r="E156" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="F156" s="95"/>
+      <c r="G156" s="95"/>
+      <c r="H156" s="95"/>
+      <c r="I156" s="95"/>
+      <c r="J156" s="95"/>
+      <c r="K156" s="95"/>
+      <c r="L156" s="95"/>
+      <c r="M156" s="95"/>
+      <c r="N156" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="O156" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="P156" s="110" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q156" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="R156" s="108" t="s">
+        <v>89</v>
+      </c>
+      <c r="S156" s="109" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8584,11 +8511,11 @@
         <v>146</v>
       </c>
       <c r="C157" s="95" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="D157" s="95"/>
       <c r="E157" s="21" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F157" s="95"/>
       <c r="G157" s="95"/>
@@ -8605,7 +8532,7 @@
         <v>89</v>
       </c>
       <c r="P157" s="110" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q157" s="23" t="s">
         <v>120</v>
@@ -8617,44 +8544,42 @@
         <v>356</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="96" t="s">
+    <row r="159" spans="1:19" ht="101.25" x14ac:dyDescent="0.25">
+      <c r="A159" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B158" s="98" t="s">
+      <c r="B159" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="C158" s="95" t="s">
-        <v>349</v>
-      </c>
-      <c r="D158" s="95"/>
-      <c r="E158" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F158" s="95"/>
-      <c r="G158" s="95"/>
-      <c r="H158" s="95"/>
-      <c r="I158" s="95"/>
-      <c r="J158" s="95"/>
-      <c r="K158" s="95"/>
-      <c r="L158" s="95"/>
-      <c r="M158" s="95"/>
-      <c r="N158" s="97" t="s">
-        <v>251</v>
-      </c>
-      <c r="O158" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="P158" s="110" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q158" s="23" t="s">
+      <c r="C159" s="90"/>
+      <c r="D159" s="90"/>
+      <c r="E159" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="F159" s="90"/>
+      <c r="G159" s="90"/>
+      <c r="H159" s="90"/>
+      <c r="I159" s="90"/>
+      <c r="J159" s="90"/>
+      <c r="K159" s="90"/>
+      <c r="L159" s="90"/>
+      <c r="M159" s="90"/>
+      <c r="N159" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="O159" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="P159" s="109" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q159" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R158" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S158" s="109" t="s">
+      <c r="R159" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="S159" s="109" t="s">
         <v>356</v>
       </c>
     </row>
@@ -8668,7 +8593,7 @@
       <c r="C160" s="90"/>
       <c r="D160" s="90"/>
       <c r="E160" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F160" s="90"/>
       <c r="G160" s="90"/>
@@ -8697,12 +8622,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="123.75" x14ac:dyDescent="0.25">
       <c r="A161" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B161" s="93" t="s">
-        <v>146</v>
+        <v>46</v>
+      </c>
+      <c r="B161" s="33" t="s">
+        <v>147</v>
       </c>
       <c r="C161" s="90"/>
       <c r="D161" s="90"/>
@@ -8710,8 +8635,12 @@
         <v>283</v>
       </c>
       <c r="F161" s="90"/>
-      <c r="G161" s="90"/>
-      <c r="H161" s="90"/>
+      <c r="G161" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="H161" s="183" t="s">
+        <v>386</v>
+      </c>
       <c r="I161" s="90"/>
       <c r="J161" s="90"/>
       <c r="K161" s="90"/>
@@ -8736,25 +8665,23 @@
         <v>356</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="101.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="B162" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C162" s="90"/>
+    <row r="162" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B162" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C162" s="90" t="s">
+        <v>287</v>
+      </c>
       <c r="D162" s="90"/>
       <c r="E162" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F162" s="90"/>
-      <c r="G162" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="H162" s="125" t="s">
-        <v>386</v>
-      </c>
+      <c r="G162" s="90"/>
+      <c r="H162" s="90"/>
       <c r="I162" s="90"/>
       <c r="J162" s="90"/>
       <c r="K162" s="90"/>
@@ -8767,12 +8694,12 @@
         <v>89</v>
       </c>
       <c r="P162" s="109" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="Q162" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R162" s="90" t="s">
+      <c r="R162" s="108" t="s">
         <v>89</v>
       </c>
       <c r="S162" s="109" t="s">
@@ -8791,7 +8718,7 @@
       </c>
       <c r="D163" s="90"/>
       <c r="E163" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F163" s="90"/>
       <c r="G163" s="90"/>
@@ -8832,7 +8759,7 @@
       </c>
       <c r="D164" s="90"/>
       <c r="E164" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F164" s="90"/>
       <c r="G164" s="90"/>
@@ -8873,7 +8800,7 @@
       </c>
       <c r="D165" s="90"/>
       <c r="E165" s="21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F165" s="90"/>
       <c r="G165" s="90"/>
@@ -8914,7 +8841,7 @@
       </c>
       <c r="D166" s="90"/>
       <c r="E166" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F166" s="90"/>
       <c r="G166" s="90"/>
@@ -8955,7 +8882,7 @@
       </c>
       <c r="D167" s="90"/>
       <c r="E167" s="21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F167" s="90"/>
       <c r="G167" s="90"/>
@@ -8985,7 +8912,7 @@
       </c>
     </row>
     <row r="168" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="91" t="s">
+      <c r="A168" s="65" t="s">
         <v>45</v>
       </c>
       <c r="B168" s="93" t="s">
@@ -8996,7 +8923,7 @@
       </c>
       <c r="D168" s="90"/>
       <c r="E168" s="21" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F168" s="90"/>
       <c r="G168" s="90"/>
@@ -9037,7 +8964,7 @@
       </c>
       <c r="D169" s="90"/>
       <c r="E169" s="21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F169" s="90"/>
       <c r="G169" s="90"/>
@@ -9078,7 +9005,7 @@
       </c>
       <c r="D170" s="90"/>
       <c r="E170" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F170" s="90"/>
       <c r="G170" s="90"/>
@@ -9119,7 +9046,7 @@
       </c>
       <c r="D171" s="90"/>
       <c r="E171" s="21" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="F171" s="90"/>
       <c r="G171" s="90"/>
@@ -9160,7 +9087,7 @@
       </c>
       <c r="D172" s="90"/>
       <c r="E172" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F172" s="90"/>
       <c r="G172" s="90"/>
@@ -9201,7 +9128,7 @@
       </c>
       <c r="D173" s="90"/>
       <c r="E173" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F173" s="90"/>
       <c r="G173" s="90"/>
@@ -9230,7 +9157,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A174" s="65" t="s">
         <v>45</v>
       </c>
@@ -9238,11 +9165,11 @@
         <v>146</v>
       </c>
       <c r="C174" s="90" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D174" s="90"/>
       <c r="E174" s="21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F174" s="90"/>
       <c r="G174" s="90"/>
@@ -9259,7 +9186,7 @@
         <v>89</v>
       </c>
       <c r="P174" s="109" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q174" s="23" t="s">
         <v>120</v>
@@ -9283,7 +9210,7 @@
       </c>
       <c r="D175" s="90"/>
       <c r="E175" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F175" s="90"/>
       <c r="G175" s="90"/>
@@ -9324,7 +9251,7 @@
       </c>
       <c r="D176" s="90"/>
       <c r="E176" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F176" s="90"/>
       <c r="G176" s="90"/>
@@ -9346,7 +9273,7 @@
       <c r="Q176" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="R176" s="108" t="s">
+      <c r="R176" s="90" t="s">
         <v>89</v>
       </c>
       <c r="S176" s="109" t="s">
@@ -9365,7 +9292,7 @@
       </c>
       <c r="D177" s="90"/>
       <c r="E177" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F177" s="90"/>
       <c r="G177" s="90"/>
@@ -9406,7 +9333,7 @@
       </c>
       <c r="D178" s="90"/>
       <c r="E178" s="21" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F178" s="90"/>
       <c r="G178" s="90"/>
@@ -9447,7 +9374,7 @@
       </c>
       <c r="D179" s="90"/>
       <c r="E179" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F179" s="90"/>
       <c r="G179" s="90"/>
@@ -9488,7 +9415,7 @@
       </c>
       <c r="D180" s="90"/>
       <c r="E180" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F180" s="90"/>
       <c r="G180" s="90"/>
@@ -9517,49 +9444,154 @@
         <v>356</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B181" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="C181" s="90" t="s">
-        <v>294</v>
-      </c>
-      <c r="D181" s="90"/>
-      <c r="E181" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="F181" s="90"/>
-      <c r="G181" s="90"/>
-      <c r="H181" s="90"/>
-      <c r="I181" s="90"/>
-      <c r="J181" s="90"/>
-      <c r="K181" s="90"/>
-      <c r="L181" s="90"/>
-      <c r="M181" s="90"/>
-      <c r="N181" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="O181" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="P181" s="109" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q181" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="R181" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="S181" s="109" t="s">
-        <v>356</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="H35:H42"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="P85:P86"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="S89:S96"/>
+    <mergeCell ref="Q60:Q67"/>
+    <mergeCell ref="I62:I67"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="H68:H75"/>
+    <mergeCell ref="J68:J75"/>
+    <mergeCell ref="K68:K75"/>
+    <mergeCell ref="L68:L75"/>
+    <mergeCell ref="N68:N75"/>
+    <mergeCell ref="P68:P75"/>
+    <mergeCell ref="Q68:Q75"/>
+    <mergeCell ref="I70:I75"/>
+    <mergeCell ref="M68:M75"/>
+    <mergeCell ref="E60:E67"/>
+    <mergeCell ref="G60:G67"/>
+    <mergeCell ref="H60:H67"/>
+    <mergeCell ref="J60:J67"/>
+    <mergeCell ref="K60:K67"/>
+    <mergeCell ref="L60:L67"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="E35:E42"/>
+    <mergeCell ref="M35:M42"/>
+    <mergeCell ref="M43:M50"/>
+    <mergeCell ref="M60:M67"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="C13:C20"/>
+    <mergeCell ref="E13:E20"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="N35:N42"/>
+    <mergeCell ref="P35:P42"/>
+    <mergeCell ref="Q35:Q42"/>
+    <mergeCell ref="P43:P50"/>
+    <mergeCell ref="Q43:Q50"/>
+    <mergeCell ref="N60:N67"/>
+    <mergeCell ref="P60:P67"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="I15:I20"/>
+    <mergeCell ref="L43:L50"/>
+    <mergeCell ref="N43:N50"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="E43:E50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="H43:H50"/>
+    <mergeCell ref="J43:J50"/>
+    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="K43:K50"/>
+    <mergeCell ref="K35:K42"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="Q13:Q20"/>
+    <mergeCell ref="H5:H12"/>
+    <mergeCell ref="H13:H20"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="Q5:Q12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="M7:M12"/>
+    <mergeCell ref="L97:L104"/>
+    <mergeCell ref="N97:N104"/>
+    <mergeCell ref="P97:P104"/>
+    <mergeCell ref="Q97:Q104"/>
+    <mergeCell ref="I99:I104"/>
+    <mergeCell ref="H89:H96"/>
+    <mergeCell ref="J89:J96"/>
+    <mergeCell ref="K89:K96"/>
+    <mergeCell ref="L89:L96"/>
+    <mergeCell ref="N89:N96"/>
+    <mergeCell ref="I91:I96"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="E97:E104"/>
+    <mergeCell ref="G97:G104"/>
+    <mergeCell ref="H97:H104"/>
+    <mergeCell ref="J97:J104"/>
+    <mergeCell ref="K97:K104"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="C89:C96"/>
+    <mergeCell ref="E89:E96"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="G121:G124"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="J121:J124"/>
+    <mergeCell ref="K121:K124"/>
+    <mergeCell ref="L121:L124"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="I126:I129"/>
+    <mergeCell ref="J126:J129"/>
+    <mergeCell ref="K126:K129"/>
     <mergeCell ref="S121:S124"/>
     <mergeCell ref="S126:S129"/>
     <mergeCell ref="P116:P117"/>
@@ -9584,152 +9616,6 @@
     <mergeCell ref="G89:G96"/>
     <mergeCell ref="M97:M104"/>
     <mergeCell ref="Q89:Q96"/>
-    <mergeCell ref="L121:L124"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
-    <mergeCell ref="I126:I129"/>
-    <mergeCell ref="J126:J129"/>
-    <mergeCell ref="K126:K129"/>
-    <mergeCell ref="G97:G104"/>
-    <mergeCell ref="H97:H104"/>
-    <mergeCell ref="J97:J104"/>
-    <mergeCell ref="K97:K104"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="C89:C96"/>
-    <mergeCell ref="E89:E96"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="G121:G124"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="J121:J124"/>
-    <mergeCell ref="K121:K124"/>
-    <mergeCell ref="L97:L104"/>
-    <mergeCell ref="N97:N104"/>
-    <mergeCell ref="P97:P104"/>
-    <mergeCell ref="Q97:Q104"/>
-    <mergeCell ref="I99:I104"/>
-    <mergeCell ref="H89:H96"/>
-    <mergeCell ref="J89:J96"/>
-    <mergeCell ref="K89:K96"/>
-    <mergeCell ref="L89:L96"/>
-    <mergeCell ref="N89:N96"/>
-    <mergeCell ref="I91:I96"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="Q13:Q20"/>
-    <mergeCell ref="H5:H12"/>
-    <mergeCell ref="H13:H20"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="Q5:Q12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="N35:N42"/>
-    <mergeCell ref="P35:P42"/>
-    <mergeCell ref="Q35:Q42"/>
-    <mergeCell ref="P43:P50"/>
-    <mergeCell ref="Q43:Q50"/>
-    <mergeCell ref="N60:N67"/>
-    <mergeCell ref="P60:P67"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="I15:I20"/>
-    <mergeCell ref="L43:L50"/>
-    <mergeCell ref="N43:N50"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="E43:E50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="H43:H50"/>
-    <mergeCell ref="J43:J50"/>
-    <mergeCell ref="I45:I50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="K43:K50"/>
-    <mergeCell ref="K35:K42"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M60:M67"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="C13:C20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="C35:C42"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="E35:E42"/>
-    <mergeCell ref="A97:A104"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="C97:C104"/>
-    <mergeCell ref="E97:E104"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="H68:H75"/>
-    <mergeCell ref="J68:J75"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="L68:L75"/>
-    <mergeCell ref="I70:I75"/>
-    <mergeCell ref="G35:G42"/>
-    <mergeCell ref="H35:H42"/>
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="L35:L42"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="D60:D67"/>
-    <mergeCell ref="P85:P86"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="S89:S96"/>
-    <mergeCell ref="Q60:Q67"/>
-    <mergeCell ref="I62:I67"/>
-    <mergeCell ref="N68:N75"/>
-    <mergeCell ref="P68:P75"/>
-    <mergeCell ref="Q68:Q75"/>
-    <mergeCell ref="M68:M75"/>
-    <mergeCell ref="E60:E67"/>
-    <mergeCell ref="G60:G67"/>
-    <mergeCell ref="H60:H67"/>
-    <mergeCell ref="J60:J67"/>
-    <mergeCell ref="K60:K67"/>
-    <mergeCell ref="L60:L67"/>
-    <mergeCell ref="D35:D42"/>
-    <mergeCell ref="M35:M42"/>
-    <mergeCell ref="M43:M50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9832,29 +9718,29 @@
       <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="148" t="s">
+      <c r="C6" s="124"/>
+      <c r="D6" s="144" t="s">
         <v>249</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="149" t="s">
+      <c r="F6" s="133" t="s">
         <v>251</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="130" t="s">
+      <c r="H6" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="137" t="s">
         <v>120</v>
       </c>
       <c r="J6" s="20" t="s">
@@ -9862,155 +9748,155 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="144"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="148"/>
+      <c r="A7" s="140"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="144"/>
       <c r="E7" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="H7" s="130"/>
-      <c r="I7" s="139"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="153"/>
       <c r="J7" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="144"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="148"/>
+      <c r="A8" s="140"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="144"/>
       <c r="E8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="133"/>
       <c r="G8" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="139"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="153"/>
       <c r="J8" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="144"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="148"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="144"/>
       <c r="E9" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="149"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="130"/>
-      <c r="I9" s="139"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="153"/>
       <c r="J9" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="144"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="148"/>
+      <c r="A10" s="140"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="149"/>
+      <c r="F10" s="133"/>
       <c r="G10" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="139"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="153"/>
       <c r="J10" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="144"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="148"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="144"/>
       <c r="E11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="149"/>
+      <c r="F11" s="133"/>
       <c r="G11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="139"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="153"/>
       <c r="J11" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="144"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="148"/>
+      <c r="A12" s="140"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="144"/>
       <c r="E12" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="149"/>
+      <c r="F12" s="133"/>
       <c r="G12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="139"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="153"/>
       <c r="J12" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="144"/>
-      <c r="B13" s="147"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="148"/>
+      <c r="A13" s="140"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="144"/>
       <c r="E13" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="149"/>
+      <c r="F13" s="133"/>
       <c r="G13" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="130"/>
-      <c r="I13" s="140"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="154"/>
       <c r="J13" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="144" t="s">
+      <c r="A14" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="145" t="s">
+      <c r="B14" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="148" t="s">
+      <c r="C14" s="124"/>
+      <c r="D14" s="144" t="s">
         <v>255</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="F14" s="133" t="s">
         <v>251</v>
       </c>
       <c r="G14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="H14" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="138" t="s">
+      <c r="I14" s="137" t="s">
         <v>120</v>
       </c>
       <c r="J14" s="20" t="s">
@@ -10018,155 +9904,155 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="144"/>
-      <c r="B15" s="146"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="148"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="144"/>
       <c r="E15" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="149"/>
+      <c r="F15" s="133"/>
       <c r="G15" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="H15" s="130"/>
-      <c r="I15" s="139"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="153"/>
       <c r="J15" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="144"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="148"/>
+      <c r="A16" s="140"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="144"/>
       <c r="E16" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="149"/>
+      <c r="F16" s="133"/>
       <c r="G16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="130"/>
-      <c r="I16" s="139"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="153"/>
       <c r="J16" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="144"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="148"/>
+      <c r="A17" s="140"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="144"/>
       <c r="E17" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="149"/>
+      <c r="F17" s="133"/>
       <c r="G17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="130"/>
-      <c r="I17" s="139"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="153"/>
       <c r="J17" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="144"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="148"/>
+      <c r="A18" s="140"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="144"/>
       <c r="E18" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="149"/>
+      <c r="F18" s="133"/>
       <c r="G18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="130"/>
-      <c r="I18" s="139"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="153"/>
       <c r="J18" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="144"/>
-      <c r="B19" s="146"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="148"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="144"/>
       <c r="E19" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="149"/>
+      <c r="F19" s="133"/>
       <c r="G19" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="130"/>
-      <c r="I19" s="139"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="153"/>
       <c r="J19" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="144"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="148"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="144"/>
       <c r="E20" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F20" s="149"/>
+      <c r="F20" s="133"/>
       <c r="G20" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="130"/>
-      <c r="I20" s="139"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="153"/>
       <c r="J20" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="144"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="148"/>
+      <c r="A21" s="140"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="144"/>
       <c r="E21" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="149"/>
+      <c r="F21" s="133"/>
       <c r="G21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="130"/>
-      <c r="I21" s="140"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="154"/>
       <c r="J21" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="148" t="s">
+      <c r="C22" s="124"/>
+      <c r="D22" s="144" t="s">
         <v>256</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="149" t="s">
+      <c r="F22" s="133" t="s">
         <v>251</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="130" t="s">
+      <c r="H22" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="I22" s="138" t="s">
+      <c r="I22" s="137" t="s">
         <v>120</v>
       </c>
       <c r="J22" s="20" t="s">
@@ -10174,137 +10060,137 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="144"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="148"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="144"/>
       <c r="E23" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="149"/>
+      <c r="F23" s="133"/>
       <c r="G23" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="130"/>
-      <c r="I23" s="139"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="153"/>
       <c r="J23" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="144"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="148"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="144"/>
       <c r="E24" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="149"/>
+      <c r="F24" s="133"/>
       <c r="G24" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="130"/>
-      <c r="I24" s="139"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="153"/>
       <c r="J24" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="144"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="148"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="144"/>
       <c r="E25" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="149"/>
+      <c r="F25" s="133"/>
       <c r="G25" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="130"/>
-      <c r="I25" s="139"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="153"/>
       <c r="J25" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="144"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="148"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="144"/>
       <c r="E26" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="149"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="130"/>
-      <c r="I26" s="139"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="153"/>
       <c r="J26" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="144"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="148"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="144"/>
       <c r="E27" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="149"/>
+      <c r="F27" s="133"/>
       <c r="G27" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="130"/>
-      <c r="I27" s="139"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="153"/>
       <c r="J27" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="144"/>
-      <c r="B28" s="147"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="148"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="144"/>
       <c r="E28" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="149"/>
+      <c r="F28" s="133"/>
       <c r="G28" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="130"/>
-      <c r="I28" s="140"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="154"/>
       <c r="J28" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="148" t="s">
+      <c r="C29" s="124"/>
+      <c r="D29" s="144" t="s">
         <v>257</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="149" t="s">
+      <c r="F29" s="133" t="s">
         <v>251</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="130" t="s">
+      <c r="H29" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="I29" s="138" t="s">
+      <c r="I29" s="137" t="s">
         <v>120</v>
       </c>
       <c r="J29" s="20" t="s">
@@ -10312,120 +10198,122 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="144"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="148"/>
+      <c r="A30" s="140"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="144"/>
       <c r="E30" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="149"/>
+      <c r="F30" s="133"/>
       <c r="G30" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="130"/>
-      <c r="I30" s="139"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="153"/>
       <c r="J30" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="144"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="148"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="144"/>
       <c r="E31" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="149"/>
+      <c r="F31" s="133"/>
       <c r="G31" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="130"/>
-      <c r="I31" s="139"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="153"/>
       <c r="J31" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="144"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="148"/>
+      <c r="A32" s="140"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="144"/>
       <c r="E32" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="149"/>
+      <c r="F32" s="133"/>
       <c r="G32" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="130"/>
-      <c r="I32" s="139"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="153"/>
       <c r="J32" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="144"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="148"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="144"/>
       <c r="E33" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="149"/>
+      <c r="F33" s="133"/>
       <c r="G33" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="130"/>
-      <c r="I33" s="139"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="153"/>
       <c r="J33" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="144"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="148"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="144"/>
       <c r="E34" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="149"/>
+      <c r="F34" s="133"/>
       <c r="G34" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="130"/>
-      <c r="I34" s="139"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="153"/>
       <c r="J34" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="144"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="148"/>
+      <c r="A35" s="140"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="144"/>
       <c r="E35" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="149"/>
+      <c r="F35" s="133"/>
       <c r="G35" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="130"/>
-      <c r="I35" s="140"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="154"/>
       <c r="J35" s="20" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="F29:F35"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="F6:F13"/>
+    <mergeCell ref="H6:H13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="D6:D13"/>
     <mergeCell ref="H29:H35"/>
     <mergeCell ref="I29:I35"/>
     <mergeCell ref="A14:A21"/>
@@ -10442,13 +10330,11 @@
     <mergeCell ref="I14:I21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="B22:B28"/>
-    <mergeCell ref="F6:F13"/>
-    <mergeCell ref="H6:H13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="F29:F35"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="F22:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -13222,17 +13108,17 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="169" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="193"/>
-      <c r="G2" s="191" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="171"/>
+      <c r="G2" s="169" t="s">
         <v>370</v>
       </c>
-      <c r="H2" s="192"/>
-      <c r="I2" s="193"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="171"/>
     </row>
     <row r="3" spans="2:9" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="94" t="s">
@@ -13324,7 +13210,7 @@
       <c r="H7" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="172" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13344,7 +13230,7 @@
       <c r="H8" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="123" t="s">
+      <c r="I8" s="172" t="s">
         <v>367</v>
       </c>
     </row>
@@ -13359,7 +13245,7 @@
       <c r="H9" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="123" t="s">
+      <c r="I9" s="172" t="s">
         <v>367</v>
       </c>
     </row>
